--- a/static/saved_dataframes/tabelle_entita_e_relazionali/is_Ambito_riferimento_of.xlsx
+++ b/static/saved_dataframes/tabelle_entita_e_relazionali/is_Ambito_riferimento_of.xlsx
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4000002</v>
+        <v>4000001</v>
       </c>
       <c r="C3" t="n">
-        <v>3000002</v>
+        <v>3000003</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Chimica</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Processo chimico causato dall'inquinamento idrico e atmosferico, che determina una diminuzione del ph delle acque superficiali fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Sostanza inorganica composta di idrogeno e ossigeno, formula h2o, peso molecolare 18.016, punto di fusione 0 °c, punto di ebollizione 100 °c. La molecola dell'acqua è asimmetrica e costituisce quindi un dipolo elettrico (ossia possiede un polo positivo ed uno negativo, a somiglianza di una piccola elettrocalamita). Da questo fatto derivano la maggior parte delle singolari proprietà dell'acqua e, in particolare, il suo eccezionale potere solvente verso gran parte delle sostanze, e la sua elevatissima capacità termica, che consente alle grandi masse di acqua (mare, laghi) di condizionare il clima delle regioni costiere. Elemento essenziale per la vita, costituisce il principale componente del protoplasma cellulare e i due terzi del peso corporeo dell'uomo. È una risorsa limitata e "strategica" che può condizionare lo sviluppo socioeconomico di un territorio. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -438,7 +438,7 @@
         <v>4000001</v>
       </c>
       <c r="C4" t="n">
-        <v>3000003</v>
+        <v>3000006</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -447,7 +447,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sostanza inorganica composta di idrogeno e ossigeno, formula h2o, peso molecolare 18.016, punto di fusione 0 °c, punto di ebollizione 100 °c. La molecola dell'acqua è asimmetrica e costituisce quindi un dipolo elettrico (ossia possiede un polo positivo ed uno negativo, a somiglianza di una piccola elettrocalamita). Da questo fatto derivano la maggior parte delle singolari proprietà dell'acqua e, in particolare, il suo eccezionale potere solvente verso gran parte delle sostanze, e la sua elevatissima capacità termica, che consente alle grandi masse di acqua (mare, laghi) di condizionare il clima delle regioni costiere. Elemento essenziale per la vita, costituisce il principale componente del protoplasma cellulare e i due terzi del peso corporeo dell'uomo. È una risorsa limitata e "strategica" che può condizionare lo sviluppo socioeconomico di un territorio. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Impianto che, attraverso uno più processi di carattere meccanico, fisico, chimico e biologico, consente l'eliminazione di sostanze nocive dai liquidi. I trattamenti meccanici hanno la funzione di separare gran parte dei materiali in sospensione, mentre i trattamenti biologici operano la degradazione delle sostanze organiche ad opera di particolari microrganismi. Infine i trattamenti chimico-fisici consistono essenzialmente nell'insolubilizzazione e nella successiva separazione di sostanze disciolte. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -456,19 +456,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4000002</v>
+        <v>4000001</v>
       </c>
       <c r="C5" t="n">
-        <v>3000004</v>
+        <v>3000016</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Chimica</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>È un metodo, basato sull'utilizzo dell'energia solare, per il trattamento di acque luride di industrie agro - alimentari, che sfrutta il potere purificante e riciclante di ecosistemi acquatici aerati, costituiti da batteri, alghe, piante e animali microscopici, chiocciole, pesci, piante superiori. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Comporta l'adozione di tecniche di allevamento e coltivazione tradizionali, in cui è previsto l'uso di prodotti chimici di sintesi a scopo fertilizzante ed antiparassitario. Agricoltura di tipo intensivo e generalmente monoculturale. Fonte: http://www.naturanetwork.it/u_gloss.asp</t>
         </is>
       </c>
     </row>
@@ -477,19 +477,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4000005</v>
+        <v>4000001</v>
       </c>
       <c r="C6" t="n">
-        <v>3000005</v>
+        <v>3000022</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Idrologia</t>
+          <t>Chimica</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Acque di scarico derivanti da attività industriali o da scarichi domestici. Le acque reflue possono essere scaricate nell'ambiente esterno solo se rispecchiano la normativa sugli scarichi e, in caso contrario, solo dopo adeguato trattamento. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Materiale utilizzato nel passato per le proprietà isolanti, sia nelle coibentazioni, sia in materiali compositi (eternit per le coperture dei tetti). Le fibre e la polvere di amianto sono, però cancerogene. Tale materiale viene pertanto oggi rimosso e smaltito con particolari precauzioni. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
         <v>4000001</v>
       </c>
       <c r="C7" t="n">
-        <v>3000006</v>
+        <v>3000026</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -510,7 +510,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Impianto che, attraverso uno più processi di carattere meccanico, fisico, chimico e biologico, consente l'eliminazione di sostanze nocive dai liquidi. I trattamenti meccanici hanno la funzione di separare gran parte dei materiali in sospensione, mentre i trattamenti biologici operano la degradazione delle sostanze organiche ad opera di particolari microrganismi. Infine i trattamenti chimico-fisici consistono essenzialmente nell'insolubilizzazione e nella successiva separazione di sostanze disciolte. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>È un metodo di valutazione dei carichi ambientali correlati ad un prodotto, un processo o un'attività, consistente nell'identificazione e nella quantificazione dell'energia, dei materiali usati e dei rifiuti rilasciati nell'ambiente. La valutazione include l'intero ciclo di vita del prodotto, processo o attività, e comprende l'estrazione e il trattamento delle materie prime, la fabbricazione, il trasporto, la distribuzione, l'uso, il riuso, il riciclo e lo smaltimento finale. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -519,19 +519,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4000007</v>
+        <v>4000001</v>
       </c>
       <c r="C8" t="n">
-        <v>3000007</v>
+        <v>3000027</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Geologia e sismologia</t>
+          <t>Chimica</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Strumento di pianificazione che definisce gli obiettivi e le modalità di risanamento delle risorse idriche superficiali e sotterranee di un determinato territorio e che indica le necessità finanziarie per le operazioni di risanamento pianificate. Le problematiche connesse a tale risanamento,riferite ad una certa regione,assumono carattere di "sistema", in quanto sussistono complesse interrelazioni tra molteplici variabili sia di tipo strettamente idraulico, sia inerenti alle correlazioni tra approvvigionamento idrico, interventi di miglioramento e fattori economico territoriali. La risoluzione di tali problematiche deve rispondere all'obiettivo di identificare le quantità da destinare agli usi, con opportuna articolazione temporale, territoriale e settoriale e i conseguenti interventi da realizzare. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>È un metodo per progettare prodotti e soprattutto servizi in modo da impiegare la più bassa intensità possibile di materiali per unità di servizio desiderata. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -540,19 +540,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4000008</v>
+        <v>4000001</v>
       </c>
       <c r="C9" t="n">
-        <v>3000008</v>
+        <v>3000030</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Chimica</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>L'agenda 2000 è un programma d'azione adottato dalla commissione europea in data 15 luglio 1997 per rispondere alla richiesta del consiglio europeo di madrid (dicembre 1995) di presentare sia un documento d'insieme sull'allargamento e sulla riforma delle politiche comuni, sia un documento sul futuro contesto finanziario dell'unione a decorrere dal 31 dicembre 1999. Al documento è anche allegato il parere della commissione sulle candidature di adesione con riguardo all'insieme delle questioni che l'unione dovrà affrontare agli inizi del xxi secolo. L'agenda 2000 è articolata in tre sezioni: la prima affronta la questione del funzionamento dell'unione europea, in particolare la riforma della politica agricola comune e della politica di coesione economica e sociale. Contiene inoltre raccomandazioni per far fronte alla sfida dell'allargamento nelle migliori condizioni e propone di porre in essere un nuovo assetto finanziario per il periodo 2000-2006; la seconda propone una strategia di pre-adesione rafforzata, integrandovi due nuovi elementi: la partnership per l'adesione e la più ampia partecipazione dei paesi candidati a programmi comunitari ed ai meccanismi di applicazione dell'"acquis" comunitario; la terza prevede uno studio di impatto sugli effetti che l'allargamento avrà sulle politiche dell'unione europea. In queste tre aree la commissione ha presentato una ventina di proposte legislative nel 1998. Nel marzo 1999 il consiglio europeo di berlino è pervenuto ad un accordo politico globale su questo pacchetto di proposte, il che ha consentito la loro integrale adozione entro la fine dell'anno. Queste misure, la cui validità si estende dal 2000 al 2006, riguardano quattro settori strettamente connessi: riforma della politica agricola comune; riforma della politica strutturale; strumenti di pre-adesione; quadro finanziario. Fonte: http://europa.eu.int/scadplus/leg/it/cig/g4000.htm</t>
+          <t>Composto inorganico formato da un atomo di zolfo e due atomi di ossigeno. È un gas incolore, soffocante, velenoso, generalmente prodotto nella combustione dello zolfo contenuto in combustibili fossili. Nell'aria può ossidarsi ulteriormente, in combinazione con acqua, formando acido solforico, che provoca fenomeni di acidificazione (piogge acide) fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -561,19 +561,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4000008</v>
+        <v>4000001</v>
       </c>
       <c r="C10" t="n">
-        <v>3000009</v>
+        <v>3000062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Chimica</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>La realizzazione dell'agenda 21 passa attraverso il ruolo strategico, attivo e responsabile delle comunità locali, per quanto possono concretamente realizzare nel proprio ambito territoriale ed amministrativo (vedi carta di aalborg). In italia, sotto l'impulso del movimento nato in europa con la carta di aalborg (1994), dopo la conferenza di siviglia nel 1997, molti enti locali, che si fanno parte attiva in questo processo, hanno scelto di costituire il coordinamento italiano delle agende 21 locali (1998), per dotarsi di strumenti comuni per facilitare la realizzazione dello sviluppo sostenibile. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
+          <t>Energia derivante da processi di trasformazione di bioprodotti quali biomasse cerealicole, lignocellulosiche, deiezioni animali, eccedenze alimentari, rifiuti urbani cartacei, ecc.. È un'energia rinnovabile, non provoca aumenti di gas serra, in quanto l'anidride carbonica prodotta durante la combustione viene riassorbita dalla biomassa in fase di sviluppo e si utilizza nella forma di biofuels (carburanti come etanolo e metanolo), bioelettricità, calore, biogas. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -582,19 +582,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4000008</v>
+        <v>4000001</v>
       </c>
       <c r="C11" t="n">
-        <v>3000010</v>
+        <v>3000065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Chimica</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Piano d'azione delle nazioni unite per lo sviluppo sostenibile del xxi secolo, approvato da 173 governi alla conferenza su ambiente e sviluppo di rio de janeiro del 1992. L'agenda 21 attribuisce alle autorità locali (provincee e comuni) un ruolo fondamentale nella realizzazione dell'obiettivo dello sviluppo sostenibile.</t>
+          <t>Formazione di gas, per fermentazione anaerobica in presenza di microrganismi (batteri acidogeni, batteri acetogeni e metanobatteri) di rifiuti industriali e agricoli o fanghi dei trattamenti delle acque urbane, il metano contenuto nel biogas può essere utilizzato per la produzione di energia. . dal processo di biogassificazione si ricavano, oltre al biogas, buoni fertilizzanti naturali. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -603,19 +603,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4000008</v>
+        <v>4000001</v>
       </c>
       <c r="C12" t="n">
-        <v>3000011</v>
+        <v>3000072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Chimica</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Organismo di diritti pubblico che svolge funzioni di carattere tecnico scientifico legate alla protezione e alla promozione della qualità ambientale a supporto degli enti di governo centrale e locali in campo ambientale. Le agenzie ambientali si dividono in: agenzia nazionale (apat) agenzia regionale e provinciale (arpa/appa) fonte: arpalazio</t>
+          <t>Il biomonitoraggio consiste nel monitoraggio delle caratteristiche di un determinato ambiente attraverso parametri biologici; esso si basa sulle variazioni ecologiche indotte da un qualunque fattore (fisico, chimico e microbiologico) sull'ecosistema. Dette variazioni si manifestano tramite alterazioni nelle comunità degli organismi che vengono utilizzati quali indicatori. Il biomonitoraggio non è in grado di fornire informazioni precise riguardanti le cause delle variazioni indotte nell'ambiente oggetto di indagine. Per ottenere tali informazioni si abbinano al biomonitoraggio le analisi chimiche, chimico - fisiche e microbiologiche. Fonte: http://www.comune.dozza.bo.it/sellustra/mioweb2/glossario.htm</t>
         </is>
       </c>
     </row>
@@ -624,15 +624,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4000012</v>
+        <v>4000001</v>
       </c>
       <c r="C13" t="n">
-        <v>3000012</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>3000077</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Chimica</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>(ora vedi apat)</t>
+          <t>Utilizzazione integrata della biochimica, della microbiologia e delle scienze dell'ingegneria genetica per realizzare applicazioni tecnologiche partendo dalle proprietà dei microrganismi, delle colture cellulari o di altri agenti biologici. Si occupa cioè della produzione industriale di sostanze elaborate da organismi viventi batteri, lieviti, cellule vegetali e animali. Principali settori di applicazione delle biotecnologie: sanitario (produzione di proteine umane, di vaccini..); agro-alimentare (utilizzo di enzimi per migliorare la resa e la qualità dei prodotti alimentari, produzione di fertilizzanti, fitofarmaci...); chimico (chimica fine, processi catalitici, recupero di sottoprodotti della produzione di base...); ambientale (trattamento biologico dei rifiuti, biosensori per rilevare l'inquinamento...); energetico (utilizzo di materiale agricolo di scarto, dell'energia solare..). Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -641,19 +645,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4000008</v>
+        <v>4000001</v>
       </c>
       <c r="C14" t="n">
-        <v>3000013</v>
+        <v>3000078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Chimica</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>L’agenzia nazionale per la protezione dell’ambiente e per i servizi tecnici (apat) è una struttura pubblica, nata dal 2002 dall’anpa, a sua volta istituita con la legge del 21 gennaio 1994, n. 61, che è stata emanata in seguito al referendum del 18 aprile 1993, con il quale erano state sottratte alle usl le competenze in materia di controlli ambientali. Il nuovo ente deve svolgere attività di monitoraggio, informazione, promozione e proposizione sulle tematiche ambientali che avvicinano il modello italiano a quello di analoghe strutture già operanti in altri paesi. Tra i compiti essenziali dell’apat rientrano: il sostegno tecnico-scientifico alle autorità amministrative; la realizzazione di una rete di informazioni sullo stato dell’ambiente; l’attuazione di controlli ispettivi; la definizione di standard di qualità ambientale; l’impulso alla ricerca di tecnologie ecocompatibili; le funzioni di segreteria tecnica del comitato competente per l’attuazione del regolamento sull’audit ambientale (emas) e sull’ecolabel. La legge al tempo stesso dà mandato alle regioni e alle provincie autonome di istituire apposite agenzie regionali (arpa) e provinciali autonome (appa), alle quali sono affidati compiti di intervento operativo sul territorio.</t>
+          <t>Spazio o luogo occupato da una comunità di organismi viventi, che offre determinate caratteristiche fisico-chimico-climatiche. Fonte: http://www.arpa.veneto.it/servizi-online/glossari-ambientali/glossario-ambientaleglossario.htm</t>
         </is>
       </c>
     </row>
@@ -662,19 +666,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4000002</v>
+        <v>4000001</v>
       </c>
       <c r="C15" t="n">
-        <v>3000014</v>
+        <v>3000090</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Chimica</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Tecniche di coltivazione e di allevamento spesso non molto diverse da quelle dell'agricoltura convenzionale, finalizzate a mantenere la fertilità del terreno, la salute delle piante e aumentare la qualità dei prodotti ottenuti, attraverso pratiche talvolta più vicine alla magia che non alla razionalità (per es. Influenze cosmiche) fonte: http://www.naturanetwork.it/u_gloss.asp</t>
+          <t>Tassa sui combustibili (parzialmente legata all'anidride carbonica emessa nella combustione) finalizzata a fare ricadere i danni ambientali causati dalle emissioni di co2 sul soggetto che le emette fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -683,19 +687,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4000002</v>
+        <v>4000001</v>
       </c>
       <c r="C16" t="n">
-        <v>3000015</v>
+        <v>3000103</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Chimica</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Modalità di produzione basata sull'adozione di tecniche di coltivazione e di allevamento a basso impatto ambientale. I prodotti che si ottengono sono sani, ad alto valore nutrizionale ed esenti da contaminazione, provenienti da aziende polifunzionali ed ottenuti cercando di ridurre al minimo l'utilizzo di energie ausiliarie, se non quelle previste dal reg. Cee 2092/91 fonte: http://www.naturanetwork.it/u_gloss.asp</t>
+          <t>Impianto che trasforma l'energia termica di combustibili in energia elettrica attraverso la creazione di vapore o utilizzando i gas derivati dalla combustione. È generalmente costituita da uno o più generatori di vapore, da motori primi termoelettrici, da uno o più gruppi generatori e trasformatori principali, dal ciclo rigenerativo e da vari circuiti e servizi ausiliari fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -707,7 +711,7 @@
         <v>4000001</v>
       </c>
       <c r="C17" t="n">
-        <v>3000016</v>
+        <v>3000113</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -716,7 +720,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Comporta l'adozione di tecniche di allevamento e coltivazione tradizionali, in cui è previsto l'uso di prodotti chimici di sintesi a scopo fertilizzante ed antiparassitario. Agricoltura di tipo intensivo e generalmente monoculturale. Fonte: http://www.naturanetwork.it/u_gloss.asp</t>
+          <t>Complesso delle condizioni meteorologiche di una regione nel corso delle stagioni. Il clima dipende dalla latitudine, dall'altitudine, dalla posizione rispetto ai continenti e alle aree oceaniche. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -725,19 +729,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4000002</v>
+        <v>4000001</v>
       </c>
       <c r="C18" t="n">
-        <v>3000017</v>
+        <v>3000116</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Chimica</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Presuppone l'adozione di tecniche di coltivazione e allevamento che prevedono l'utilizzo di prodotti naturali ed un limitato impiego di prodotti chimici sintetici. Queste tecniche s'inseriscono tra l'agricoltura convenzionale e quella biologica. Per questo tipo di agricoltura non esiste una legislazione comunitaria o nazionale di riferimento, ma solo provvedimenti emessi da alcune regioni. Fonte: http://www.naturanetwork.it/u_gloss.asp</t>
+          <t>Associazione fondata nel 1968 da aurelio peccei per esaminare la situazione critica della condizione umana in un mondo di risorse finite, proponendo politiche alternative. I membri dell'associazione provenivano dal mondo della scienza, della ricerca, dell'industria e dell'ambiente. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -746,19 +750,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4000008</v>
+        <v>4000001</v>
       </c>
       <c r="C19" t="n">
-        <v>3000018</v>
+        <v>3000117</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Chimica</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Le origini della politica di sviluppo della comunità europea risalgono alla firma del trattato di roma nel 1957 e i paesi e i territori d'oltremare degli allora stati membri sono stati i suoi primi beneficiari. Tuttavia, è solo dall'entrata in vigore del trattato sull'unione europea che la politica di sviluppo ha ottenuto una base giuridica specifica (articoli da 177 a 181 del trattato ce). Con i successivi allargamenti dell'unione, la cooperazione è stata progressivamente estesa ad altri paesi, quali i paesi dell'africa, dei caraibi e del pacifico (acp), che vantavano una relazione particolarmente stretta e di lunga data con alcuni stati membri. L'accordo di cotonou, firmato nel giugno 2000, ha ulteriormente rafforzato questo partenariato, che si fonda in buona parte sulle diverse convenzioni di lomé, di cui la prima firmata nel 1975. Al di là di questi primi accordi, la politica di sviluppo comunitaria si rivolge anche ad altri paesi, quali quelli dell'america latina e dell'asia. L'obiettivo principale della politica di sviluppo della comunità europea consiste nell'eliminazione della povertà. Questa politica è attuata non solo attraverso accordi bilaterali e regionali ma anche mediante programmi specifici in alcuni settori, come la sanità, ad esempio attraverso la lotta contro le malattie trasmissibili, e l'istruzione. La politica di sviluppo prevede inoltre la cooperazione con istituzioni internazionali e la partecipazione della comunità e degli stati membri alle iniziative avviate a questo livello, come quella a favore dei paesi poveri fortemente indebitati. Attualmente, l'unione è il principale partner dei paesi in via di sviluppo. Insieme, la comunità europea e i suoi stati membri forniscono il 55% degli aiuti internazionali allo sviluppo. Fonte: http://europa.eu.int/scadplus/leg/it/cig/g4000.htm</t>
+          <t>Produzione combinata di energia elettrica e calore da destinare a processi industriali, al riscaldamento (teleriscaldamento) eccetera. La produzione prevalente può essere l'una o l'altra a seconda delle necessità fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -767,19 +771,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4000002</v>
+        <v>4000001</v>
       </c>
       <c r="C20" t="n">
-        <v>3000019</v>
+        <v>3000120</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Chimica</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Prodotti alimentari che hanno subito una manipolazione genetica. Hanno una composizione genetica che la natura non avrebbe potuto produrre, in quanto vengono trasferite le proprietà particolari di una specie ad un'altra. La presenza di ingredienti che sono stati geneticamente modificati contenuti eventualmente in un prodotto deve essere espressamente segnalata in etichetta. Fonte: http://www.naturanetwork.it/u_gloss.asp</t>
+          <t>Sostanze derivanti da resti vegetali e animali che hanno subito nel corso degli anni un processo di trasformazione per azione dell'energia solare. Il carbone, il petrolio, il metano e i vari prodotto derivati dal petrolio, ad esempio gasolio, benzine gpl, cherosene, sono combustibili fossili fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -788,19 +792,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4000003</v>
+        <v>4000001</v>
       </c>
       <c r="C21" t="n">
-        <v>3000020</v>
+        <v>3000150</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Biologia</t>
+          <t>Chimica</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Dal latino "ambiens" ciò che sta attorno. Indica l'insieme delle condizioni fisiche (temperatura, pressione, ecc.), chimiche (concentrazioni di sali, ecc.) e biologiche in cui si svolge la vita. L'ambiente è un sistema aperto, capace di autoregolarsi e di mantenere un equilibrio dinamico, all'interno del quale si verificano scambi di energia e di informazioni. Esso include elementi non viventi (acqua, aria, minerali, energia) o "abiotici" ed elementi viventi o "biotici" tra i quali si distinguono organismi produttori (vegetali), consumatori (animali) e decompositori (funghi e batteri).contesto nel quale l'organizzazione opera, comprendente l'aria, l'acqua, il terreno, le risorse naturali, la flora, la fauna, gli esseri umani e le loro interrelazioni. Il contesto si estende dall'interno di un'organizzazione al sistema globale (uni en iso 14001:1996).nel momento in cui si cerca di darne una definizione si entra in un altro ordine di idee e al posto dell'ambiente onnicomprensivo si presentano delle fattispecie. Di conseguenza ciò che ci sta intorno è caratterizzato più dall'aggettivo che dal sostantivo (ambiente ecologico, naturale, sociale, politico, istituzionale, relazionale, affettivo). Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Perdita dei caratteri originari delle strutture, degli elementi e delle relazioni fra le componenti dell'ecosistema, con conseguente impoverimento del flusso energetico e degli scambi materiali esistenti. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -809,19 +813,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4000002</v>
+        <v>4000001</v>
       </c>
       <c r="C22" t="n">
-        <v>3000021</v>
+        <v>3000151</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Chimica</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Tutela dell'insieme di misure di diritto penale e amministrativo tendenti a proteggere l'ambiente naturale (aria, terra, acque, bellezze naturali e lo stesso spazio interplanetario) da ogni inquinamento o supersfruttamento. A partire dalla seconda metà degli anni sessanta, si sono espressi crescenti timori per il futuro dell'ambiente, minacciato dalle attività umane, sempre più invadenti e distruttive, a livello sia locale, sia globale. Le preoccupazioni per la salvaguardia dell'ambiente locale (urbano e rurale) hanno condotto all'elaborazione di apposite leggi: agricoltura, industria, produzione di energia, trasporti, costruzione di nuovi insediamenti sono attività soggette a valutazione e a normative di contenimento dell'impatto ambientale. Per tenere sotto controllo le alterazioni prodotte sull'ambiente globale (fino a modificare la composizione dell'atmosfera o la temperatura media sulla terra) sono stati raggiunti accordi internazionali. Nel corso di una serie di conferenze svoltesi sotto l'egida delle nazioni unite, iniziate nel 1972 a stoccolma e culminate nel vertice mondiale su ambiente e sviluppo tenutosi a rio de janeiro nel 1992 (unced e agenda 21), sono state adottate convenzioni internazionali per salvaguardare il clima e la diversità biologica. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>È un orientamento dell'economia che prevede di produrre la stessa "unità di servizio" con un quantitativo minore di materie e di materiali per produrre la stessa "unità di servizio",come previsto dagli aderenti alla dichiarazione di carnoules (club del fattore 10) fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -833,7 +837,7 @@
         <v>4000001</v>
       </c>
       <c r="C23" t="n">
-        <v>3000022</v>
+        <v>3000171</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -842,7 +846,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Materiale utilizzato nel passato per le proprietà isolanti, sia nelle coibentazioni, sia in materiali compositi (eternit per le coperture dei tetti). Le fibre e la polvere di amianto sono, però cancerogene. Tale materiale viene pertanto oggi rimosso e smaltito con particolari precauzioni. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Area di ricerca che, attraverso l'analogia tra funzionamento dell'ecosistema e del sistema industriale, estende a quest'ultimo i principi cardine dell'ecologia. La nascita dell'ecologia industriale si deve all'emergere di una strategia specifica per ridurre gli impatti antropici sulle risorse naturali prendendo a modello i fenomeni di riciclizzazione della materia presenti negli ecosistemi. Per affrontare i problemi ambientali connessi alla produzione industriale occorre considerare il sistema industriale come un sistema interconnesso di produzione e consumo,esaminando come questo genera scorie e inquinanti che danneggiano l'ambiente. Si tratta in particolare di esaminare se esista qualche modo per porre in interazione reciproca processi industriali differenti che producono rifiuti e, in particolar modo, rifiuti pericolosi. Mentre gli approcci tradizionali al management ambientale sono incentrati sui processi produttivi o sui siti industriali, l'ecologia industriale utilizza un approccio sistemico; potrebbe, infatti, non essere opportuno minimizzare i rifiuti di una particolare fabbrica o industria, ma si dovrebbe agire per minimizzare i rifiuti dell'attività industriale nel suo complesso. L'obiettivo dell'ecologia industriale è quello di modificare l'attività umana per ridurre le caratteristiche dissipative; a tal fine sarà il concetto stesso di "scarto" ad essere considerato in una visione sistemica fino alla sua riconsiderazione in qualità di prodotto intermedio. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -851,19 +855,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4000002</v>
+        <v>4000001</v>
       </c>
       <c r="C24" t="n">
-        <v>3000023</v>
+        <v>3000174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Chimica</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Il regolamento cee n. 1836/93 (emas) definisce l'analisi ambientale come un'esauriente analisi iniziale dei problemi ambientali, degli effetti e dell'efficienza ambientali, relative alle attività svolte in un sito". La norma internazionale iso 14001 del 1996 definisce l'analisi ambientale uno studio per "permettere di identificare gli aspetti ambientali delle attività dell'organizzazione in modo da determinare quali di loro hanno o possono avere impatti ambientali significativi" o implicare responsabilità. Fonte: http://ecozero.liguriainrete.it/ecozero/ee1401.htm</t>
+          <t>Unità che include tutti gli organismi che vivono insieme in una data area, interagenti con l'ambiente fisico, in modo tale che un flusso di energia porta a una ben definita struttura biotica e ad una ciclizzazione dei materiali tra viventi e non viventi all'interno del sistema. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -872,19 +876,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4000008</v>
+        <v>4000001</v>
       </c>
       <c r="C25" t="n">
-        <v>3000024</v>
+        <v>3000178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Chimica</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>È il primo passo per la valutazione, il controllo e il miglioramento delle performance ambientali di una organizzazione ed è uno strumento di analisi che consente di identificare i fattori di impatto associati alle attività produttive e/o di servizio ed orientare la conseguente scelta di strumenti di valutazione più approfonditi.</t>
+          <t>Processo educativo orientato ad approfondire le conoscenze delle interazioni uomo-ambiente, utilizzando una prospettiva interdisciplinare ed un approccio di problematizzazione e ricerca di soluzione degli aspetti rilevanti e critici che derivano da tali interazioni. Concerne il progresso delle conoscenze e delle azioni miranti ad un'integrazione sempre più adeguata dei soggetti e dei gruppi sociali al contesto ambientale ,preoccupandosi della salvaguardia e dell'uso delle risorse. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -893,19 +897,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4000008</v>
+        <v>4000001</v>
       </c>
       <c r="C26" t="n">
-        <v>3000025</v>
+        <v>3000179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Chimica</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Tra i diversi metodi di analisi economico-finanziaria utilizzati per la valutazione di investimenti, l'analisi costi-benefici costituisce la tecnica più diffusa per l'esame di fattibilità di investimenti pubblici in progetti ed opere di intervento sul territorio la cui realizzazione implica rilevanti ricadute per il sistema da questo interessato. Scopo dell'acb è di individuare fra più alternative progettuali la proposta migliore o di verificare, in caso di alternativa unica, che i costo prevedibili del progetto siano complessivamente inferiori ai benefici, in modo da migliorare, con la realizzazione del progetto, il livello di benessere generale del contesto socio-economico su cui esso influisce.rispetto alle normali tecniche di valutazione di fattibilità usate per investimenti di natura privata, l'acb deve basare il proprio giudizio di fattibilità degli investimenti in opere pubbliche non solo su criteri di tipo contabile-finanziario, ma anche su criteri di economicità o convenienza sociale, cioè sull'accrescimento di benessere globale della collettività apportato dalla realizzazione dell'opera, calcolato attraverso l'identificazione, la valutazione e la comparazione del complesso dei costi e dei benefici sociali legati all'opera sottoposta ad esame. I maggiori problemi legati all'acb sono gli stessi che caratterizzano la definizione del valore monetario di beni intangibili o incommensurabili, come quelli ambientali. La divergenza tra valore d'uso e valore di mercato per questi beni fa sì che il loro prezzo di mercato (non sempre esistente) non rispecchi il loro reale valore sociale o di uso. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Conseguenze sull'ambiente derivanti dalla realizzazione di un'opera (ad esempio stabilimento industriale, ferrovie ecc..), registrabili a distanza di poco (settimane, mesi) o molto tempo (anni). Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -917,7 +921,7 @@
         <v>4000001</v>
       </c>
       <c r="C27" t="n">
-        <v>3000026</v>
+        <v>3000182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -926,7 +930,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>È un metodo di valutazione dei carichi ambientali correlati ad un prodotto, un processo o un'attività, consistente nell'identificazione e nella quantificazione dell'energia, dei materiali usati e dei rifiuti rilasciati nell'ambiente. La valutazione include l'intero ciclo di vita del prodotto, processo o attività, e comprende l'estrazione e il trattamento delle materie prime, la fabbricazione, il trasporto, la distribuzione, l'uso, il riuso, il riciclo e lo smaltimento finale. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Proprietà fisica di alcuni materiali semiconduttori (ad esempio il silicio, molto diffuso in natura) che, opportunamente trattati ed interfacciati, sono in grado di generare direttamente elettricità quando sono colpiti dalla radiazione solare. Ai fini industriali l'effetto fv viene sfruttato per mezzo di dispositivi detti celle fotovoltaiche fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -938,7 +942,7 @@
         <v>4000001</v>
       </c>
       <c r="C28" t="n">
-        <v>3000027</v>
+        <v>3000183</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -947,7 +951,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>È un metodo per progettare prodotti e soprattutto servizi in modo da impiegare la più bassa intensità possibile di materiali per unità di servizio desiderata. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Fenomeno fisico che provoca il riscaldamento all'interno delle serre, dovuto al fatto che il vetro (o i materiali plastici trasparenti) lascia entrare la luce visibile (radiazione solare ad onde corte) che colpisce il terreno, il quale riemette poi parte dell'energia ricevuta come radiazione infrarossa, che il vetro non lascia passare. Per similitudine è anche detto "effetto serra" il fenomeno di riscaldamento del pianeta dovuto al fatto che la superficie terrestre riemette verso lo spazio, sotto forma di radiazione infrarossa, parte del flusso di energia ricevuto dal sole; la radiazione infrarossa viene parzialmente assorbita da alcuni gas presenti nell'atmosfera (gas-serra) e da questi irradiata nuovamente verso la terra. L'effetto serra è un fenomeno naturale (ad esempio viene causato anche dal vapore acqueo e dall'ozono) che ritarda la dispersione di energia del pianeta instaurando una temperatura media (circa 15°c) ben maggiore di quella che si avrebbe in assenza di atmosfera (circa -18°c). L'attività umana sembra stia provocando una intensificazione del fenomeno a causa dell'aumento delle emissioni di gas-serra, con conseguente innalzamento della loro concentrazione in atmosfera; tuttavia, permangono incertezze sull'entità di tali effetti e sulla loro configurazione geografica e stagionale fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -956,19 +960,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4000008</v>
+        <v>4000001</v>
       </c>
       <c r="C29" t="n">
-        <v>3000028</v>
+        <v>3000189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Chimica</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>L'analisi multicriteriale è un metodo di valutazione non monetaria generalmente utilizzato per esaminare la convenienza di un progetto di investimento sul territorio, caratterizzato da un rilevante impatto di tipo sociale ed economico nel contesto in cui viene realizzato. Questo metodo di analisi, unitamente all'analisi costi benefici, trova applicazione nell'ambito dell'attività di pianificazione territoriale, processo complesso che fa riferimento ad una pluralità di sotto-sistemi caratterizzati da un rapporto di reciprocità e d'interazione. La particolarità dell'analisi multicriteriale consiste nella formulazione del giudizio di convenienza in funzione di più criteri di riferimento, esaminati in maniera autonoma e interattiva. Si può applicare in alternativa all'acb, che esprime il giudizio di convenienza in funzione di un solo criterio. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Scarico di qualsiasi sostanza solida, liquida o gassosa introdotta nell'ecosistema, che può produrre direttamente o indirettamente un impatto sull'ambiente. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -977,19 +981,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4000008</v>
+        <v>4000001</v>
       </c>
       <c r="C30" t="n">
-        <v>3000029</v>
+        <v>3000191</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Chimica</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>L'analisi s.w.o.t., ci permette di cogliere: * strengths, punti di forza * weaknesses, punti di debolezza * opportunities, opportunità, * threats, minacce e vincoli di qualsiasi progetto, piano, programma, iniziativa, impresa vogliamo elaborare, migliorare, sviluppare e valutare fonte: http://www.provincia.arezzo.it/imprendere21/glossario/glo-swot.xml.html</t>
+          <t>Grandezza fisica che conferisce ad un sistema la capacità di compiere lavoro. L'energia è essenziale per lo svolgimento di qualsiasi attività e la disponibilità di fonti di energia affidabili ed economiche è alla base dell'attuale modello di sviluppo delle società industrializzate. Si distinguono due forme fondamentali di energia: potenziale e cinetica. L'energia potenziale dipende dalla configurazione delle componenti di un sistema e dal loro stato fisico e chimico: per esempio un blocco di marmo sollevato in aria possiede una energia potenziale pari al prodotto della sua massa per l'accelerazione di gravità (9,81 m/s2) per l'altezza rispetto al suolo. È invece detta energia cinetica quella che un sistema possiede a causa del movimento delle diverse parti che lo compongono. Abitualmente si usano nomi diversi per indicare la forma in cui l'energia si presenta in certi contesti: si parla quindi di energia meccanica, elettrica, termica, chimica, nucleare eccetera fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1005,7 @@
         <v>4000001</v>
       </c>
       <c r="C31" t="n">
-        <v>3000030</v>
+        <v>3000192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1010,7 +1014,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Composto inorganico formato da un atomo di zolfo e due atomi di ossigeno. È un gas incolore, soffocante, velenoso, generalmente prodotto nella combustione dello zolfo contenuto in combustibili fossili. Nell'aria può ossidarsi ulteriormente, in combinazione con acqua, formando acido solforico, che provoca fenomeni di acidificazione (piogge acide) fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>(Nella Politica Europea) la politica energetica dell'unione europea mira a garantire un approvvigionamento sicuro, economico e senza rischi per la salute dei cittadini e l'ambiente. Originariamente i trattati istitutivi delle comunità europee non prevedevano una politica comunitaria dell'energia. Gli inizi della costruzione dell'unione europea hanno visto la creazione di quadri istituzionali per il carbon fossile e l'energia atomica: nel 1951 la comunità europea del carbone e dell'acciaio (ceca) il cui trattato è giunto a scadenza il 31 dicembre 2002; nel 1957 la comunità europea dell'energia atomica (euratom). I trattati successivi non hanno previsto una base giuridica specifica per la politica comunitaria dell'energia i cui fondamenti restano legati al trattato euratom e a qualche disposizione contenuta nei capitoli "mercato interno" e "ambiente". Nel contesto energetico attuale, l'unione europea deve fare fronte a numerose sfide: lo sviluppo delle energie rinnovabili, la liberalizzazione del mercato del gas e dell'elettricità, la limitazione della dipendenza energetica dell'unione europea e la garanzia della sicurezza nucleare. Di fronte a queste nuove sfide energetiche, l'unione europea ha preso misure per garantire la sicurezza dell'approvvigionamento in una situazione di dipendenza dalle importazioni di petrolio da regioni politicamente instabili, ridefinire le priorità in materia di energia nucleare tenendo conto in particolare dei rischi di incidenti e dello smaltimento dei residui nonché sostenere lo sviluppo sostenibile. Con il nuovo programma di azione "energia intelligente per l'europa" la commissione propone inoltre di rafforzare il sostegno europeo alla promozione delle energie rinnovabili (altener) e dell'efficienza energetica (save), per riorientare l'azione internazionale verso queste due priorità (coopener fonte: http://europa.eu.int/scadplus/leg/it/cig/g4000.htm</t>
         </is>
       </c>
     </row>
@@ -1019,19 +1023,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4000002</v>
+        <v>4000001</v>
       </c>
       <c r="C32" t="n">
-        <v>3000031</v>
+        <v>3000193</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Chimica</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Colonizzazione da parte dell'uomo degli ambienti naturali, con conseguente modifica e alterazione degli stessi. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Energia prodotta senza attingere alle risorse naturali fossili (petrolio, gas, carbone), e senza utilizzazione del nucleare. All'energia alternativa appartiene per esempio: l'energia eolica, prodotta dal vento; l'energia solare, originata dal sole (termica e fotovoltaica). Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htm</t>
         </is>
       </c>
     </row>
@@ -1040,19 +1044,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4000002</v>
+        <v>4000001</v>
       </c>
       <c r="C33" t="n">
-        <v>3000032</v>
+        <v>3000204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Chimica</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Un quadro di riferimento per considerare la città come un ecosistema e capire i problemi della sostenibilità urbana, adottando soluzioni per risolverli, basate su concetti ecologici. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
+          <t>La norma iso 14031 ha codificato gli indicatori epi, che comprendono a loro volta gli indicatori di prestazione operativi (opi, operational performance indicators), che forniscono informazioni sulle prestazioni ambientali delle attività aziendali, e gli indicatori di prestazione gestionali (mpi management performance indicators), che forniscono invece informazioni sugli sforzi gestionali per tenere sotto controllo e minimizzare le prestazioni ambientali aziendali. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -1061,19 +1065,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4000008</v>
+        <v>4000001</v>
       </c>
       <c r="C34" t="n">
-        <v>3000033</v>
+        <v>3000212</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Chimica</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>L'approccio integrato è un processo volto a combinare, interpretare e trasferire conoscenza da diversi ambiti scientifici allo scopo di affrontare il problema ambientale evidenziandone l'intera catena causa-effetto. Il suo principale punto di forza è la multidisciplinarietà che permette di definire l'oggetto d'indagine in modo ampio e preciso e - compatibilmente con la conoscenza disponibile- di ridurre il grado di incertezza o comunque di incorporarlo nell'analisi. Un altro dei maggiori obiettivi dell'ai è quello di migliorare le relazioni tra ambiente scientifico e politico. Ciò fornendo risultati più affidabili, trasparenti e precisi e coinvolgendo nel processo decisionale della definizione delle diverse politiche ricercatori, operatori politici ed i gruppi di portatori dei principali interessi. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Metodologia partecipativa specifica messa a punto nell'ambito di un progetto finanziato dall'unione europea, attraverso essa si persegue: - la crescita della consapevolezza dei problemi ambientali a livello urbano. - la discussione su ciò che ostacola una sviluppo sostenibile - l'identificazione collettiva delle possibili soluzioni e dei possibili scenari futuri per la propria realtà locale. Fonte: arpalazio</t>
         </is>
       </c>
     </row>
@@ -1082,19 +1086,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4000002</v>
+        <v>4000001</v>
       </c>
       <c r="C35" t="n">
-        <v>3000034</v>
+        <v>3000218</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Chimica</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Aree dotate di particolari caratteri ambientali, di cui lo stato o gli altri organi che hanno poteri di gestione del territorio garantiscono la salvaguardia grazie a specifici vincoli legislativi. Tali sono i parchi nazionali e regionali, le foreste demaniali, le riserve integrali, le oasi faunistiche. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Fattore materiale (prodotti, residui, etc.) e immateriale (energia, agenti fisici quale rumore e vibrazioni o altro) che può causare, per la sua quantità e qualità, effetti sull'ambiente. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -1103,19 +1107,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4000035</v>
+        <v>4000001</v>
       </c>
       <c r="C36" t="n">
-        <v>3000035</v>
+        <v>3000220</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Climatologia</t>
+          <t>Chimica</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Si possono definire "aree sensibili"' quelle zone che per vari motivi strutturali o funzionali hanno scarsa possibilità di subire senza danni irreversibili ampie variazioni dei parametri ambientali che ne regolano il funzionamento; esse hanno bassa resistenza e resilienza. Sono aree particolarmente sensibili ai cambiamenti climatici la zona artica e antartica, ed è infatti per questo che gran parte delle ricerche sul clima e su i l'inquinamento globale dei pianeta terra si svolgono in tali zone. Ma sono aree sensibili, soprattutto ai cambiamenti climatici, anche quelle di alta montagna o quelle di macchia mediterranea che possono essere soggette alla copertura di ghiacciai o alla desertificazione, o ancora quelle lagunari e le isole che possono subire notevoli influenze in caso di innalzamento del livello del mare per scioglimento dei ghiacci. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Gli elementi che determinano una pressione sull’ambiente e che sono rappresentati, in diverso modo, da attività antropiche quali il turismo, l'attività industriale, l'agricoltura, l'allevamento, il trasporto ecc.</t>
         </is>
       </c>
     </row>
@@ -1124,19 +1128,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4000002</v>
+        <v>4000001</v>
       </c>
       <c r="C37" t="n">
-        <v>3000036</v>
+        <v>3000222</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Chimica</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Per livello di qualità dell'aria si intende la concentrazione di uno o più inquinanti rilevato nell'aria. Tali valori, confrontati con opportuni standard fissati dalla normativa, permettono di stabilire il grado di inquinamento atmosferico presente. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>È l'effetto di iterazione, continuità e connessione che permette l'autoregolazione di un sistema. Costituisce il flusso di comunicazione che qualifica un sistema tramite fluidità di relazioni tra le sue componenti. Il termine feedback è, quindi, usato anche per indicare l'informazione di ritorno rispetto ad una iniziativa, una esperienza, che contiene il pensiero, il giudizio di utenti e/o di persone/cittadini coinvolti. Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
         </is>
       </c>
     </row>
@@ -1145,19 +1149,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4000002</v>
+        <v>4000001</v>
       </c>
       <c r="C38" t="n">
-        <v>3000037</v>
+        <v>3000225</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Chimica</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>(Nel Sistema Di Gestione Ambientale) elemento delle attività, di prodotti o dei servizi di una organizzazione che può interagire con l’ambiente. Il regolamento emas annovera tra gli aspetti ambientali diretti quelli che l'organizzazione ha «sotto il suo controllo gestionale»; sono aspetti indiretti quelli su cui «essa può non avere un controllo gestionale totale». (all. Vi, regolamento cee 761/01). Nota: un aspetto ambientale significativo è un aspetto ambientale che ha un impatto ambientale significativo.</t>
+          <t>Sempre di più si sta diffondendo una nuova cultura che mira all'investimento con caratteristiche etiche, dove l'investitore mira non solo alla speculazione ma punta su attività che rispondano a certi requisiti di responsabilità sociale ed ambientale. L'investimento etico consiste nella selezione e nella gestione degli investimenti (azioni, obbligazioni, prestiti) condizionata da criteri etici e di natura sociale, concetto racchiuso nell'espressione socially responsabile investment usata negli stati uniti, o ethical investment, espressione usata in gran bretagna. L'investitore etico è invece colui che non è unicamente interessato al rendimento delle proprie azioni, ma vuole conoscere le ragioni di fondo che realizzano questa redditività, le caratteristiche dei beni prodotti, la localizzazione dell'azienda e verificare come vengano condotti gli affari. Fonte: http://www.finanza-etica.it/</t>
         </is>
       </c>
     </row>
@@ -1166,19 +1170,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4000008</v>
+        <v>4000001</v>
       </c>
       <c r="C39" t="n">
-        <v>3000038</v>
+        <v>3000237</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Chimica</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>La società può essere suddivisa in più entità che possono essere formate da individui , gruppi di individui, uniti da un interesse comune, aziende private o gruppi di aziende private (multinazionali) o da enti amministrativi pubblici. Gli attori, nell' agenda 21 sono tutti i soggetti coinvolti nel processo d'attuazione dell'agenda 21, che possono a titolo individuale (singolo cittadino) o collettivo (soggetti istituzionali, rappresentanti di vasti settori economici, i sindacati, associazioni, comitati, ecc.) agire dei cambiamenti sui propri comportamenti o facilitare e/o coinvolgere quelli di altri soggetti (p.e. Modificare le varie tipologie di servizi, le politiche ambientali, economiche, ecc.) fonte: http://www.kalao.org/glossario.htm e http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
+          <t>Scambio d'idee ed esperienze in materia di sviluppo sostenibile, gestione e attuazione di politiche e progetti tra soggetti diversi (pubblici e privati, singoli e collettivi...), a livello formale ed informale. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htm</t>
         </is>
       </c>
     </row>
@@ -1187,19 +1191,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4000007</v>
+        <v>4000001</v>
       </c>
       <c r="C40" t="n">
-        <v>3000039</v>
+        <v>3000249</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Geologia e sismologia</t>
+          <t>Chimica</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Si parla di attori locali nell'ambito della promozione dello sviluppo locale (comunitario, municipale, intermunicipale). Sono i governi locali (municipi e/o associazioni di municipi), la societá civile organizzata (comitati di cittadini, organizzazioni sociali, ong, associazioni di produttori, ecc.) e rappresentanze decentrate del governo centrale. Generalmente si riuniscono, associano e organizzano in strutture territoriali (comitati, commissioni, ecc.) al fine di identificare, condividere e promuovere politiche per lo sviluppo (integrato, sostenibile e partecipato) del proprio territorio. Fonte: http://www.mmc2000.net/villaggioglobale/biblio/glo.htmglo01</t>
+          <t>Le moderne tecnologie permettono di minimizzare l'impatto dei processi inquinanti, oltre che il riuso sistematico dei sottoprodotti. Un caso orizzontale che comporta scelta tra tecnologie a differente impatto è quello del "greening"delle diverse attività (produttive, di beni materiali, di servizi ed altre) che rientrano nel quadro generale dello sviluppo sostenibile. Si ottiene con diversi approcci: - uso ridotto delle risorse (materiali, energetiche) - individuazione di nuove risorse meno inquinanti lungo tutto il ciclo del prodotto - utilizzo dei sottoprodotti - produzione ridotta dei rifiut5i - riciclo - nuovi processi prodotti - aumento della produttività, dell'efficienza e dell'efficacia del sistema produttivo e dei prodotti - sostituzione di beni materiali con beni immateriali - funzionalizzazione dell'industria - migliore organizzazione e delocalizzazione - miniaturizzazione - altri processi di dematerializzazione - aumento dell'efficienza dell'uso dei prodotti (conservazione della neghentropia creata; aumento del valore delle risorse); - attività che sfruttano i processi naturali invece di andar loro contro - tecnologie che consentono di operare e vivere bene in ambiente (relativamente) sporco. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -1208,19 +1212,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4000008</v>
+        <v>4000002</v>
       </c>
       <c r="C41" t="n">
-        <v>3000040</v>
+        <v>3000002</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Per audit si intende l’insieme delle attività svolte secondo apposita procedura, che consente una valutazione sistematica, documentata, periodica e obiettiva dell’efficienza dell’organizzazione e del sistema di gestione della sicurezza e dell’ambiente, anche mediante la verifica della corretta attuazione delle politiche e delle procedure operative aziendali, la verifica del raggiungimento degli obiettivi fissati e l’individuazione di eventuali azioni correttive. Audit ambientali o di sicurezza possono essere svolte sia da verificatori interni all’azienda, sia da esterni, quali società di consulenza accreditate per il rilascio della certificazione o da verificatori accreditati dall’unione europea.</t>
+          <t>Processo chimico causato dall'inquinamento idrico e atmosferico, che determina una diminuzione del ph delle acque superficiali fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -1229,19 +1233,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4000008</v>
+        <v>4000002</v>
       </c>
       <c r="C42" t="n">
-        <v>3000041</v>
+        <v>3000004</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>(lett. Proiezione all'indietro): dirigere e determinare il processo che deve assumere lo sviluppo tecnologico e possibilmente anche il ritmo al quale questo processo di sviluppo deve essere introdotto. Fonte: http://www.geocities.com/athens/agora/5311/giuridica/extra/00-eu-sustain-glossario.htmagenda locale 21</t>
+          <t>È un metodo, basato sull'utilizzo dell'energia solare, per il trattamento di acque luride di industrie agro - alimentari, che sfrutta il potere purificante e riciclante di ecosistemi acquatici aerati, costituiti da batteri, alghe, piante e animali microscopici, chiocciole, pesci, piante superiori. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1257,7 @@
         <v>4000002</v>
       </c>
       <c r="C43" t="n">
-        <v>3000042</v>
+        <v>3000014</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1262,7 +1266,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Insieme delle condizioni di stato e di qualità ambientale, nonché dei processi di trasformazione in atto, relativi al sistema ambiente nel suo complesso ed alle diverse componenti ambientali, prima della realizzazione dell'opera in progetto. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Tecniche di coltivazione e di allevamento spesso non molto diverse da quelle dell'agricoltura convenzionale, finalizzate a mantenere la fertilità del terreno, la salute delle piante e aumentare la qualità dei prodotti ottenuti, attraverso pratiche talvolta più vicine alla magia che non alla razionalità (per es. Influenze cosmiche) fonte: http://www.naturanetwork.it/u_gloss.asp</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1278,7 @@
         <v>4000002</v>
       </c>
       <c r="C44" t="n">
-        <v>3000043</v>
+        <v>3000015</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1283,7 +1287,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Parametro di riferimento dei rendimenti di una classe di titoli. Conosciuto anche come indice di performance, ha la caratteristica di indicare sinteticamente l'andamento reddituale di un investimento finanziario. Fonte: http://www.ecoeconomisti.it/ecoglossario.html</t>
+          <t>Modalità di produzione basata sull'adozione di tecniche di coltivazione e di allevamento a basso impatto ambientale. I prodotti che si ottengono sono sani, ad alto valore nutrizionale ed esenti da contaminazione, provenienti da aziende polifunzionali ed ottenuti cercando di ridurre al minimo l'utilizzo di energie ausiliarie, se non quelle previste dal reg. Cee 2092/91 fonte: http://www.naturanetwork.it/u_gloss.asp</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1299,7 @@
         <v>4000002</v>
       </c>
       <c r="C45" t="n">
-        <v>3000044</v>
+        <v>3000017</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1304,7 +1308,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Al fine di promuovere la competitività fra le imprese europee, nel 1998 è stato istituito, nell'ambito della commissione europea, l'high level group on benchmarking. Includendo nel concetto allargato di competitività anche il principio di sostenibilità, sono state individuate le possibili applicazioni del benchmarking all'area ambientale. Tale strumento può essere utilizzato nel campo della gestione d'impresa,tramite l'identificazione di indicatori ambientali e la misurazione dei benefici derivanti da una corretta gestione ambientale, ma può anche rivelarsi utile, nel settore pubblico, per la definizione e l'attuazione di politiche ambientali (ad esempio attraverso la verifica dell'esistenza di uguali condizioni di concorrenza per tutte le imprese). Definite le aree critiche ambientali di confronto, per ciascuna di queste devono venire individuati gli indicatori di prestazione epi generalmente suddivisi in "indicatori di performance ambientale" che valutano l'efficacia e l'efficienza aziendale nell'utilizzo delle risorse ambientali e "indicatori di impatto ambientale", che valutano gli effetti negativi delle attività aziendali sull'ambiente naturale. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Presuppone l'adozione di tecniche di coltivazione e allevamento che prevedono l'utilizzo di prodotti naturali ed un limitato impiego di prodotti chimici sintetici. Queste tecniche s'inseriscono tra l'agricoltura convenzionale e quella biologica. Per questo tipo di agricoltura non esiste una legislazione comunitaria o nazionale di riferimento, ma solo provvedimenti emessi da alcune regioni. Fonte: http://www.naturanetwork.it/u_gloss.asp</t>
         </is>
       </c>
     </row>
@@ -1313,19 +1317,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4000003</v>
+        <v>4000002</v>
       </c>
       <c r="C46" t="n">
-        <v>3000045</v>
+        <v>3000019</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Biologia</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Il benessere degli animali è stato inserito per la prima volta in una dichiarazione allegata al trattato che istituisce la comunità europea nel corso della conferenza intergovernativa sull'unione politica (1991-1992). Nel suo " protocollo sulla protezione ed il benessere degli animali" il trattato di amsterdam stabilisce nuove norme per l'azione dell'unione europea in questo ambito. Esso riconosce ufficialmente che gli animali sono esseri sensibili e impone alle istituzioni europee di tener conto delle esigenze del benessere degli animali in fase di elaborazione ed attuazione della normativa europea. La normativa comunitaria in materia di protezione animale si prefigge di risparmiare agli animali sofferenze inutili durante l'allevamento, il trasporto e la macellazione. Nel quadro di una strategia globale sulla sicurezza alimentare, anche altre politiche comunitarie (la politica agricola, i trasporti, il mercato interno e la ricerca) devono tener conto di questa esigenza. L'ufficio alimentare e veterinario, in collaborazione con le competenti autorità degli stati membri, effettua controlli sul campo affinché venga rispettata la normativa comunitaria. Fonte: http://europa.eu.int/scadplus/leg/it/cig/g4000.htm</t>
+          <t>Prodotti alimentari che hanno subito una manipolazione genetica. Hanno una composizione genetica che la natura non avrebbe potuto produrre, in quanto vengono trasferite le proprietà particolari di una specie ad un'altra. La presenza di ingredienti che sono stati geneticamente modificati contenuti eventualmente in un prodotto deve essere espressamente segnalata in etichetta. Fonte: http://www.naturanetwork.it/u_gloss.asp</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1341,7 @@
         <v>4000002</v>
       </c>
       <c r="C47" t="n">
-        <v>3000046</v>
+        <v>3000021</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1346,7 +1350,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Beni comuni dell'umanità: gli oceani ed i mari, lo spazio esterno alla superficie planetaria, il clima e la sua evoluzione nei tempi lunghi, l'antartide. Essi vanno intesi in senso ambio ed includono il sistema generale costituito dal ciclo dell'acqua, lo stato dell'atmosfera, e l'interfaccia mare/atmosfera. Inoltre, con una posizione che supera una visione limitata alla fisicità dei beni e che corrisponde in termini etici e biologici alle caratteristiche di un pianeta su cui si è sviluppata la vita, tra i global commons vanno compresi foreste e biodiversità ed i loro effetti sulla stabilità/evoluzione dei grandi cicli bio-geo-chimici. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Tutela dell'insieme di misure di diritto penale e amministrativo tendenti a proteggere l'ambiente naturale (aria, terra, acque, bellezze naturali e lo stesso spazio interplanetario) da ogni inquinamento o supersfruttamento. A partire dalla seconda metà degli anni sessanta, si sono espressi crescenti timori per il futuro dell'ambiente, minacciato dalle attività umane, sempre più invadenti e distruttive, a livello sia locale, sia globale. Le preoccupazioni per la salvaguardia dell'ambiente locale (urbano e rurale) hanno condotto all'elaborazione di apposite leggi: agricoltura, industria, produzione di energia, trasporti, costruzione di nuovi insediamenti sono attività soggette a valutazione e a normative di contenimento dell'impatto ambientale. Per tenere sotto controllo le alterazioni prodotte sull'ambiente globale (fino a modificare la composizione dell'atmosfera o la temperatura media sulla terra) sono stati raggiunti accordi internazionali. Nel corso di una serie di conferenze svoltesi sotto l'egida delle nazioni unite, iniziate nel 1972 a stoccolma e culminate nel vertice mondiale su ambiente e sviluppo tenutosi a rio de janeiro nel 1992 (unced e agenda 21), sono state adottate convenzioni internazionali per salvaguardare il clima e la diversità biologica. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -1355,19 +1359,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4000008</v>
+        <v>4000002</v>
       </c>
       <c r="C48" t="n">
-        <v>3000047</v>
+        <v>3000023</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Migliori tecnologie disponibili che non impongono costi eccessivi fonte: http://www.dima.unimo.it/servizi/glossa/b.doc</t>
+          <t>Il regolamento cee n. 1836/93 (emas) definisce l'analisi ambientale come un'esauriente analisi iniziale dei problemi ambientali, degli effetti e dell'efficienza ambientali, relative alle attività svolte in un sito". La norma internazionale iso 14001 del 1996 definisce l'analisi ambientale uno studio per "permettere di identificare gli aspetti ambientali delle attività dell'organizzazione in modo da determinare quali di loro hanno o possono avere impatti ambientali significativi" o implicare responsabilità. Fonte: http://ecozero.liguriainrete.it/ecozero/ee1401.htm</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1383,7 @@
         <v>4000002</v>
       </c>
       <c r="C49" t="n">
-        <v>3000048</v>
+        <v>3000031</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1388,7 +1392,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Attività di ricerca, analisi e studio delle prassi migliori relativamente ad uno specifico settore di interesse. Fonte: http://www.ecoeconomisti.it/ecoglossario.html</t>
+          <t>Colonizzazione da parte dell'uomo degli ambienti naturali, con conseguente modifica e alterazione degli stessi. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -1397,19 +1401,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4000049</v>
+        <v>4000002</v>
       </c>
       <c r="C50" t="n">
-        <v>3000049</v>
+        <v>3000032</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Telerilevamento</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Con il termine di bilancio satellite si definisce il ruolo che dovrà avere la contabilità ambientale negli enti locali, cioè quello di uno strumento parallelo, e di pari importanza, rispetto alla contabilità ordinaria.</t>
+          <t>Un quadro di riferimento per considerare la città come un ecosistema e capire i problemi della sostenibilità urbana, adottando soluzioni per risolverli, basate su concetti ecologici. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1425,7 @@
         <v>4000002</v>
       </c>
       <c r="C51" t="n">
-        <v>3000050</v>
+        <v>3000034</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1430,7 +1434,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Strumento contabile in grado di fornire un insieme organico delle interrelazioni dirette tra l’impresa e l’ambiente naturale, attraverso un quadro riassuntivo di dati quantitativi relativi all’impatto ambientale di determinate attività produttive e all’impegno economico dell’impresa, nel campo della protezione ambientale. Qualora comprenda anche una parte dedicata alla descrizione degli aspetti qualitativi dell’impegno ambientale dell’impresa, viene chiamato rapporto ambientale.</t>
+          <t>Aree dotate di particolari caratteri ambientali, di cui lo stato o gli altri organi che hanno poteri di gestione del territorio garantiscono la salvaguardia grazie a specifici vincoli legislativi. Tali sono i parchi nazionali e regionali, le foreste demaniali, le riserve integrali, le oasi faunistiche. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -1442,7 +1446,7 @@
         <v>4000002</v>
       </c>
       <c r="C52" t="n">
-        <v>3000051</v>
+        <v>3000036</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1451,7 +1455,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Calcolo dell'impatto ambientale complessivo di un prodotto o di un processo fonte: http://www.naturanetwork.it/u_gloss.asp</t>
+          <t>Per livello di qualità dell'aria si intende la concentrazione di uno o più inquinanti rilevato nell'aria. Tali valori, confrontati con opportuni standard fissati dalla normativa, permettono di stabilire il grado di inquinamento atmosferico presente. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1467,7 @@
         <v>4000002</v>
       </c>
       <c r="C53" t="n">
-        <v>3000052</v>
+        <v>3000037</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1472,7 +1476,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>È uno strumento di raccolta dati e di analisi che serve a quantificare, in una data area territoriale, i consumi di risorse naturali, energia e acqua ed i livelli globali di emissioni inquinanti in aria, acqua e suolo, individuando i casi di superamento del carico ambientale sostenibile. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>(Nel Sistema Di Gestione Ambientale) elemento delle attività, di prodotti o dei servizi di una organizzazione che può interagire con l’ambiente. Il regolamento emas annovera tra gli aspetti ambientali diretti quelli che l'organizzazione ha «sotto il suo controllo gestionale»; sono aspetti indiretti quelli su cui «essa può non avere un controllo gestionale totale». (all. Vi, regolamento cee 761/01). Nota: un aspetto ambientale significativo è un aspetto ambientale che ha un impatto ambientale significativo.</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1488,7 @@
         <v>4000002</v>
       </c>
       <c r="C54" t="n">
-        <v>3000053</v>
+        <v>3000042</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1493,7 +1497,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Si tratta di un bilancio che quantifica il livello di emissioni inquinanti globali in una data area, per aria, acqua, suolo e rumore, il consumo delle risorse naturali e del territorio, le pressioni sull’ambiente esercitate dalle attività umane, per verificare se è stata superata la capacità di carico per quello specifico ambiente.</t>
+          <t>Insieme delle condizioni di stato e di qualità ambientale, nonché dei processi di trasformazione in atto, relativi al sistema ambiente nel suo complesso ed alle diverse componenti ambientali, prima della realizzazione dell'opera in progetto. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -1502,19 +1506,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4000054</v>
+        <v>4000002</v>
       </c>
       <c r="C55" t="n">
-        <v>3000054</v>
+        <v>3000043</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Termodinamica</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Energia totale impiegata nel funzionamento di un determinato sistema; comprende sia l’energia in ingresso (quella necessaria alla produzione del prodotto) sia l’energia in uscita (ad esempio quella dispersa come calore).</t>
+          <t>Parametro di riferimento dei rendimenti di una classe di titoli. Conosciuto anche come indice di performance, ha la caratteristica di indicare sinteticamente l'andamento reddituale di un investimento finanziario. Fonte: http://www.ecoeconomisti.it/ecoglossario.html</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1530,7 @@
         <v>4000002</v>
       </c>
       <c r="C56" t="n">
-        <v>3000055</v>
+        <v>3000044</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1535,7 +1539,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Rapporto o bilancio ambientale sono termini spesso utilizzati indistintamente. Nei paesi anglosassoni (i primi a instaurare questa pratica aziendale) con il termine environmental reporting si intende l'attività di informazione sul rapporto tra impresa e territorio fisico. Il rapporto ambientale è pertanto quel documento diffuso al pubblico e redatto periodicamente all'interno, per mezzo del quale l'impresa descrive le sue principali problematiche ambientali, il suo approccio strategico, la sua organizzazione per la gestione ambientale, le azioni messe in atto per la protezione ambientale e documenta, con dati statistiche e indicatori, il proprio impatto (il bilancio ambientale) e gli aspetti finanziari connessi con l'ambiente (spese correnti e di investimento). Oltre che strumento di comunicazione con i vari interlocutori dell'impresa (azionisti finanziatori, assicuratori, opinione pubblica, gruppi ambientalisti, autorità nazionali e locali, clienti e consumatori), il rapporto ambientale (e il bilancio che esso contiene) rappresenta un elemento fondamentale per la gestione strategica della variabile ambiente, all'interno del processo di pianificazione d'impresa. Fonte: http://www.ecoeconomisti.it/ecoglossario.html</t>
+          <t>Al fine di promuovere la competitività fra le imprese europee, nel 1998 è stato istituito, nell'ambito della commissione europea, l'high level group on benchmarking. Includendo nel concetto allargato di competitività anche il principio di sostenibilità, sono state individuate le possibili applicazioni del benchmarking all'area ambientale. Tale strumento può essere utilizzato nel campo della gestione d'impresa,tramite l'identificazione di indicatori ambientali e la misurazione dei benefici derivanti da una corretta gestione ambientale, ma può anche rivelarsi utile, nel settore pubblico, per la definizione e l'attuazione di politiche ambientali (ad esempio attraverso la verifica dell'esistenza di uguali condizioni di concorrenza per tutte le imprese). Definite le aree critiche ambientali di confronto, per ciascuna di queste devono venire individuati gli indicatori di prestazione epi generalmente suddivisi in "indicatori di performance ambientale" che valutano l'efficacia e l'efficienza aziendale nell'utilizzo delle risorse ambientali e "indicatori di impatto ambientale", che valutano gli effetti negativi delle attività aziendali sull'ambiente naturale. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -1544,19 +1548,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4000008</v>
+        <v>4000002</v>
       </c>
       <c r="C57" t="n">
-        <v>3000056</v>
+        <v>3000046</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Il bilancio partecipativo (diventato famoso nel mondo per l´esperienza promossa a porto alegre in brasile) è un processo fatto di assemblee e incontri in cui la popolazione decide come e dove investire i soldi del comune sulla città. I conflitti diventano evidenti, aperti, trasparenti e, quindi, produttivi nel processo di costruzione della città e della società. L'impegno dell'amministrazione pubblica è quello di dare concretezza e visibilità di risultati alle proposte e alle indicazioni dei cittadini. Nascono progetti condivisi e studiati cooperativamente. Fonte: http://www.mmc2000.net/villaggioglobale/biblio/glo.htmglo01</t>
+          <t>Beni comuni dell'umanità: gli oceani ed i mari, lo spazio esterno alla superficie planetaria, il clima e la sua evoluzione nei tempi lunghi, l'antartide. Essi vanno intesi in senso ambio ed includono il sistema generale costituito dal ciclo dell'acqua, lo stato dell'atmosfera, e l'interfaccia mare/atmosfera. Inoltre, con una posizione che supera una visione limitata alla fisicità dei beni e che corrisponde in termini etici e biologici alle caratteristiche di un pianeta su cui si è sviluppata la vita, tra i global commons vanno compresi foreste e biodiversità ed i loro effetti sulla stabilità/evoluzione dei grandi cicli bio-geo-chimici. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1572,7 @@
         <v>4000002</v>
       </c>
       <c r="C58" t="n">
-        <v>3000057</v>
+        <v>3000048</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1577,7 +1581,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>(o architettura bioecologica) oggi le attività umane sono caratterizzate da una crescente dipendenza dagli spazi chiusi: nelle aree ad economia avanzata l'uomo passa mediamente il 90% della propria vita in casa, in ufficio, a scuola, in fabbrica ecc. La casa, intesa nel senso più ampio del termine, ha sempre avuto, e a maggior ragione ha assunto oggi, un peso estremamente rilevante tra i bisogni primari dell'uomo ed in questo senso è ovvio che la sua qualità, insieme a quella di pochi altri elementi come l'aria e il cibo, è in grado di modificare radicalmente la qualità della vita umana. D'altra parte l'attività edilizia, per il suo enorme peso produttivo, è inevitabilmente uno dei settori industriali a più alto impatto ambientale per gli effetti dell'inarrestabile consumo di territorio, per l'altissimo consumo energetico e per le emissioni in atmosfera ad esso connesse, per il sempre più diffuso utilizzo di materiali di origine petrolchimica che, oltre a rendere l'aria che respiriamo tra le mura delle abitazioni molto più inquinata di quella già pessima che respiriamo fuori, determinano gravi problemi di inquinamento ambientale durante tutto il loro ciclo di vita. La risposta a tutto questo non può essere che una architettura che sappia rapportarsi in maniera equilibrata con l'ambiente, che sia pensata per le necessità dell'uomo e che sia capace di soddisfare i bisogni delle attuali generazioni senza limitare, con il consumo indiscriminato di risorse e l'inquinamento, quello delle generazioni future. Per necessità di una maggiore comprensione possiamo parlare di architettura bioecologica, definizione che nasce dai termini architettura (arte di costruire), bio (favorevole alla vita), eco (in equilibrio con l'ambiente), logica (intelligente, razionale). È una definizione che in italia è stata introdotta dall'associazione nazionale architettura bioecologica e che, abbracciando tutti i concetti prima espressi, traduce al meglio quello che i paesi di lingua tedesca, pionieri in questo modo di intendere l'architettura, chiamano baubiologie. Con architettura bioecologica o bioedilizia non si deve intendere, quindi, un settore specialistico dell'edilizia o, peggio, una moda ma una rilettura dell'architettura, e quindi del modo di costruire e trasformare il territorio.bastano del resto alcuni dati per capire la necessità di architettura bio-ecologica: bios (vita) il 90% della vita di un cittadino europeo medio viene trascorso in casa l'aria che si respira in casa è due - tre volte peggiore di quella che sta fuori casa oikos (ambiente) il 45% dell'energia prodotta in europa viene utilizzato nel settore edilizio il 50% dell'inquinamento atmosferico in europa è prodotto dal settore edilizio il 50% delle risorse sottratte alla natura sono destinate all'industria edilizia il 50% dei rifiuti prodotti annualmente in europa proviene dal settore edilizio dalle scelte relative ai metodi e ai materiali utilizzati per produrre nuovi luoghi di abitazione o, come sarebbe preferibile attendersi, per mantenere e rinnovare quelli esistenti, derivano direttamente forti opportunità di abbattimento dei consumi di energia e, di riflesso, delle emissioni inquinanti insieme a rilevanti possibilità di abbattimento dei rischi per la salute degli operatori e degli utenti; rischi legati all'uso di materiali dichiaratamente nocivi nel ciclo edilizio. Enormi e strategiche sono quindi le opportunità di riequilibrio ambientale offerte dall'utilizzo di un diverso modello produttivo ecologicamente orientato nel settore edilizio. Oggi è concretamente possibile, non certo per effetto di esasperazioni tecnologiche ma grazie ad un uso dolce e amichevole della tecnologia, un processo di integrazione di attenzioni diverse e tra loro sinergiche, un percorso progettuale che faccia tornare la casa ad essere un luogo favorevole alla vita dell'uomo e del suo ambiente. Questo complesso di attenzioni non possono che essere il frutto di ricerche fortemente interdisciplinari e interconnesse e di una radicale rilettura disciplinare dell'architettura da un lato e di una graduale riconversione dell'industria edilizia dall'altro che utilizzino il rispetto dell'ambiente, la sostenibilità dello sviluppo e la salvaguardia della salute come filtro dei propri campi d'azione o, meglio ancora, come elemento fondante di una nuova cultura del progetto e della pratica edilizia che rimetta l'uomo e la natura al centro del proprio operare. In questa luce, attraverso una attenta e non nostalgica rilettura della storia e della tradizione del buon costruire, si può riprendere un percorso tecnologico interrotto, ridando spessore ad una sapienza spesso sepolta e ricominciando, con strumenti contemporanei, a dare risposte semplici ad esigenze fondamentali come quella di costruire e abitare in modo sano e consapevole. Fonte: http://www.provincia.arezzo.it/atanor/glossario/</t>
+          <t>Attività di ricerca, analisi e studio delle prassi migliori relativamente ad uno specifico settore di interesse. Fonte: http://www.ecoeconomisti.it/ecoglossario.html</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1593,7 @@
         <v>4000002</v>
       </c>
       <c r="C59" t="n">
-        <v>3000058</v>
+        <v>3000050</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1598,7 +1602,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Alcooli e oli di origine vegetale spesso contenenti ossigeno, impiegati tal quali o trasformati in eteri (mtbe, etbe) o esteri (biodiesel) come combustibili sia per autotrazione sia per impianti stazionari fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Strumento contabile in grado di fornire un insieme organico delle interrelazioni dirette tra l’impresa e l’ambiente naturale, attraverso un quadro riassuntivo di dati quantitativi relativi all’impatto ambientale di determinate attività produttive e all’impegno economico dell’impresa, nel campo della protezione ambientale. Qualora comprenda anche una parte dedicata alla descrizione degli aspetti qualitativi dell’impegno ambientale dell’impresa, viene chiamato rapporto ambientale.</t>
         </is>
       </c>
     </row>
@@ -1607,19 +1611,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4000003</v>
+        <v>4000002</v>
       </c>
       <c r="C60" t="n">
-        <v>3000059</v>
+        <v>3000051</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Biologia</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>È l'insieme delle popolazioni di specie animali e vegetali che coesistono nello spazio e nel tempo in un dato ambiente ed interagiscono fra loro, in reciproca relazione. Lo spazio, o ambiente, occupato dalla biocenosi, è chiamato biotopo. Si suddivide in fitocenosi ed in zoocenosi quando ci si riferisce rispettivamente a vegetali o animali che popolano un ambiente. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Calcolo dell'impatto ambientale complessivo di un prodotto o di un processo fonte: http://www.naturanetwork.it/u_gloss.asp</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1635,7 @@
         <v>4000002</v>
       </c>
       <c r="C61" t="n">
-        <v>3000060</v>
+        <v>3000052</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1640,7 +1644,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Riferito alle sostanze che possiedono la caratteristica di poter essere degradate per via microbica, ossia mediante decomposizione per effetto di agenti biofisici naturali (batteri, luce solare, umidità, etc.), implicando la non tossicità dei residui della decomposizione che non provocheranno problemi alle catene alimentari. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>È uno strumento di raccolta dati e di analisi che serve a quantificare, in una data area territoriale, i consumi di risorse naturali, energia e acqua ed i livelli globali di emissioni inquinanti in aria, acqua e suolo, individuando i casi di superamento del carico ambientale sostenibile. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -1649,19 +1653,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4000003</v>
+        <v>4000002</v>
       </c>
       <c r="C62" t="n">
-        <v>3000061</v>
+        <v>3000053</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Biologia</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sinonimo di diversità biologica. La biodiversità è lo stock naturale di materiale genetico presente all'interno di un ecosistema, prodottosi attraverso il processo di speciazione. I genotipi reperibili in un ambiente si sono differenziati e moltiplicati per adattarsi alle variazioni ambientali e trarne di volta in volta profitto. La biodiversità può essere intesa in due modi: l'eterogeneità di forma o di funzioni tra gli individui di una specie, o tra le sue popolazioni, per cui in determinati siti, con determinate combinazioni di fattori ambientali, alcuni gruppi di individui si dimostrano più efficienti di altri, pur simili nell'utilizzare le risorse del sistema l'eterogeneità di forme e di funzioni tra specie differenti a causa della quale popolazioni anche affini o strettamente imparentate dimostrano differenti capacità di adattamento all'ambiente e risultano particolarmente efficienti nell'occupare e nel difendere la nicchia ecologica a loro disposizione. La biodiversità, cioè la diversità biologica, si basa sulla ricchezza del patrimonio ereditario costituito dai caratteri (geni) di un individuo o di una popolazione (risorse genetiche). Le suddette risorse genetiche sono considerate come insieme di componenti dell'ecosistema (specie viventi, organismi, loro parti e comunità) in rapporto al loro uso o valore, attuali o potenziali, per la vita del pianeta terra e, quindi, per la stessa umanità. Dall'ampiezza e dalla varietà del suddetto patrimonio genetico dipende la capacità dell'ecosistema di adattarsi ed evolvere in situazioni geografiche, fasi climatiche e tempi diversi. Fonte: http://www.comune.dozza.bo.it/sellustra/mioweb2/glossario.htm e http://www.provincia.arezzo.it/atanor/glossario/</t>
+          <t>Si tratta di un bilancio che quantifica il livello di emissioni inquinanti globali in una data area, per aria, acqua, suolo e rumore, il consumo delle risorse naturali e del territorio, le pressioni sull’ambiente esercitate dalle attività umane, per verificare se è stata superata la capacità di carico per quello specifico ambiente.</t>
         </is>
       </c>
     </row>
@@ -1670,19 +1674,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4000001</v>
+        <v>4000002</v>
       </c>
       <c r="C63" t="n">
-        <v>3000062</v>
+        <v>3000055</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Chimica</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Energia derivante da processi di trasformazione di bioprodotti quali biomasse cerealicole, lignocellulosiche, deiezioni animali, eccedenze alimentari, rifiuti urbani cartacei, ecc.. È un'energia rinnovabile, non provoca aumenti di gas serra, in quanto l'anidride carbonica prodotta durante la combustione viene riassorbita dalla biomassa in fase di sviluppo e si utilizza nella forma di biofuels (carburanti come etanolo e metanolo), bioelettricità, calore, biogas. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Rapporto o bilancio ambientale sono termini spesso utilizzati indistintamente. Nei paesi anglosassoni (i primi a instaurare questa pratica aziendale) con il termine environmental reporting si intende l'attività di informazione sul rapporto tra impresa e territorio fisico. Il rapporto ambientale è pertanto quel documento diffuso al pubblico e redatto periodicamente all'interno, per mezzo del quale l'impresa descrive le sue principali problematiche ambientali, il suo approccio strategico, la sua organizzazione per la gestione ambientale, le azioni messe in atto per la protezione ambientale e documenta, con dati statistiche e indicatori, il proprio impatto (il bilancio ambientale) e gli aspetti finanziari connessi con l'ambiente (spese correnti e di investimento). Oltre che strumento di comunicazione con i vari interlocutori dell'impresa (azionisti finanziatori, assicuratori, opinione pubblica, gruppi ambientalisti, autorità nazionali e locali, clienti e consumatori), il rapporto ambientale (e il bilancio che esso contiene) rappresenta un elemento fondamentale per la gestione strategica della variabile ambiente, all'interno del processo di pianificazione d'impresa. Fonte: http://www.ecoeconomisti.it/ecoglossario.html</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1698,7 @@
         <v>4000002</v>
       </c>
       <c r="C64" t="n">
-        <v>3000063</v>
+        <v>3000057</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1703,7 +1707,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Bioetica è la disciplina che indica un dovere morale dell'uomo per un rispetto e una reverenza verso la natura, sostenendo che il mondo naturale ha un proprio diritto bioetico, incluso quello della esistenza, completamente indipendente da ogni considerazione circa la sua utilità per l'uomo. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>(o architettura bioecologica) oggi le attività umane sono caratterizzate da una crescente dipendenza dagli spazi chiusi: nelle aree ad economia avanzata l'uomo passa mediamente il 90% della propria vita in casa, in ufficio, a scuola, in fabbrica ecc. La casa, intesa nel senso più ampio del termine, ha sempre avuto, e a maggior ragione ha assunto oggi, un peso estremamente rilevante tra i bisogni primari dell'uomo ed in questo senso è ovvio che la sua qualità, insieme a quella di pochi altri elementi come l'aria e il cibo, è in grado di modificare radicalmente la qualità della vita umana. D'altra parte l'attività edilizia, per il suo enorme peso produttivo, è inevitabilmente uno dei settori industriali a più alto impatto ambientale per gli effetti dell'inarrestabile consumo di territorio, per l'altissimo consumo energetico e per le emissioni in atmosfera ad esso connesse, per il sempre più diffuso utilizzo di materiali di origine petrolchimica che, oltre a rendere l'aria che respiriamo tra le mura delle abitazioni molto più inquinata di quella già pessima che respiriamo fuori, determinano gravi problemi di inquinamento ambientale durante tutto il loro ciclo di vita. La risposta a tutto questo non può essere che una architettura che sappia rapportarsi in maniera equilibrata con l'ambiente, che sia pensata per le necessità dell'uomo e che sia capace di soddisfare i bisogni delle attuali generazioni senza limitare, con il consumo indiscriminato di risorse e l'inquinamento, quello delle generazioni future. Per necessità di una maggiore comprensione possiamo parlare di architettura bioecologica, definizione che nasce dai termini architettura (arte di costruire), bio (favorevole alla vita), eco (in equilibrio con l'ambiente), logica (intelligente, razionale). È una definizione che in italia è stata introdotta dall'associazione nazionale architettura bioecologica e che, abbracciando tutti i concetti prima espressi, traduce al meglio quello che i paesi di lingua tedesca, pionieri in questo modo di intendere l'architettura, chiamano baubiologie. Con architettura bioecologica o bioedilizia non si deve intendere, quindi, un settore specialistico dell'edilizia o, peggio, una moda ma una rilettura dell'architettura, e quindi del modo di costruire e trasformare il territorio.bastano del resto alcuni dati per capire la necessità di architettura bio-ecologica: bios (vita) il 90% della vita di un cittadino europeo medio viene trascorso in casa l'aria che si respira in casa è due - tre volte peggiore di quella che sta fuori casa oikos (ambiente) il 45% dell'energia prodotta in europa viene utilizzato nel settore edilizio il 50% dell'inquinamento atmosferico in europa è prodotto dal settore edilizio il 50% delle risorse sottratte alla natura sono destinate all'industria edilizia il 50% dei rifiuti prodotti annualmente in europa proviene dal settore edilizio dalle scelte relative ai metodi e ai materiali utilizzati per produrre nuovi luoghi di abitazione o, come sarebbe preferibile attendersi, per mantenere e rinnovare quelli esistenti, derivano direttamente forti opportunità di abbattimento dei consumi di energia e, di riflesso, delle emissioni inquinanti insieme a rilevanti possibilità di abbattimento dei rischi per la salute degli operatori e degli utenti; rischi legati all'uso di materiali dichiaratamente nocivi nel ciclo edilizio. Enormi e strategiche sono quindi le opportunità di riequilibrio ambientale offerte dall'utilizzo di un diverso modello produttivo ecologicamente orientato nel settore edilizio. Oggi è concretamente possibile, non certo per effetto di esasperazioni tecnologiche ma grazie ad un uso dolce e amichevole della tecnologia, un processo di integrazione di attenzioni diverse e tra loro sinergiche, un percorso progettuale che faccia tornare la casa ad essere un luogo favorevole alla vita dell'uomo e del suo ambiente. Questo complesso di attenzioni non possono che essere il frutto di ricerche fortemente interdisciplinari e interconnesse e di una radicale rilettura disciplinare dell'architettura da un lato e di una graduale riconversione dell'industria edilizia dall'altro che utilizzino il rispetto dell'ambiente, la sostenibilità dello sviluppo e la salvaguardia della salute come filtro dei propri campi d'azione o, meglio ancora, come elemento fondante di una nuova cultura del progetto e della pratica edilizia che rimetta l'uomo e la natura al centro del proprio operare. In questa luce, attraverso una attenta e non nostalgica rilettura della storia e della tradizione del buon costruire, si può riprendere un percorso tecnologico interrotto, ridando spessore ad una sapienza spesso sepolta e ricominciando, con strumenti contemporanei, a dare risposte semplici ad esigenze fondamentali come quella di costruire e abitare in modo sano e consapevole. Fonte: http://www.provincia.arezzo.it/atanor/glossario/</t>
         </is>
       </c>
     </row>
@@ -1712,19 +1716,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4000003</v>
+        <v>4000002</v>
       </c>
       <c r="C65" t="n">
-        <v>3000064</v>
+        <v>3000058</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Biologia</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>È la depurazione naturale svolta, attraverso la biodegrazione iniziale della sostanza organica (scarico) ad opera di batteri aerobi o anaerobi, con successivo fitoassorbimento dei prodotti mineralizzati (azoto, fosforo, carbonio...) da parte di vegetali. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Alcooli e oli di origine vegetale spesso contenenti ossigeno, impiegati tal quali o trasformati in eteri (mtbe, etbe) o esteri (biodiesel) come combustibili sia per autotrazione sia per impianti stazionari fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -1733,19 +1737,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4000001</v>
+        <v>4000002</v>
       </c>
       <c r="C66" t="n">
-        <v>3000065</v>
+        <v>3000060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Chimica</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Formazione di gas, per fermentazione anaerobica in presenza di microrganismi (batteri acidogeni, batteri acetogeni e metanobatteri) di rifiuti industriali e agricoli o fanghi dei trattamenti delle acque urbane, il metano contenuto nel biogas può essere utilizzato per la produzione di energia. . dal processo di biogassificazione si ricavano, oltre al biogas, buoni fertilizzanti naturali. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Riferito alle sostanze che possiedono la caratteristica di poter essere degradate per via microbica, ossia mediante decomposizione per effetto di agenti biofisici naturali (batteri, luce solare, umidità, etc.), implicando la non tossicità dei residui della decomposizione che non provocheranno problemi alle catene alimentari. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1761,7 @@
         <v>4000002</v>
       </c>
       <c r="C67" t="n">
-        <v>3000066</v>
+        <v>3000063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1766,7 +1770,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>I bioindicatori od indicatori biologici sono componenti biotiche (piante od animali) delle biocenosi di un qualunque ambiente, che vengono utilizzate per il monitoraggio di precise caratteristiche di tale ambiente. Generalmente un bioindicatore è una specie, dalla cui presenza od assenza è possibile dedurre una specifica caratteristica di un ecosistema (ad esempio la trota è indicatore di acque ossigenate, le eriche mediterranee sono indicatori di suoli acidi). Tra le caratteristiche di un ambiente rientra anche il grado di inquinamento e individuando gli opportuni bioindicatori è possibile ottenere informazioni a riguardo di tale aspetto. Per indagini sulla qualità degli ecosistemi fluviali si utilizzano i macroinvertebrati bentonici quali indicatori adatti ad evidenziare alterazioni e stress ambientali. L'inquinamento atmosferico può essere controllato con l'osservazione dei licheni, che funzionano in modo simile ad una spugna assorbendo sia le sostanze utili che quelle nocive. Fonte: http://www.comune.dozza.bo.it/sellustra/mioweb2/glossario.htm e http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Bioetica è la disciplina che indica un dovere morale dell'uomo per un rispetto e una reverenza verso la natura, sostenendo che il mondo naturale ha un proprio diritto bioetico, incluso quello della esistenza, completamente indipendente da ogni considerazione circa la sua utilità per l'uomo. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -1778,7 +1782,7 @@
         <v>4000002</v>
       </c>
       <c r="C68" t="n">
-        <v>3000067</v>
+        <v>3000066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1787,7 +1791,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Propone interventi di restauro ambientale e di difesa del suolo attraverso tecniche "dolci", secondo un approccio ecologico in alternativa a quello dell'ingegneria tradizionale. La capacità autodepurativa, gli interscambi idrici, l'habitat di animali e piante e gli ecosistemi con le tecnologie "dure" dell'ingegneria tradizionale vengono infatti ridotti ed i paesaggio inaridito. Nel caso di un ripristino fluviale la misura più importante è quella di lasciare lungo il corso un corridoio ripariale di almeno 10 metri. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>I bioindicatori od indicatori biologici sono componenti biotiche (piante od animali) delle biocenosi di un qualunque ambiente, che vengono utilizzate per il monitoraggio di precise caratteristiche di tale ambiente. Generalmente un bioindicatore è una specie, dalla cui presenza od assenza è possibile dedurre una specifica caratteristica di un ecosistema (ad esempio la trota è indicatore di acque ossigenate, le eriche mediterranee sono indicatori di suoli acidi). Tra le caratteristiche di un ambiente rientra anche il grado di inquinamento e individuando gli opportuni bioindicatori è possibile ottenere informazioni a riguardo di tale aspetto. Per indagini sulla qualità degli ecosistemi fluviali si utilizzano i macroinvertebrati bentonici quali indicatori adatti ad evidenziare alterazioni e stress ambientali. L'inquinamento atmosferico può essere controllato con l'osservazione dei licheni, che funzionano in modo simile ad una spugna assorbendo sia le sostanze utili che quelle nocive. Fonte: http://www.comune.dozza.bo.it/sellustra/mioweb2/glossario.htm e http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -1796,19 +1800,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4000008</v>
+        <v>4000002</v>
       </c>
       <c r="C69" t="n">
-        <v>3000068</v>
+        <v>3000067</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Progetto con il quale l'italia dal 1995 al 1997 ha svolto il lavoro di identificazione dei siti di importanza comunitaria (sic) nel proprio territorio nazionale, nell'ambito della direttiva habitat. Il risultato finale consiste nell'implementazione da parte delle regioni di una banca dati informatizzata, di formulari cartacei natura 2000 e delle relative cartografie. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Propone interventi di restauro ambientale e di difesa del suolo attraverso tecniche "dolci", secondo un approccio ecologico in alternativa a quello dell'ingegneria tradizionale. La capacità autodepurativa, gli interscambi idrici, l'habitat di animali e piante e gli ecosistemi con le tecnologie "dure" dell'ingegneria tradizionale vengono infatti ridotti ed i paesaggio inaridito. Nel caso di un ripristino fluviale la misura più importante è quella di lasciare lungo il corso un corridoio ripariale di almeno 10 metri. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -1817,19 +1821,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4000003</v>
+        <v>4000002</v>
       </c>
       <c r="C70" t="n">
-        <v>3000069</v>
+        <v>3000070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Biologia</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Indica il contenuto di sostanza organica biodegradabile, presente negli scarichi idrici, espresso in termini di quantità di ossigeno necessario alla degradazione da parte di microrganismi in un test della durata di cinque giorni. Il parametro rappresenta un indicatore del potenziale di riduzione dell'ossigeno disciolto nei corpi idrici ricettori degli scarichi con possibili effetti ambientali negativi. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>È la comunità di organismi viventi, sia del regno animale che vegetale caratteristica di una regione climatica e viene in genere distinto in base al tipo di vegetazione. Sono biomi terrestri la tundra, la foresta di conifere boreale (o taiga), le foreste temperate, la foresta pluviale tropicale, la prateria, la macchia mediterranea e il deserto. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1845,7 @@
         <v>4000002</v>
       </c>
       <c r="C71" t="n">
-        <v>3000070</v>
+        <v>3000073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1850,7 +1854,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>È la comunità di organismi viventi, sia del regno animale che vegetale caratteristica di una regione climatica e viene in genere distinto in base al tipo di vegetazione. Sono biomi terrestri la tundra, la foresta di conifere boreale (o taiga), le foreste temperate, la foresta pluviale tropicale, la prateria, la macchia mediterranea e il deserto. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Processo di bonifica di un ambiente inquinato mediante il quale i microrganismi sono stimolati a degradare rapidamente sostanze inquinanti fino a concentrazioni accettabili. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -1859,19 +1863,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4000003</v>
+        <v>4000002</v>
       </c>
       <c r="C72" t="n">
-        <v>3000071</v>
+        <v>3000074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Biologia</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Termine generico che indica tutta la materia organica sia di natura vegetale che animale presente, ad esempio, in un ecosistema. È un indice della capacità produttiva di un particolare ambiente biologico. Normalmente viene espressa in peso (secco) per unità di superficie o in unità di energia (j/m). Ovviamente l'unità di misura cambia a seconda dell'oggetto in esame. La biomassa di una popolazione di insetti, ad esempio, verrà calcolata in g/m, mentre quella di una comunità erbacea presente in un prato in kg/m e quella di un bosco in t/ha. In campo energetico la biomassa indica la quantità di materiale organico che può essere utilizzata per produrre energia per combustione o tramite fermentazione. Le biomasse utili ai fini della produzione di energia includono il legno, liquami e feci animali, residui agricoli, forestali e della carta. Il concetto di biomassa è strettamente collegato a quello di "produttività" che indica la produzione di biomassa per unità di tempo ed è un parametro funzionale utile allo studio della qualità ambientale e all'evoluzione dello stato di un ecosistema fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Organismi biologici, in genere semplici, caratterizzati da reazioni note a certe concentrazioni di specifici inquinanti e utilizzati quindi per monitoraggi della qualità dell'ambiente. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -1880,19 +1884,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4000001</v>
+        <v>4000002</v>
       </c>
       <c r="C73" t="n">
-        <v>3000072</v>
+        <v>3000079</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Chimica</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Il biomonitoraggio consiste nel monitoraggio delle caratteristiche di un determinato ambiente attraverso parametri biologici; esso si basa sulle variazioni ecologiche indotte da un qualunque fattore (fisico, chimico e microbiologico) sull'ecosistema. Dette variazioni si manifestano tramite alterazioni nelle comunità degli organismi che vengono utilizzati quali indicatori. Il biomonitoraggio non è in grado di fornire informazioni precise riguardanti le cause delle variazioni indotte nell'ambiente oggetto di indagine. Per ottenere tali informazioni si abbinano al biomonitoraggio le analisi chimiche, chimico - fisiche e microbiologiche. Fonte: http://www.comune.dozza.bo.it/sellustra/mioweb2/glossario.htm</t>
+          <t>Saggio, pubblicato nel 1972 dalla rivista ecologist, che rappresentava una revisione radicale dei problemi dell'ambiente umano, esaminando i cambiamenti necessari per creare una società basata sulla stabilità e il riutilizzo dei materiali fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1908,7 @@
         <v>4000002</v>
       </c>
       <c r="C74" t="n">
-        <v>3000073</v>
+        <v>3000080</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1913,7 +1917,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Processo di bonifica di un ambiente inquinato mediante il quale i microrganismi sono stimolati a degradare rapidamente sostanze inquinanti fino a concentrazioni accettabili. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Ogni intervento di rimozione della fonte inquinante e di quanto dalla stessa contaminato, fino al raggiungimento dei valori limite conformi all'utilizzo previsto dell'area. Fonte: d.l.vo 5.febb.1997,n22</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1929,7 @@
         <v>4000002</v>
       </c>
       <c r="C75" t="n">
-        <v>3000074</v>
+        <v>3000082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1934,7 +1938,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Organismi biologici, in genere semplici, caratterizzati da reazioni note a certe concentrazioni di specifici inquinanti e utilizzati quindi per monitoraggi della qualità dell'ambiente. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Qualsiasi cambiamento di clima attribuito direttamente o indirettamente ad attività umane, il quale altera la composizione dell'atmosfera mondiale e si aggiunge alla variabilità naturale del clima osservata in periodi di tempo comparabili. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -1943,19 +1947,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4000007</v>
+        <v>4000002</v>
       </c>
       <c r="C76" t="n">
-        <v>3000075</v>
+        <v>3000083</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Geologia e sismologia</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Indica l'involucro esterno alla superficie terrestre, costituito da aria, acqua, suolo e sottosuolo (per la profondità di poche decine di metri), in cui sussistono le condizioni essenziali alla vita; per estensione definisce l'insieme delle forme viventi presenti sul pianeta terra. Con l'idrosfera, insieme delle masse d'acqua, la geosfera, insieme dei substrati geologici, e l'atmosfera che è la massa d'aria che ci circonda, costituisce l'ecosfera, in pratica, il pianeta stesso, considerato come la massima espressione dell'integrazione tra le varie componenti viventi (biotiche) e non viventi (abiotiche). La biosfera non è una cosa separata dal resto, ma si compenetra con tutte le matrici ambientali; infatti gli esseri viventi sono presenti sia all'interno dell'idrosfera che negli strati più bassi dell'atmosfera e nella geosfera (soprattutto nella pedosfera, cioè lo strato superficiale dei suolo). Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Il cambiamento costituisce il fondamento della dinamica sociale. Sebbene, ai suoi esordi, la sociologia sia stata influenzata da una sorta di concetto meccanicistico di progresso (ad esempio la legge dei tre stadi della conoscenza umana, "teologico, metafisico e positivo", elaborata da comte), la società non è mai stata considerata statica. Essa è frutto di trasformazioni che si susseguono continuamente. Può trattarsi di trasformazioni lente, graduali, quasi impercettibili oppure veloci, scioccanti, sconvolgenti, imprevedibili, implacabili, onnipresenti. Le trasformazioni possono essere molto vaste in dimensione ed intensità, di breve o di lungo termine, con effetti di piccola e grande scala; operano contemporaneamente a livello locale e globale (pasmore, 1994). Occorre, inoltre, notare che la corrispondenza tra cambiamento e progresso, caratteristica del diciannovesimo secolo, è stata fortemente messa in discussione, dato che il cambiamento può essere positivo e/o negativo, regressivo e/o progressivo, costruttivo e/o distruttivo. In sintesi, è possibile affermare che il cambiamento: è un processo continuo che si basa sul saggio uso delle risorse disponibili; si configura mentre viene attuato; si basa sulla prefigurazione del futuro e si attua con forte flessibilità di modelli; non avviene tutto assieme ad un'ora stabilita; è basato sulla partecipazione di tutti i soggetti e le componenti coinvolte nella situazione e nel sistema di riferimento. Il cambiamento è dunque frutto del rapporto tra le singole parti ed è tessuto dalla combinazione tra loro; dipende dall'apertura della parte-componente e dell'organismo più ampio ad intessere continue, contemporanee interazioni; più una parte (ad esempio un ecosistema locale o una comunità sociale) è aperta al suo interno e conserva la diversità delle sue componenti, più aperta potrà essere all'esterno; e viceversa. Esiste, quindi, una chiara correlazione fra i suddetti modi di intendere il cambiamento e quelli emersi da parte ambientalista sulla crescita e lo sviluppo. In termini sociologi, si tratta della dinamica dell'interazione sociale; un'interazione mai statica ed ordinata. Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
         </is>
       </c>
     </row>
@@ -1964,19 +1968,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4000035</v>
+        <v>4000002</v>
       </c>
       <c r="C77" t="n">
-        <v>3000076</v>
+        <v>3000084</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Climatologia</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Anidride carbonica o biossido di carbonio: gas inerte, incolore, inodore, non tossico e non infiammabile, componente naturale dell'atmosfera, ove è presente in tracce. Indispensabile per la vita vegetale, è uno dei gas che contribuiscono al cosiddetto effetto serra fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>È il cambiamento di valori, concetti e modi di pensare basati su esempi (dal significato greco di paradigma). Esso è di tale intensità da abbracciare, progressivamente, tutti i settori della scienza e del sapere, attraversando differenti aree e campi di attività. Esso avviene in diversi periodi storici, caratterizzando l'evoluzione dell'essere umano. Un esempio recente è quello della sostenibilità. Apparsa da circa trenta anni come idea regolativa per riconciliare l'umanità con la natura, essa catalizza nuovi orizzonti e prospettive per le teorie, le discipline scientifiche, le strategie politiche, le culture e le azioni del genere umano. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
         </is>
       </c>
     </row>
@@ -1985,19 +1989,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4000001</v>
+        <v>4000002</v>
       </c>
       <c r="C78" t="n">
-        <v>3000077</v>
+        <v>3000086</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Chimica</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Utilizzazione integrata della biochimica, della microbiologia e delle scienze dell'ingegneria genetica per realizzare applicazioni tecnologiche partendo dalle proprietà dei microrganismi, delle colture cellulari o di altri agenti biologici. Si occupa cioè della produzione industriale di sostanze elaborate da organismi viventi batteri, lieviti, cellule vegetali e animali. Principali settori di applicazione delle biotecnologie: sanitario (produzione di proteine umane, di vaccini..); agro-alimentare (utilizzo di enzimi per migliorare la resa e la qualità dei prodotti alimentari, produzione di fertilizzanti, fitofarmaci...); chimico (chimica fine, processi catalitici, recupero di sottoprodotti della produzione di base...); ambientale (trattamento biologico dei rifiuti, biosensori per rilevare l'inquinamento...); energetico (utilizzo di materiale agricolo di scarto, dell'energia solare..). Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Una nozione delle soglie ambientali da prendere in considerazione nella gestione e pianificazione urbana. Fonte: http://www.geocities.com/athens/agora/5311/giuridica/extra/00-eu-sustain-glossario.htmagenda locale 21</t>
         </is>
       </c>
     </row>
@@ -2006,19 +2010,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4000001</v>
+        <v>4000002</v>
       </c>
       <c r="C79" t="n">
-        <v>3000078</v>
+        <v>3000094</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Chimica</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Spazio o luogo occupato da una comunità di organismi viventi, che offre determinate caratteristiche fisico-chimico-climatiche. Fonte: http://www.arpa.veneto.it/servizi-online/glossari-ambientali/glossario-ambientaleglossario.htm</t>
+          <t>Documento fondamentale redatto in occasione della conferenza di lanzarote patrocinata dal wto e dall'unesco nel 1995. La carta raccoglie 18 principi che delineano in maniera abbastanza generale e generica in quale modo il turismo possa essere pianificato e svolto in modo tale da salvaguardare risorse naturali e patrimonio perle generazioni future. La carta del turismo sostenibile ha seguito e preceduto la compilazione di numerosi altri decaloghi di norme di comportamento (unep, 1996). Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2034,7 @@
         <v>4000002</v>
       </c>
       <c r="C80" t="n">
-        <v>3000079</v>
+        <v>3000097</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2039,7 +2043,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Saggio, pubblicato nel 1972 dalla rivista ecologist, che rappresentava una revisione radicale dei problemi dell'ambiente umano, esaminando i cambiamenti necessari per creare una società basata sulla stabilità e il riutilizzo dei materiali fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Carta di base a scala 1:10.000 0 1:5.000.contenuti: fragilità ambientale, ad esempio zone di transizione, zone carsiche, zone umide, golene, ripe fluviali, superfici detritiche, dune mobili, ecc. Dissesto naturale, ad esempio, frane, calanchi, erosioni fluviali, eoliche, marine, ecc. Degrado ambientale indotto dalle attività umane, quale il degrado di aria, suoli, acque e della vegetazione, suddiviso in degrado fisico o chimico, biologico, ecologico. Degrado funzionale, quale il degrado economico, produttivo e di fruibilità. Degrado paesaggistico, quale il degrado percettivo sulle grandi estensioni, il degrado estetico delle qualità architettoniche ed ornamentali, il degrado culturale, legato alla perdita di legami con l'habitat di vita, ecc. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2055,7 @@
         <v>4000002</v>
       </c>
       <c r="C81" t="n">
-        <v>3000080</v>
+        <v>3000098</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2060,7 +2064,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Ogni intervento di rimozione della fonte inquinante e di quanto dalla stessa contaminato, fino al raggiungimento dei valori limite conformi all'utilizzo previsto dell'area. Fonte: d.l.vo 5.febb.1997,n22</t>
+          <t>Sono dichiarazioni a carattere generale che in passato hanno svolto un ruolo notevole ed ancor oggi costituiscono un punto di riferimento per il dibattito sul rapporto uomo-ambiente e sulla necessità di codificare con leggi e norme il diritto dell'uomo a vivere in un ambiente sano ed in equilibrio ecologico. Fonte: fonte : biblioteca di documentazione pedagogica - firenze</t>
         </is>
       </c>
     </row>
@@ -2069,19 +2073,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4000008</v>
+        <v>4000002</v>
       </c>
       <c r="C82" t="n">
-        <v>3000081</v>
+        <v>3000104</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Politiche ed iniziative di agenda 21 o di sviluppo sostenibile,</t>
+          <t>A partire dal 2002, secondo quanto previsto dal d.m. 79/99, produttori ed importatori hanno l'obbligo di immettere una quota di energia elettrica prodotta da fonti rinnovabili pari al 2% dell'energia convenzionale prodotta o importata nel 2001. In tale quadro si inserisce il cosiddetto "mercato dei certificati verdi", in cui la domanda sarà definita dalla quota (2%) di energia soggetta ad obbligo, mentre l'offerta sarà determinata dai certificati verdi emessi da centrali a fonti rinnovabili (impianti privati qualificati, impianti cip6 gestiti dal grtn, importazioni da fonti rinnovabili) fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -2093,7 +2097,7 @@
         <v>4000002</v>
       </c>
       <c r="C83" t="n">
-        <v>3000082</v>
+        <v>3000106</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2102,7 +2106,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Qualsiasi cambiamento di clima attribuito direttamente o indirettamente ad attività umane, il quale altera la composizione dell'atmosfera mondiale e si aggiunge alla variabilità naturale del clima osservata in periodi di tempo comparabili. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Strumento usato per assicurare che siano stati analizzati tutti i processi, procedimenti e tutte le fasi di un'operazione. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -2114,7 +2118,7 @@
         <v>4000002</v>
       </c>
       <c r="C84" t="n">
-        <v>3000083</v>
+        <v>3000107</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2123,7 +2127,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Il cambiamento costituisce il fondamento della dinamica sociale. Sebbene, ai suoi esordi, la sociologia sia stata influenzata da una sorta di concetto meccanicistico di progresso (ad esempio la legge dei tre stadi della conoscenza umana, "teologico, metafisico e positivo", elaborata da comte), la società non è mai stata considerata statica. Essa è frutto di trasformazioni che si susseguono continuamente. Può trattarsi di trasformazioni lente, graduali, quasi impercettibili oppure veloci, scioccanti, sconvolgenti, imprevedibili, implacabili, onnipresenti. Le trasformazioni possono essere molto vaste in dimensione ed intensità, di breve o di lungo termine, con effetti di piccola e grande scala; operano contemporaneamente a livello locale e globale (pasmore, 1994). Occorre, inoltre, notare che la corrispondenza tra cambiamento e progresso, caratteristica del diciannovesimo secolo, è stata fortemente messa in discussione, dato che il cambiamento può essere positivo e/o negativo, regressivo e/o progressivo, costruttivo e/o distruttivo. In sintesi, è possibile affermare che il cambiamento: è un processo continuo che si basa sul saggio uso delle risorse disponibili; si configura mentre viene attuato; si basa sulla prefigurazione del futuro e si attua con forte flessibilità di modelli; non avviene tutto assieme ad un'ora stabilita; è basato sulla partecipazione di tutti i soggetti e le componenti coinvolte nella situazione e nel sistema di riferimento. Il cambiamento è dunque frutto del rapporto tra le singole parti ed è tessuto dalla combinazione tra loro; dipende dall'apertura della parte-componente e dell'organismo più ampio ad intessere continue, contemporanee interazioni; più una parte (ad esempio un ecosistema locale o una comunità sociale) è aperta al suo interno e conserva la diversità delle sue componenti, più aperta potrà essere all'esterno; e viceversa. Esiste, quindi, una chiara correlazione fra i suddetti modi di intendere il cambiamento e quelli emersi da parte ambientalista sulla crescita e lo sviluppo. In termini sociologi, si tratta della dinamica dell'interazione sociale; un'interazione mai statica ed ordinata. Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
+          <t>Un concetto chiave degli ecosistemi che fa riferimento al grado di isolamento di un sistema, o alla sua vulnerabilità di fronte ai cambiamenti esterni. Fonte: http://www.geocities.com/athens/agora/5311/giuridica/extra/00-eu-sustain-glossario.htmagenda locale 21</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2139,7 @@
         <v>4000002</v>
       </c>
       <c r="C85" t="n">
-        <v>3000084</v>
+        <v>3000109</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2144,7 +2148,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>È il cambiamento di valori, concetti e modi di pensare basati su esempi (dal significato greco di paradigma). Esso è di tale intensità da abbracciare, progressivamente, tutti i settori della scienza e del sapere, attraversando differenti aree e campi di attività. Esso avviene in diversi periodi storici, caratterizzando l'evoluzione dell'essere umano. Un esempio recente è quello della sostenibilità. Apparsa da circa trenta anni come idea regolativa per riconciliare l'umanità con la natura, essa catalizza nuovi orizzonti e prospettive per le teorie, le discipline scientifiche, le strategie politiche, le culture e le azioni del genere umano. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
+          <t>L'insieme dei processi di accrescimento, di differenziamento e di riproduzione che conducono da un individuo ad altri simili (discendenti). Ha complessità diversa nei vari organismi. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -2153,19 +2157,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4000005</v>
+        <v>4000002</v>
       </c>
       <c r="C86" t="n">
-        <v>3000085</v>
+        <v>3000110</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Idrologia</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>La teoria del caos è strettamente legata a quella della complessità (vedi). Caos è ordine dinamico, circolarità ed iterazione tra cause ed effetti, convivenza di molteplici ordini, non sempre identificabili, interpretabili e semplificabili dal modo in cui l'essere umano organizza la propria conoscenza (ad esempio leggi ed assunzioni scientifiche). La teoria del caos si fonda sulla natura olistica della dinamica non lineare. In altre parole, i sistemi dinamici sono complessi e, quindi, olistici; possiedono un carattere di completezza per cui le parti s'influenzano a vicenda, e globale (intero) e locale (parte) s'influenzano contemporaneamente. Un sistema è dinamico e caotico, si basa su un'estrema sensibilità e mutevolezza e non ritorna mai al suo stato precedente per gli effetti di iterazione e connessione (feedback) fra tutte le componenti. Tali effetti possono amplificare condizioni iniziali in modo imprevedibile. Forse la migliore immagine della teoria del caos è data dall'ormai noto "effetto farfalla", secondo il quale un battito d'ali di una farfalla, oggi a pechino, potrebbe trasformarsi in un temporale nei prossimi mesi a new york. Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
+          <t>Ciclo di vita ecologico di un prodotto, che comprende tutte le fasi, da quella di estrazione delle materie prime a quella di smaltimento finale del prodotto-rifiuto</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2181,7 @@
         <v>4000002</v>
       </c>
       <c r="C87" t="n">
-        <v>3000086</v>
+        <v>3000112</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2186,7 +2190,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Una nozione delle soglie ambientali da prendere in considerazione nella gestione e pianificazione urbana. Fonte: http://www.geocities.com/athens/agora/5311/giuridica/extra/00-eu-sustain-glossario.htmagenda locale 21</t>
+          <t>Impiego continuo di strategie ambientali integrate e in ottica preventiva nell'ambito di processi, prodotti e servizi con l'obiettivo di raggiungere un aumento dell'efficienza ecologica e un miglioramento della qualità della vita di una regione. "ecoprofit", facendo cardine sulla filosofia cleaner production, ha già portato alla realizzazione degli obiettivi suddetti e può essere qualificato come programma di cleaner production di maggior successo. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -2195,19 +2199,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4000003</v>
+        <v>4000002</v>
       </c>
       <c r="C88" t="n">
-        <v>3000087</v>
+        <v>3000125</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Biologia</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Quantità di popolazione che un dato habitat può sostenere indefinitamente; la capacità portante del pianeta è la capacità di alimentare e sostenere la popolazione e tutte le altre forme viventi. La capacità portante è legata al concetto di sostenibilità e di equilibrio tra quantità delle risorse disponibili e consistenza/attività economica/stili di vita di una data popolazione.</t>
+          <t>Categoria di elementi fisicamente individuabili che compongono l'ambiente considerato dagli studi di impatto ambientale. Ad essa viene riconosciuta un'omogeneità al fine degli impatti attesi. Le componenti ambientali previste dagli studi d'impatto ambientale sono: atmosfera, suolo e sottosuolo, ambiente idrico, vegetazione, flora e fauna, ecosistemi, salute pubblica, rumore e vibrazioni, radiazioni ionizzanti e non ionizzanti, paesaggio. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -2216,19 +2220,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4000003</v>
+        <v>4000002</v>
       </c>
       <c r="C89" t="n">
-        <v>3000088</v>
+        <v>3000128</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Biologia</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>È composto dall’insieme dei sistemi naturali (mari, fiumi, foreste, fauna, flora) e dai prodotti agricoli, della pesca, della caccia, del patrimonio artistico e culturale presente in un dato territorio.</t>
+          <t>La comunità è l'insieme delle persone che vivono in un contesto territoriale ed ambientale, come una comunità urbana. La comunità è caratterizzata da regole ed obiettivi comuni, ed è alla base dell'attuazione dell'agenda 21, come parte sociale. In un'accezione più ampia, ecosistemica, può contenere anche le componenti naturali, animate ed inanimate, rappresentate da opportuni stakeholders (p.e. Associazioni ambientaliste). Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
         </is>
       </c>
     </row>
@@ -2237,19 +2241,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4000003</v>
+        <v>4000002</v>
       </c>
       <c r="C90" t="n">
-        <v>3000089</v>
+        <v>3000135</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Biologia</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Questo concetto si riferisce alla società ed al suo sistema organizzativo come organismo vitale nel quale la dimensione umana ha un ruolo primario. Il capitale umano è determinato da una continua interazione sociale basata sulla qualità della mutualità (riconoscimento, rispetto, fiducia reciproca). Si base sul miglioramento costante delle abilità e delle capacità di: analizzare, diagnosticare, concepire proposte, progettare, sperimentare, migliorare, realizzare, valutare, diffondere soluzioni. Tali capacità rappresentano le identità culturali e le potenzialità delle comunità sociali di un contesto locale. Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
+          <t>I conti ambientali descrivono la pressione, espressa in unità fisiche, esercitata dalle attività economiche sull'ambiente naturale. Nel disegno di legge sulla contabilità ambientale pubblica, i conti ambientali vengono definiti nel modo seguente: "per sistema di conti ambientali si intende l'insieme delle informazioni che, nell'ambito del sistema statistico nazionale descrivono: a) la consistenza e le variazioni del patrimonio naturale; b) le interazioni tra economia ed ambiente; c) le spese per la prevenzione, la protezione e il ripristino in materia ambientale". Si tratta della base informativa del bilancio ambientale o documento di sostenibilità dell'ente pubblico territoriale. Fonte: http://www.ecoeconomisti.it/ecoglossario.html</t>
         </is>
       </c>
     </row>
@@ -2258,19 +2262,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4000001</v>
+        <v>4000002</v>
       </c>
       <c r="C91" t="n">
-        <v>3000090</v>
+        <v>3000136</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Chimica</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Tassa sui combustibili (parzialmente legata all'anidride carbonica emessa nella combustione) finalizzata a fare ricadere i danni ambientali causati dalle emissioni di co2 sul soggetto che le emette fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Il controllo ambientale è una funzione d'osservazione e monitoraggio dello stato dell'ambiente (nelle sue diverse componenti) e delle fonti d'inquinamento, sia d'origine naturale sia legate ad attività antropiche. Esso costituisce, quindi uno strumento privilegiato per il governo dell'ambiente. Il controllo può anche essere visto come l'insieme delle azioni mirate a garantire la disponibilità di un quadro certo e continuamente aggiornato della qualità dell'ambiente e delle informazioni di supporto che permettono di seguire e prevedere l'evoluzione dei fenomeni degenerativi generali e localizzati, consentendone la limitazione nello spazio e nel tempo. Fonte: tesi di laurea"l'agenzia nazionale per la protezione dell'ambiente" a. Giuliani 1999</t>
         </is>
       </c>
     </row>
@@ -2279,19 +2283,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4000091</v>
+        <v>4000002</v>
       </c>
       <c r="C92" t="n">
-        <v>3000091</v>
+        <v>3000140</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Competenza della Protezione Civile</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Pressione esercitata dall’insieme dei fattori antropici presenti in un’area su una determinata risorsa ambientale</t>
+          <t>Il corridoio ecologico è un elemento del paesaggio che connette due o più macchie di habitat naturale. Esso funge da habitat e da canale per lo spostamento di animali e di spore e da zona attraverso la quale avviene lo scambio genetico tra le popolazioni. Sono esempi di corridoi ecologici le fasce arboree ed arbustive che circondano i margini dei terreni coltivati, i sistemi ripari ovvero la vegetazione delle fasce di pertinenza fluviale, le fasce arboree ed arbustive legate ad infrastrutture lineari (strade, ferrovie, canali artificiali) ed i corridoi lineari di vegetazione erbacea entro matrici boscate. Fonte: http://www.comune.dozza.bo.it/sellustra/mioweb2/glossario.htm</t>
         </is>
       </c>
     </row>
@@ -2300,19 +2304,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4000092</v>
+        <v>4000002</v>
       </c>
       <c r="C93" t="n">
-        <v>3000092</v>
+        <v>3000142</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Macchine</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Utilizzare le automobili private per gli spostamenti (soprattutto quelli casa-lavoro), invece che come singoli utenti, ospitando a turno altri passeggeri (almeno due), vicini di casa o colleghi di lavoro. Il servizio è organizzato tramite i mobility managers (vedi), ma anche sulla base dell'impegno di cittadini più sensibili ed attivi. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
+          <t>Costi diretti che generalmente vengono allocati a centri di costo differenti da quelli ambientali sebbene il motivo principale per il quale sono stati sostenuti sia di tipo ambientale e che vengono considerati "costi ambientali" solo dopo un processo di riclassificazione del bilancio</t>
         </is>
       </c>
     </row>
@@ -2321,19 +2325,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4000092</v>
+        <v>4000002</v>
       </c>
       <c r="C94" t="n">
-        <v>3000093</v>
+        <v>3000143</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Macchine</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Condividere la proprietà e l'uso di un'automobile con altri, dividendo le sue spese di gestione, per utilizzarla solo quando se ne ha effettivamente bisogno (vedi più in dettaglio car-sharinq). Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
+          <t>Si tratta di un'ipotesi di sviluppo, ipotizzata da h.daly, economista ambientale della banca mondiale, che prevede uno sviluppo senza crescita, ovvero un miglioramento qualitativo senza un aumento quantitativo che ecceda la capacità dell'ambiente di rigenerare input di materia prima e assorbire output di rifiuti. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -2345,7 +2349,7 @@
         <v>4000002</v>
       </c>
       <c r="C95" t="n">
-        <v>3000094</v>
+        <v>3000144</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2354,7 +2358,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Documento fondamentale redatto in occasione della conferenza di lanzarote patrocinata dal wto e dall'unesco nel 1995. La carta raccoglie 18 principi che delineano in maniera abbastanza generale e generica in quale modo il turismo possa essere pianificato e svolto in modo tale da salvaguardare risorse naturali e patrimonio perle generazioni future. La carta del turismo sostenibile ha seguito e preceduto la compilazione di numerosi altri decaloghi di norme di comportamento (unep, 1996). Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Cultura è l'intero complesso di conoscenze, conquiste, tecnologia, tradizioni, percezioni, costumi, valori ed altre capacità delle società e dell'individuo che collegano i comportamenti del passato a quelli del presente. La cultura influenza idee ed azioni di individui e gruppi e le interazioni tra questi e l'ambiente. In tal senso cultura ambientale è l'insieme delle conoscenze formali ed informali che accrescono la comprensione dei fenomeni ambientali e correggono i comportamenti umani tendenti alla distruzione. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -2363,19 +2367,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4000008</v>
+        <v>4000002</v>
       </c>
       <c r="C96" t="n">
-        <v>3000095</v>
+        <v>3000145</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>La carta di aalborg "carta delle città europee per uno sviluppo durevole e sostenibile" elabora, nel 1994, il concetto di sostenibilità, individua le responsabilità ambientali delle città e le impegna a sviluppare politiche ed azioni positive per andare verso città sostenibili.</t>
+          <t>Per cultura si intende un complesso quadro di valori e credenze che caratterizza (proviene da ed influenza) gli attori della comunità sociale, le loro decisioni ed azioni in un processo continuo teso ad affrontare, anticipare e gestire il cambiamento. La cultura si riferisce, quindi, ad una comunità, un gruppo, una nazione, ecc. Ed esprime la coesione di idee, valori, convinzioni, norme e modi di agire, condivisi dalle persone di tali sistemi organizzativi. Il concetto di "cultura" riguarda ormai anche un ecosistema. Esso può essere inteso come complesso modo di vita in continua evoluzione e con molteplicità di componenti ed interazioni, con diverse e costanti modalità di interscambio (interno ed esterno) dl "informazione, materia ed energia". In tal senso, un ecosistema esprime contenuti culturali che abbinano sia le componenti umane sia quelle non umane. Al concetto di civiltà si attribuisce un significato di maggiore universalità (globalizzazione). Valori provenienti da un paese possono, per esempio, divenire universali. Oggi, per civiltà si intende il processo di combinazione ed integrazione fra culture provenienti da comunità diverse con una sempre maggiore attenzione sui loro valori di riconciliazione fra umanità e natura (vedi sostenibilità e sviluppo sostenibile). Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
         </is>
       </c>
     </row>
@@ -2384,19 +2388,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4000008</v>
+        <v>4000002</v>
       </c>
       <c r="C97" t="n">
-        <v>3000096</v>
+        <v>3000146</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>La carta dei diritti sociali fondamentali dei lavoratori, detta carta sociale è stata adottata nel 1989, sotto forma di dichiarazione, da tutti gli stati membri, ad eccezione del regno unito. È considerata come uno strumento politico contenente "obblighi morali" nell'intento di garantire negli stati membri il rispetto di alcuni diritti sociali, quali segnatamente il mercato del lavoro, la formazione professionale, le eguali opportunità e l'ambiente di lavoro. In essa si chiede espressamente alla commissione di promuovere iniziative nell'intento di tradurre in atti legislativi il contenuto della carta. Quest'ultima è stata anche seguita da programmi di azione. Fonte: http://europa.eu.int/scadplus/leg/it/cig/g4000.htm</t>
+          <t>Nella legislazione americana, dopo il superfund del 1986 e l’oil pollution act del 1990, si sono stabilite due diversi tipi di responsabilità per i rilasci di sostanze tossiche nell’ambiente naturale: il ripristino dei siti (il clean up) e la responsabilità residuale relativa al periodo successivo alla conclusione delle operazioni di ripristino ovvero quella collegata al danno arrecato alle risorse naturali. Praticamente i danni ambientali sono valutati ai costi di ripristino più il valore economico dei servizi ambientali perduti per effetto del danno. Se volessimo introdurre brevemente ai diversi metodi di calcolo del danno ambientale, potremmo affermare che questo può essere calcolato facendo riferimento a due diversi concetti: il danno inteso come mancato beneficio associato ai beni e/o servizi ambientali danneggiati; il danno inteso valutando i costi di tutela.</t>
         </is>
       </c>
     </row>
@@ -2408,7 +2412,7 @@
         <v>4000002</v>
       </c>
       <c r="C98" t="n">
-        <v>3000097</v>
+        <v>3000148</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2417,7 +2421,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Carta di base a scala 1:10.000 0 1:5.000.contenuti: fragilità ambientale, ad esempio zone di transizione, zone carsiche, zone umide, golene, ripe fluviali, superfici detritiche, dune mobili, ecc. Dissesto naturale, ad esempio, frane, calanchi, erosioni fluviali, eoliche, marine, ecc. Degrado ambientale indotto dalle attività umane, quale il degrado di aria, suoli, acque e della vegetazione, suddiviso in degrado fisico o chimico, biologico, ecologico. Degrado funzionale, quale il degrado economico, produttivo e di fruibilità. Degrado paesaggistico, quale il degrado percettivo sulle grandi estensioni, il degrado estetico delle qualità architettoniche ed ornamentali, il degrado culturale, legato alla perdita di legami con l'habitat di vita, ecc. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Il decreto legislativo 5 febbraio 1997, n.22 emanato in attuazione delle direttive 91/156/cee sui rifiuti, 91/689/cee sui rifiuti pericolosi e 94/62/ce su gli imballaggi e sui rifiuti di imballaggio fonte: arpalazio</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2433,7 @@
         <v>4000002</v>
       </c>
       <c r="C99" t="n">
-        <v>3000098</v>
+        <v>3000149</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2438,7 +2442,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Sono dichiarazioni a carattere generale che in passato hanno svolto un ruolo notevole ed ancor oggi costituiscono un punto di riferimento per il dibattito sul rapporto uomo-ambiente e sulla necessità di codificare con leggi e norme il diritto dell'uomo a vivere in un ambiente sano ed in equilibrio ecologico. Fonte: fonte : biblioteca di documentazione pedagogica - firenze</t>
+          <t>Rapida distruzione delle foreste in molte zone del mondo, soprattutto ai tropici e in particolare nella foresta amazzonica per convertire il terreno a un uso non forestale; ne consegue l'impoverimento delle risorse naturali capaci di abbassare il tasso di anidride carbonica nell'aria: la combustione, spesso dolosa, delle foreste pluviali, produce infatti più anidride carbonica di quanta esse ne assorbano. La progressiva scomparsa di foreste e boschi aumenta il ritmo di erosione del suolo, e le specie animali che esse ospitavano rischiano l'estinzione. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -2447,19 +2451,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4000007</v>
+        <v>4000002</v>
       </c>
       <c r="C100" t="n">
-        <v>3000099</v>
+        <v>3000152</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Geologia e sismologia</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Scienza complessa che comprende tutte le operazioni scientifiche, tecniche ed artistiche necessarie all'elaborazione e all'allestimento delle carte geografiche e dei diversi sistemi di espressione grafica sulla base di rilevamenti diretti del terreno e di altre fonti di cartografiche o documentarie. Il termine cartografia si riferisce non solo alla produzione ma anche alla lettura e all'utilizzo delle carte. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Processo di trasformazione in deserto di territori aridi o semiaridi dovuto principalmente a variazioni climatiche, deforestazione, a cattiva gestione o uso improprio dei territorio. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -2468,19 +2472,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4000100</v>
+        <v>4000002</v>
       </c>
       <c r="C101" t="n">
-        <v>3000100</v>
+        <v>3000153</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Idraulica</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Impianti che trasformano l'energia potenziale di una massa di acqua in quiete e/o l'energia cinetica di una corrente di acqua in energia meccanica, che a sua volta viene poi trasformata in energia elettrica. Le centrali idroelettriche si possono classificare in base a vari elementi: 1) altezza del salto sfruttato (centrali a bassa, media e alta caduta a seconda che il salto sia rispettivamente compreso fino a 50 metri, 250 metri o superiore); 2) portata utilizzabile (centrali di piccola, media e grande portata in base ad una portata d'acqua rispettivamente fino a 10 m3/secondo, 100 m3/secondo o superiore); 3) per tipologia impiantistica: impianti ad acqua fluente, a serbatoio, ad accumulazione per pompaggio. Gli impianti ad acqua fluente sfruttano la portata di un corso d'acqua disponibile in quel preciso momento, senza capacità di regolazione degli afflussi (se il corso d'acqua è in magra e si scende sotto un livello minimo di portata, cessa la produzione di energia elettrica). Gli impianti a serbatoio (o anche a bacino con deflusso regolato) sono provvisti di una capacità di invaso alla presa del corso d'acqua atta a modificare il regime delle portate utilizzate dalla centrale (la centrale è posta al piede di una diga). Gli impianti di accumulazione mediante pompaggio sono impianti simili agli "impianti a serbatoio", ma ricavano la disponibilità di acqua nel serbatoio superiore mediante sollevamento con pompe. Quest'ultimo tipo di impianto si usa laddove la disponibilità naturale di acqua è scarsa e consiste in due serbatoi di estremità, collocati a quote differenti: nelle ore diurne di maggior richiesta (ore di punta) l'acqua immagazzinata nel serbatoio superiore è usata per la produzione di energia elettrica; nelle ore di minor richiesta (ore notturne) l'acqua viene risollevata al serbatoio superiore mediante pompe fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>È un modo di progettare un prodotto tenendo conto, fin dalla fase di ideazione, della necessità di conservare le risorse naturali, ottimizzare il consumo di energia e di materia, favorire il disassemblaggio e la manutenzione, estendere la durata e minimizzare la produzione dei rifiuti e aumentare il riciclo e/o il recupero fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -2489,19 +2493,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4000101</v>
+        <v>4000002</v>
       </c>
       <c r="C102" t="n">
-        <v>3000101</v>
+        <v>3000158</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Elettronica</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Impianto destinato alla conversione dell'energia nucleare in energia elettrica. Schematicamente una centrale nucleare è costituita da un reattore nucleare, a sua volta costituito da una struttura (detta nocciolo del reattore) in cui si trova il combustibile nucleare e nella quale avvengono le reazioni di fissione), e da un insieme di apparecchiature ausiliarie che provvedono ad asportare il calore prodotto dalla fissione. Quest'ultimo genera il vapore utilizzato per produzione di elettricità in maniera analoga a quanto avviene nelle convenzionali centrali termoelettriche fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Direttiva cee/ceea/ce n.43 del 21/05/1992: strumento legislativo mirato alla conservazione degli habitat naturali e seminaturali e della flora e della fauna selvatiche. L'obiettivo finale della direttiva è quello di creare una rete natura 2000 formato da aree zsc. Tale direttiva ha creato per la prima volta un quadro di riferimento per la conservazione della natura in tutti gli stati dell'unione europea. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -2510,19 +2514,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4000054</v>
+        <v>4000002</v>
       </c>
       <c r="C103" t="n">
-        <v>3000102</v>
+        <v>3000162</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Termodinamica</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Impianto per la conversione dell'energia solare in energia elettrica mediante un passaggio intermedio di conversione in energia termica. Le tipologie sono principalmente due: impianti a concentrazione (la radiazione solare è concentrata da opportuni "specchi" su un sistema ricevitore, ove riscalda un fluido termovettore che può raggiungere temperature di alcune centinaia di °c); impianti a bassa temperatura (ad esempio gli "stagni solari", ove tra la superficie e il fondo si realizza un gradiente di temperatura di qualche decina di gradi, che può essere sfruttato per produrre energia elettrica, ovviamente con basso rendimento termodinamico) fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Nato nel 1993, è un sistema comunitario volontario di ecogestione.il suo obiettivo? garantire la minimizzazione degli impatti ambientali nei processi industriali. Fonte: http://www.agricolturabiologicaitaliana.it/</t>
         </is>
       </c>
     </row>
@@ -2531,19 +2535,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4000001</v>
+        <v>4000002</v>
       </c>
       <c r="C104" t="n">
-        <v>3000103</v>
+        <v>3000163</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Chimica</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Impianto che trasforma l'energia termica di combustibili in energia elettrica attraverso la creazione di vapore o utilizzando i gas derivati dalla combustione. È generalmente costituita da uno o più generatori di vapore, da motori primi termoelettrici, da uno o più gruppi generatori e trasformatori principali, dal ciclo rigenerativo e da vari circuiti e servizi ausiliari fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Riprogettazione del prodotto in modo che causi il minor danno possibile all'ambiente durante la produzione, l'uso e lo smaltimento. Forma unica versus standard, produzione artigianale contro serializzazione. Questo è il succo dell'ecodesign, filosofia creativa che reinterpreta i valori dell'artigianato tradizionale, come la durevolezza, la praticità, l'uso economico dei materiali e la creazione di forme uniche. Fonti: http://www.ecoeconomisti.it/ecoglossario.html http://www.agricolturabiologicaitaliana.it/ ecoefficienza orientamento strategico che consente ad un'impresa che investe nella riduzione degli impatti sull'ambiente di superare i fattori penalizzanti (iniziale aumento dei costi, adeguamenti tecnologici etc...) trasformandoli in occasioni di aumento della profittabilità e competitività dall'azienda. Il significato del termine ecoefficienza può essere fatto risalire alla riformulazione del concetto stesso di efficienza proposta da e. U. Von weiszäcker, a. B. Lovins e l. H. Lovins nel volume fattore 4 (edizioni ambiente, 1998). Qui, per efficienza si intende ciò che consente di scindere il benessere dell'umanità dal consumo di risorse. Secondo gli autori, migliorando e calibrando l'efficienza - attraverso una serie di tecniche e metodologie già oggi disponibili - si può arrivare rapidamente a un utilizzo più razionale delle risorse, con benefici ambientali, sociali ed economici. L'ecoefficienza si basa su 4 principi scientifici: 1) le risorse "rinnovabili" non devono essere sfruttate oltre la loro naturale capacità di rigenerazione; 2) la velocità di sfruttamento delle risorse non rinnovabili non deve essere più alta di quella relativa allo sviluppo di risorse sostitutive, ottenibili attraverso il progresso tecnologico; 3) la produzione dei rifiuti ed il loro rilascio nell'ambiente devono procedere a ritmi uguali o inferiori a quelli di una chiaramente dimostrata e controllata capacità di assimilazione da parte dell'ambiente stesso; 4) devono essere mantenuti i servizi di sostegno all'ambiente (per esempio, la diversità genetica e la regolamentazione climatica). Fonti: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce http://www.srseuropa.it/mat_for/gloframe.htm http://www.ecoeconomisti.it/ecoglossario.html ecogestione per ecogestione o gestione ambientale si intende la parte del sistema di gestione complessivo dell'impresa che comprende la struttura organizzativa, la responsabilità, le prassi, le procedure, i processi e le risorse per definire e attuare la politica ambientale dell'impresa stessa. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -2555,7 +2559,7 @@
         <v>4000002</v>
       </c>
       <c r="C105" t="n">
-        <v>3000104</v>
+        <v>3000164</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2564,7 +2568,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>A partire dal 2002, secondo quanto previsto dal d.m. 79/99, produttori ed importatori hanno l'obbligo di immettere una quota di energia elettrica prodotta da fonti rinnovabili pari al 2% dell'energia convenzionale prodotta o importata nel 2001. In tale quadro si inserisce il cosiddetto "mercato dei certificati verdi", in cui la domanda sarà definita dalla quota (2%) di energia soggetta ad obbligo, mentre l'offerta sarà determinata dai certificati verdi emessi da centrali a fonti rinnovabili (impianti privati qualificati, impianti cip6 gestiti dal grtn, importazioni da fonti rinnovabili) fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Uno dei modi in cui, teoricamente, le questioni ambientali possono incidere sull'andamento del commercio internazionale è rappresentato dalla praticva del cosiddetto "ecodumping", cioè dal trasferimento degli investimenti o delle attività in paesi in cui non esistono, o siano particolarmente ridotti, gli standard ambientali da rispettare nella produzione dei beni. A causa dell' ecodumping, le industrie che operano in paesi con basso standard ambientali godrebbero di un vantaggio competitivo e la migrazione industriale verso "i paradisi dell'inquinamento" causerebbero uno spostamento degli investimenti esteri diretti e dei posti di lavoro dai paesi con alti livelli di controllo a quelli con bassi standard ambientali. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -2573,19 +2577,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4000008</v>
+        <v>4000002</v>
       </c>
       <c r="C106" t="n">
-        <v>3000105</v>
+        <v>3000165</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Al fine di migliorare la gestione operativa delle attività che possono avere un negativo impatto sull’ambiente, molte imprese industriali hanno iniziato a sottoporsi alla verifica di certificatori esterni (società di consulenza specializzate con esperienza primaria nel campo dell’analisi finanziaria e di bilancio). In caso tale verifica vada a buon fine (non abbia cioè riscontrato significative anomalie nel sistema di gestione ambientale degli impianti o superamento dei valori-limite alle emissioni prescritte dalla normativa ambientale in vigore), viene rilasciata una certificazione ambientale che si rifà allo standard volontario prescelto (bs 7750, iso 14000). Alcune società di consulenza si stanno orientando ad operare anche nell’ambito del regolamento emas, che prevede l’accreditamento di verificatori a livello comunitario.</t>
+          <t>Per ecogestione o gestione ambientale si intende la parte del sistema di gestione complessivo dell’impresa che comprende la struttura organizzativa, la responsabilità, le prassi, le procedure, i processi e le risorse per definire e attuare la politica ambientale dell’impresa stessa.</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2601,7 @@
         <v>4000002</v>
       </c>
       <c r="C107" t="n">
-        <v>3000106</v>
+        <v>3000166</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2606,7 +2610,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Strumento usato per assicurare che siano stati analizzati tutti i processi, procedimenti e tutte le fasi di un'operazione. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Aziende che presentano un grande potenziale innovativo in relazione ai prodotti/servizi erogati ad alta efficienza ecologica. Fonte: http://www.ecoeconomisti.it/ecoglossario.html</t>
         </is>
       </c>
     </row>
@@ -2618,7 +2622,7 @@
         <v>4000002</v>
       </c>
       <c r="C108" t="n">
-        <v>3000107</v>
+        <v>3000167</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2627,7 +2631,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Un concetto chiave degli ecosistemi che fa riferimento al grado di isolamento di un sistema, o alla sua vulnerabilità di fronte ai cambiamenti esterni. Fonte: http://www.geocities.com/athens/agora/5311/giuridica/extra/00-eu-sustain-glossario.htmagenda locale 21</t>
+          <t>Insieme delle procedure introdotte in ambito europeo del regolamento comunitario n. 880/92, consistenti nel contrassegnare con un logo specifico i prodotti caratterizzati da un limitato impatto ambientale. Il logo viene assegnato a quei prodotti che soddisfano uno specifico insieme di criteri ecologici. Finora hanno ottenuto l’ecolabel comunitario alcuni prodotti nei settori dei detergenti, lavatrici, vernici ecc.. Poiché l’ecolabel è un simbolo che evidenzia le favorevoli prestazioni ambientali di un prodotto (ad esempio, il contenere un minor quantitativo di un determinato inquinante) rispetto ai suoi concorrenti, le imprese se ne avvalgono per orientare i consumatori all’acquisto di beni più rispettosi dell’ambiente.</t>
         </is>
       </c>
     </row>
@@ -2636,19 +2640,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4000003</v>
+        <v>4000002</v>
       </c>
       <c r="C109" t="n">
-        <v>3000108</v>
+        <v>3000168</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Biologia</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Dal greco kyklos (=cerchio). Corrisponde al succedersi regolare di una serie di fenomeni che si ripetono senza interruzione e con periodico ritorno al punto di partenza. C. Biologico - riciclo di alcuni elementi chimici dagli esseri viventi (bio) al mondo inanimato (geo) terrestre e all'atmosfera. Esiste un ciclo del carbonio, dell'azoto, dell'ossigeno, del fosforo, ciascuno con le sue particolarità. Sull'idea di ciclo è basato il concetto di risorse rinnovabili spontaneamente purché l'uomo non rompa questo equilibrio messo a punto in miliardi di anni di evoluzione. C. Vegetativo - insieme delle diverse fasi che si avvicendano nella vita di una pianta: germinazione del seme, accrescimento, fioritura, maturazione del frutto o del seme. C. Vitale - sequenza degli eventi che vanno dalla nascita di un organismo vivente alla sua riproduzione con formazione di nuovi esseri viventi. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Aziende che all'interno del loro settore produttivo raggiungono le migliori performance ambientali. Fonte: http://www.ecoeconomisti.it/ecoglossario.html</t>
         </is>
       </c>
     </row>
@@ -2660,7 +2664,7 @@
         <v>4000002</v>
       </c>
       <c r="C110" t="n">
-        <v>3000109</v>
+        <v>3000169</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2669,7 +2673,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>L'insieme dei processi di accrescimento, di differenziamento e di riproduzione che conducono da un individuo ad altri simili (discendenti). Ha complessità diversa nei vari organismi. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Dal greco òikos = casa ( luogo in cui si abita ) e lògos = studio - studio dell'ambiente. Scienza che studia l'insieme delle interrelazioni con l'ambiente da parte degli organismi vegetali e animali (haeckel, 1866); recentemente le tematiche di ecologia sono state estese anche all'uomo, con particolare riferimento all'influenza che le variazioni climatiche, ambientali ecc. (comprese quelle indotte dall'uomo) esercitano sull'uomo, sugli animali e sulle piante. Nell'accezione contemporanea indica lo studio interdisciplinare delle problematiche ambientali e la ricerca delle possibili modalità di recupero degli squilibri. Ecologia non è quindi solo protezione della natura o studio dell'inquinamento! si occupa fondamentalmente dei rapporti che legano gli esseri viventi, uomo compreso, all'ambiente che li circonda e richiede il contributo di molte scienze (geografia, botanica, zoologia, biologia, biochimica, medicina, antropologia, etc.) fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -2681,7 +2685,7 @@
         <v>4000002</v>
       </c>
       <c r="C111" t="n">
-        <v>3000110</v>
+        <v>3000170</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2690,7 +2694,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Ciclo di vita ecologico di un prodotto, che comprende tutte le fasi, da quella di estrazione delle materie prime a quella di smaltimento finale del prodotto-rifiuto</t>
+          <t>Si interessa degli equilibri ecologici e dei rapporti tra casa ed abitanti, delle possibili fonti di inquinamento interne e degli influssi che i comportamenti domestici determinano sull'ambiente esterno. La casa è un ecosistema artificiale di piccole dimensioni, per le cui analisi è possibile utilizzare i principi riferibili ad un ecosistema naturale. Fonte: http://www.naturanetwork.it/u_gloss.asp</t>
         </is>
       </c>
     </row>
@@ -2699,19 +2703,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4000008</v>
+        <v>4000002</v>
       </c>
       <c r="C112" t="n">
-        <v>3000111</v>
+        <v>3000173</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Meccanismo flessibile previsto nel protocollo di kyoto che consente ad un paese dell'annesso i che implementa un progetto in un paese in via di sviluppo con lo scopo di ridurre le emissioni e di favorire lo sviluppo sostenibile in quel paese di conteggiare parte della riduzione a suo favore. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Complesso ecologico formato dall'uso del suolo, dalla mobilità e dalle componenti socioeconomiche dell'ambiente. In termini generici l'ambiente che coinvolge direttamente l'uomo. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -2723,7 +2727,7 @@
         <v>4000002</v>
       </c>
       <c r="C113" t="n">
-        <v>3000112</v>
+        <v>3000175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2732,7 +2736,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Impiego continuo di strategie ambientali integrate e in ottica preventiva nell'ambito di processi, prodotti e servizi con l'obiettivo di raggiungere un aumento dell'efficienza ecologica e un miglioramento della qualità della vita di una regione. "ecoprofit", facendo cardine sulla filosofia cleaner production, ha già portato alla realizzazione degli obiettivi suddetti e può essere qualificato come programma di cleaner production di maggior successo. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Indica un particolare ambiente e tutti gli esseri viventi e non viventi che lo popolane. E'' l'unità funzionale di base in ecologia ed è composta da una comunità di esseri viventi (componente biotica) e non viventi (componente abiotica), dai flussi di energia e dalle loro interazioni. Si parla, oltre che di ecosistemi naturali, anche di "ecosistemi artificiali", ovvero quelli prodotti dall'attività umana.. Il concetto di ecosistema è funzionale alla possibilità di eseguire degli studi per capire il funzionamento dei complessi processi biologici. In realtà i limiti di un ecosistema sfumano normalmente in quelli di un altro e gran parte degli organismi possono far parte di ecosistemi diversi in momenti diversi. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -2741,19 +2745,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4000001</v>
+        <v>4000002</v>
       </c>
       <c r="C114" t="n">
-        <v>3000113</v>
+        <v>3000176</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Chimica</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Complesso delle condizioni meteorologiche di una regione nel corso delle stagioni. Il clima dipende dalla latitudine, dall'altitudine, dalla posizione rispetto ai continenti e alle aree oceaniche. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Secondo l'unep (united nation environment program) si tratta di uno sviluppo basato sulla sostenibilità ambientale che tiene conto dei bisogni umani fondamentali (basic needs) e della capacità di basarsi sulle risorse locali e sull'autorganizzazione (self-reliance)."uno sviluppo endogeno e basato sulle proprie forze (self-reliant); sottomesso alla logica dei bisogni dell'intera popolazione e non della produzione elevata a fine in sé, e finalmente cosciente della propria dimensione ecologica e alla ricerca di un'armonia tra uomo e natura" (assemblea generale delle nazioni unite 1975). Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -2762,19 +2766,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4000035</v>
+        <v>4000002</v>
       </c>
       <c r="C115" t="n">
-        <v>3000114</v>
+        <v>3000177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Climatologia</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Variazioni del clima di una determinata regione o area della superficie terrestre come conseguenza di fenomeni astronomici (ad esempio, variazione dell'inclinazione dell'asse terrestre, polveri cosmiche o vulcaniche, ecc.), di fenomeni e variazioni indotte localmente (ad esempio, formazione di grandi bacini lacustri in aree desertiche, grandi incendi in aree boschive e di foresta, ecc.) o per l'effetto serra. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Associazioni definite come "piccole comunità rurali o urbane che integrano una struttura sociale basata sulla solidarietà con attività pratiche legate alla progettazione ecologica. Sono modelli insediativi che cercano di proteggere i sistemi viventi del pianeta, di incoraggiare la crescita personale e di sperimentare stili di vita che facilitino l'armonia tra gli esseri umani e la natura." (definizione offerta dal gen, snyder, 1999). Fonte: http://www.buildlab.com/article/33</t>
         </is>
       </c>
     </row>
@@ -2783,19 +2787,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4000003</v>
+        <v>4000002</v>
       </c>
       <c r="C116" t="n">
-        <v>3000115</v>
+        <v>3000180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Biologia</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Comunità che ha raggiunto lo stadio di equilibrio ottimale in presenza di particolari condizioni ambientali (biocenosi). Rappresenta lo stadio finale di una serie di successioni, intese come modalità non stagionali, direzionali e continue di colonizzazioni e di estinzioni di un sito da parte di popolazioni di specie. Un esempio di successione su un terreno di partenza spoglio può essere: muschi, piante erbacee (arbusti), alberi caducifoglie, conifere. Possono essere necessarie anche centinaia di anni prima di raggiungere lo stadio di climax, ma una volta raggiunto, saranno necessari grossi cambiamenti climatici perché si abbiano significative variazioni della vegetazione. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Cambiamenti nell’ambiente, sia positivi che negativi, causati dalle attività, prodotti e/o processi di una data organizzazione. Possono essere distinti in effetti interni (riconducibili cioè alle attività svolte all’interno del perimetro del sito) ed effetti esterni (causati dalle attività svolte al di fuori del perimetro del sito, per effetto della presenza del sito stesso, come ad esempio l’emissione di inquinanti atmosferici associati alla movimentazione delle merci, persone e prodotti).</t>
         </is>
       </c>
     </row>
@@ -2804,19 +2808,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4000001</v>
+        <v>4000002</v>
       </c>
       <c r="C117" t="n">
-        <v>3000116</v>
+        <v>3000184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Chimica</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Associazione fondata nel 1968 da aurelio peccei per esaminare la situazione critica della condizione umana in un mondo di risorse finite, proponendo politiche alternative. I membri dell'associazione provenivano dal mondo della scienza, della ricerca, dell'industria e dell'ambiente. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Il raggiungimento del massimo beneficio per ciascuna unità di risorsa utilizzata, limitando al massimo gli impatti ambientali ed i rifiuti prodotti. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
         </is>
       </c>
     </row>
@@ -2825,19 +2829,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4000001</v>
+        <v>4000002</v>
       </c>
       <c r="C118" t="n">
-        <v>3000117</v>
+        <v>3000187</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Chimica</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Produzione combinata di energia elettrica e calore da destinare a processi industriali, al riscaldamento (teleriscaldamento) eccetera. La produzione prevalente può essere l'una o l'altra a seconda delle necessità fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Un concetto chiave degli ecosistemi che fa riferimento all'abilità di un sistema complesso di sviluppare caratteristiche e un comportamento che sono "più grandi della somma delle sue parti" e che necessariamente non può essere previsto o gestito in termini di comportamento dei suoi elementi costitutivi. Fonte: http://www.geocities.com/athens/agora/5311/giuridica/extra/00-eu-sustain-glossario.htmagenda locale 21</t>
         </is>
       </c>
     </row>
@@ -2846,19 +2850,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4000054</v>
+        <v>4000002</v>
       </c>
       <c r="C119" t="n">
-        <v>3000118</v>
+        <v>3000197</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Termodinamica</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Apparecchiatura atta a convertire la radiazione solare in calore da utilizzare per produzione di acqua calda o vapore. Quello più diffuso è il cosiddetto collettore piano, costituito da una piastra, di materiale idoneo ad assorbire la radiazione solare incidente, che funge da accumulatore termico per riscaldare l'apposito fluido convettore fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Energia associata alle reazioni di fissione nucleare, che avvengono in modo controllato nelle centrali nucleari fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -2867,32 +2871,40 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4000012</v>
+        <v>4000002</v>
       </c>
       <c r="C120" t="n">
-        <v>3000119</v>
-      </c>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr"/>
+        <v>3000198</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Ecologia</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Fonti rinnovabili fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4000001</v>
+        <v>4000002</v>
       </c>
       <c r="C121" t="n">
-        <v>3000120</v>
+        <v>3000201</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Chimica</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Sostanze derivanti da resti vegetali e animali che hanno subito nel corso degli anni un processo di trasformazione per azione dell'energia solare. Il carbone, il petrolio, il metano e i vari prodotto derivati dal petrolio, ad esempio gasolio, benzine gpl, cherosene, sono combustibili fossili fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Si tratta di una "diagnosi" in cui il "malato" è l'edificio. Attraverso l'energy audit, viene definito il bilancio energetico di una costruzione, che dovrebbe servire ad applicare per il futuro migliori pratiche di risparmio energetico. Fonte: http://www.agricolturabiologicaitaliana.it/</t>
         </is>
       </c>
     </row>
@@ -2901,19 +2913,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4000008</v>
+        <v>4000002</v>
       </c>
       <c r="C122" t="n">
-        <v>3000121</v>
+        <v>3000202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Organo collegiale integrato da rappresentanti del governo nazionale (delegati territoriali) e da rappresentanti della società civile presieduta dal sindaco e dal consiglio comunale che, dopo un processo di consultazioni, elabora ed esegue il piano di sviluppo municipale. Fonte: http://www.mmc2000.net/villaggioglobale/biblio/glo.htmglo01</t>
+          <t>È la tendenza dell'energia, quando viene utilizzata, a degradarsi, ovvero a trasformarsi in calore a bassa temperatura di scarsa utilità. È indice della tendenza al disordine di un sistema. I processi naturali sono sempre tesi a organizzare la materia, sia che si tratti di fenomeni viventi che non (formazione di rocce, minerali). Ciò, naturalmente avviene a spese dell'energia, ossia producendo entropia (disordine, calore dissipato). Tuttavia i cicli naturali si riequilibrano assorbendo energia solare e non producono scarti o rifiuti. I cicli naturali sono chiusi. Al contrario, i processi attuati dall'uomo, che portano alle strutture organizzate (manufatti, città, organizzazioni) con uso di energia e produzione di entropia, non riescono a chiudersi e generano scarti, rifiuti e inquinamento. "esternalità" vengono chiamati gli elementi di risulta dei processi antropici e vengono smaltiti nell'ambiente. L'entropia rappresenta il saldo energetico negativo creato dal processo e va pertanto minimizzata: un primo obiettivo è allora quello di produrre la massima organizzazione con la minima produzione di entropia. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -2922,19 +2934,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4000008</v>
+        <v>4000002</v>
       </c>
       <c r="C123" t="n">
-        <v>3000122</v>
+        <v>3000203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Strumento di politica ambientale basato sull'emanazione di norme e sul relativo controllo dell'applicazione e dell'osservanza. Rappresenta l'approccio iniziale che sin dagli anni '70 ha improntato la legislazione comunitaria e di tutti gli stati membri per la gestione delle politiche ambientali. A decorrere dai primi anni '90, in contrapposizione a tale sistema si è posto quello dell'emas che introduce approcci volontari di corresponsabilizzazione dell'apparato produttivo.</t>
+          <t>La norma iso 14031 ha codificato gli indicatori eci (assieme agli epi): gli indicatori di condizione ambientale forniscono informazioni sulle condizioni naturalistiche e ambientali del territorio. Sono sviluppati da agenzie governative, organizzazioni non governative, istituzioni scientifiche e di ricerca e possono riguardare vari aspetti, come: i fenomeni di inquinamento o cambiamento ambientale su scala globale, regionale, locale: la qualità delle varie componenti ambientali (aria,acqua, suolo, fauna); gli aspetti, legati all'uomo, di tipo paesaggistico, artistico o storico-culturale. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -2943,19 +2955,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4000008</v>
+        <v>4000002</v>
       </c>
       <c r="C124" t="n">
-        <v>3000123</v>
+        <v>3000210</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Caratteristica di un progetto di essere realizzato e di sussistere senza produrre impatti negativi sulle condizioni dell'ambiente. La coerenza e la congruità delle strategie e delle azioni previste da piani e programmi, nonché degli interventi previsti dai progetti, con gli obiettivi di salvaguardia, tutela e miglioramento della qualità dell'ambiente e della qualità della vita, di valorizzazione delle risorse, nel rispetto altresì delle disposizioni normative comunitarie, statali e regionali". Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Gli effetti che l’attività economica produce sull’ambiente, il cui costo di risanamento può essere internalizzato dall’azienda che li produce</t>
         </is>
       </c>
     </row>
@@ -2964,19 +2976,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4000100</v>
+        <v>4000002</v>
       </c>
       <c r="C125" t="n">
-        <v>3000124</v>
+        <v>3000211</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Idraulica</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Le teorie della complessità affermano che vita, umanità, evoluzione, cambiamento, conoscenza, ecc. Sono originate da, e vanno dl pari passo con, disordine, caos (vedi), perturbazione, dissimmetria, instabilità, squilibrio, flussi, turbolenza, non linearità, marginalità, incertezza, relatività, disarmonia, frattalismo, imponderabilità, ecc. Ad esempio, nell'attuale interdipendenza complessiva (globalizzazione), le azioni locali producono ampie conseguenze in termini di distanza (spazio), tempo e dimensione. La globalizzazione mette assieme simultaneamente iniziative differenti, eccezionali, individuali e frammentate. Non ci potrebbe essere globalizzazione senza localizzazione, poiché globale e locale sono differenti dimensioni di un sistema che evolve insieme alla qualità di relazioni e componenti (co-evoluzione) e si auto-organizza. Perciò soltanto un pensiero strategico può collegare (oliamo) tali eventi e gestire la complessità. È necessario un modo di pensare olistico, in grado cioè di rispettare ciò che è diverso (e divergente), le sfaccettature multidimensionali di una situazione e di un problema (frattale e ologramma), agendo sulle loro interdipendenze. Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
+          <t>L'etica riguarda il comportamento umano, come insieme di regole che sono condivise nelle relazioni del sistema sociale, ambientale, economico, ecc. (si veda anche ecosistema). L'etica fa riferimento a valori. Ma mentre questi ultimi sono soggettivamente scelti dalle persone, l'etica presuppone uno scambio, una condivisione di valori tra più persone al fine di definire comportamenti coerenti per il loro raggiungimento. I valori non possono essere imposti, l'etica sì! quindi, etica non va confusa con valori, pur essendo ad essi finalizzata. Valori ed etica svolgono ruoli diversi, tant'è che l'etica deve sempre essere aggettivata (cristiana, protestante, proletaria, capitalistica, ambientalista, ecc.). Può esserci un'etica efficiente per valori umanamente ripugnanti (si veda il caso dell'etica nazista). In genere è bene sempre esaminare a quali valori un'etica fa riferimento. Oggi, si riconosce che l'etica deve giocare un ruolo forte per la sostenibilità. Questo significa favorire una condivisione planetaria del valore della "riconciliazione dell'umanità con la natura" tramite comportamenti coerenti negli stili di vita, lavoro e consumo a dimensioni e livelli diversi. L'uso di codici di condotta in vari settori economici, l'adesione a carte per lo sviluppo sostenibile hanno, appunto, la funzione di diffondere una cultura ed un'etica della sostenibilità. Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
         </is>
       </c>
     </row>
@@ -2988,7 +3000,7 @@
         <v>4000002</v>
       </c>
       <c r="C126" t="n">
-        <v>3000125</v>
+        <v>3000214</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2997,7 +3009,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Categoria di elementi fisicamente individuabili che compongono l'ambiente considerato dagli studi di impatto ambientale. Ad essa viene riconosciuta un'omogeneità al fine degli impatti attesi. Le componenti ambientali previste dagli studi d'impatto ambientale sono: atmosfera, suolo e sottosuolo, ambiente idrico, vegetazione, flora e fauna, ecosistemi, salute pubblica, rumore e vibrazioni, radiazioni ionizzanti e non ionizzanti, paesaggio. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Processo per cui un ambiente acquatico modifica il suo equilibrio ecologico, per cause naturali o artificiali, e si arricchisce di sostanze nutritive (in particolare modo i composti dell'azoto ovvero del fosforo) provenienti dall'agricoltura (fertilizzanti) e dagli scarichi fognari non depurati, nei laghi o nei mari poco profondi o con scarso ricambio idrico che provoca cambiamenti tipici quali l'eccessivo incremento della produzione di alghe (macrofite) e/o di alghe microscopiche (microplancton). Che, alla fine del ciclo vitale, vanno in decomposizione. La conseguenza dell'eutrofizzazione è il degrado della qualità dell'acqua tale da ridurne o precluderne l'uso, con conseguente instaurarsi di un ambiente anaerobico e la distruzione delle principali forme di vita acquatica. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -3006,19 +3018,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4000003</v>
+        <v>4000002</v>
       </c>
       <c r="C127" t="n">
-        <v>3000126</v>
+        <v>3000215</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Biologia</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Materiale organico che si ottiene dalla biodegradazione di rifiuti organici, rami, foglie, erba e vegetali in genere, e che si può utilizzare come concime naturale. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
+          <t>Quando sono giovani gli ecosistemi tendono ad evolversi nel tempo e presentano poche specie vegetali o animali, dette pionieristiche. In questa fase di continuo mutamento le popolazioni pionieristiche presentano una certa instabilità demografica e le loro densità sono molto variabili. Raggiunta la maturità, gli ecosistemi presentano molte specie, a basse densità, in condizioni di equilibrio, o quasi-equilbrio biologico. Il campo coltivato, o agroecosistema, è simile ad un ecosistema giovane, con un equilibrio o quasi-equilibrio biologico precario e, per di più, le specie botaniche che lo popolano, al contrario delle pionieristiche, sono state sottratte dall'uomo alla selezione naturale e sono quindi poco resistenti alle avversità. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -3027,19 +3039,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4000003</v>
+        <v>4000002</v>
       </c>
       <c r="C128" t="n">
-        <v>3000127</v>
+        <v>3000216</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Biologia</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Biotecnologia per il trattamento di rifiuti organici di diversa provenienza e natura, basata su un processo ossidativi, operato da consorzi di microrganismi aerobici. Il compost ottenuto, se di qualità adeguata, può essere utilizzato come ammendante in agricoltura fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Intervento di risanamento ambientale con modalità di trattamento di un particolare materiale inquinato effettuato all'esterno dell'area interessata, dalla quale è stato prelevato. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -3051,7 +3063,7 @@
         <v>4000002</v>
       </c>
       <c r="C129" t="n">
-        <v>3000128</v>
+        <v>3000223</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -3060,7 +3072,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>La comunità è l'insieme delle persone che vivono in un contesto territoriale ed ambientale, come una comunità urbana. La comunità è caratterizzata da regole ed obiettivi comuni, ed è alla base dell'attuazione dell'agenda 21, come parte sociale. In un'accezione più ampia, ecosistemica, può contenere anche le componenti naturali, animate ed inanimate, rappresentate da opportuni stakeholders (p.e. Associazioni ambientaliste). Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
+          <t>È la nuova frontiera del costruire e dell'abitare secondo natura. Un tipo di architettura, che dall'antica saggezza cinese ricava gli strumenti per interpretare ed armonizzare le energie che contraddistinguono i diversi luoghi della casa, per prevenire o correggere gli influssi negativi che possono colpire chi la abita. Fonte: http://www.agricolturabiologicaitaliana.it/</t>
         </is>
       </c>
     </row>
@@ -3069,19 +3081,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4000008</v>
+        <v>4000002</v>
       </c>
       <c r="C130" t="n">
-        <v>3000129</v>
+        <v>3000224</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Negli spazi di concertazione cittadina, la popolazione, le ong e i professionisti costruiscono insieme al comune gli indirizzi per la pianificazione a medio e lungo termine, contribuendo a delineare l'immagine della città ideale vagheggiata dalla sintesi dei desideri dei suoi abitanti. Due i grandi strumenti di indirizzo che possono uscire da questa discussione: il piano di sviluppo economico, che - puntando ad una crescita con distribuzione di reddito - valorizza molte idee nate all'interno della città informale, e il piano regolatore di sviluppo urbano e ambientale. Fonte: http://www.mmc2000.net/villaggioglobale/biblio/glo.htmglo01</t>
+          <t>La filosofia ambientale raccoglie in sé i pensieri, le idee, i concetti che l'uomo ha elaborato ed elabora nel suo rapportarsi con ciò che lo circonda e, in particolare, con il mondo naturale. In senso stretto si interessa di cosa pensa l'uomo della natura; in senso più generale si interessa di: scienza ed ecologia, fonti di conoscenze riguardo le leggi naturali ed i rapporti tra gli organismi viventi e l'ambiente; etica ambientale, cioè il comportamento dell'uomo nei confronti del mondo naturale (etica degli animali, etica degli ecosistemi ecc.); politica ambientale: teoria e prassi sui rapporti dello stato (quindi dei cittadini) con l'ambiente naturale; teologia in relazione all'ambiente: rapporti fra uomo-divinità-natura; ed inoltre ... Tutto ciò che concerne il rapporto uomo-natura, organismi viventi-natura; fonte: http://wds.bologna.enea.it/cose.htm</t>
         </is>
       </c>
     </row>
@@ -3090,19 +3102,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4000008</v>
+        <v>4000002</v>
       </c>
       <c r="C131" t="n">
-        <v>3000130</v>
+        <v>3000226</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Concordare su, avere la stessa opinione. Risultato che si ottiene attraverso la partecipazione ed un processo di elaborazione, con il quale un gruppo dl attori/soggetti arriva a stabilire obiettivi, programmi, valori, visioni, che sono stabiliti concordemente sulla base di molteplici incontri/riunioni, e sui bisogni/aspettative riconosciuti come comuni, nel rispetto della diversità. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
+          <t>Insieme di tasse e tributi che incentivano l'uso di risorse abbondanti e favoriscono il risparmio di risorse limitate. A seconda della base che vanno a colpire le tasse ambientali possono essere ripartite in: tasse e tariffe sulle emissioni; tasse sui prodotto; tasse d'uso riferite ai servii ambientali ottenuti in loro cambio. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -3111,19 +3123,19 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4000008</v>
+        <v>4000002</v>
       </c>
       <c r="C132" t="n">
-        <v>3000131</v>
+        <v>3000228</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>La scienza evolve assieme a chi la produce: l'essere umano. La sua conoscenza è parziale, perché rappresenta comunque una parte dell'ecosistema, anche se spesso ritiene di poter capire le dinamiche delle altre componenti e parlare per loro conto. Per farlo, si specializza in molte e diverse discipline. Nasce, per contro, l'esigenza di mettere assieme quanto esse producono. Il livello più elementare di "messa assieme" è quello della multidisciplinarietà, quando si analizza un problema seguendo il punto di vista di approcci scientifici, tra loro diversi. Livello più avanzato è quello dell'interdisciplinarietà, come combinazione tra vari approcci scientifici. Il livello consapevolmente più impegnativo e completo è quello della consilience, cioè l'integrazione dei saperi per governare la complessità. W. Whewell usò già nel 1840 tale termine a significare letteralmente: il "saltare insieme" della conoscenza, legando fatti e teorie attraverso le varie discipline per creare un terreno comune di spiegazione dei fenomeni. Ripresa recentemente da e. Wilson (1998), consilience sta a significare "unità della conoscenza" e si contrappone alla divisione in materie di studio. Partendo da un fenomeno (problema) si cerca di "comprenderlo" (prendere insieme), capirne e governarne la complessità, unendo la conoscenza e non separandola. Guardando ai problemi attuali, wilson lancia la sfida della consilience al fine di riconciliare almeno quattro aree di conoscenza; biologia, scienze sociali, etica, politica ambientale. Tale necessità era già evidente negli scritti di e. Morin (1977), il quale ha sempre puntato ad una visione integrata tra scienze fisiche, antropo-sociologiche e biologiche. Un'unione che deve servire allo sviluppo della "democrazia cognitiva", rendendo la conoscenza accessibile a tutte le persone affinché aumentino la capacità di autorganizzazione ed autogestione (morin, 1999). E ciò è, oggi, basilare per affrontare e gestire le sfide dello sviluppo sostenibile. Fonte: http://www.provincia.arezzo.it/imprendere21/glossario/glo</t>
+          <t>Funzione antinquinamento dei vegetali, che assorbono e neutralizzano gli inquinanti dell'ambiente. Nel '97 è stato scoperto da un istituto di ricerca del dipartimento americano dell'agricoltura, il water management lab di fresno in california, che i vegetali possono assorbire sostanze inquinanti come nichel, zinco... Processo che viene definito appunto con il termine di fitorisanamento e si compone di quattro processi base: la rizofiltrazione (le radici assorbono i metalli tossici delle acque inquinanti); la fitostabilizzazione (la pianta cattura i residui metallici presenti nel suolo); la fitoestrazione (la parte aerea della pianta, dove si concentrano i metalli può essere bruciata riciclando dalle ceneri il metallo); la fitovolatilizzazione (la pianta assorbe, per esempio, selenio e mercurio e li libera in forma diluita nell'atmosfera).gli esperti del dipartimento sostengono che questi vegetali producano molecole (peptidi) oppure acidi organici per legare i metalli da immagazzinare nei vacuoli (compartimenti cellulari dove le piante custodiscono le sostanze utili o quelle da eliminare). Quindi, non solo una pianta può assorbire grandi quantità di sostanze tossiche, ma le può bloccare chimicamente evitando di esserne a sua volta "asfissiata". Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -3132,19 +3144,19 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4000008</v>
+        <v>4000002</v>
       </c>
       <c r="C133" t="n">
-        <v>3000132</v>
+        <v>3000229</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Quando sia i produttori che i singoli consumatori identificano e apprezzano prodotti e servizi generati in maniera più sostenibile. Fonte: http://www.geocities.com/athens/agora/5311/giuridica/extra/00-eu-sustain-glossario.htmagenda locale 21</t>
+          <t>Fondo comune che investe in azioni o società che si distinguono per l'impegno verso la salvaguardia, la tutela e il rispetto dei principi etici. Fonte: http://www.ecoeconomisti.it/ecoglossario.html</t>
         </is>
       </c>
     </row>
@@ -3153,19 +3165,19 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4000008</v>
+        <v>4000002</v>
       </c>
       <c r="C134" t="n">
-        <v>3000133</v>
+        <v>3000231</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Con il termine contabilità ambientale si intende un sistema che permette di rilevare, organizzare gestire e comunicare informazioni e dati ambientali, questi ultimi espressi in unità fisiche e monetarie. A seconda che l'utilizzatore del sistema sia un organizzazione pubblica o privata si parlerà di contabilità ambientale pubblica o d'impresa. Le finalità di tale strumento possono essere sia di comunicazione interna, e quindi come supporto alle decisioni dell'organizzazione, sia di comunicazione esterna.</t>
+          <t>Il fondo europeo agricolo di orientamento e garanzia opera per il miglioramento delle strutture agricole tramite un regime di aiuti diretti e indiretti. Fonte: http://www.federlazio.it/attivita/glossario.doc</t>
         </is>
       </c>
     </row>
@@ -3174,19 +3186,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4000008</v>
+        <v>4000002</v>
       </c>
       <c r="C135" t="n">
-        <v>3000134</v>
+        <v>3000234</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Il termine contabilità economica viene diffusamente utilizzato, anche se in modo improprio, per indicare il sistema di registrazione, organizzazione, gestione e comunicazione delle informazioni e dati di impresa, questi ultimi espressi in unità fisiche e monetarie. A seconda che l'utilizzatore del sistema sia un'organizzazione pubblica o privata si parlerà di contabilità pubblica o d'impresa. Le finalità di tale strumento possono essere sia di comunicazione interna, e quindi come supporto alle decisioni dell'organizzazione, sia di comunicazione esterna.</t>
+          <t>Risorse energetiche di origine fossile che, ai sensi della legge n. 10 del 9-1-91, vengono "assimilate" alle fonti rinnovabili in virtù degli elevati rendimenti energetici. Secondo il provvedimento cip 6, sono considerati impianti alimentati da fonti assimilate gli impianti di cogenerazione, gli impianti che utilizzano calore di recupero, fumi di scarico e altre forme di energia recuperabile in processi produttivi e in impianti, nonché gli impianti che utilizzano gli scarti di lavorazione e/o di processi e quelli che utilizzano fonti fossili prodotte esclusivamente da giacimenti minori isolati fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -3198,7 +3210,7 @@
         <v>4000002</v>
       </c>
       <c r="C136" t="n">
-        <v>3000135</v>
+        <v>3000242</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3207,7 +3219,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>I conti ambientali descrivono la pressione, espressa in unità fisiche, esercitata dalle attività economiche sull'ambiente naturale. Nel disegno di legge sulla contabilità ambientale pubblica, i conti ambientali vengono definiti nel modo seguente: "per sistema di conti ambientali si intende l'insieme delle informazioni che, nell'ambito del sistema statistico nazionale descrivono: a) la consistenza e le variazioni del patrimonio naturale; b) le interazioni tra economia ed ambiente; c) le spese per la prevenzione, la protezione e il ripristino in materia ambientale". Si tratta della base informativa del bilancio ambientale o documento di sostenibilità dell'ente pubblico territoriale. Fonte: http://www.ecoeconomisti.it/ecoglossario.html</t>
+          <t>Integrazione di politiche, programmi e procedure ecologicamente corretti. Fonte: http://www.ecoeconomisti.it/ecoglossario.html</t>
         </is>
       </c>
     </row>
@@ -3219,7 +3231,7 @@
         <v>4000002</v>
       </c>
       <c r="C137" t="n">
-        <v>3000136</v>
+        <v>3000246</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -3228,7 +3240,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Il controllo ambientale è una funzione d'osservazione e monitoraggio dello stato dell'ambiente (nelle sue diverse componenti) e delle fonti d'inquinamento, sia d'origine naturale sia legate ad attività antropiche. Esso costituisce, quindi uno strumento privilegiato per il governo dell'ambiente. Il controllo può anche essere visto come l'insieme delle azioni mirate a garantire la disponibilità di un quadro certo e continuamente aggiornato della qualità dell'ambiente e delle informazioni di supporto che permettono di seguire e prevedere l'evoluzione dei fenomeni degenerativi generali e localizzati, consentendone la limitazione nello spazio e nel tempo. Fonte: tesi di laurea"l'agenzia nazionale per la protezione dell'ambiente" a. Giuliani 1999</t>
+          <t>È la capacità di gestire, integrandole, le dimensioni globale e locale. Essa esprime la capacità di unire, contemporaneamente, l'azione locale con una prospettiva globale, e, viceversa, l'azione globale con le prospettive locali. In tal modo, la glocacità è fattore determinante per la sussidiarietà (vedi) e per la gestione di sistemi complessi (vedi complessità), quali un ecosistema (vedi). Nata dalla cultura imprenditoriale, la glocacità indica la capacità di bilanciare la desiderata uniformità d'interventi, azioni e prodotti, rivolti alla globalità del suoi mercati, con le esigenze di variazione dovute alle diverse caratteristiche di ciascun mercato locale (diversità). Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
         </is>
       </c>
     </row>
@@ -3237,19 +3249,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4000008</v>
+        <v>4000003</v>
       </c>
       <c r="C138" t="n">
-        <v>3000137</v>
+        <v>3000020</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Biologia</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Tecnologia che, sfruttando il cosiddetto effetto fotovoltaico, consente di trasformare direttamente in energia elettrica la radiazione elettromagnetica associata all'energia solare http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv cooperazione decentrata (e ruolo delle ong) per cooperazione decentrata o decentralizzata (cd) s'intende un "nuovo approccio", un "nuovo strumento" o una "nuova forma" della cooperazione allo sviluppo e dei rapporti internazionali tra i popoli. La cd pone l'accento sul nuovo ruolo degli enti locali e della società civile organizzata (associazioni, università, scuole, associazioni di categoria, settori privati, imprese, fondazioni..) per lo sviluppo di politiche di cooperazione, appunto, "decentralizzate" e riconosce uguale dignità e responsabilità alle comunità coinvolte al sud come al nord fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Dal latino "ambiens" ciò che sta attorno. Indica l'insieme delle condizioni fisiche (temperatura, pressione, ecc.), chimiche (concentrazioni di sali, ecc.) e biologiche in cui si svolge la vita. L'ambiente è un sistema aperto, capace di autoregolarsi e di mantenere un equilibrio dinamico, all'interno del quale si verificano scambi di energia e di informazioni. Esso include elementi non viventi (acqua, aria, minerali, energia) o "abiotici" ed elementi viventi o "biotici" tra i quali si distinguono organismi produttori (vegetali), consumatori (animali) e decompositori (funghi e batteri).contesto nel quale l'organizzazione opera, comprendente l'aria, l'acqua, il terreno, le risorse naturali, la flora, la fauna, gli esseri umani e le loro interrelazioni. Il contesto si estende dall'interno di un'organizzazione al sistema globale (uni en iso 14001:1996).nel momento in cui si cerca di darne una definizione si entra in un altro ordine di idee e al posto dell'ambiente onnicomprensivo si presentano delle fattispecie. Di conseguenza ciò che ci sta intorno è caratterizzato più dall'aggettivo che dal sostantivo (ambiente ecologico, naturale, sociale, politico, istituzionale, relazionale, affettivo). Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -3258,19 +3270,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4000008</v>
+        <v>4000003</v>
       </c>
       <c r="C139" t="n">
-        <v>3000138</v>
+        <v>3000045</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Biologia</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>(e ruolo delle ong) per cooperazione decentrata o decentralizzata (cd) s’intende un "nuovo approccio", un "nuovo strumento" o una "nuova forma" della cooperazione allo sviluppo e dei rapporti internazionali tra i popoli. La cd pone l’accento sul nuovo ruolo degli enti locali e della società civile organizzata (associazioni, università, scuole, associazioni di categoria, settori privati, imprese, fondazioni..) per lo sviluppo di politiche di cooperazione, appunto, "decentralizzate" e riconosce uguale dignità e responsabilità alle comunità coinvolte al sud come al nord fonte: http://www.mmc2000.net/villaggioglobale/biblio/glo.htmglo01</t>
+          <t>Il benessere degli animali è stato inserito per la prima volta in una dichiarazione allegata al trattato che istituisce la comunità europea nel corso della conferenza intergovernativa sull'unione politica (1991-1992). Nel suo " protocollo sulla protezione ed il benessere degli animali" il trattato di amsterdam stabilisce nuove norme per l'azione dell'unione europea in questo ambito. Esso riconosce ufficialmente che gli animali sono esseri sensibili e impone alle istituzioni europee di tener conto delle esigenze del benessere degli animali in fase di elaborazione ed attuazione della normativa europea. La normativa comunitaria in materia di protezione animale si prefigge di risparmiare agli animali sofferenze inutili durante l'allevamento, il trasporto e la macellazione. Nel quadro di una strategia globale sulla sicurezza alimentare, anche altre politiche comunitarie (la politica agricola, i trasporti, il mercato interno e la ricerca) devono tener conto di questa esigenza. L'ufficio alimentare e veterinario, in collaborazione con le competenti autorità degli stati membri, effettua controlli sul campo affinché venga rispettata la normativa comunitaria. Fonte: http://europa.eu.int/scadplus/leg/it/cig/g4000.htm</t>
         </is>
       </c>
     </row>
@@ -3279,19 +3291,19 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4000008</v>
+        <v>4000003</v>
       </c>
       <c r="C140" t="n">
-        <v>3000139</v>
+        <v>3000059</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Biologia</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Per "cooperazione internazionale" si intende l'insieme di operazioni di aiuto che qualcuno (ad esempio i paesi ricchi o i paesi industrializzati dell'ocse) mette in atto nei confronti dei paesi definiti "in via di sviluppo". Questo tipo di cooperazione è intesa come "cooperazione allo sviluppo" o "cooperazione con i paesi in via di sviluppo" o "aiuto pubblico ai pvs". La cooperazione internazionale nasce nel secondo dopoguerra e passa attraverso cinque fasi: prima fase, immediatamente dopo la ii guerra mondiale, fino agli inizi degli anni cinquanta: la motivazione politico-ideale. La fine della ii guerra mondiale porta con sé la consapevolezza che l'umanità andava considerata nel suo complesso, come un tutto che richiedeva, di conseguenza, un governo globale dei conflitti e dei problemi. Segue anche una grande spinta "ideale" che si ispira alla possibilità di costruire un "nuovo" mondo. La nascita dell'onu (1945), la dichiarazione universale dei diritti dell'uomo (1948, ed i successivi convenants del 1966) costituiscono la base dello strumento multilaterale della cooperazione. Su questa spinta nascono le agenzie dell'onu (fao, oms, unicef, ecc.) che sottolineano l'aspetto ideale della cooperazione e si fondano su motivi di solidarietà, interdipendenza e coscienza più ampia del "bene comune" allargato a tutta l'umanità e non più riferito solo ai singoli popoli e alla loro semplice sommatoria. Tutti motivi che postulavano e postulano il superamento del concetto di stato-nazione come concetto di riferimento al fine di un'applicazione a livello mondiale dei principi della giustizia distributiva e legale. Seconda fase, anni cinquanta: la motivazione politico-economica nel 1949 la cooperazione assume un nuovo aspetto. Il 20 gennaio del '49 il presidente degli usa truman tiene al congresso un discorso fondamentale. Gli usa si pongono ad esempio per i paesi in "ritardo" nello sviluppo. E si autonominano "maestri" di sviluppo e quindi di cooperazione. Terza fase, anni sessanta: la motivazione etico-sociale. Negli anni sessanta si realizza per la maggior parte dei paesi coloniali il processo di decolonizzazione: è proprio nel 1960 che moltissimi paesi/colonie raggiungono l'indipendenza. È anche il momento in cui le società civili del nord del mondo si fanno carico in maniera più incisiva del problema della cooperazione tra paesi. Anche in italia, a fronte della pressione della società civile, viene approvata una legge sulla cooperazione, nascono le prime organizzazioni non governative, esce la populorum progressio (1968). Vi è una forte tensione che viene appunto definita etico-sociale. Ad esempio, la populorum progressio definendo "lo sviluppo" come "nuovo nome della pace" riassume con chiarezza il paradigma concettuale che si va facendo strada e fonda il cosiddetto "dovere di solidarietà" motivato a sua volta dalla considerazione del "bene comune dell'umanità", di tutta l'umanità. Quarta fase, dagli anni settanta: la cooperazione come marketing "le imprese americane dipendono sempre più dalle materie prime dei paesi sottosviluppati. Inoltre queste imprese hanno bisogno dei mercati dei paesi sottosviluppati. Da ultimo questi paesi offrono possibilità di investimenti produttivi per la tecnologia ed il capitale statunitense". Così si possono riassumere, con collins e lappè, le tre motivazioni dell'aiuto in favore dei paesi in via di sviluppo da parte degli usa. La cooperazione diventa uno degli strumenti di penetrazione e controllo dei mercati mondiali. Anche elaborazioni lodevoli, quali ad esempio il rapporto brandt (1980), vedono nella cooperazione una delle possibilità di aggiustare non solo le economie povere del sud del mondo, ma anche le economie in crisi del nord del mondo. In pratica, secondo questa tesi, i fondi per la cooperazione e lo sviluppo dovrebbero essere finalizzati all'export del paese che aiuta. Quinta fase, anni novanta: la cooperazione come sicurezza cooperazione come sicurezza è il titolo, il nuovo nome, dato alla cooperazione dall'ex ministro degli esteri italiano gianni de michelis. In una importantissima conferenza internazionale sullo sviluppo (roma 17-19 ottobre 1991) si parla di assoluta necessità/obbligatorietà della cooperazione: la cooperazione è la forma nuova che può assumere la ricerca di sicurezza. Fonte: http://www.mmc2000.net/villaggioglobale/biblio/glo.htmglo01</t>
+          <t>È l'insieme delle popolazioni di specie animali e vegetali che coesistono nello spazio e nel tempo in un dato ambiente ed interagiscono fra loro, in reciproca relazione. Lo spazio, o ambiente, occupato dalla biocenosi, è chiamato biotopo. Si suddivide in fitocenosi ed in zoocenosi quando ci si riferisce rispettivamente a vegetali o animali che popolano un ambiente. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -3300,19 +3312,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4000002</v>
+        <v>4000003</v>
       </c>
       <c r="C141" t="n">
-        <v>3000140</v>
+        <v>3000061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Biologia</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Il corridoio ecologico è un elemento del paesaggio che connette due o più macchie di habitat naturale. Esso funge da habitat e da canale per lo spostamento di animali e di spore e da zona attraverso la quale avviene lo scambio genetico tra le popolazioni. Sono esempi di corridoi ecologici le fasce arboree ed arbustive che circondano i margini dei terreni coltivati, i sistemi ripari ovvero la vegetazione delle fasce di pertinenza fluviale, le fasce arboree ed arbustive legate ad infrastrutture lineari (strade, ferrovie, canali artificiali) ed i corridoi lineari di vegetazione erbacea entro matrici boscate. Fonte: http://www.comune.dozza.bo.it/sellustra/mioweb2/glossario.htm</t>
+          <t>Sinonimo di diversità biologica. La biodiversità è lo stock naturale di materiale genetico presente all'interno di un ecosistema, prodottosi attraverso il processo di speciazione. I genotipi reperibili in un ambiente si sono differenziati e moltiplicati per adattarsi alle variazioni ambientali e trarne di volta in volta profitto. La biodiversità può essere intesa in due modi: l'eterogeneità di forma o di funzioni tra gli individui di una specie, o tra le sue popolazioni, per cui in determinati siti, con determinate combinazioni di fattori ambientali, alcuni gruppi di individui si dimostrano più efficienti di altri, pur simili nell'utilizzare le risorse del sistema l'eterogeneità di forme e di funzioni tra specie differenti a causa della quale popolazioni anche affini o strettamente imparentate dimostrano differenti capacità di adattamento all'ambiente e risultano particolarmente efficienti nell'occupare e nel difendere la nicchia ecologica a loro disposizione. La biodiversità, cioè la diversità biologica, si basa sulla ricchezza del patrimonio ereditario costituito dai caratteri (geni) di un individuo o di una popolazione (risorse genetiche). Le suddette risorse genetiche sono considerate come insieme di componenti dell'ecosistema (specie viventi, organismi, loro parti e comunità) in rapporto al loro uso o valore, attuali o potenziali, per la vita del pianeta terra e, quindi, per la stessa umanità. Dall'ampiezza e dalla varietà del suddetto patrimonio genetico dipende la capacità dell'ecosistema di adattarsi ed evolvere in situazioni geografiche, fasi climatiche e tempi diversi. Fonte: http://www.comune.dozza.bo.it/sellustra/mioweb2/glossario.htm e http://www.provincia.arezzo.it/atanor/glossario/</t>
         </is>
       </c>
     </row>
@@ -3321,19 +3333,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4000008</v>
+        <v>4000003</v>
       </c>
       <c r="C142" t="n">
-        <v>3000141</v>
+        <v>3000064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Biologia</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Rappresentano tutti i costi associati alle misure adottate dall’azienda (o da terzi per suo conto) per prevenire, ridurre e/o riparare i danni causati all’ambiente dalle attività operative ed anche tutti i costi sostenuti dall’azienda per la conservazione delle risorse rinnovabili e non rinnovabili. Riduzione del livello di benessere collettivo dovuto all’impatto di un progetto sull’ambiente. Generalmente di difficile quantificazione in quanto nasce dalla percezione privata di ciascun individuo. Il termine viene anche comunemente utilizzato per indicare semplicemente un peggioramento relativo a una o più componenti ambientali.</t>
+          <t>È la depurazione naturale svolta, attraverso la biodegrazione iniziale della sostanza organica (scarico) ad opera di batteri aerobi o anaerobi, con successivo fitoassorbimento dei prodotti mineralizzati (azoto, fosforo, carbonio...) da parte di vegetali. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -3342,19 +3354,19 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4000002</v>
+        <v>4000003</v>
       </c>
       <c r="C143" t="n">
-        <v>3000142</v>
+        <v>3000069</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Biologia</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Costi diretti che generalmente vengono allocati a centri di costo differenti da quelli ambientali sebbene il motivo principale per il quale sono stati sostenuti sia di tipo ambientale e che vengono considerati "costi ambientali" solo dopo un processo di riclassificazione del bilancio</t>
+          <t>Indica il contenuto di sostanza organica biodegradabile, presente negli scarichi idrici, espresso in termini di quantità di ossigeno necessario alla degradazione da parte di microrganismi in un test della durata di cinque giorni. Il parametro rappresenta un indicatore del potenziale di riduzione dell'ossigeno disciolto nei corpi idrici ricettori degli scarichi con possibili effetti ambientali negativi. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -3363,19 +3375,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4000002</v>
+        <v>4000003</v>
       </c>
       <c r="C144" t="n">
-        <v>3000143</v>
+        <v>3000071</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Biologia</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Si tratta di un'ipotesi di sviluppo, ipotizzata da h.daly, economista ambientale della banca mondiale, che prevede uno sviluppo senza crescita, ovvero un miglioramento qualitativo senza un aumento quantitativo che ecceda la capacità dell'ambiente di rigenerare input di materia prima e assorbire output di rifiuti. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Termine generico che indica tutta la materia organica sia di natura vegetale che animale presente, ad esempio, in un ecosistema. È un indice della capacità produttiva di un particolare ambiente biologico. Normalmente viene espressa in peso (secco) per unità di superficie o in unità di energia (j/m). Ovviamente l'unità di misura cambia a seconda dell'oggetto in esame. La biomassa di una popolazione di insetti, ad esempio, verrà calcolata in g/m, mentre quella di una comunità erbacea presente in un prato in kg/m e quella di un bosco in t/ha. In campo energetico la biomassa indica la quantità di materiale organico che può essere utilizzata per produrre energia per combustione o tramite fermentazione. Le biomasse utili ai fini della produzione di energia includono il legno, liquami e feci animali, residui agricoli, forestali e della carta. Il concetto di biomassa è strettamente collegato a quello di "produttività" che indica la produzione di biomassa per unità di tempo ed è un parametro funzionale utile allo studio della qualità ambientale e all'evoluzione dello stato di un ecosistema fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -3384,19 +3396,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4000002</v>
+        <v>4000003</v>
       </c>
       <c r="C145" t="n">
-        <v>3000144</v>
+        <v>3000087</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Biologia</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Cultura è l'intero complesso di conoscenze, conquiste, tecnologia, tradizioni, percezioni, costumi, valori ed altre capacità delle società e dell'individuo che collegano i comportamenti del passato a quelli del presente. La cultura influenza idee ed azioni di individui e gruppi e le interazioni tra questi e l'ambiente. In tal senso cultura ambientale è l'insieme delle conoscenze formali ed informali che accrescono la comprensione dei fenomeni ambientali e correggono i comportamenti umani tendenti alla distruzione. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Quantità di popolazione che un dato habitat può sostenere indefinitamente; la capacità portante del pianeta è la capacità di alimentare e sostenere la popolazione e tutte le altre forme viventi. La capacità portante è legata al concetto di sostenibilità e di equilibrio tra quantità delle risorse disponibili e consistenza/attività economica/stili di vita di una data popolazione.</t>
         </is>
       </c>
     </row>
@@ -3405,19 +3417,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4000002</v>
+        <v>4000003</v>
       </c>
       <c r="C146" t="n">
-        <v>3000145</v>
+        <v>3000088</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Biologia</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Per cultura si intende un complesso quadro di valori e credenze che caratterizza (proviene da ed influenza) gli attori della comunità sociale, le loro decisioni ed azioni in un processo continuo teso ad affrontare, anticipare e gestire il cambiamento. La cultura si riferisce, quindi, ad una comunità, un gruppo, una nazione, ecc. Ed esprime la coesione di idee, valori, convinzioni, norme e modi di agire, condivisi dalle persone di tali sistemi organizzativi. Il concetto di "cultura" riguarda ormai anche un ecosistema. Esso può essere inteso come complesso modo di vita in continua evoluzione e con molteplicità di componenti ed interazioni, con diverse e costanti modalità di interscambio (interno ed esterno) dl "informazione, materia ed energia". In tal senso, un ecosistema esprime contenuti culturali che abbinano sia le componenti umane sia quelle non umane. Al concetto di civiltà si attribuisce un significato di maggiore universalità (globalizzazione). Valori provenienti da un paese possono, per esempio, divenire universali. Oggi, per civiltà si intende il processo di combinazione ed integrazione fra culture provenienti da comunità diverse con una sempre maggiore attenzione sui loro valori di riconciliazione fra umanità e natura (vedi sostenibilità e sviluppo sostenibile). Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
+          <t>È composto dall’insieme dei sistemi naturali (mari, fiumi, foreste, fauna, flora) e dai prodotti agricoli, della pesca, della caccia, del patrimonio artistico e culturale presente in un dato territorio.</t>
         </is>
       </c>
     </row>
@@ -3426,19 +3438,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4000002</v>
+        <v>4000003</v>
       </c>
       <c r="C147" t="n">
-        <v>3000146</v>
+        <v>3000089</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Biologia</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Nella legislazione americana, dopo il superfund del 1986 e l’oil pollution act del 1990, si sono stabilite due diversi tipi di responsabilità per i rilasci di sostanze tossiche nell’ambiente naturale: il ripristino dei siti (il clean up) e la responsabilità residuale relativa al periodo successivo alla conclusione delle operazioni di ripristino ovvero quella collegata al danno arrecato alle risorse naturali. Praticamente i danni ambientali sono valutati ai costi di ripristino più il valore economico dei servizi ambientali perduti per effetto del danno. Se volessimo introdurre brevemente ai diversi metodi di calcolo del danno ambientale, potremmo affermare che questo può essere calcolato facendo riferimento a due diversi concetti: il danno inteso come mancato beneficio associato ai beni e/o servizi ambientali danneggiati; il danno inteso valutando i costi di tutela.</t>
+          <t>Questo concetto si riferisce alla società ed al suo sistema organizzativo come organismo vitale nel quale la dimensione umana ha un ruolo primario. Il capitale umano è determinato da una continua interazione sociale basata sulla qualità della mutualità (riconoscimento, rispetto, fiducia reciproca). Si base sul miglioramento costante delle abilità e delle capacità di: analizzare, diagnosticare, concepire proposte, progettare, sperimentare, migliorare, realizzare, valutare, diffondere soluzioni. Tali capacità rappresentano le identità culturali e le potenzialità delle comunità sociali di un contesto locale. Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
         </is>
       </c>
     </row>
@@ -3447,19 +3459,19 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4000008</v>
+        <v>4000003</v>
       </c>
       <c r="C148" t="n">
-        <v>3000147</v>
+        <v>3000108</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Biologia</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Processo mediante il quale si trasferiscono potere, competenze e risorse dal governo centrale ad altre istituzioni dello stato più vicine alla popolazione e che posseggono autonomia amministrativa e legittimità proprie. É la forma di organizzazione amministrativa che, in termini generali, affida la realizzazione di alcune competenze ad organi che hanno con l´amministrazione centrale una relazione non gerarchica. É il trasferimento di funzioni, risorse e poteri da un ente centrale ad altro ente autonomo dello stato. Fonte: http://www.mmc2000.net/villaggioglobale/biblio/glo.htmglo01</t>
+          <t>Dal greco kyklos (=cerchio). Corrisponde al succedersi regolare di una serie di fenomeni che si ripetono senza interruzione e con periodico ritorno al punto di partenza. C. Biologico - riciclo di alcuni elementi chimici dagli esseri viventi (bio) al mondo inanimato (geo) terrestre e all'atmosfera. Esiste un ciclo del carbonio, dell'azoto, dell'ossigeno, del fosforo, ciascuno con le sue particolarità. Sull'idea di ciclo è basato il concetto di risorse rinnovabili spontaneamente purché l'uomo non rompa questo equilibrio messo a punto in miliardi di anni di evoluzione. C. Vegetativo - insieme delle diverse fasi che si avvicendano nella vita di una pianta: germinazione del seme, accrescimento, fioritura, maturazione del frutto o del seme. C. Vitale - sequenza degli eventi che vanno dalla nascita di un organismo vivente alla sua riproduzione con formazione di nuovi esseri viventi. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -3468,19 +3480,19 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4000002</v>
+        <v>4000003</v>
       </c>
       <c r="C149" t="n">
-        <v>3000148</v>
+        <v>3000115</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Biologia</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Il decreto legislativo 5 febbraio 1997, n.22 emanato in attuazione delle direttive 91/156/cee sui rifiuti, 91/689/cee sui rifiuti pericolosi e 94/62/ce su gli imballaggi e sui rifiuti di imballaggio fonte: arpalazio</t>
+          <t>Comunità che ha raggiunto lo stadio di equilibrio ottimale in presenza di particolari condizioni ambientali (biocenosi). Rappresenta lo stadio finale di una serie di successioni, intese come modalità non stagionali, direzionali e continue di colonizzazioni e di estinzioni di un sito da parte di popolazioni di specie. Un esempio di successione su un terreno di partenza spoglio può essere: muschi, piante erbacee (arbusti), alberi caducifoglie, conifere. Possono essere necessarie anche centinaia di anni prima di raggiungere lo stadio di climax, ma una volta raggiunto, saranno necessari grossi cambiamenti climatici perché si abbiano significative variazioni della vegetazione. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -3489,19 +3501,19 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4000002</v>
+        <v>4000003</v>
       </c>
       <c r="C150" t="n">
-        <v>3000149</v>
+        <v>3000126</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Biologia</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Rapida distruzione delle foreste in molte zone del mondo, soprattutto ai tropici e in particolare nella foresta amazzonica per convertire il terreno a un uso non forestale; ne consegue l'impoverimento delle risorse naturali capaci di abbassare il tasso di anidride carbonica nell'aria: la combustione, spesso dolosa, delle foreste pluviali, produce infatti più anidride carbonica di quanta esse ne assorbano. La progressiva scomparsa di foreste e boschi aumenta il ritmo di erosione del suolo, e le specie animali che esse ospitavano rischiano l'estinzione. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Materiale organico che si ottiene dalla biodegradazione di rifiuti organici, rami, foglie, erba e vegetali in genere, e che si può utilizzare come concime naturale. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
         </is>
       </c>
     </row>
@@ -3510,19 +3522,19 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4000001</v>
+        <v>4000003</v>
       </c>
       <c r="C151" t="n">
-        <v>3000150</v>
+        <v>3000127</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Chimica</t>
+          <t>Biologia</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Perdita dei caratteri originari delle strutture, degli elementi e delle relazioni fra le componenti dell'ecosistema, con conseguente impoverimento del flusso energetico e degli scambi materiali esistenti. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Biotecnologia per il trattamento di rifiuti organici di diversa provenienza e natura, basata su un processo ossidativi, operato da consorzi di microrganismi aerobici. Il compost ottenuto, se di qualità adeguata, può essere utilizzato come ammendante in agricoltura fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -3531,19 +3543,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4000001</v>
+        <v>4000003</v>
       </c>
       <c r="C152" t="n">
-        <v>3000151</v>
+        <v>3000200</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Chimica</t>
+          <t>Biologia</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>È un orientamento dell'economia che prevede di produrre la stessa "unità di servizio" con un quantitativo minore di materie e di materiali per produrre la stessa "unità di servizio",come previsto dagli aderenti alla dichiarazione di carnoules (club del fattore 10) fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Dal 1970 in avanti, quando si parlava di energie alternative, si pensava ad energie alternative al petrolio; ora una definizione più vicina alle mutate esigenze socio-ambientali fa restringere il campo alle sole fonti rinnovabili: il sole, il vento, l'energia idraulica, la geotermia, il moto ondoso, le maree, le biomasse (trasformazione dei rifiuti organici ed inorganici) [con esclusione, cioè del nucleare]. Fonte: http://www.obsidian.it/mimmo/geomorfologia/normativa/glossario%20giuridicohtm</t>
         </is>
       </c>
     </row>
@@ -3552,19 +3564,19 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4000002</v>
+        <v>4000003</v>
       </c>
       <c r="C153" t="n">
-        <v>3000152</v>
+        <v>3000219</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Biologia</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Processo di trasformazione in deserto di territori aridi o semiaridi dovuto principalmente a variazioni climatiche, deforestazione, a cattiva gestione o uso improprio dei territorio. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>I fattori biotici sono le componenti biologiche di un ecosistema che comprendono le piante, gli animali e i microrganismi che interagiscono nella comunità biologica. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -3573,19 +3585,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4000002</v>
+        <v>4000003</v>
       </c>
       <c r="C154" t="n">
-        <v>3000153</v>
+        <v>3000221</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Biologia</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>È un modo di progettare un prodotto tenendo conto, fin dalla fase di ideazione, della necessità di conservare le risorse naturali, ottimizzare il consumo di energia e di materia, favorire il disassemblaggio e la manutenzione, estendere la durata e minimizzare la produzione dei rifiuti e aumentare il riciclo e/o il recupero fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Il complesso delle specie animali proprie di un determinato ambiente o territorio. La fauna viene divisa in due grandi categorie: gli invertebrati e i vertebrati. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -3594,19 +3606,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4000008</v>
+        <v>4000003</v>
       </c>
       <c r="C155" t="n">
-        <v>3000154</v>
+        <v>3000240</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Biologia</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Documento pubblico, scritto in forma concisa e comprensibile, che l’azienda redige per comunicare, una volta ottenuta la certificazione emas, i seguenti elementi: a) attività del sito; b) problemi ambientali; c) dati quantitativi di emissioni e scarti; d) fattori di efficienza ambientale; e) politica, programmi e sistema di gestione dell’ambiente; f) scadenze; g) nome verificatore</t>
+          <t>Puntare al migliore rapporto costi/benefici per l'intera durata di vita di un bene, anziché un breve periodo di recupero dell'investimento. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htm</t>
         </is>
       </c>
     </row>
@@ -3615,19 +3627,19 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4000008</v>
+        <v>4000005</v>
       </c>
       <c r="C156" t="n">
-        <v>3000155</v>
+        <v>3000005</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Idrologia</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>La dichiarazione ambientale di prodotto (epd - dap) basata sul modello iso 14025 è una dichiarazione volontaria sviluppata da un produttore, utilizzando uno strumento tipo lca che quantifica gli impatti ambientali che i propri prodotti o servizi causano durante il ciclo di vita.</t>
+          <t>Acque di scarico derivanti da attività industriali o da scarichi domestici. Le acque reflue possono essere scaricate nell'ambiente esterno solo se rispecchiano la normativa sugli scarichi e, in caso contrario, solo dopo adeguato trattamento. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -3636,19 +3648,19 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4000008</v>
+        <v>4000005</v>
       </c>
       <c r="C157" t="n">
-        <v>3000156</v>
+        <v>3000085</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Idrologia</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Dichiarazione approvata dalla conferenza delle nazioni unite sull'ambiente e lo sviluppo "eart summit" riunita a rio de janeiro dal 2 al 14 giugno 1992. - il documento si articola in 27 principi il terzo dei quali afferma che "il diritto allo sviluppo deve essere realizzato in modo da soddisfare equamente le esigenze relative all'ambiente ed allo sviluppo delle generazioni presenti e future". Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>La teoria del caos è strettamente legata a quella della complessità (vedi). Caos è ordine dinamico, circolarità ed iterazione tra cause ed effetti, convivenza di molteplici ordini, non sempre identificabili, interpretabili e semplificabili dal modo in cui l'essere umano organizza la propria conoscenza (ad esempio leggi ed assunzioni scientifiche). La teoria del caos si fonda sulla natura olistica della dinamica non lineare. In altre parole, i sistemi dinamici sono complessi e, quindi, olistici; possiedono un carattere di completezza per cui le parti s'influenzano a vicenda, e globale (intero) e locale (parte) s'influenzano contemporaneamente. Un sistema è dinamico e caotico, si basa su un'estrema sensibilità e mutevolezza e non ritorna mai al suo stato precedente per gli effetti di iterazione e connessione (feedback) fra tutte le componenti. Tali effetti possono amplificare condizioni iniziali in modo imprevedibile. Forse la migliore immagine della teoria del caos è data dall'ormai noto "effetto farfalla", secondo il quale un battito d'ali di una farfalla, oggi a pechino, potrebbe trasformarsi in un temporale nei prossimi mesi a new york. Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
         </is>
       </c>
     </row>
@@ -3657,19 +3669,19 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4000008</v>
+        <v>4000005</v>
       </c>
       <c r="C158" t="n">
-        <v>3000157</v>
+        <v>3000161</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Idrologia</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Rapporto tra la quantità totale di energia importata e la quantità totale di energia consumata da un paese, espresso in fonti primarie. Dipende direttamente dall'entità delle risorse energetiche presenti in ogni singolo paese. Per l'italia il grado di dipendenza energetica è molto alto: importiamo infatti oltre l'80% dell'energia consumata fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Frane, smottamenti, valanghe, alluvioni, erosioni, abbassame</t>
         </is>
       </c>
     </row>
@@ -3678,19 +3690,19 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4000002</v>
+        <v>4000005</v>
       </c>
       <c r="C159" t="n">
-        <v>3000158</v>
+        <v>3000196</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Idrologia</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Direttiva cee/ceea/ce n.43 del 21/05/1992: strumento legislativo mirato alla conservazione degli habitat naturali e seminaturali e della flora e della fauna selvatiche. L'obiettivo finale della direttiva è quello di creare una rete natura 2000 formato da aree zsc. Tale direttiva ha creato per la prima volta un quadro di riferimento per la conservazione della natura in tutti gli stati dell'unione europea. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Energia derivata dall'energia potenziale e cinetica posseduta dall'acqua. La trasformazione dell'energia idraulica in energia elettrica avviene tramite centrali idroelettriche fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -3699,19 +3711,19 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4000008</v>
+        <v>4000005</v>
       </c>
       <c r="C160" t="n">
-        <v>3000159</v>
+        <v>3000227</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Idrologia</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Atti emessi dalla commissione dell'unione europea, di solito relativi a problemi che possono creare situazioni di pericolosità per le persone o per l'ambiente, e sono di recepimento obbligatorio da parte degli stati membri. Ogni direttiva è vincolante per gli obiettivi che si prefigge ma lascia alle autorità nazionali la scelta dei modi e delle forme della sua applicazione. La commissione controlla la sua adozione da parte degli stati membri, che possono essere deferiti alla corte di giustizia nel caso di mancata ottemperanza. Secondo il "nuovo approccio" cee (1985) le direttive stabiliscono i requisiti essenziali cui il prodotto o servizio deve adeguarsi e demandano al cen l'emanazione delle specifiche tecniche relative. Esse sono notificate a coloro ai quali sono destinate ed hanno effetto nel momento della notifica. Tutte le direttive sono pubblicate sulla gazzetta ufficiale della cee serie "l". Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>La fitodepurazione consiste nella depurazione delle acque attraverso l'azione di zone umide (naturali od artificiali). Gli inquinanti vengono rimossi attraverso la combinazione di processi quali la sedimentazione, la precipitazione, l'assorbimento, l'assimilazione da parte delle piante e l'attività microbiologica. Attraverso la fitodepurazione è possibile eseguire trattamenti secondari e terziari (finissaggio) di acque reflue contenendo l'impatto ambientale ed il consumo energetico. Fonte: http://www.comune.dozza.bo.it/sellustra/mioweb2/glossario.htm</t>
         </is>
       </c>
     </row>
@@ -3720,19 +3732,19 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4000092</v>
+        <v>4000007</v>
       </c>
       <c r="C161" t="n">
-        <v>3000160</v>
+        <v>3000007</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Macchine</t>
+          <t>Geologia e sismologia</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>L'insieme delle operazioni necessarie per la cessazione delle attività produttive di un impianto o di un'area industriale. Si suddivide generalmente in tre fasi: messa in sicurezza delle componenti; smantellamento e rimozione delle apparecchiature e delle struttura; ripristino del suolo. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Strumento di pianificazione che definisce gli obiettivi e le modalità di risanamento delle risorse idriche superficiali e sotterranee di un determinato territorio e che indica le necessità finanziarie per le operazioni di risanamento pianificate. Le problematiche connesse a tale risanamento,riferite ad una certa regione,assumono carattere di "sistema", in quanto sussistono complesse interrelazioni tra molteplici variabili sia di tipo strettamente idraulico, sia inerenti alle correlazioni tra approvvigionamento idrico, interventi di miglioramento e fattori economico territoriali. La risoluzione di tali problematiche deve rispondere all'obiettivo di identificare le quantità da destinare agli usi, con opportuna articolazione temporale, territoriale e settoriale e i conseguenti interventi da realizzare. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -3741,19 +3753,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4000005</v>
+        <v>4000007</v>
       </c>
       <c r="C162" t="n">
-        <v>3000161</v>
+        <v>3000039</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Idrologia</t>
+          <t>Geologia e sismologia</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Frane, smottamenti, valanghe, alluvioni, erosioni, abbassame</t>
+          <t>Si parla di attori locali nell'ambito della promozione dello sviluppo locale (comunitario, municipale, intermunicipale). Sono i governi locali (municipi e/o associazioni di municipi), la societá civile organizzata (comitati di cittadini, organizzazioni sociali, ong, associazioni di produttori, ecc.) e rappresentanze decentrate del governo centrale. Generalmente si riuniscono, associano e organizzano in strutture territoriali (comitati, commissioni, ecc.) al fine di identificare, condividere e promuovere politiche per lo sviluppo (integrato, sostenibile e partecipato) del proprio territorio. Fonte: http://www.mmc2000.net/villaggioglobale/biblio/glo.htmglo01</t>
         </is>
       </c>
     </row>
@@ -3762,19 +3774,19 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4000002</v>
+        <v>4000007</v>
       </c>
       <c r="C163" t="n">
-        <v>3000162</v>
+        <v>3000075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Geologia e sismologia</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Nato nel 1993, è un sistema comunitario volontario di ecogestione.il suo obiettivo? garantire la minimizzazione degli impatti ambientali nei processi industriali. Fonte: http://www.agricolturabiologicaitaliana.it/</t>
+          <t>Indica l'involucro esterno alla superficie terrestre, costituito da aria, acqua, suolo e sottosuolo (per la profondità di poche decine di metri), in cui sussistono le condizioni essenziali alla vita; per estensione definisce l'insieme delle forme viventi presenti sul pianeta terra. Con l'idrosfera, insieme delle masse d'acqua, la geosfera, insieme dei substrati geologici, e l'atmosfera che è la massa d'aria che ci circonda, costituisce l'ecosfera, in pratica, il pianeta stesso, considerato come la massima espressione dell'integrazione tra le varie componenti viventi (biotiche) e non viventi (abiotiche). La biosfera non è una cosa separata dal resto, ma si compenetra con tutte le matrici ambientali; infatti gli esseri viventi sono presenti sia all'interno dell'idrosfera che negli strati più bassi dell'atmosfera e nella geosfera (soprattutto nella pedosfera, cioè lo strato superficiale dei suolo). Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -3783,19 +3795,19 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4000002</v>
+        <v>4000007</v>
       </c>
       <c r="C164" t="n">
-        <v>3000163</v>
+        <v>3000099</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Geologia e sismologia</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Riprogettazione del prodotto in modo che causi il minor danno possibile all'ambiente durante la produzione, l'uso e lo smaltimento. Forma unica versus standard, produzione artigianale contro serializzazione. Questo è il succo dell'ecodesign, filosofia creativa che reinterpreta i valori dell'artigianato tradizionale, come la durevolezza, la praticità, l'uso economico dei materiali e la creazione di forme uniche. Fonti: http://www.ecoeconomisti.it/ecoglossario.html http://www.agricolturabiologicaitaliana.it/ ecoefficienza orientamento strategico che consente ad un'impresa che investe nella riduzione degli impatti sull'ambiente di superare i fattori penalizzanti (iniziale aumento dei costi, adeguamenti tecnologici etc...) trasformandoli in occasioni di aumento della profittabilità e competitività dall'azienda. Il significato del termine ecoefficienza può essere fatto risalire alla riformulazione del concetto stesso di efficienza proposta da e. U. Von weiszäcker, a. B. Lovins e l. H. Lovins nel volume fattore 4 (edizioni ambiente, 1998). Qui, per efficienza si intende ciò che consente di scindere il benessere dell'umanità dal consumo di risorse. Secondo gli autori, migliorando e calibrando l'efficienza - attraverso una serie di tecniche e metodologie già oggi disponibili - si può arrivare rapidamente a un utilizzo più razionale delle risorse, con benefici ambientali, sociali ed economici. L'ecoefficienza si basa su 4 principi scientifici: 1) le risorse "rinnovabili" non devono essere sfruttate oltre la loro naturale capacità di rigenerazione; 2) la velocità di sfruttamento delle risorse non rinnovabili non deve essere più alta di quella relativa allo sviluppo di risorse sostitutive, ottenibili attraverso il progresso tecnologico; 3) la produzione dei rifiuti ed il loro rilascio nell'ambiente devono procedere a ritmi uguali o inferiori a quelli di una chiaramente dimostrata e controllata capacità di assimilazione da parte dell'ambiente stesso; 4) devono essere mantenuti i servizi di sostegno all'ambiente (per esempio, la diversità genetica e la regolamentazione climatica). Fonti: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce http://www.srseuropa.it/mat_for/gloframe.htm http://www.ecoeconomisti.it/ecoglossario.html ecogestione per ecogestione o gestione ambientale si intende la parte del sistema di gestione complessivo dell'impresa che comprende la struttura organizzativa, la responsabilità, le prassi, le procedure, i processi e le risorse per definire e attuare la politica ambientale dell'impresa stessa. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Scienza complessa che comprende tutte le operazioni scientifiche, tecniche ed artistiche necessarie all'elaborazione e all'allestimento delle carte geografiche e dei diversi sistemi di espressione grafica sulla base di rilevamenti diretti del terreno e di altre fonti di cartografiche o documentarie. Il termine cartografia si riferisce non solo alla produzione ma anche alla lettura e all'utilizzo delle carte. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -3804,19 +3816,19 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4000002</v>
+        <v>4000007</v>
       </c>
       <c r="C165" t="n">
-        <v>3000164</v>
+        <v>3000195</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Geologia e sismologia</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Uno dei modi in cui, teoricamente, le questioni ambientali possono incidere sull'andamento del commercio internazionale è rappresentato dalla praticva del cosiddetto "ecodumping", cioè dal trasferimento degli investimenti o delle attività in paesi in cui non esistono, o siano particolarmente ridotti, gli standard ambientali da rispettare nella produzione dei beni. A causa dell' ecodumping, le industrie che operano in paesi con basso standard ambientali godrebbero di un vantaggio competitivo e la migrazione industriale verso "i paradisi dell'inquinamento" causerebbero uno spostamento degli investimenti esteri diretti e dei posti di lavoro dai paesi con alti livelli di controllo a quelli con bassi standard ambientali. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Energia termica accumulata nella crosta terrestre e che viene costantemente alimentata dal flusso di calore proveniente dal mantello e dal nucleo del pianeta. Il calore geotermico sale verso la superficie sotto forma di un flusso pari a circa 0,063 w/m2, troppo diluito per uno sfruttamento economico. Lo sfruttamento dell'energia geotermica è pertanto limitata a zone ove sono presenti "anomalie" dovute al vulcanesimo secondario, cioè al riscaldamento intenso e localizzato di alcune zone superficiali della crosta terrestre percorse da falde acquifere, come nel caso dei sistemi idrotermali. Gli usi più frequenti dell' energia geotermica riguardano la produzione di energia elettrica (centrali geotermoelettriche) o la produzione di calore destinato ad usi civili o industriali fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -3825,19 +3837,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4000002</v>
+        <v>4000007</v>
       </c>
       <c r="C166" t="n">
-        <v>3000165</v>
+        <v>3000235</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Geologia e sismologia</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Per ecogestione o gestione ambientale si intende la parte del sistema di gestione complessivo dell’impresa che comprende la struttura organizzativa, la responsabilità, le prassi, le procedure, i processi e le risorse per definire e attuare la politica ambientale dell’impresa stessa.</t>
+          <t>Sorgenti di energia riconducibili a tre flussi energetici inesauribili che investono l'ambiente in cui viviamo: l'energia solare, l'energia geotermica, l'energia di marea (originata dall'attrazione gravitazionale di sole e, soprattutto, luna). La fonte ri</t>
         </is>
       </c>
     </row>
@@ -3846,19 +3858,19 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4000002</v>
+        <v>4000007</v>
       </c>
       <c r="C167" t="n">
-        <v>3000166</v>
+        <v>3000239</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Geologia e sismologia</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Aziende che presentano un grande potenziale innovativo in relazione ai prodotti/servizi erogati ad alta efficienza ecologica. Fonte: http://www.ecoeconomisti.it/ecoglossario.html</t>
+          <t>Dal greco ghé (terra) + biologia, la scienza che studia i fenomeni della vita e le leggi che li governano. Il termine geobiologia indica quindi l'ambito entro il quale si muove questa nuova scienza: studio dell'influenza su tutto ciò che vive dei fenomeni connessi alla terra (alexandre r., 1989). Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -3867,19 +3879,19 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4000002</v>
+        <v>4000008</v>
       </c>
       <c r="C168" t="n">
-        <v>3000167</v>
+        <v>3000008</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Insieme delle procedure introdotte in ambito europeo del regolamento comunitario n. 880/92, consistenti nel contrassegnare con un logo specifico i prodotti caratterizzati da un limitato impatto ambientale. Il logo viene assegnato a quei prodotti che soddisfano uno specifico insieme di criteri ecologici. Finora hanno ottenuto l’ecolabel comunitario alcuni prodotti nei settori dei detergenti, lavatrici, vernici ecc.. Poiché l’ecolabel è un simbolo che evidenzia le favorevoli prestazioni ambientali di un prodotto (ad esempio, il contenere un minor quantitativo di un determinato inquinante) rispetto ai suoi concorrenti, le imprese se ne avvalgono per orientare i consumatori all’acquisto di beni più rispettosi dell’ambiente.</t>
+          <t>L'agenda 2000 è un programma d'azione adottato dalla commissione europea in data 15 luglio 1997 per rispondere alla richiesta del consiglio europeo di madrid (dicembre 1995) di presentare sia un documento d'insieme sull'allargamento e sulla riforma delle politiche comuni, sia un documento sul futuro contesto finanziario dell'unione a decorrere dal 31 dicembre 1999. Al documento è anche allegato il parere della commissione sulle candidature di adesione con riguardo all'insieme delle questioni che l'unione dovrà affrontare agli inizi del xxi secolo. L'agenda 2000 è articolata in tre sezioni: la prima affronta la questione del funzionamento dell'unione europea, in particolare la riforma della politica agricola comune e della politica di coesione economica e sociale. Contiene inoltre raccomandazioni per far fronte alla sfida dell'allargamento nelle migliori condizioni e propone di porre in essere un nuovo assetto finanziario per il periodo 2000-2006; la seconda propone una strategia di pre-adesione rafforzata, integrandovi due nuovi elementi: la partnership per l'adesione e la più ampia partecipazione dei paesi candidati a programmi comunitari ed ai meccanismi di applicazione dell'"acquis" comunitario; la terza prevede uno studio di impatto sugli effetti che l'allargamento avrà sulle politiche dell'unione europea. In queste tre aree la commissione ha presentato una ventina di proposte legislative nel 1998. Nel marzo 1999 il consiglio europeo di berlino è pervenuto ad un accordo politico globale su questo pacchetto di proposte, il che ha consentito la loro integrale adozione entro la fine dell'anno. Queste misure, la cui validità si estende dal 2000 al 2006, riguardano quattro settori strettamente connessi: riforma della politica agricola comune; riforma della politica strutturale; strumenti di pre-adesione; quadro finanziario. Fonte: http://europa.eu.int/scadplus/leg/it/cig/g4000.htm</t>
         </is>
       </c>
     </row>
@@ -3888,19 +3900,19 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4000002</v>
+        <v>4000008</v>
       </c>
       <c r="C169" t="n">
-        <v>3000168</v>
+        <v>3000009</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Aziende che all'interno del loro settore produttivo raggiungono le migliori performance ambientali. Fonte: http://www.ecoeconomisti.it/ecoglossario.html</t>
+          <t>La realizzazione dell'agenda 21 passa attraverso il ruolo strategico, attivo e responsabile delle comunità locali, per quanto possono concretamente realizzare nel proprio ambito territoriale ed amministrativo (vedi carta di aalborg). In italia, sotto l'impulso del movimento nato in europa con la carta di aalborg (1994), dopo la conferenza di siviglia nel 1997, molti enti locali, che si fanno parte attiva in questo processo, hanno scelto di costituire il coordinamento italiano delle agende 21 locali (1998), per dotarsi di strumenti comuni per facilitare la realizzazione dello sviluppo sostenibile. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
         </is>
       </c>
     </row>
@@ -3909,19 +3921,19 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4000002</v>
+        <v>4000008</v>
       </c>
       <c r="C170" t="n">
-        <v>3000169</v>
+        <v>3000010</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Dal greco òikos = casa ( luogo in cui si abita ) e lògos = studio - studio dell'ambiente. Scienza che studia l'insieme delle interrelazioni con l'ambiente da parte degli organismi vegetali e animali (haeckel, 1866); recentemente le tematiche di ecologia sono state estese anche all'uomo, con particolare riferimento all'influenza che le variazioni climatiche, ambientali ecc. (comprese quelle indotte dall'uomo) esercitano sull'uomo, sugli animali e sulle piante. Nell'accezione contemporanea indica lo studio interdisciplinare delle problematiche ambientali e la ricerca delle possibili modalità di recupero degli squilibri. Ecologia non è quindi solo protezione della natura o studio dell'inquinamento! si occupa fondamentalmente dei rapporti che legano gli esseri viventi, uomo compreso, all'ambiente che li circonda e richiede il contributo di molte scienze (geografia, botanica, zoologia, biologia, biochimica, medicina, antropologia, etc.) fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Piano d'azione delle nazioni unite per lo sviluppo sostenibile del xxi secolo, approvato da 173 governi alla conferenza su ambiente e sviluppo di rio de janeiro del 1992. L'agenda 21 attribuisce alle autorità locali (provincee e comuni) un ruolo fondamentale nella realizzazione dell'obiettivo dello sviluppo sostenibile.</t>
         </is>
       </c>
     </row>
@@ -3930,19 +3942,19 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4000002</v>
+        <v>4000008</v>
       </c>
       <c r="C171" t="n">
-        <v>3000170</v>
+        <v>3000011</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Si interessa degli equilibri ecologici e dei rapporti tra casa ed abitanti, delle possibili fonti di inquinamento interne e degli influssi che i comportamenti domestici determinano sull'ambiente esterno. La casa è un ecosistema artificiale di piccole dimensioni, per le cui analisi è possibile utilizzare i principi riferibili ad un ecosistema naturale. Fonte: http://www.naturanetwork.it/u_gloss.asp</t>
+          <t>Organismo di diritti pubblico che svolge funzioni di carattere tecnico scientifico legate alla protezione e alla promozione della qualità ambientale a supporto degli enti di governo centrale e locali in campo ambientale. Le agenzie ambientali si dividono in: agenzia nazionale (apat) agenzia regionale e provinciale (arpa/appa) fonte: arpalazio</t>
         </is>
       </c>
     </row>
@@ -3951,19 +3963,19 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4000001</v>
+        <v>4000008</v>
       </c>
       <c r="C172" t="n">
-        <v>3000171</v>
+        <v>3000013</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Chimica</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Area di ricerca che, attraverso l'analogia tra funzionamento dell'ecosistema e del sistema industriale, estende a quest'ultimo i principi cardine dell'ecologia. La nascita dell'ecologia industriale si deve all'emergere di una strategia specifica per ridurre gli impatti antropici sulle risorse naturali prendendo a modello i fenomeni di riciclizzazione della materia presenti negli ecosistemi. Per affrontare i problemi ambientali connessi alla produzione industriale occorre considerare il sistema industriale come un sistema interconnesso di produzione e consumo,esaminando come questo genera scorie e inquinanti che danneggiano l'ambiente. Si tratta in particolare di esaminare se esista qualche modo per porre in interazione reciproca processi industriali differenti che producono rifiuti e, in particolar modo, rifiuti pericolosi. Mentre gli approcci tradizionali al management ambientale sono incentrati sui processi produttivi o sui siti industriali, l'ecologia industriale utilizza un approccio sistemico; potrebbe, infatti, non essere opportuno minimizzare i rifiuti di una particolare fabbrica o industria, ma si dovrebbe agire per minimizzare i rifiuti dell'attività industriale nel suo complesso. L'obiettivo dell'ecologia industriale è quello di modificare l'attività umana per ridurre le caratteristiche dissipative; a tal fine sarà il concetto stesso di "scarto" ad essere considerato in una visione sistemica fino alla sua riconsiderazione in qualità di prodotto intermedio. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>L’agenzia nazionale per la protezione dell’ambiente e per i servizi tecnici (apat) è una struttura pubblica, nata dal 2002 dall’anpa, a sua volta istituita con la legge del 21 gennaio 1994, n. 61, che è stata emanata in seguito al referendum del 18 aprile 1993, con il quale erano state sottratte alle usl le competenze in materia di controlli ambientali. Il nuovo ente deve svolgere attività di monitoraggio, informazione, promozione e proposizione sulle tematiche ambientali che avvicinano il modello italiano a quello di analoghe strutture già operanti in altri paesi. Tra i compiti essenziali dell’apat rientrano: il sostegno tecnico-scientifico alle autorità amministrative; la realizzazione di una rete di informazioni sullo stato dell’ambiente; l’attuazione di controlli ispettivi; la definizione di standard di qualità ambientale; l’impulso alla ricerca di tecnologie ecocompatibili; le funzioni di segreteria tecnica del comitato competente per l’attuazione del regolamento sull’audit ambientale (emas) e sull’ecolabel. La legge al tempo stesso dà mandato alle regioni e alle provincie autonome di istituire apposite agenzie regionali (arpa) e provinciali autonome (appa), alle quali sono affidati compiti di intervento operativo sul territorio.</t>
         </is>
       </c>
     </row>
@@ -3975,7 +3987,7 @@
         <v>4000008</v>
       </c>
       <c r="C173" t="n">
-        <v>3000172</v>
+        <v>3000018</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3984,7 +3996,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Insieme di strumenti e di politiche per ridurre il consumo di risorse naturali, favorire attività produttive più compatibili con l'ambiente (che producono minori impatti), migliorare le condizioni sociali, rendere più facilmente disponibili risorse economiche e finanziarie anche a soggetti deboli, ecc. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
+          <t>Le origini della politica di sviluppo della comunità europea risalgono alla firma del trattato di roma nel 1957 e i paesi e i territori d'oltremare degli allora stati membri sono stati i suoi primi beneficiari. Tuttavia, è solo dall'entrata in vigore del trattato sull'unione europea che la politica di sviluppo ha ottenuto una base giuridica specifica (articoli da 177 a 181 del trattato ce). Con i successivi allargamenti dell'unione, la cooperazione è stata progressivamente estesa ad altri paesi, quali i paesi dell'africa, dei caraibi e del pacifico (acp), che vantavano una relazione particolarmente stretta e di lunga data con alcuni stati membri. L'accordo di cotonou, firmato nel giugno 2000, ha ulteriormente rafforzato questo partenariato, che si fonda in buona parte sulle diverse convenzioni di lomé, di cui la prima firmata nel 1975. Al di là di questi primi accordi, la politica di sviluppo comunitaria si rivolge anche ad altri paesi, quali quelli dell'america latina e dell'asia. L'obiettivo principale della politica di sviluppo della comunità europea consiste nell'eliminazione della povertà. Questa politica è attuata non solo attraverso accordi bilaterali e regionali ma anche mediante programmi specifici in alcuni settori, come la sanità, ad esempio attraverso la lotta contro le malattie trasmissibili, e l'istruzione. La politica di sviluppo prevede inoltre la cooperazione con istituzioni internazionali e la partecipazione della comunità e degli stati membri alle iniziative avviate a questo livello, come quella a favore dei paesi poveri fortemente indebitati. Attualmente, l'unione è il principale partner dei paesi in via di sviluppo. Insieme, la comunità europea e i suoi stati membri forniscono il 55% degli aiuti internazionali allo sviluppo. Fonte: http://europa.eu.int/scadplus/leg/it/cig/g4000.htm</t>
         </is>
       </c>
     </row>
@@ -3993,19 +4005,19 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4000002</v>
+        <v>4000008</v>
       </c>
       <c r="C174" t="n">
-        <v>3000173</v>
+        <v>3000024</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Complesso ecologico formato dall'uso del suolo, dalla mobilità e dalle componenti socioeconomiche dell'ambiente. In termini generici l'ambiente che coinvolge direttamente l'uomo. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>È il primo passo per la valutazione, il controllo e il miglioramento delle performance ambientali di una organizzazione ed è uno strumento di analisi che consente di identificare i fattori di impatto associati alle attività produttive e/o di servizio ed orientare la conseguente scelta di strumenti di valutazione più approfonditi.</t>
         </is>
       </c>
     </row>
@@ -4014,19 +4026,19 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4000001</v>
+        <v>4000008</v>
       </c>
       <c r="C175" t="n">
-        <v>3000174</v>
+        <v>3000025</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Chimica</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Unità che include tutti gli organismi che vivono insieme in una data area, interagenti con l'ambiente fisico, in modo tale che un flusso di energia porta a una ben definita struttura biotica e ad una ciclizzazione dei materiali tra viventi e non viventi all'interno del sistema. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Tra i diversi metodi di analisi economico-finanziaria utilizzati per la valutazione di investimenti, l'analisi costi-benefici costituisce la tecnica più diffusa per l'esame di fattibilità di investimenti pubblici in progetti ed opere di intervento sul territorio la cui realizzazione implica rilevanti ricadute per il sistema da questo interessato. Scopo dell'acb è di individuare fra più alternative progettuali la proposta migliore o di verificare, in caso di alternativa unica, che i costo prevedibili del progetto siano complessivamente inferiori ai benefici, in modo da migliorare, con la realizzazione del progetto, il livello di benessere generale del contesto socio-economico su cui esso influisce.rispetto alle normali tecniche di valutazione di fattibilità usate per investimenti di natura privata, l'acb deve basare il proprio giudizio di fattibilità degli investimenti in opere pubbliche non solo su criteri di tipo contabile-finanziario, ma anche su criteri di economicità o convenienza sociale, cioè sull'accrescimento di benessere globale della collettività apportato dalla realizzazione dell'opera, calcolato attraverso l'identificazione, la valutazione e la comparazione del complesso dei costi e dei benefici sociali legati all'opera sottoposta ad esame. I maggiori problemi legati all'acb sono gli stessi che caratterizzano la definizione del valore monetario di beni intangibili o incommensurabili, come quelli ambientali. La divergenza tra valore d'uso e valore di mercato per questi beni fa sì che il loro prezzo di mercato (non sempre esistente) non rispecchi il loro reale valore sociale o di uso. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -4035,19 +4047,19 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4000002</v>
+        <v>4000008</v>
       </c>
       <c r="C176" t="n">
-        <v>3000175</v>
+        <v>3000028</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Indica un particolare ambiente e tutti gli esseri viventi e non viventi che lo popolane. E'' l'unità funzionale di base in ecologia ed è composta da una comunità di esseri viventi (componente biotica) e non viventi (componente abiotica), dai flussi di energia e dalle loro interazioni. Si parla, oltre che di ecosistemi naturali, anche di "ecosistemi artificiali", ovvero quelli prodotti dall'attività umana.. Il concetto di ecosistema è funzionale alla possibilità di eseguire degli studi per capire il funzionamento dei complessi processi biologici. In realtà i limiti di un ecosistema sfumano normalmente in quelli di un altro e gran parte degli organismi possono far parte di ecosistemi diversi in momenti diversi. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>L'analisi multicriteriale è un metodo di valutazione non monetaria generalmente utilizzato per esaminare la convenienza di un progetto di investimento sul territorio, caratterizzato da un rilevante impatto di tipo sociale ed economico nel contesto in cui viene realizzato. Questo metodo di analisi, unitamente all'analisi costi benefici, trova applicazione nell'ambito dell'attività di pianificazione territoriale, processo complesso che fa riferimento ad una pluralità di sotto-sistemi caratterizzati da un rapporto di reciprocità e d'interazione. La particolarità dell'analisi multicriteriale consiste nella formulazione del giudizio di convenienza in funzione di più criteri di riferimento, esaminati in maniera autonoma e interattiva. Si può applicare in alternativa all'acb, che esprime il giudizio di convenienza in funzione di un solo criterio. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -4056,19 +4068,19 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4000002</v>
+        <v>4000008</v>
       </c>
       <c r="C177" t="n">
-        <v>3000176</v>
+        <v>3000029</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Secondo l'unep (united nation environment program) si tratta di uno sviluppo basato sulla sostenibilità ambientale che tiene conto dei bisogni umani fondamentali (basic needs) e della capacità di basarsi sulle risorse locali e sull'autorganizzazione (self-reliance)."uno sviluppo endogeno e basato sulle proprie forze (self-reliant); sottomesso alla logica dei bisogni dell'intera popolazione e non della produzione elevata a fine in sé, e finalmente cosciente della propria dimensione ecologica e alla ricerca di un'armonia tra uomo e natura" (assemblea generale delle nazioni unite 1975). Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>L'analisi s.w.o.t., ci permette di cogliere: * strengths, punti di forza * weaknesses, punti di debolezza * opportunities, opportunità, * threats, minacce e vincoli di qualsiasi progetto, piano, programma, iniziativa, impresa vogliamo elaborare, migliorare, sviluppare e valutare fonte: http://www.provincia.arezzo.it/imprendere21/glossario/glo-swot.xml.html</t>
         </is>
       </c>
     </row>
@@ -4077,19 +4089,19 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4000002</v>
+        <v>4000008</v>
       </c>
       <c r="C178" t="n">
-        <v>3000177</v>
+        <v>3000033</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Associazioni definite come "piccole comunità rurali o urbane che integrano una struttura sociale basata sulla solidarietà con attività pratiche legate alla progettazione ecologica. Sono modelli insediativi che cercano di proteggere i sistemi viventi del pianeta, di incoraggiare la crescita personale e di sperimentare stili di vita che facilitino l'armonia tra gli esseri umani e la natura." (definizione offerta dal gen, snyder, 1999). Fonte: http://www.buildlab.com/article/33</t>
+          <t>L'approccio integrato è un processo volto a combinare, interpretare e trasferire conoscenza da diversi ambiti scientifici allo scopo di affrontare il problema ambientale evidenziandone l'intera catena causa-effetto. Il suo principale punto di forza è la multidisciplinarietà che permette di definire l'oggetto d'indagine in modo ampio e preciso e - compatibilmente con la conoscenza disponibile- di ridurre il grado di incertezza o comunque di incorporarlo nell'analisi. Un altro dei maggiori obiettivi dell'ai è quello di migliorare le relazioni tra ambiente scientifico e politico. Ciò fornendo risultati più affidabili, trasparenti e precisi e coinvolgendo nel processo decisionale della definizione delle diverse politiche ricercatori, operatori politici ed i gruppi di portatori dei principali interessi. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -4098,19 +4110,19 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>4000001</v>
+        <v>4000008</v>
       </c>
       <c r="C179" t="n">
-        <v>3000178</v>
+        <v>3000038</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Chimica</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Processo educativo orientato ad approfondire le conoscenze delle interazioni uomo-ambiente, utilizzando una prospettiva interdisciplinare ed un approccio di problematizzazione e ricerca di soluzione degli aspetti rilevanti e critici che derivano da tali interazioni. Concerne il progresso delle conoscenze e delle azioni miranti ad un'integrazione sempre più adeguata dei soggetti e dei gruppi sociali al contesto ambientale ,preoccupandosi della salvaguardia e dell'uso delle risorse. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>La società può essere suddivisa in più entità che possono essere formate da individui , gruppi di individui, uniti da un interesse comune, aziende private o gruppi di aziende private (multinazionali) o da enti amministrativi pubblici. Gli attori, nell' agenda 21 sono tutti i soggetti coinvolti nel processo d'attuazione dell'agenda 21, che possono a titolo individuale (singolo cittadino) o collettivo (soggetti istituzionali, rappresentanti di vasti settori economici, i sindacati, associazioni, comitati, ecc.) agire dei cambiamenti sui propri comportamenti o facilitare e/o coinvolgere quelli di altri soggetti (p.e. Modificare le varie tipologie di servizi, le politiche ambientali, economiche, ecc.) fonte: http://www.kalao.org/glossario.htm e http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
         </is>
       </c>
     </row>
@@ -4119,19 +4131,19 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>4000001</v>
+        <v>4000008</v>
       </c>
       <c r="C180" t="n">
-        <v>3000179</v>
+        <v>3000040</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Chimica</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Conseguenze sull'ambiente derivanti dalla realizzazione di un'opera (ad esempio stabilimento industriale, ferrovie ecc..), registrabili a distanza di poco (settimane, mesi) o molto tempo (anni). Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Per audit si intende l’insieme delle attività svolte secondo apposita procedura, che consente una valutazione sistematica, documentata, periodica e obiettiva dell’efficienza dell’organizzazione e del sistema di gestione della sicurezza e dell’ambiente, anche mediante la verifica della corretta attuazione delle politiche e delle procedure operative aziendali, la verifica del raggiungimento degli obiettivi fissati e l’individuazione di eventuali azioni correttive. Audit ambientali o di sicurezza possono essere svolte sia da verificatori interni all’azienda, sia da esterni, quali società di consulenza accreditate per il rilascio della certificazione o da verificatori accreditati dall’unione europea.</t>
         </is>
       </c>
     </row>
@@ -4140,19 +4152,19 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>4000002</v>
+        <v>4000008</v>
       </c>
       <c r="C181" t="n">
-        <v>3000180</v>
+        <v>3000041</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Cambiamenti nell’ambiente, sia positivi che negativi, causati dalle attività, prodotti e/o processi di una data organizzazione. Possono essere distinti in effetti interni (riconducibili cioè alle attività svolte all’interno del perimetro del sito) ed effetti esterni (causati dalle attività svolte al di fuori del perimetro del sito, per effetto della presenza del sito stesso, come ad esempio l’emissione di inquinanti atmosferici associati alla movimentazione delle merci, persone e prodotti).</t>
+          <t>(lett. Proiezione all'indietro): dirigere e determinare il processo che deve assumere lo sviluppo tecnologico e possibilmente anche il ritmo al quale questo processo di sviluppo deve essere introdotto. Fonte: http://www.geocities.com/athens/agora/5311/giuridica/extra/00-eu-sustain-glossario.htmagenda locale 21</t>
         </is>
       </c>
     </row>
@@ -4161,19 +4173,19 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>4000035</v>
+        <v>4000008</v>
       </c>
       <c r="C182" t="n">
-        <v>3000181</v>
+        <v>3000047</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Climatologia</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Si tratta di quegli effetti dell’attività economica che non si presentano su scala regionale o locale ma su scala globale, mondiale: effetto serra, eutrofizzazione delle acque, acidificazione delle piogge, riduzione dello strato di ozono. La risoluzione dei problemi globali non può che essere affrontata attraverso accordi di cooperazione internazionale.</t>
+          <t>Migliori tecnologie disponibili che non impongono costi eccessivi fonte: http://www.dima.unimo.it/servizi/glossa/b.doc</t>
         </is>
       </c>
     </row>
@@ -4182,19 +4194,19 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>4000001</v>
+        <v>4000008</v>
       </c>
       <c r="C183" t="n">
-        <v>3000182</v>
+        <v>3000056</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Chimica</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Proprietà fisica di alcuni materiali semiconduttori (ad esempio il silicio, molto diffuso in natura) che, opportunamente trattati ed interfacciati, sono in grado di generare direttamente elettricità quando sono colpiti dalla radiazione solare. Ai fini industriali l'effetto fv viene sfruttato per mezzo di dispositivi detti celle fotovoltaiche fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Il bilancio partecipativo (diventato famoso nel mondo per l´esperienza promossa a porto alegre in brasile) è un processo fatto di assemblee e incontri in cui la popolazione decide come e dove investire i soldi del comune sulla città. I conflitti diventano evidenti, aperti, trasparenti e, quindi, produttivi nel processo di costruzione della città e della società. L'impegno dell'amministrazione pubblica è quello di dare concretezza e visibilità di risultati alle proposte e alle indicazioni dei cittadini. Nascono progetti condivisi e studiati cooperativamente. Fonte: http://www.mmc2000.net/villaggioglobale/biblio/glo.htmglo01</t>
         </is>
       </c>
     </row>
@@ -4203,19 +4215,19 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>4000001</v>
+        <v>4000008</v>
       </c>
       <c r="C184" t="n">
-        <v>3000183</v>
+        <v>3000068</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Chimica</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Fenomeno fisico che provoca il riscaldamento all'interno delle serre, dovuto al fatto che il vetro (o i materiali plastici trasparenti) lascia entrare la luce visibile (radiazione solare ad onde corte) che colpisce il terreno, il quale riemette poi parte dell'energia ricevuta come radiazione infrarossa, che il vetro non lascia passare. Per similitudine è anche detto "effetto serra" il fenomeno di riscaldamento del pianeta dovuto al fatto che la superficie terrestre riemette verso lo spazio, sotto forma di radiazione infrarossa, parte del flusso di energia ricevuto dal sole; la radiazione infrarossa viene parzialmente assorbita da alcuni gas presenti nell'atmosfera (gas-serra) e da questi irradiata nuovamente verso la terra. L'effetto serra è un fenomeno naturale (ad esempio viene causato anche dal vapore acqueo e dall'ozono) che ritarda la dispersione di energia del pianeta instaurando una temperatura media (circa 15°c) ben maggiore di quella che si avrebbe in assenza di atmosfera (circa -18°c). L'attività umana sembra stia provocando una intensificazione del fenomeno a causa dell'aumento delle emissioni di gas-serra, con conseguente innalzamento della loro concentrazione in atmosfera; tuttavia, permangono incertezze sull'entità di tali effetti e sulla loro configurazione geografica e stagionale fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Progetto con il quale l'italia dal 1995 al 1997 ha svolto il lavoro di identificazione dei siti di importanza comunitaria (sic) nel proprio territorio nazionale, nell'ambito della direttiva habitat. Il risultato finale consiste nell'implementazione da parte delle regioni di una banca dati informatizzata, di formulari cartacei natura 2000 e delle relative cartografie. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -4224,19 +4236,19 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>4000002</v>
+        <v>4000008</v>
       </c>
       <c r="C185" t="n">
-        <v>3000184</v>
+        <v>3000081</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Il raggiungimento del massimo beneficio per ciascuna unità di risorsa utilizzata, limitando al massimo gli impatti ambientali ed i rifiuti prodotti. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
+          <t>Politiche ed iniziative di agenda 21 o di sviluppo sostenibile,</t>
         </is>
       </c>
     </row>
@@ -4245,19 +4257,19 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>4000101</v>
+        <v>4000008</v>
       </c>
       <c r="C186" t="n">
-        <v>3000185</v>
+        <v>3000095</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Elettronica</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Indica il rapporto tra servizio energetico effettivamente erogato e l'energia utilizzata per erogare questo servizio. Ad esempio, le comuni lampadine elettriche ad incandescenza hanno un'efficienza di conversione di circa 5%, ovvero solo il 5% di elettricità che entra nella lampadina viene convertita in luce, il resto è convertita in calore. Dire che l'efficienza energetica di una centrale elettrica è del 40% significa dire che per ottenere 1 kwh si spende l'equivalente di 2,5 kwh di combustibile. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>La carta di aalborg "carta delle città europee per uno sviluppo durevole e sostenibile" elabora, nel 1994, il concetto di sostenibilità, individua le responsabilità ambientali delle città e le impegna a sviluppare politiche ed azioni positive per andare verso città sostenibili.</t>
         </is>
       </c>
     </row>
@@ -4266,19 +4278,19 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>4000101</v>
+        <v>4000008</v>
       </c>
       <c r="C187" t="n">
-        <v>3000186</v>
+        <v>3000096</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Elettronica</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>È la quantità di energia solare, diretta o indiretta, utilizzata come denominatore comune, necessaria per ottenere un prodotto o un flusso di energia (energia elettrica, termoelettrica ecc.). Ad esempio per ottenere un joule di energia elettrica è necessaria energia sotto forma di impianti e di combustibile: la somma totale dell’energia solare impiegata per ottenerla è l’emergia.</t>
+          <t>La carta dei diritti sociali fondamentali dei lavoratori, detta carta sociale è stata adottata nel 1989, sotto forma di dichiarazione, da tutti gli stati membri, ad eccezione del regno unito. È considerata come uno strumento politico contenente "obblighi morali" nell'intento di garantire negli stati membri il rispetto di alcuni diritti sociali, quali segnatamente il mercato del lavoro, la formazione professionale, le eguali opportunità e l'ambiente di lavoro. In essa si chiede espressamente alla commissione di promuovere iniziative nell'intento di tradurre in atti legislativi il contenuto della carta. Quest'ultima è stata anche seguita da programmi di azione. Fonte: http://europa.eu.int/scadplus/leg/it/cig/g4000.htm</t>
         </is>
       </c>
     </row>
@@ -4287,19 +4299,19 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>4000002</v>
+        <v>4000008</v>
       </c>
       <c r="C188" t="n">
-        <v>3000187</v>
+        <v>3000105</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Un concetto chiave degli ecosistemi che fa riferimento all'abilità di un sistema complesso di sviluppare caratteristiche e un comportamento che sono "più grandi della somma delle sue parti" e che necessariamente non può essere previsto o gestito in termini di comportamento dei suoi elementi costitutivi. Fonte: http://www.geocities.com/athens/agora/5311/giuridica/extra/00-eu-sustain-glossario.htmagenda locale 21</t>
+          <t>Al fine di migliorare la gestione operativa delle attività che possono avere un negativo impatto sull’ambiente, molte imprese industriali hanno iniziato a sottoporsi alla verifica di certificatori esterni (società di consulenza specializzate con esperienza primaria nel campo dell’analisi finanziaria e di bilancio). In caso tale verifica vada a buon fine (non abbia cioè riscontrato significative anomalie nel sistema di gestione ambientale degli impianti o superamento dei valori-limite alle emissioni prescritte dalla normativa ambientale in vigore), viene rilasciata una certificazione ambientale che si rifà allo standard volontario prescelto (bs 7750, iso 14000). Alcune società di consulenza si stanno orientando ad operare anche nell’ambito del regolamento emas, che prevede l’accreditamento di verificatori a livello comunitario.</t>
         </is>
       </c>
     </row>
@@ -4308,19 +4320,19 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>4000035</v>
+        <v>4000008</v>
       </c>
       <c r="C189" t="n">
-        <v>3000188</v>
+        <v>3000111</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Climatologia</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Meccanismo flessibile previsto dal protocollo di kyoto che consiste nel commercio di diritti di emissione di gas serra tra paesi dell'annesso i. In pratica, quei paesi dell'annesso i che riescono a ridurre le loro emissioni in eccesso di quanto previsto dagli accordi stabiliti possono vendere tale surplus ad altri paesi dell'annesso i per facilitare il rispetto degli impegni presi da parte di questi ultimi. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Meccanismo flessibile previsto nel protocollo di kyoto che consente ad un paese dell'annesso i che implementa un progetto in un paese in via di sviluppo con lo scopo di ridurre le emissioni e di favorire lo sviluppo sostenibile in quel paese di conteggiare parte della riduzione a suo favore. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -4329,19 +4341,19 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>4000001</v>
+        <v>4000008</v>
       </c>
       <c r="C190" t="n">
-        <v>3000189</v>
+        <v>3000121</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Chimica</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Scarico di qualsiasi sostanza solida, liquida o gassosa introdotta nell'ecosistema, che può produrre direttamente o indirettamente un impatto sull'ambiente. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Organo collegiale integrato da rappresentanti del governo nazionale (delegati territoriali) e da rappresentanti della società civile presieduta dal sindaco e dal consiglio comunale che, dopo un processo di consultazioni, elabora ed esegue il piano di sviluppo municipale. Fonte: http://www.mmc2000.net/villaggioglobale/biblio/glo.htmglo01</t>
         </is>
       </c>
     </row>
@@ -4353,7 +4365,7 @@
         <v>4000008</v>
       </c>
       <c r="C191" t="n">
-        <v>3000190</v>
+        <v>3000122</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -4362,7 +4374,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>La parola inglese "empowerment" deriva dal verbo "to empower" che in italiano viene comunemente tradotto con "conferire poteri", "mettere in grado di". I diversi dizionari privilegiano ora l'uno ora l'altro aspetto. Risulta comunque impossibile tradurre questo termine in italiano con una sola parola, per la ricchezza semantica di tale concetto. Empowerment è una parola duplice, in quanto dà nome sia al processo operativo percorso per raggiungere un certo risultato, sia al risultato stesso, caratterizzante lo stato "empowered" del soggetto. Pur avendo accezioni specifiche in diversi ambiti di applicazione, il termine empowerment può essere inteso come "accrescere la possibilità dei singoli e dei gruppi di controllare attivamente la propria vita". L'empowerment si realizza quando si affermano opportunità e possibilità per tutti (azioni positive), a partire dai soggetti più deboli, svantaggiati, poveri ed emarginati, affinché costoro si emancipino rispetto ad una condizione che li rende subalterni e passivi, inibendo l'attivazione delle loro potenzialità (vedi capitale umano). Empowerment è democrazia e sussidiarietà (vedi) in quanto consente ai cittadini di definire liberamente ogni dimensione della vita comune, l'organizzazione del governo, della proprietà, del lavoro e delle relazioni interpersonali, ecc. Empowerment è un processo che integra azioni dall'alto verso il basso e viceversa, ossia combina "attribuzione" e "conquista" di maggior potere nelle comunità sociale di appartenenza. Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
+          <t>Strumento di politica ambientale basato sull'emanazione di norme e sul relativo controllo dell'applicazione e dell'osservanza. Rappresenta l'approccio iniziale che sin dagli anni '70 ha improntato la legislazione comunitaria e di tutti gli stati membri per la gestione delle politiche ambientali. A decorrere dai primi anni '90, in contrapposizione a tale sistema si è posto quello dell'emas che introduce approcci volontari di corresponsabilizzazione dell'apparato produttivo.</t>
         </is>
       </c>
     </row>
@@ -4371,19 +4383,19 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>4000001</v>
+        <v>4000008</v>
       </c>
       <c r="C192" t="n">
-        <v>3000191</v>
+        <v>3000123</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Chimica</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Grandezza fisica che conferisce ad un sistema la capacità di compiere lavoro. L'energia è essenziale per lo svolgimento di qualsiasi attività e la disponibilità di fonti di energia affidabili ed economiche è alla base dell'attuale modello di sviluppo delle società industrializzate. Si distinguono due forme fondamentali di energia: potenziale e cinetica. L'energia potenziale dipende dalla configurazione delle componenti di un sistema e dal loro stato fisico e chimico: per esempio un blocco di marmo sollevato in aria possiede una energia potenziale pari al prodotto della sua massa per l'accelerazione di gravità (9,81 m/s2) per l'altezza rispetto al suolo. È invece detta energia cinetica quella che un sistema possiede a causa del movimento delle diverse parti che lo compongono. Abitualmente si usano nomi diversi per indicare la forma in cui l'energia si presenta in certi contesti: si parla quindi di energia meccanica, elettrica, termica, chimica, nucleare eccetera fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Caratteristica di un progetto di essere realizzato e di sussistere senza produrre impatti negativi sulle condizioni dell'ambiente. La coerenza e la congruità delle strategie e delle azioni previste da piani e programmi, nonché degli interventi previsti dai progetti, con gli obiettivi di salvaguardia, tutela e miglioramento della qualità dell'ambiente e della qualità della vita, di valorizzazione delle risorse, nel rispetto altresì delle disposizioni normative comunitarie, statali e regionali". Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -4392,19 +4404,19 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>4000001</v>
+        <v>4000008</v>
       </c>
       <c r="C193" t="n">
-        <v>3000192</v>
+        <v>3000129</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Chimica</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>(Nella Politica Europea) la politica energetica dell'unione europea mira a garantire un approvvigionamento sicuro, economico e senza rischi per la salute dei cittadini e l'ambiente. Originariamente i trattati istitutivi delle comunità europee non prevedevano una politica comunitaria dell'energia. Gli inizi della costruzione dell'unione europea hanno visto la creazione di quadri istituzionali per il carbon fossile e l'energia atomica: nel 1951 la comunità europea del carbone e dell'acciaio (ceca) il cui trattato è giunto a scadenza il 31 dicembre 2002; nel 1957 la comunità europea dell'energia atomica (euratom). I trattati successivi non hanno previsto una base giuridica specifica per la politica comunitaria dell'energia i cui fondamenti restano legati al trattato euratom e a qualche disposizione contenuta nei capitoli "mercato interno" e "ambiente". Nel contesto energetico attuale, l'unione europea deve fare fronte a numerose sfide: lo sviluppo delle energie rinnovabili, la liberalizzazione del mercato del gas e dell'elettricità, la limitazione della dipendenza energetica dell'unione europea e la garanzia della sicurezza nucleare. Di fronte a queste nuove sfide energetiche, l'unione europea ha preso misure per garantire la sicurezza dell'approvvigionamento in una situazione di dipendenza dalle importazioni di petrolio da regioni politicamente instabili, ridefinire le priorità in materia di energia nucleare tenendo conto in particolare dei rischi di incidenti e dello smaltimento dei residui nonché sostenere lo sviluppo sostenibile. Con il nuovo programma di azione "energia intelligente per l'europa" la commissione propone inoltre di rafforzare il sostegno europeo alla promozione delle energie rinnovabili (altener) e dell'efficienza energetica (save), per riorientare l'azione internazionale verso queste due priorità (coopener fonte: http://europa.eu.int/scadplus/leg/it/cig/g4000.htm</t>
+          <t>Negli spazi di concertazione cittadina, la popolazione, le ong e i professionisti costruiscono insieme al comune gli indirizzi per la pianificazione a medio e lungo termine, contribuendo a delineare l'immagine della città ideale vagheggiata dalla sintesi dei desideri dei suoi abitanti. Due i grandi strumenti di indirizzo che possono uscire da questa discussione: il piano di sviluppo economico, che - puntando ad una crescita con distribuzione di reddito - valorizza molte idee nate all'interno della città informale, e il piano regolatore di sviluppo urbano e ambientale. Fonte: http://www.mmc2000.net/villaggioglobale/biblio/glo.htmglo01</t>
         </is>
       </c>
     </row>
@@ -4413,19 +4425,19 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>4000001</v>
+        <v>4000008</v>
       </c>
       <c r="C194" t="n">
-        <v>3000193</v>
+        <v>3000130</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Chimica</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Energia prodotta senza attingere alle risorse naturali fossili (petrolio, gas, carbone), e senza utilizzazione del nucleare. All'energia alternativa appartiene per esempio: l'energia eolica, prodotta dal vento; l'energia solare, originata dal sole (termica e fotovoltaica). Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htm</t>
+          <t>Concordare su, avere la stessa opinione. Risultato che si ottiene attraverso la partecipazione ed un processo di elaborazione, con il quale un gruppo dl attori/soggetti arriva a stabilire obiettivi, programmi, valori, visioni, che sono stabiliti concordemente sulla base di molteplici incontri/riunioni, e sui bisogni/aspettative riconosciuti come comuni, nel rispetto della diversità. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
         </is>
       </c>
     </row>
@@ -4434,19 +4446,19 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>4000101</v>
+        <v>4000008</v>
       </c>
       <c r="C195" t="n">
-        <v>3000194</v>
+        <v>3000131</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Elettronica</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Energia cinetica delle masse d'aria (venti) in movimento. A parte gli usi tradizionali (mulini a vento, navi a vela eccetera) l'energia eolica viene sfruttata per la produzione elettrica tramite aerogeneratori fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>La scienza evolve assieme a chi la produce: l'essere umano. La sua conoscenza è parziale, perché rappresenta comunque una parte dell'ecosistema, anche se spesso ritiene di poter capire le dinamiche delle altre componenti e parlare per loro conto. Per farlo, si specializza in molte e diverse discipline. Nasce, per contro, l'esigenza di mettere assieme quanto esse producono. Il livello più elementare di "messa assieme" è quello della multidisciplinarietà, quando si analizza un problema seguendo il punto di vista di approcci scientifici, tra loro diversi. Livello più avanzato è quello dell'interdisciplinarietà, come combinazione tra vari approcci scientifici. Il livello consapevolmente più impegnativo e completo è quello della consilience, cioè l'integrazione dei saperi per governare la complessità. W. Whewell usò già nel 1840 tale termine a significare letteralmente: il "saltare insieme" della conoscenza, legando fatti e teorie attraverso le varie discipline per creare un terreno comune di spiegazione dei fenomeni. Ripresa recentemente da e. Wilson (1998), consilience sta a significare "unità della conoscenza" e si contrappone alla divisione in materie di studio. Partendo da un fenomeno (problema) si cerca di "comprenderlo" (prendere insieme), capirne e governarne la complessità, unendo la conoscenza e non separandola. Guardando ai problemi attuali, wilson lancia la sfida della consilience al fine di riconciliare almeno quattro aree di conoscenza; biologia, scienze sociali, etica, politica ambientale. Tale necessità era già evidente negli scritti di e. Morin (1977), il quale ha sempre puntato ad una visione integrata tra scienze fisiche, antropo-sociologiche e biologiche. Un'unione che deve servire allo sviluppo della "democrazia cognitiva", rendendo la conoscenza accessibile a tutte le persone affinché aumentino la capacità di autorganizzazione ed autogestione (morin, 1999). E ciò è, oggi, basilare per affrontare e gestire le sfide dello sviluppo sostenibile. Fonte: http://www.provincia.arezzo.it/imprendere21/glossario/glo</t>
         </is>
       </c>
     </row>
@@ -4455,19 +4467,19 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>4000007</v>
+        <v>4000008</v>
       </c>
       <c r="C196" t="n">
-        <v>3000195</v>
+        <v>3000132</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Geologia e sismologia</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Energia termica accumulata nella crosta terrestre e che viene costantemente alimentata dal flusso di calore proveniente dal mantello e dal nucleo del pianeta. Il calore geotermico sale verso la superficie sotto forma di un flusso pari a circa 0,063 w/m2, troppo diluito per uno sfruttamento economico. Lo sfruttamento dell'energia geotermica è pertanto limitata a zone ove sono presenti "anomalie" dovute al vulcanesimo secondario, cioè al riscaldamento intenso e localizzato di alcune zone superficiali della crosta terrestre percorse da falde acquifere, come nel caso dei sistemi idrotermali. Gli usi più frequenti dell' energia geotermica riguardano la produzione di energia elettrica (centrali geotermoelettriche) o la produzione di calore destinato ad usi civili o industriali fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Quando sia i produttori che i singoli consumatori identificano e apprezzano prodotti e servizi generati in maniera più sostenibile. Fonte: http://www.geocities.com/athens/agora/5311/giuridica/extra/00-eu-sustain-glossario.htmagenda locale 21</t>
         </is>
       </c>
     </row>
@@ -4476,19 +4488,19 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>4000005</v>
+        <v>4000008</v>
       </c>
       <c r="C197" t="n">
-        <v>3000196</v>
+        <v>3000133</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Idrologia</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Energia derivata dall'energia potenziale e cinetica posseduta dall'acqua. La trasformazione dell'energia idraulica in energia elettrica avviene tramite centrali idroelettriche fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Con il termine contabilità ambientale si intende un sistema che permette di rilevare, organizzare gestire e comunicare informazioni e dati ambientali, questi ultimi espressi in unità fisiche e monetarie. A seconda che l'utilizzatore del sistema sia un organizzazione pubblica o privata si parlerà di contabilità ambientale pubblica o d'impresa. Le finalità di tale strumento possono essere sia di comunicazione interna, e quindi come supporto alle decisioni dell'organizzazione, sia di comunicazione esterna.</t>
         </is>
       </c>
     </row>
@@ -4497,19 +4509,19 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>4000002</v>
+        <v>4000008</v>
       </c>
       <c r="C198" t="n">
-        <v>3000197</v>
+        <v>3000134</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Energia associata alle reazioni di fissione nucleare, che avvengono in modo controllato nelle centrali nucleari fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Il termine contabilità economica viene diffusamente utilizzato, anche se in modo improprio, per indicare il sistema di registrazione, organizzazione, gestione e comunicazione delle informazioni e dati di impresa, questi ultimi espressi in unità fisiche e monetarie. A seconda che l'utilizzatore del sistema sia un'organizzazione pubblica o privata si parlerà di contabilità pubblica o d'impresa. Le finalità di tale strumento possono essere sia di comunicazione interna, e quindi come supporto alle decisioni dell'organizzazione, sia di comunicazione esterna.</t>
         </is>
       </c>
     </row>
@@ -4518,19 +4530,19 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>4000002</v>
+        <v>4000008</v>
       </c>
       <c r="C199" t="n">
-        <v>3000198</v>
+        <v>3000137</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Fonti rinnovabili fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Tecnologia che, sfruttando il cosiddetto effetto fotovoltaico, consente di trasformare direttamente in energia elettrica la radiazione elettromagnetica associata all'energia solare http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv cooperazione decentrata (e ruolo delle ong) per cooperazione decentrata o decentralizzata (cd) s'intende un "nuovo approccio", un "nuovo strumento" o una "nuova forma" della cooperazione allo sviluppo e dei rapporti internazionali tra i popoli. La cd pone l'accento sul nuovo ruolo degli enti locali e della società civile organizzata (associazioni, università, scuole, associazioni di categoria, settori privati, imprese, fondazioni..) per lo sviluppo di politiche di cooperazione, appunto, "decentralizzate" e riconosce uguale dignità e responsabilità alle comunità coinvolte al sud come al nord fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -4542,7 +4554,7 @@
         <v>4000008</v>
       </c>
       <c r="C200" t="n">
-        <v>3000199</v>
+        <v>3000138</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4551,7 +4563,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>L'energia raggiante sprigionata dal sole e che raggiunge la terra sotto forma di radiazione elettromagnetica. La potenza incidente al suolo dipende dall'altezza del sole sull'orizzonte (dipendente a sua volta dalla latitudine, dal giorno dell'anno, dall'ora del giorno), dalla quota e dalle condizioni atmosferiche, nonché dall'orientamento della superficie ricevente. In campo energetico il termine energia solare si usa per indicare l'insieme di tecnologie volte allo sfruttamento dell'energia proveniente dal sole sia direttamente (conversione fotovoltaica, riscaldamento solare eccetera) sia anche indirettamente, cioè sfruttando le forme in cui l'energia dal sole si trasforma in modo naturale (biomassa, vento, onde, ciclo ideologico: vedi fonti rinnovabili) fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>(e ruolo delle ong) per cooperazione decentrata o decentralizzata (cd) s’intende un "nuovo approccio", un "nuovo strumento" o una "nuova forma" della cooperazione allo sviluppo e dei rapporti internazionali tra i popoli. La cd pone l’accento sul nuovo ruolo degli enti locali e della società civile organizzata (associazioni, università, scuole, associazioni di categoria, settori privati, imprese, fondazioni..) per lo sviluppo di politiche di cooperazione, appunto, "decentralizzate" e riconosce uguale dignità e responsabilità alle comunità coinvolte al sud come al nord fonte: http://www.mmc2000.net/villaggioglobale/biblio/glo.htmglo01</t>
         </is>
       </c>
     </row>
@@ -4560,19 +4572,19 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>4000003</v>
+        <v>4000008</v>
       </c>
       <c r="C201" t="n">
-        <v>3000200</v>
+        <v>3000139</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Biologia</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Dal 1970 in avanti, quando si parlava di energie alternative, si pensava ad energie alternative al petrolio; ora una definizione più vicina alle mutate esigenze socio-ambientali fa restringere il campo alle sole fonti rinnovabili: il sole, il vento, l'energia idraulica, la geotermia, il moto ondoso, le maree, le biomasse (trasformazione dei rifiuti organici ed inorganici) [con esclusione, cioè del nucleare]. Fonte: http://www.obsidian.it/mimmo/geomorfologia/normativa/glossario%20giuridicohtm</t>
+          <t>Per "cooperazione internazionale" si intende l'insieme di operazioni di aiuto che qualcuno (ad esempio i paesi ricchi o i paesi industrializzati dell'ocse) mette in atto nei confronti dei paesi definiti "in via di sviluppo". Questo tipo di cooperazione è intesa come "cooperazione allo sviluppo" o "cooperazione con i paesi in via di sviluppo" o "aiuto pubblico ai pvs". La cooperazione internazionale nasce nel secondo dopoguerra e passa attraverso cinque fasi: prima fase, immediatamente dopo la ii guerra mondiale, fino agli inizi degli anni cinquanta: la motivazione politico-ideale. La fine della ii guerra mondiale porta con sé la consapevolezza che l'umanità andava considerata nel suo complesso, come un tutto che richiedeva, di conseguenza, un governo globale dei conflitti e dei problemi. Segue anche una grande spinta "ideale" che si ispira alla possibilità di costruire un "nuovo" mondo. La nascita dell'onu (1945), la dichiarazione universale dei diritti dell'uomo (1948, ed i successivi convenants del 1966) costituiscono la base dello strumento multilaterale della cooperazione. Su questa spinta nascono le agenzie dell'onu (fao, oms, unicef, ecc.) che sottolineano l'aspetto ideale della cooperazione e si fondano su motivi di solidarietà, interdipendenza e coscienza più ampia del "bene comune" allargato a tutta l'umanità e non più riferito solo ai singoli popoli e alla loro semplice sommatoria. Tutti motivi che postulavano e postulano il superamento del concetto di stato-nazione come concetto di riferimento al fine di un'applicazione a livello mondiale dei principi della giustizia distributiva e legale. Seconda fase, anni cinquanta: la motivazione politico-economica nel 1949 la cooperazione assume un nuovo aspetto. Il 20 gennaio del '49 il presidente degli usa truman tiene al congresso un discorso fondamentale. Gli usa si pongono ad esempio per i paesi in "ritardo" nello sviluppo. E si autonominano "maestri" di sviluppo e quindi di cooperazione. Terza fase, anni sessanta: la motivazione etico-sociale. Negli anni sessanta si realizza per la maggior parte dei paesi coloniali il processo di decolonizzazione: è proprio nel 1960 che moltissimi paesi/colonie raggiungono l'indipendenza. È anche il momento in cui le società civili del nord del mondo si fanno carico in maniera più incisiva del problema della cooperazione tra paesi. Anche in italia, a fronte della pressione della società civile, viene approvata una legge sulla cooperazione, nascono le prime organizzazioni non governative, esce la populorum progressio (1968). Vi è una forte tensione che viene appunto definita etico-sociale. Ad esempio, la populorum progressio definendo "lo sviluppo" come "nuovo nome della pace" riassume con chiarezza il paradigma concettuale che si va facendo strada e fonda il cosiddetto "dovere di solidarietà" motivato a sua volta dalla considerazione del "bene comune dell'umanità", di tutta l'umanità. Quarta fase, dagli anni settanta: la cooperazione come marketing "le imprese americane dipendono sempre più dalle materie prime dei paesi sottosviluppati. Inoltre queste imprese hanno bisogno dei mercati dei paesi sottosviluppati. Da ultimo questi paesi offrono possibilità di investimenti produttivi per la tecnologia ed il capitale statunitense". Così si possono riassumere, con collins e lappè, le tre motivazioni dell'aiuto in favore dei paesi in via di sviluppo da parte degli usa. La cooperazione diventa uno degli strumenti di penetrazione e controllo dei mercati mondiali. Anche elaborazioni lodevoli, quali ad esempio il rapporto brandt (1980), vedono nella cooperazione una delle possibilità di aggiustare non solo le economie povere del sud del mondo, ma anche le economie in crisi del nord del mondo. In pratica, secondo questa tesi, i fondi per la cooperazione e lo sviluppo dovrebbero essere finalizzati all'export del paese che aiuta. Quinta fase, anni novanta: la cooperazione come sicurezza cooperazione come sicurezza è il titolo, il nuovo nome, dato alla cooperazione dall'ex ministro degli esteri italiano gianni de michelis. In una importantissima conferenza internazionale sullo sviluppo (roma 17-19 ottobre 1991) si parla di assoluta necessità/obbligatorietà della cooperazione: la cooperazione è la forma nuova che può assumere la ricerca di sicurezza. Fonte: http://www.mmc2000.net/villaggioglobale/biblio/glo.htmglo01</t>
         </is>
       </c>
     </row>
@@ -4581,19 +4593,19 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>4000002</v>
+        <v>4000008</v>
       </c>
       <c r="C202" t="n">
-        <v>3000201</v>
+        <v>3000141</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Si tratta di una "diagnosi" in cui il "malato" è l'edificio. Attraverso l'energy audit, viene definito il bilancio energetico di una costruzione, che dovrebbe servire ad applicare per il futuro migliori pratiche di risparmio energetico. Fonte: http://www.agricolturabiologicaitaliana.it/</t>
+          <t>Rappresentano tutti i costi associati alle misure adottate dall’azienda (o da terzi per suo conto) per prevenire, ridurre e/o riparare i danni causati all’ambiente dalle attività operative ed anche tutti i costi sostenuti dall’azienda per la conservazione delle risorse rinnovabili e non rinnovabili. Riduzione del livello di benessere collettivo dovuto all’impatto di un progetto sull’ambiente. Generalmente di difficile quantificazione in quanto nasce dalla percezione privata di ciascun individuo. Il termine viene anche comunemente utilizzato per indicare semplicemente un peggioramento relativo a una o più componenti ambientali.</t>
         </is>
       </c>
     </row>
@@ -4602,19 +4614,19 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>4000002</v>
+        <v>4000008</v>
       </c>
       <c r="C203" t="n">
-        <v>3000202</v>
+        <v>3000147</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>È la tendenza dell'energia, quando viene utilizzata, a degradarsi, ovvero a trasformarsi in calore a bassa temperatura di scarsa utilità. È indice della tendenza al disordine di un sistema. I processi naturali sono sempre tesi a organizzare la materia, sia che si tratti di fenomeni viventi che non (formazione di rocce, minerali). Ciò, naturalmente avviene a spese dell'energia, ossia producendo entropia (disordine, calore dissipato). Tuttavia i cicli naturali si riequilibrano assorbendo energia solare e non producono scarti o rifiuti. I cicli naturali sono chiusi. Al contrario, i processi attuati dall'uomo, che portano alle strutture organizzate (manufatti, città, organizzazioni) con uso di energia e produzione di entropia, non riescono a chiudersi e generano scarti, rifiuti e inquinamento. "esternalità" vengono chiamati gli elementi di risulta dei processi antropici e vengono smaltiti nell'ambiente. L'entropia rappresenta il saldo energetico negativo creato dal processo e va pertanto minimizzata: un primo obiettivo è allora quello di produrre la massima organizzazione con la minima produzione di entropia. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Processo mediante il quale si trasferiscono potere, competenze e risorse dal governo centrale ad altre istituzioni dello stato più vicine alla popolazione e che posseggono autonomia amministrativa e legittimità proprie. É la forma di organizzazione amministrativa che, in termini generali, affida la realizzazione di alcune competenze ad organi che hanno con l´amministrazione centrale una relazione non gerarchica. É il trasferimento di funzioni, risorse e poteri da un ente centrale ad altro ente autonomo dello stato. Fonte: http://www.mmc2000.net/villaggioglobale/biblio/glo.htmglo01</t>
         </is>
       </c>
     </row>
@@ -4623,19 +4635,19 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>4000002</v>
+        <v>4000008</v>
       </c>
       <c r="C204" t="n">
-        <v>3000203</v>
+        <v>3000154</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>La norma iso 14031 ha codificato gli indicatori eci (assieme agli epi): gli indicatori di condizione ambientale forniscono informazioni sulle condizioni naturalistiche e ambientali del territorio. Sono sviluppati da agenzie governative, organizzazioni non governative, istituzioni scientifiche e di ricerca e possono riguardare vari aspetti, come: i fenomeni di inquinamento o cambiamento ambientale su scala globale, regionale, locale: la qualità delle varie componenti ambientali (aria,acqua, suolo, fauna); gli aspetti, legati all'uomo, di tipo paesaggistico, artistico o storico-culturale. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Documento pubblico, scritto in forma concisa e comprensibile, che l’azienda redige per comunicare, una volta ottenuta la certificazione emas, i seguenti elementi: a) attività del sito; b) problemi ambientali; c) dati quantitativi di emissioni e scarti; d) fattori di efficienza ambientale; e) politica, programmi e sistema di gestione dell’ambiente; f) scadenze; g) nome verificatore</t>
         </is>
       </c>
     </row>
@@ -4644,19 +4656,19 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>4000001</v>
+        <v>4000008</v>
       </c>
       <c r="C205" t="n">
-        <v>3000204</v>
+        <v>3000155</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Chimica</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>La norma iso 14031 ha codificato gli indicatori epi, che comprendono a loro volta gli indicatori di prestazione operativi (opi, operational performance indicators), che forniscono informazioni sulle prestazioni ambientali delle attività aziendali, e gli indicatori di prestazione gestionali (mpi management performance indicators), che forniscono invece informazioni sugli sforzi gestionali per tenere sotto controllo e minimizzare le prestazioni ambientali aziendali. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>La dichiarazione ambientale di prodotto (epd - dap) basata sul modello iso 14025 è una dichiarazione volontaria sviluppata da un produttore, utilizzando uno strumento tipo lca che quantifica gli impatti ambientali che i propri prodotti o servizi causano durante il ciclo di vita.</t>
         </is>
       </c>
     </row>
@@ -4668,7 +4680,7 @@
         <v>4000008</v>
       </c>
       <c r="C206" t="n">
-        <v>3000205</v>
+        <v>3000156</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4677,7 +4689,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Questo concetto è strettamente legato a quello di cambiamento, complessità, caos, incertezza ed al principio precauzionale (vedi). Secondo scuole di pensiero, ormai superate, un sistema tende inevitabilmente all'equilibrio: quando si introducono cambiamenti in un sistema, essi sono inevitabilmente funzionali a nuovi ordini di vita stabile. Si tratta di scuole che hanno sostenuto la linearità razionale dei processi causa-effetto e la certezza deterministica della soluzione dei problemi. Tale teoria appare fortemente riduzionista e semplicistica a fronte di quelle del caos e della complessità, secondo le quali: il sistema non può mai essere in equilibrio, non arriva mai ad uno stato in cui si annullano differenze e contrapposizioni; un sistema è sempre in transizione, in un delicato bilanciamento tra forze di stabilità e forze di instabilità, tra ordini diversi e coevolutivi, non sempre decodificabili dalla conoscenza umana. Per tali motivi, l'essere umano deve riflettere sulle molteplici opzioni ed alternative di cambiamento, cercando maggiore consapevolezza sugli impatti che le sue scelte di sviluppo possono determinare nell'ecosistema fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
+          <t>Dichiarazione approvata dalla conferenza delle nazioni unite sull'ambiente e lo sviluppo "eart summit" riunita a rio de janeiro dal 2 al 14 giugno 1992. - il documento si articola in 27 principi il terzo dei quali afferma che "il diritto allo sviluppo deve essere realizzato in modo da soddisfare equamente le esigenze relative all'ambiente ed allo sviluppo delle generazioni presenti e future". Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -4689,7 +4701,7 @@
         <v>4000008</v>
       </c>
       <c r="C207" t="n">
-        <v>3000206</v>
+        <v>3000157</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -4698,7 +4710,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>L'equità riconosce che le persone non sono uguali fra loro, ed afferma che tutte hanno pari dignità, meritano rispetto e devono avere stessi diritti e pari opportunità di realizzazione. Il principio di equità esprime l'esigenza di far assumere a cittadini, imprese, istituzioni, la responsabilità delle proprie scelte economiche, sociali ed ambientali, con la consapevolezza delle ricadute collettive che esse producono nel tempo, coinvolgendo anche le generazioni di domani. L'equità implica, quindi, solidarietà fra tutti gli esseri umani, ma anche con le altre componenti della natura. Il concetto di equità è quindi strettamente legato a quello di diversità ed il primo presuppone la valorizzazione del secondo tramite un responsabile uso delle risorse ambientali, socioculturali ed economiche. Come espresso sin dalla dichiarazione di rio nel 1992, l'equità è la risposta al "perché" si vuole perseguire lo sviluppo sostenibile. Si tratta di una risposta basata sull'integrazione di tre diversità: sociale (nell'ambito della comunità interessata); inter-locale o inter-regionale (tra più comunità sociali); inter-temporale (tra le generazioni attuali e quelle future). Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
+          <t>Rapporto tra la quantità totale di energia importata e la quantità totale di energia consumata da un paese, espresso in fonti primarie. Dipende direttamente dall'entità delle risorse energetiche presenti in ogni singolo paese. Per l'italia il grado di dipendenza energetica è molto alto: importiamo infatti oltre l'80% dell'energia consumata fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -4710,7 +4722,7 @@
         <v>4000008</v>
       </c>
       <c r="C208" t="n">
-        <v>3000207</v>
+        <v>3000159</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -4719,7 +4731,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>L'equità intergenerazionale, chiaramente enunciata da brundtland, richiede che l'attività economica delle generazioni presenti non pregiudichi il benessere delle generazioni future degradando in modo irreversibile gli stock di risorse ambientali disponibili. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Atti emessi dalla commissione dell'unione europea, di solito relativi a problemi che possono creare situazioni di pericolosità per le persone o per l'ambiente, e sono di recepimento obbligatorio da parte degli stati membri. Ogni direttiva è vincolante per gli obiettivi che si prefigge ma lascia alle autorità nazionali la scelta dei modi e delle forme della sua applicazione. La commissione controlla la sua adozione da parte degli stati membri, che possono essere deferiti alla corte di giustizia nel caso di mancata ottemperanza. Secondo il "nuovo approccio" cee (1985) le direttive stabiliscono i requisiti essenziali cui il prodotto o servizio deve adeguarsi e demandano al cen l'emanazione delle specifiche tecniche relative. Esse sono notificate a coloro ai quali sono destinate ed hanno effetto nel momento della notifica. Tutte le direttive sono pubblicate sulla gazzetta ufficiale della cee serie "l". Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -4728,19 +4740,19 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>4000092</v>
+        <v>4000008</v>
       </c>
       <c r="C209" t="n">
-        <v>3000208</v>
+        <v>3000172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Macchine</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Disciplina che studia il migliore adattamento reciproco fra uomo, macchina e ambiente. Fonte: http://www.ennerev.it/ennerev/glossario.htm</t>
+          <t>Insieme di strumenti e di politiche per ridurre il consumo di risorse naturali, favorire attività produttive più compatibili con l'ambiente (che producono minori impatti), migliorare le condizioni sociali, rendere più facilmente disponibili risorse economiche e finanziarie anche a soggetti deboli, ecc. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
         </is>
       </c>
     </row>
@@ -4749,19 +4761,19 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>4000091</v>
+        <v>4000008</v>
       </c>
       <c r="C210" t="n">
-        <v>3000209</v>
+        <v>3000190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Competenza della Protezione Civile</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Sono presenti quando le attività di un agente economico come un'imprese d'affari ha conseguenze esterne per quegli attori sociali che non intervengono nell'equilibrio economico della domanda e offerta su cui ci sono effetti non ricompensati. Ad esempio il gestore di una discoteca per soddisfare la propria clientela, tiene il volume elevato ma disturba i condomini degli appartamenti vicini. Fonte: http://www.kalao.org/glossario.htm</t>
+          <t>La parola inglese "empowerment" deriva dal verbo "to empower" che in italiano viene comunemente tradotto con "conferire poteri", "mettere in grado di". I diversi dizionari privilegiano ora l'uno ora l'altro aspetto. Risulta comunque impossibile tradurre questo termine in italiano con una sola parola, per la ricchezza semantica di tale concetto. Empowerment è una parola duplice, in quanto dà nome sia al processo operativo percorso per raggiungere un certo risultato, sia al risultato stesso, caratterizzante lo stato "empowered" del soggetto. Pur avendo accezioni specifiche in diversi ambiti di applicazione, il termine empowerment può essere inteso come "accrescere la possibilità dei singoli e dei gruppi di controllare attivamente la propria vita". L'empowerment si realizza quando si affermano opportunità e possibilità per tutti (azioni positive), a partire dai soggetti più deboli, svantaggiati, poveri ed emarginati, affinché costoro si emancipino rispetto ad una condizione che li rende subalterni e passivi, inibendo l'attivazione delle loro potenzialità (vedi capitale umano). Empowerment è democrazia e sussidiarietà (vedi) in quanto consente ai cittadini di definire liberamente ogni dimensione della vita comune, l'organizzazione del governo, della proprietà, del lavoro e delle relazioni interpersonali, ecc. Empowerment è un processo che integra azioni dall'alto verso il basso e viceversa, ossia combina "attribuzione" e "conquista" di maggior potere nelle comunità sociale di appartenenza. Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
         </is>
       </c>
     </row>
@@ -4770,19 +4782,19 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>4000002</v>
+        <v>4000008</v>
       </c>
       <c r="C211" t="n">
-        <v>3000210</v>
+        <v>3000199</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Gli effetti che l’attività economica produce sull’ambiente, il cui costo di risanamento può essere internalizzato dall’azienda che li produce</t>
+          <t>L'energia raggiante sprigionata dal sole e che raggiunge la terra sotto forma di radiazione elettromagnetica. La potenza incidente al suolo dipende dall'altezza del sole sull'orizzonte (dipendente a sua volta dalla latitudine, dal giorno dell'anno, dall'ora del giorno), dalla quota e dalle condizioni atmosferiche, nonché dall'orientamento della superficie ricevente. In campo energetico il termine energia solare si usa per indicare l'insieme di tecnologie volte allo sfruttamento dell'energia proveniente dal sole sia direttamente (conversione fotovoltaica, riscaldamento solare eccetera) sia anche indirettamente, cioè sfruttando le forme in cui l'energia dal sole si trasforma in modo naturale (biomassa, vento, onde, ciclo ideologico: vedi fonti rinnovabili) fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -4791,19 +4803,19 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>4000002</v>
+        <v>4000008</v>
       </c>
       <c r="C212" t="n">
-        <v>3000211</v>
+        <v>3000205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>L'etica riguarda il comportamento umano, come insieme di regole che sono condivise nelle relazioni del sistema sociale, ambientale, economico, ecc. (si veda anche ecosistema). L'etica fa riferimento a valori. Ma mentre questi ultimi sono soggettivamente scelti dalle persone, l'etica presuppone uno scambio, una condivisione di valori tra più persone al fine di definire comportamenti coerenti per il loro raggiungimento. I valori non possono essere imposti, l'etica sì! quindi, etica non va confusa con valori, pur essendo ad essi finalizzata. Valori ed etica svolgono ruoli diversi, tant'è che l'etica deve sempre essere aggettivata (cristiana, protestante, proletaria, capitalistica, ambientalista, ecc.). Può esserci un'etica efficiente per valori umanamente ripugnanti (si veda il caso dell'etica nazista). In genere è bene sempre esaminare a quali valori un'etica fa riferimento. Oggi, si riconosce che l'etica deve giocare un ruolo forte per la sostenibilità. Questo significa favorire una condivisione planetaria del valore della "riconciliazione dell'umanità con la natura" tramite comportamenti coerenti negli stili di vita, lavoro e consumo a dimensioni e livelli diversi. L'uso di codici di condotta in vari settori economici, l'adesione a carte per lo sviluppo sostenibile hanno, appunto, la funzione di diffondere una cultura ed un'etica della sostenibilità. Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
+          <t>Questo concetto è strettamente legato a quello di cambiamento, complessità, caos, incertezza ed al principio precauzionale (vedi). Secondo scuole di pensiero, ormai superate, un sistema tende inevitabilmente all'equilibrio: quando si introducono cambiamenti in un sistema, essi sono inevitabilmente funzionali a nuovi ordini di vita stabile. Si tratta di scuole che hanno sostenuto la linearità razionale dei processi causa-effetto e la certezza deterministica della soluzione dei problemi. Tale teoria appare fortemente riduzionista e semplicistica a fronte di quelle del caos e della complessità, secondo le quali: il sistema non può mai essere in equilibrio, non arriva mai ad uno stato in cui si annullano differenze e contrapposizioni; un sistema è sempre in transizione, in un delicato bilanciamento tra forze di stabilità e forze di instabilità, tra ordini diversi e coevolutivi, non sempre decodificabili dalla conoscenza umana. Per tali motivi, l'essere umano deve riflettere sulle molteplici opzioni ed alternative di cambiamento, cercando maggiore consapevolezza sugli impatti che le sue scelte di sviluppo possono determinare nell'ecosistema fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
         </is>
       </c>
     </row>
@@ -4812,19 +4824,19 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>4000001</v>
+        <v>4000008</v>
       </c>
       <c r="C213" t="n">
-        <v>3000212</v>
+        <v>3000206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Chimica</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Metodologia partecipativa specifica messa a punto nell'ambito di un progetto finanziato dall'unione europea, attraverso essa si persegue: - la crescita della consapevolezza dei problemi ambientali a livello urbano. - la discussione su ciò che ostacola una sviluppo sostenibile - l'identificazione collettiva delle possibili soluzioni e dei possibili scenari futuri per la propria realtà locale. Fonte: arpalazio</t>
+          <t>L'equità riconosce che le persone non sono uguali fra loro, ed afferma che tutte hanno pari dignità, meritano rispetto e devono avere stessi diritti e pari opportunità di realizzazione. Il principio di equità esprime l'esigenza di far assumere a cittadini, imprese, istituzioni, la responsabilità delle proprie scelte economiche, sociali ed ambientali, con la consapevolezza delle ricadute collettive che esse producono nel tempo, coinvolgendo anche le generazioni di domani. L'equità implica, quindi, solidarietà fra tutti gli esseri umani, ma anche con le altre componenti della natura. Il concetto di equità è quindi strettamente legato a quello di diversità ed il primo presuppone la valorizzazione del secondo tramite un responsabile uso delle risorse ambientali, socioculturali ed economiche. Come espresso sin dalla dichiarazione di rio nel 1992, l'equità è la risposta al "perché" si vuole perseguire lo sviluppo sostenibile. Si tratta di una risposta basata sull'integrazione di tre diversità: sociale (nell'ambito della comunità interessata); inter-locale o inter-regionale (tra più comunità sociali); inter-temporale (tra le generazioni attuali e quelle future). Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4848,7 @@
         <v>4000008</v>
       </c>
       <c r="C214" t="n">
-        <v>3000213</v>
+        <v>3000207</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -4845,7 +4857,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Il progetto di definizione di indicatori comuni europei di sviluppo sostenibile (eci) è un'iniziativa indirizzata al monitoraggio della sostenibilità a livello locale, portato avanti da un gruppo di esperti e di rappresentanti di comunità locali europei. L'idea progettuale, realizzata grazie ad un partenariato di diverse organizzazioni ed autorità locali, è un'iniziativa congiunta della commissione europea (dg ambiente), dell'agenzia europea dell'ambiente (eea) e del gruppo di esperti sull'ambiente urbano creato nel 1991 dalla stessa commissione europea. Tali soggetti hanno intrapreso un lavoro insieme finalizzato ad una migliore comprensione della sostenibilità nelle comunità locali ed alla produzione di dati confrontabili tra loro. Obiettivo di tale lavoro è stato quello di stimolare gli enti locali europei ad utilizzare, come base di riferimento complementare agli indicatori nazionali o locali, i 10 eci (european common indicators): strumenti di misurazione dei progressi nell'ambito dello sviluppo sostenibile locale. Utilizzati in combinazione con altri indicatori ed altri metodi di valutazione, gli indicatori comuni europei, possono contribuire a una strategia di monitoraggio sia unitaria che a livello locale o regionale. Fonte: apat: "ag21l2003-dall'agenda all'azione: linee d'indirizzo ed esperienze"</t>
+          <t>L'equità intergenerazionale, chiaramente enunciata da brundtland, richiede che l'attività economica delle generazioni presenti non pregiudichi il benessere delle generazioni future degradando in modo irreversibile gli stock di risorse ambientali disponibili. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -4854,19 +4866,19 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>4000002</v>
+        <v>4000008</v>
       </c>
       <c r="C215" t="n">
-        <v>3000214</v>
+        <v>3000213</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Processo per cui un ambiente acquatico modifica il suo equilibrio ecologico, per cause naturali o artificiali, e si arricchisce di sostanze nutritive (in particolare modo i composti dell'azoto ovvero del fosforo) provenienti dall'agricoltura (fertilizzanti) e dagli scarichi fognari non depurati, nei laghi o nei mari poco profondi o con scarso ricambio idrico che provoca cambiamenti tipici quali l'eccessivo incremento della produzione di alghe (macrofite) e/o di alghe microscopiche (microplancton). Che, alla fine del ciclo vitale, vanno in decomposizione. La conseguenza dell'eutrofizzazione è il degrado della qualità dell'acqua tale da ridurne o precluderne l'uso, con conseguente instaurarsi di un ambiente anaerobico e la distruzione delle principali forme di vita acquatica. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Il progetto di definizione di indicatori comuni europei di sviluppo sostenibile (eci) è un'iniziativa indirizzata al monitoraggio della sostenibilità a livello locale, portato avanti da un gruppo di esperti e di rappresentanti di comunità locali europei. L'idea progettuale, realizzata grazie ad un partenariato di diverse organizzazioni ed autorità locali, è un'iniziativa congiunta della commissione europea (dg ambiente), dell'agenzia europea dell'ambiente (eea) e del gruppo di esperti sull'ambiente urbano creato nel 1991 dalla stessa commissione europea. Tali soggetti hanno intrapreso un lavoro insieme finalizzato ad una migliore comprensione della sostenibilità nelle comunità locali ed alla produzione di dati confrontabili tra loro. Obiettivo di tale lavoro è stato quello di stimolare gli enti locali europei ad utilizzare, come base di riferimento complementare agli indicatori nazionali o locali, i 10 eci (european common indicators): strumenti di misurazione dei progressi nell'ambito dello sviluppo sostenibile locale. Utilizzati in combinazione con altri indicatori ed altri metodi di valutazione, gli indicatori comuni europei, possono contribuire a una strategia di monitoraggio sia unitaria che a livello locale o regionale. Fonte: apat: "ag21l2003-dall'agenda all'azione: linee d'indirizzo ed esperienze"</t>
         </is>
       </c>
     </row>
@@ -4875,19 +4887,19 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>4000002</v>
+        <v>4000008</v>
       </c>
       <c r="C216" t="n">
-        <v>3000215</v>
+        <v>3000217</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Quando sono giovani gli ecosistemi tendono ad evolversi nel tempo e presentano poche specie vegetali o animali, dette pionieristiche. In questa fase di continuo mutamento le popolazioni pionieristiche presentano una certa instabilità demografica e le loro densità sono molto variabili. Raggiunta la maturità, gli ecosistemi presentano molte specie, a basse densità, in condizioni di equilibrio, o quasi-equilbrio biologico. Il campo coltivato, o agroecosistema, è simile ad un ecosistema giovane, con un equilibrio o quasi-equilibrio biologico precario e, per di più, le specie botaniche che lo popolano, al contrario delle pionieristiche, sono state sottratte dall'uomo alla selezione naturale e sono quindi poco resistenti alle avversità. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Nuova figura di operatore che ha la funzione di gestire i conflitti, e facilitare le riunioni, gli incontri, i gruppi di lavoro, i forum istituiti per realizzare l'agenda21. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htm</t>
         </is>
       </c>
     </row>
@@ -4896,19 +4908,19 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>4000002</v>
+        <v>4000008</v>
       </c>
       <c r="C217" t="n">
-        <v>3000216</v>
+        <v>3000230</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Intervento di risanamento ambientale con modalità di trattamento di un particolare materiale inquinato effettuato all'esterno dell'area interessata, dalla quale è stato prelevato. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>I fondi strutturali e il fondo di coesione sono componenti della politica strutturale della comunità che mira a ridurre il divario tra i livelli di sviluppo esistente tra le regioni e tra gli stati membri dell'unione europea. Essi contribuiscono così a pieno titolo all'obiettivo della coesione economica e sociale. Per il periodo 2000-2006, la dotazione finanziaria assegnata alla politica regionale della comunità ammonta a 213 miliardi , di cui 195 miliardi destinati ai fondi strutturali e 18 miliardi destinati al fondo di coesione. Tale importo rappresenta il 35% del bilancio comunitario, ossia la seconda voce di spesa. I fondi strutturali sono quattro: il più importante è il fondo europeo di sviluppo regionale (fesr), creato nel 1975. Esso finanzia la realizzazione di infrastrutture, investimenti produttivi generatori di occupazione a favore in particolare delle imprese e progetti di sviluppo locale; il fondo sociale europeo (fse), istituito nel 1958, promuove l'inserimento professionale dei disoccupati e delle categorie sociali svantaggiate finanziando in particolare azioni di formazione; il fondo europeo agricolo di orientamento e di garanzia (feaog), istituito anch'esso nel 1958 quale strumento finanziario della politica agricola comune, consta di due sezioni: la sezione orientamento, che finanzia azioni di sviluppo rurale e aiuti agli agricoltori nelle regioni in ritardo di sviluppo, e la sezione garanzia, che finanzia le organizzazioni comuni di mercato nonché misure di sviluppo rurale in altre zone della comunità; lo strumento finanziario di orientamento della pesca (sfop) è stato istituito nel 1993 e si prefigge l'adeguamento e l'ammodernamento delle attrezzature del settore nonché la diversificazione economica nelle zone dipendenti dall'attività di pesca. Per conferire maggiore efficacia agli interventi comunitari nel periodo 2000-2006, la comunicazione "agenda 2000" della commissione ha proposto un'importante riforma della politica strutturale, di cui il consiglio di berlino del 1999 ha fissato le implicazioni finanziarie. La riforma ha consentito di concentrare gli aiuti e di semplificare la relativa procedura di assegnazione e di gestione riducendo gli obiettivi prioritari d'intervento, che sono diventati tre: l'obiettivo 1 contribuisce allo sviluppo e all'adeguamento strutturale delle regioni in ritardo di sviluppo con prodotto interno lordo (pil) medio pro capite inferiore al 75% della media comunitaria; l'obiettivo 2 sostiene la riconversione economica e sociale delle zone con difficoltà strutturali quali le zone in cui sono in atto mutamenti economici, le zone rurali in declino o dipendenti dall'attività di pesca, i quartieri urbani in crisi, le zone geografiche con gravi handicap naturali o demografici; l'obiettivo 3 sostiene l'adeguamento e l'ammodernamento delle politiche e dei sistemi di istruzione, formazione e occupazione nelle regioni non comprese nell'obiettivo 1. Inoltre, nello stesso periodo, quattro iniziative comunitarie si prefiggono di sperimentare nuove vie di sviluppo per rispondere a problematiche specifiche. A tali iniziative è assegnato il 5,35% degli stanziamenti dei fondi strutturali: interreg iii si prefigge di incentivare la cooperazione transfrontaliera, transnazionale e interregionale; leader + punta a promuovere lo sviluppo socioeconomico delle zone rurali; equal mira allo sviluppo di nuove prassi per la lotta contro le discriminazioni e le disuguaglianze di qualsiasi tipo nell'accesso al mercato del lavoro; urban ii favorisce il rilancio economico e sociale delle città e delle periferie in crisi. Per rafforzare ulteriormente la politica strutturale, nel 1994 è stato istituito il fondo di coesione, destinato ai paesi con pil medio pro capite inferiore al 90% della media comunitaria ( grecia, spagna, irlanda e portogallo ). Il fondo concede finanziamenti per progetti di infrastrutture nei settori dell'ambiente e dei trasporti. Fonte: http://europa.eu.int/scadplus/leg/it/cig/g4000.htm</t>
         </is>
       </c>
     </row>
@@ -4920,7 +4932,7 @@
         <v>4000008</v>
       </c>
       <c r="C218" t="n">
-        <v>3000217</v>
+        <v>3000232</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -4929,7 +4941,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Nuova figura di operatore che ha la funzione di gestire i conflitti, e facilitare le riunioni, gli incontri, i gruppi di lavoro, i forum istituiti per realizzare l'agenda21. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htm</t>
+          <t>Il fondo europeo di sviluppo regionale è finalizzato alla riduzione degli squilibri regionali, concede a questo scopo sovvenzioni agli investimenti in infrastrutture e nei settori produttivi localizzati nelle aree depresse della comunità. Fonte: http://www.federlazio.it/attivita/glossario.doc</t>
         </is>
       </c>
     </row>
@@ -4938,19 +4950,19 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>4000001</v>
+        <v>4000008</v>
       </c>
       <c r="C219" t="n">
-        <v>3000218</v>
+        <v>3000236</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Chimica</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Fattore materiale (prodotti, residui, etc.) e immateriale (energia, agenti fisici quale rumore e vibrazioni o altro) che può causare, per la sua quantità e qualità, effetti sull'ambiente. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>I processi e mezzi adottati da governi nazionali e comunità locali per sviluppare le abilità e competenze necessarie per gestire il proprio ambiente e le risorse naturali in un maniera sostenibile fonte: http://www.geocities.com/athens/agora/5311/giuridica/extra/00-eu-sustain-glossario.htmagenda locale 21</t>
         </is>
       </c>
     </row>
@@ -4959,19 +4971,19 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>4000003</v>
+        <v>4000008</v>
       </c>
       <c r="C220" t="n">
-        <v>3000219</v>
+        <v>3000241</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Biologia</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>I fattori biotici sono le componenti biologiche di un ecosistema che comprendono le piante, gli animali e i microrganismi che interagiscono nella comunità biologica. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>La gestione, cioè la riduzione o il riorientamento, di una parte della domanda invece del suo completo accoglimento, finalizzata a rendere compatibili i principi dello sviluppo sostenibile con le aspettative dei gruppi sociali umani di sviluppare, progredire e migliorare il benessere e il tenore di vita. Fonte: http://www.geocities.com/athens/agora/5311/giuridica/extra/00-eu-sustain-glossario.htmagenda locale 21</t>
         </is>
       </c>
     </row>
@@ -4980,19 +4992,19 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>4000001</v>
+        <v>4000008</v>
       </c>
       <c r="C221" t="n">
-        <v>3000220</v>
+        <v>3000243</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Chimica</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Gli elementi che determinano una pressione sull’ambiente e che sono rappresentati, in diverso modo, da attività antropiche quali il turismo, l'attività industriale, l'agricoltura, l'allevamento, il trasporto ecc.</t>
+          <t>Il global reporting iniziative è un impegno internazionale a lungo termine, la cui missione è sviluppare e diffondere linee guida ad uso volontario per la realizzazione di rapporti sugli aspetti economici, ambientali e sociali dell’attività dell’impresa.</t>
         </is>
       </c>
     </row>
@@ -5001,19 +5013,19 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>4000003</v>
+        <v>4000008</v>
       </c>
       <c r="C222" t="n">
-        <v>3000221</v>
+        <v>3000244</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Biologia</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Il complesso delle specie animali proprie di un determinato ambiente o territorio. La fauna viene divisa in due grandi categorie: gli invertebrati e i vertebrati. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Il termine globalizzazione si sta utilizzando frequentemente (e in diversi ambiti) per designare in forma generale una "forza" che agisce in diverse dimensioni, superiore alla volontá degli individui o dei gruppi locali. Forse il momento piú significativo di ciò che chiamiamo processo di globalizzazione é coinciso con le grandi navigazioni, con l´espansione dell'´uomo europeo alle regioni più distanti e sconosciute del mondo. Allo stesso modo i cambiamenti maggiormente rilevanti si legano agli ultimi due secoli: l´espansione del trasporto su rotaie, l´invenzione del telegrafo, i viaggi transcontinentali (per menzionarne alcuni) e che hanno avuto, nell'´ultimo quarto del secolo xxi, un'accelerazione straordinaria. Basti pensare all'´incremento vertiginoso dei flussi commerciali e finanziari accompagnati dalle profonde trasformazioni politiche ed economiche. Attualmente si osserva non solo un´integrazione globale, bensì un'interdipendenza che raggiunge quasi tutti gli aspetti della vita sociale: l´economia, la politica, l´ecologia, la comunicazione, finanche i saperi e i valori umani. Globalizzazione è associato ad altri termini quali integrazione, modernità, postmodernità e mercato, fino a raggiungere un netto profilo economicista che, in certa misura, prevale sugli altri: é sinonimo di espansione dei mercati, del consumo globale, della moda, dei veloci flussi di comunicazione e delle nuove tecnologie dell'´informazione. A quest'accezione per molti occorrerebbe sostituirne un´altra, più completa, che chiama in causa anche fenomeni ambientali, sociali, demografici e a cui bisogna dare risposte globali. Ad esempio, per held la globalizzazione è "l´espansione e il rafforzamento delle relazioni sociali e delle istituzioni attraverso lo spazio e il tempo, in maniera tale che le attività quotidiane risultano sempre più condizionate dai fatti che accadono in altri posti del mondo ma anche, per altri versi, le pratiche e le decisioni dei gruppi e delle comunità locali possono avere ripercussioni globali". Fonte: http://www.mmc2000.net/villaggioglobale/biblio/glo.htmglo01</t>
         </is>
       </c>
     </row>
@@ -5022,19 +5034,19 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>4000001</v>
+        <v>4000008</v>
       </c>
       <c r="C223" t="n">
-        <v>3000222</v>
+        <v>3000245</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Chimica</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>È l'effetto di iterazione, continuità e connessione che permette l'autoregolazione di un sistema. Costituisce il flusso di comunicazione che qualifica un sistema tramite fluidità di relazioni tra le sue componenti. Il termine feedback è, quindi, usato anche per indicare l'informazione di ritorno rispetto ad una iniziativa, una esperienza, che contiene il pensiero, il giudizio di utenti e/o di persone/cittadini coinvolti. Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
+          <t>(Mondializzazione) il fenomeno della globalizzazione dell'economia è stato posto in evidenza dal consiglio europeo di torino, definendolo come una delle maggiori sfide cui l'unione europea dovrà far fronte in questo scorcio di secolo. Secondo questo concetto l'economia mondiale è spinta da un processo d'integrazione economica crescente, di cui i principali motori sono: la liberalizzazione degli scambi internazionali e dei movimenti dei capitali; l'accelerazione del progresso tecnologico e l'avvento della società dell'informazione; la deregolamentazione; questi tre elementi si rafforzano reciprocamente, per il fatto che il progresso tecnologico stimola gli scambi internazionali e che il commercio mondiale consente a sua volta una migliore diffusione dei progressi tecnologici. Parallelamente, la deregolamentazione stimola lo sviluppo delle nuove tecnologie e contribuisce alla soppressione degli ostacoli agli scambi. Infine, secondo alcuni il progresso tecnologico consente alle imprese e alle singole persone di eludere più facilmente le regolamentazioni nazionali. Fonte: fonte http://europa.eu.int/scadplus/leg/it/cig/g4000.htm</t>
         </is>
       </c>
     </row>
@@ -5043,19 +5055,19 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>4000002</v>
+        <v>4000008</v>
       </c>
       <c r="C224" t="n">
-        <v>3000223</v>
+        <v>3000247</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>È la nuova frontiera del costruire e dell'abitare secondo natura. Un tipo di architettura, che dall'antica saggezza cinese ricava gli strumenti per interpretare ed armonizzare le energie che contraddistinguono i diversi luoghi della casa, per prevenire o correggere gli influssi negativi che possono colpire chi la abita. Fonte: http://www.agricolturabiologicaitaliana.it/</t>
+          <t>Non esiste consenso attorno al concetto o termine di "governance". Di seguito menzioniamo alcuni approcci: nel testo "la riforma delle nazioni unite - 1998" con il termine "governance" si fa riferimento ad un contesto nel quale il governo é in grado di svolgere i propri compiti e di esercitare autorità nella misura in cui dispone di mezzi amministrativi, finanziari e sociali sufficienti (a differenza del concetto di governabilità che richiama la necessita, del governo, di avere un appoggio politico - legittimità - per adempiere ai propri impegni. In altri termini governabilità allude alle condizioni politiche che permettono - al governo - di negoziare i propri interessi). Dal documento "governance for sustainable human development: a undp policy document" la "governance" è definita come l'esercizio dell'´autorità economica, politica e amministrativa di un paese, cioè come la gestione della complessità delle relazioni sociali a tutti i livelli. Ciò include i meccanismi, i processi e le istituzioni attraverso i quali i cittadini e i gruppi promuovono i loro interessi, esercitano la difesa dei loro diritti, affrontano i loro doveri e mediano rispetto alle loro differenze. Si afferma anche che la "governance" non é caratterizzata da strutture specifiche ma da una serie di procedure e pratiche che si distinguono dalle tradizionali forme di governo. Il termine governance, assume quindi la complessità dei modelli e la pluralistá degli agenti pubblici e privati che partecipano ai processi decisionali. Quest'ultima accezione sorge agli inizi degli anni '80 in un contesto di "crisi di governabilità" nel quale prende forza la spinta indirizzata a rafforzare l´universo delle interazioni fra stato e società mediante la promozione di meccanismi "orizzontali" di coordinazione fra i molteplici agenti sociali. Nel contesto della riforma delle istituzioni dell'unione europea, jérôme vignon, funzionario della commissione europea - incaricato di redigere il libro bianco - afferma che la "governance" é "la governabilità più la fiducia". La legittimità democratica dei governanti, la partecipazione politica dei governati, la trasparenza nella gestione e l'articolazione orizzontale degli interessi ai diversi livelli amministrativi e tra i differenti agenti economici e sociali sembrano le componenti fondamentali di quest'idea olistica di governo. Per "governance" si intende una tecnica o un metodo di governo (sviluppato) per dare risposta alla menzionata crisi di governabilità. Per la commissione europea "cinque sono i principi alla base della buona governance e dei cambiamenti proposti nel libro bianco: apertura, partecipazione, responsabilità, efficacia, coerenza. Ciascuno di essi è essenziale al fine d'instaurare una governance più democratica. Tali principi costituiscono il fondamento della democrazia e del principio di legalità degli stati membri, ma si applicano a tutti i livelli di governo: globale, europeo, nazionale, regionale e locale. Tratto da "la governance europea libro bianco-2001" "buon governo" é la traduzione (o sinonimo) che alcuni preferiscono applicare al termine "governance". La banca mondiale lo ha adottato, così come il fondo monetario internazionale, agli inizi degli anni '90, in relazione alla "condizionalità politica" posta ai pvs rispetto agli aiuti allo sviluppo. In questi casi si applica l´equazione buono/cattivo governo = qualità della "governance", livello della "governance". Si valutano le istituzioni pubbliche di un paese: grado di democratizzazione, rispetto dei diritti umani, efficacia dell'´amministrazione pubblica, controllo della corruzione, ecc. Fonte: http://www.mmc2000.net/villaggioglobale/biblio/glo.htmglo01</t>
         </is>
       </c>
     </row>
@@ -5064,19 +5076,19 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>4000002</v>
+        <v>4000008</v>
       </c>
       <c r="C225" t="n">
-        <v>3000224</v>
+        <v>3000248</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>La filosofia ambientale raccoglie in sé i pensieri, le idee, i concetti che l'uomo ha elaborato ed elabora nel suo rapportarsi con ciò che lo circonda e, in particolare, con il mondo naturale. In senso stretto si interessa di cosa pensa l'uomo della natura; in senso più generale si interessa di: scienza ed ecologia, fonti di conoscenze riguardo le leggi naturali ed i rapporti tra gli organismi viventi e l'ambiente; etica ambientale, cioè il comportamento dell'uomo nei confronti del mondo naturale (etica degli animali, etica degli ecosistemi ecc.); politica ambientale: teoria e prassi sui rapporti dello stato (quindi dei cittadini) con l'ambiente naturale; teologia in relazione all'ambiente: rapporti fra uomo-divinità-natura; ed inoltre ... Tutto ciò che concerne il rapporto uomo-natura, organismi viventi-natura; fonte: http://wds.bologna.enea.it/cose.htm</t>
+          <t>Si tratta di un sistema che permette di introdurre criteri ambientali nelle procedure relative all’acquisto di beni e servizi da parte delle pubbliche amministrazioni. Scopo ultimo del progetto è quello di spingere le imprese a produrre beni con migliori prestazioni ambientali, il che non può prescindere dall’ assumere il criterio fondamentale dell’eco-efficienza.</t>
         </is>
       </c>
     </row>
@@ -5085,19 +5097,15 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>4000001</v>
+        <v>4000012</v>
       </c>
       <c r="C226" t="n">
-        <v>3000225</v>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>Chimica</t>
-        </is>
-      </c>
+        <v>3000012</v>
+      </c>
+      <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Sempre di più si sta diffondendo una nuova cultura che mira all'investimento con caratteristiche etiche, dove l'investitore mira non solo alla speculazione ma punta su attività che rispondano a certi requisiti di responsabilità sociale ed ambientale. L'investimento etico consiste nella selezione e nella gestione degli investimenti (azioni, obbligazioni, prestiti) condizionata da criteri etici e di natura sociale, concetto racchiuso nell'espressione socially responsabile investment usata negli stati uniti, o ethical investment, espressione usata in gran bretagna. L'investitore etico è invece colui che non è unicamente interessato al rendimento delle proprie azioni, ma vuole conoscere le ragioni di fondo che realizzano questa redditività, le caratteristiche dei beni prodotti, la localizzazione dell'azienda e verificare come vengano condotti gli affari. Fonte: http://www.finanza-etica.it/</t>
+          <t>(ora vedi apat)</t>
         </is>
       </c>
     </row>
@@ -5106,40 +5114,32 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>4000002</v>
+        <v>4000012</v>
       </c>
       <c r="C227" t="n">
-        <v>3000226</v>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>Ecologia</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>Insieme di tasse e tributi che incentivano l'uso di risorse abbondanti e favoriscono il risparmio di risorse limitate. A seconda della base che vanno a colpire le tasse ambientali possono essere ripartite in: tasse e tariffe sulle emissioni; tasse sui prodotto; tasse d'uso riferite ai servii ambientali ottenuti in loro cambio. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
-        </is>
-      </c>
+        <v>3000119</v>
+      </c>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>4000005</v>
+        <v>4000035</v>
       </c>
       <c r="C228" t="n">
-        <v>3000227</v>
+        <v>3000035</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Idrologia</t>
+          <t>Climatologia</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>La fitodepurazione consiste nella depurazione delle acque attraverso l'azione di zone umide (naturali od artificiali). Gli inquinanti vengono rimossi attraverso la combinazione di processi quali la sedimentazione, la precipitazione, l'assorbimento, l'assimilazione da parte delle piante e l'attività microbiologica. Attraverso la fitodepurazione è possibile eseguire trattamenti secondari e terziari (finissaggio) di acque reflue contenendo l'impatto ambientale ed il consumo energetico. Fonte: http://www.comune.dozza.bo.it/sellustra/mioweb2/glossario.htm</t>
+          <t>Si possono definire "aree sensibili"' quelle zone che per vari motivi strutturali o funzionali hanno scarsa possibilità di subire senza danni irreversibili ampie variazioni dei parametri ambientali che ne regolano il funzionamento; esse hanno bassa resistenza e resilienza. Sono aree particolarmente sensibili ai cambiamenti climatici la zona artica e antartica, ed è infatti per questo che gran parte delle ricerche sul clima e su i l'inquinamento globale dei pianeta terra si svolgono in tali zone. Ma sono aree sensibili, soprattutto ai cambiamenti climatici, anche quelle di alta montagna o quelle di macchia mediterranea che possono essere soggette alla copertura di ghiacciai o alla desertificazione, o ancora quelle lagunari e le isole che possono subire notevoli influenze in caso di innalzamento del livello del mare per scioglimento dei ghiacci. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -5148,19 +5148,19 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>4000002</v>
+        <v>4000035</v>
       </c>
       <c r="C229" t="n">
-        <v>3000228</v>
+        <v>3000076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Climatologia</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Funzione antinquinamento dei vegetali, che assorbono e neutralizzano gli inquinanti dell'ambiente. Nel '97 è stato scoperto da un istituto di ricerca del dipartimento americano dell'agricoltura, il water management lab di fresno in california, che i vegetali possono assorbire sostanze inquinanti come nichel, zinco... Processo che viene definito appunto con il termine di fitorisanamento e si compone di quattro processi base: la rizofiltrazione (le radici assorbono i metalli tossici delle acque inquinanti); la fitostabilizzazione (la pianta cattura i residui metallici presenti nel suolo); la fitoestrazione (la parte aerea della pianta, dove si concentrano i metalli può essere bruciata riciclando dalle ceneri il metallo); la fitovolatilizzazione (la pianta assorbe, per esempio, selenio e mercurio e li libera in forma diluita nell'atmosfera).gli esperti del dipartimento sostengono che questi vegetali producano molecole (peptidi) oppure acidi organici per legare i metalli da immagazzinare nei vacuoli (compartimenti cellulari dove le piante custodiscono le sostanze utili o quelle da eliminare). Quindi, non solo una pianta può assorbire grandi quantità di sostanze tossiche, ma le può bloccare chimicamente evitando di esserne a sua volta "asfissiata". Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Anidride carbonica o biossido di carbonio: gas inerte, incolore, inodore, non tossico e non infiammabile, componente naturale dell'atmosfera, ove è presente in tracce. Indispensabile per la vita vegetale, è uno dei gas che contribuiscono al cosiddetto effetto serra fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -5169,19 +5169,19 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>4000002</v>
+        <v>4000035</v>
       </c>
       <c r="C230" t="n">
-        <v>3000229</v>
+        <v>3000114</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Climatologia</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Fondo comune che investe in azioni o società che si distinguono per l'impegno verso la salvaguardia, la tutela e il rispetto dei principi etici. Fonte: http://www.ecoeconomisti.it/ecoglossario.html</t>
+          <t>Variazioni del clima di una determinata regione o area della superficie terrestre come conseguenza di fenomeni astronomici (ad esempio, variazione dell'inclinazione dell'asse terrestre, polveri cosmiche o vulcaniche, ecc.), di fenomeni e variazioni indotte localmente (ad esempio, formazione di grandi bacini lacustri in aree desertiche, grandi incendi in aree boschive e di foresta, ecc.) o per l'effetto serra. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -5190,19 +5190,19 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>4000008</v>
+        <v>4000035</v>
       </c>
       <c r="C231" t="n">
-        <v>3000230</v>
+        <v>3000181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Climatologia</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>I fondi strutturali e il fondo di coesione sono componenti della politica strutturale della comunità che mira a ridurre il divario tra i livelli di sviluppo esistente tra le regioni e tra gli stati membri dell'unione europea. Essi contribuiscono così a pieno titolo all'obiettivo della coesione economica e sociale. Per il periodo 2000-2006, la dotazione finanziaria assegnata alla politica regionale della comunità ammonta a 213 miliardi , di cui 195 miliardi destinati ai fondi strutturali e 18 miliardi destinati al fondo di coesione. Tale importo rappresenta il 35% del bilancio comunitario, ossia la seconda voce di spesa. I fondi strutturali sono quattro: il più importante è il fondo europeo di sviluppo regionale (fesr), creato nel 1975. Esso finanzia la realizzazione di infrastrutture, investimenti produttivi generatori di occupazione a favore in particolare delle imprese e progetti di sviluppo locale; il fondo sociale europeo (fse), istituito nel 1958, promuove l'inserimento professionale dei disoccupati e delle categorie sociali svantaggiate finanziando in particolare azioni di formazione; il fondo europeo agricolo di orientamento e di garanzia (feaog), istituito anch'esso nel 1958 quale strumento finanziario della politica agricola comune, consta di due sezioni: la sezione orientamento, che finanzia azioni di sviluppo rurale e aiuti agli agricoltori nelle regioni in ritardo di sviluppo, e la sezione garanzia, che finanzia le organizzazioni comuni di mercato nonché misure di sviluppo rurale in altre zone della comunità; lo strumento finanziario di orientamento della pesca (sfop) è stato istituito nel 1993 e si prefigge l'adeguamento e l'ammodernamento delle attrezzature del settore nonché la diversificazione economica nelle zone dipendenti dall'attività di pesca. Per conferire maggiore efficacia agli interventi comunitari nel periodo 2000-2006, la comunicazione "agenda 2000" della commissione ha proposto un'importante riforma della politica strutturale, di cui il consiglio di berlino del 1999 ha fissato le implicazioni finanziarie. La riforma ha consentito di concentrare gli aiuti e di semplificare la relativa procedura di assegnazione e di gestione riducendo gli obiettivi prioritari d'intervento, che sono diventati tre: l'obiettivo 1 contribuisce allo sviluppo e all'adeguamento strutturale delle regioni in ritardo di sviluppo con prodotto interno lordo (pil) medio pro capite inferiore al 75% della media comunitaria; l'obiettivo 2 sostiene la riconversione economica e sociale delle zone con difficoltà strutturali quali le zone in cui sono in atto mutamenti economici, le zone rurali in declino o dipendenti dall'attività di pesca, i quartieri urbani in crisi, le zone geografiche con gravi handicap naturali o demografici; l'obiettivo 3 sostiene l'adeguamento e l'ammodernamento delle politiche e dei sistemi di istruzione, formazione e occupazione nelle regioni non comprese nell'obiettivo 1. Inoltre, nello stesso periodo, quattro iniziative comunitarie si prefiggono di sperimentare nuove vie di sviluppo per rispondere a problematiche specifiche. A tali iniziative è assegnato il 5,35% degli stanziamenti dei fondi strutturali: interreg iii si prefigge di incentivare la cooperazione transfrontaliera, transnazionale e interregionale; leader + punta a promuovere lo sviluppo socioeconomico delle zone rurali; equal mira allo sviluppo di nuove prassi per la lotta contro le discriminazioni e le disuguaglianze di qualsiasi tipo nell'accesso al mercato del lavoro; urban ii favorisce il rilancio economico e sociale delle città e delle periferie in crisi. Per rafforzare ulteriormente la politica strutturale, nel 1994 è stato istituito il fondo di coesione, destinato ai paesi con pil medio pro capite inferiore al 90% della media comunitaria ( grecia, spagna, irlanda e portogallo ). Il fondo concede finanziamenti per progetti di infrastrutture nei settori dell'ambiente e dei trasporti. Fonte: http://europa.eu.int/scadplus/leg/it/cig/g4000.htm</t>
+          <t>Si tratta di quegli effetti dell’attività economica che non si presentano su scala regionale o locale ma su scala globale, mondiale: effetto serra, eutrofizzazione delle acque, acidificazione delle piogge, riduzione dello strato di ozono. La risoluzione dei problemi globali non può che essere affrontata attraverso accordi di cooperazione internazionale.</t>
         </is>
       </c>
     </row>
@@ -5211,19 +5211,19 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>4000002</v>
+        <v>4000035</v>
       </c>
       <c r="C232" t="n">
-        <v>3000231</v>
+        <v>3000188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Climatologia</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Il fondo europeo agricolo di orientamento e garanzia opera per il miglioramento delle strutture agricole tramite un regime di aiuti diretti e indiretti. Fonte: http://www.federlazio.it/attivita/glossario.doc</t>
+          <t>Meccanismo flessibile previsto dal protocollo di kyoto che consiste nel commercio di diritti di emissione di gas serra tra paesi dell'annesso i. In pratica, quei paesi dell'annesso i che riescono a ridurre le loro emissioni in eccesso di quanto previsto dagli accordi stabiliti possono vendere tale surplus ad altri paesi dell'annesso i per facilitare il rispetto degli impegni presi da parte di questi ultimi. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -5232,19 +5232,19 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>4000008</v>
+        <v>4000035</v>
       </c>
       <c r="C233" t="n">
-        <v>3000232</v>
+        <v>3000238</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Climatologia</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Il fondo europeo di sviluppo regionale è finalizzato alla riduzione degli squilibri regionali, concede a questo scopo sovvenzioni agli investimenti in infrastrutture e nei settori produttivi localizzati nelle aree depresse della comunità. Fonte: http://www.federlazio.it/attivita/glossario.doc</t>
+          <t>Sostanze inquinanti presenti nell'atmosfera che trattengono nell'atmosfera terrestre l'energia irradiata a onda lunga, causando l'innalzamento della temperatura tendendo così a favorire l'effetto serra del pianeta. Il protocollo di kyoto prende in considerazione un paniere di sei gas serra: l'anidride carbonica, il metano, il protossido di azoto (n2o), i clorofuorocarburi, i perfluorocarburi e l'esafloruro di zolfo (sf6) fonte: http://www.comune.firenze.it/agende21toscana/glossario.htm e http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -5253,19 +5253,19 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>4000233</v>
+        <v>4000049</v>
       </c>
       <c r="C234" t="n">
-        <v>3000233</v>
+        <v>3000049</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Digitale</t>
+          <t>Telerilevamento</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>La missione del fondo è quella di contribuire al perseguimento degli obiettivi comunitari sostenendo: lo sviluppo delle reti transeuropee nei settori delle infrastrutture dei trasporti, delle telecomunicazioni e dell'energia; lo sviluppo delle piccole e medi imprese. Il fondo opera attraverso la prestazione di garanzie sia in favore di grandi progetti che di finanziamenti a medio lungo termine per pmi. Fonte: http://www.federlazio.it/attivita/glossario.doc</t>
+          <t>Con il termine di bilancio satellite si definisce il ruolo che dovrà avere la contabilità ambientale negli enti locali, cioè quello di uno strumento parallelo, e di pari importanza, rispetto alla contabilità ordinaria.</t>
         </is>
       </c>
     </row>
@@ -5274,19 +5274,19 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>4000002</v>
+        <v>4000054</v>
       </c>
       <c r="C235" t="n">
-        <v>3000234</v>
+        <v>3000054</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Termodinamica</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Risorse energetiche di origine fossile che, ai sensi della legge n. 10 del 9-1-91, vengono "assimilate" alle fonti rinnovabili in virtù degli elevati rendimenti energetici. Secondo il provvedimento cip 6, sono considerati impianti alimentati da fonti assimilate gli impianti di cogenerazione, gli impianti che utilizzano calore di recupero, fumi di scarico e altre forme di energia recuperabile in processi produttivi e in impianti, nonché gli impianti che utilizzano gli scarti di lavorazione e/o di processi e quelli che utilizzano fonti fossili prodotte esclusivamente da giacimenti minori isolati fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Energia totale impiegata nel funzionamento di un determinato sistema; comprende sia l’energia in ingresso (quella necessaria alla produzione del prodotto) sia l’energia in uscita (ad esempio quella dispersa come calore).</t>
         </is>
       </c>
     </row>
@@ -5295,19 +5295,19 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>4000007</v>
+        <v>4000054</v>
       </c>
       <c r="C236" t="n">
-        <v>3000235</v>
+        <v>3000102</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Geologia e sismologia</t>
+          <t>Termodinamica</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Sorgenti di energia riconducibili a tre flussi energetici inesauribili che investono l'ambiente in cui viviamo: l'energia solare, l'energia geotermica, l'energia di marea (originata dall'attrazione gravitazionale di sole e, soprattutto, luna). La fonte ri</t>
+          <t>Impianto per la conversione dell'energia solare in energia elettrica mediante un passaggio intermedio di conversione in energia termica. Le tipologie sono principalmente due: impianti a concentrazione (la radiazione solare è concentrata da opportuni "specchi" su un sistema ricevitore, ove riscalda un fluido termovettore che può raggiungere temperature di alcune centinaia di °c); impianti a bassa temperatura (ad esempio gli "stagni solari", ove tra la superficie e il fondo si realizza un gradiente di temperatura di qualche decina di gradi, che può essere sfruttato per produrre energia elettrica, ovviamente con basso rendimento termodinamico) fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -5316,19 +5316,19 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>4000008</v>
+        <v>4000054</v>
       </c>
       <c r="C237" t="n">
-        <v>3000236</v>
+        <v>3000118</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Termodinamica</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>I processi e mezzi adottati da governi nazionali e comunità locali per sviluppare le abilità e competenze necessarie per gestire il proprio ambiente e le risorse naturali in un maniera sostenibile fonte: http://www.geocities.com/athens/agora/5311/giuridica/extra/00-eu-sustain-glossario.htmagenda locale 21</t>
+          <t>Apparecchiatura atta a convertire la radiazione solare in calore da utilizzare per produzione di acqua calda o vapore. Quello più diffuso è il cosiddetto collettore piano, costituito da una piastra, di materiale idoneo ad assorbire la radiazione solare incidente, che funge da accumulatore termico per riscaldare l'apposito fluido convettore fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -5337,19 +5337,19 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>4000001</v>
+        <v>4000091</v>
       </c>
       <c r="C238" t="n">
-        <v>3000237</v>
+        <v>3000091</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Chimica</t>
+          <t>Competenza della Protezione Civile</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Scambio d'idee ed esperienze in materia di sviluppo sostenibile, gestione e attuazione di politiche e progetti tra soggetti diversi (pubblici e privati, singoli e collettivi...), a livello formale ed informale. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htm</t>
+          <t>Pressione esercitata dall’insieme dei fattori antropici presenti in un’area su una determinata risorsa ambientale</t>
         </is>
       </c>
     </row>
@@ -5358,19 +5358,19 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>4000035</v>
+        <v>4000091</v>
       </c>
       <c r="C239" t="n">
-        <v>3000238</v>
+        <v>3000209</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Climatologia</t>
+          <t>Competenza della Protezione Civile</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Sostanze inquinanti presenti nell'atmosfera che trattengono nell'atmosfera terrestre l'energia irradiata a onda lunga, causando l'innalzamento della temperatura tendendo così a favorire l'effetto serra del pianeta. Il protocollo di kyoto prende in considerazione un paniere di sei gas serra: l'anidride carbonica, il metano, il protossido di azoto (n2o), i clorofuorocarburi, i perfluorocarburi e l'esafloruro di zolfo (sf6) fonte: http://www.comune.firenze.it/agende21toscana/glossario.htm e http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Sono presenti quando le attività di un agente economico come un'imprese d'affari ha conseguenze esterne per quegli attori sociali che non intervengono nell'equilibrio economico della domanda e offerta su cui ci sono effetti non ricompensati. Ad esempio il gestore di una discoteca per soddisfare la propria clientela, tiene il volume elevato ma disturba i condomini degli appartamenti vicini. Fonte: http://www.kalao.org/glossario.htm</t>
         </is>
       </c>
     </row>
@@ -5379,19 +5379,19 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>4000007</v>
+        <v>4000092</v>
       </c>
       <c r="C240" t="n">
-        <v>3000239</v>
+        <v>3000092</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Geologia e sismologia</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Dal greco ghé (terra) + biologia, la scienza che studia i fenomeni della vita e le leggi che li governano. Il termine geobiologia indica quindi l'ambito entro il quale si muove questa nuova scienza: studio dell'influenza su tutto ciò che vive dei fenomeni connessi alla terra (alexandre r., 1989). Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Utilizzare le automobili private per gli spostamenti (soprattutto quelli casa-lavoro), invece che come singoli utenti, ospitando a turno altri passeggeri (almeno due), vicini di casa o colleghi di lavoro. Il servizio è organizzato tramite i mobility managers (vedi), ma anche sulla base dell'impegno di cittadini più sensibili ed attivi. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
         </is>
       </c>
     </row>
@@ -5400,19 +5400,19 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>4000003</v>
+        <v>4000092</v>
       </c>
       <c r="C241" t="n">
-        <v>3000240</v>
+        <v>3000093</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Biologia</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Puntare al migliore rapporto costi/benefici per l'intera durata di vita di un bene, anziché un breve periodo di recupero dell'investimento. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htm</t>
+          <t>Condividere la proprietà e l'uso di un'automobile con altri, dividendo le sue spese di gestione, per utilizzarla solo quando se ne ha effettivamente bisogno (vedi più in dettaglio car-sharinq). Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
         </is>
       </c>
     </row>
@@ -5421,19 +5421,19 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>4000008</v>
+        <v>4000092</v>
       </c>
       <c r="C242" t="n">
-        <v>3000241</v>
+        <v>3000160</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>La gestione, cioè la riduzione o il riorientamento, di una parte della domanda invece del suo completo accoglimento, finalizzata a rendere compatibili i principi dello sviluppo sostenibile con le aspettative dei gruppi sociali umani di sviluppare, progredire e migliorare il benessere e il tenore di vita. Fonte: http://www.geocities.com/athens/agora/5311/giuridica/extra/00-eu-sustain-glossario.htmagenda locale 21</t>
+          <t>L'insieme delle operazioni necessarie per la cessazione delle attività produttive di un impianto o di un'area industriale. Si suddivide generalmente in tre fasi: messa in sicurezza delle componenti; smantellamento e rimozione delle apparecchiature e delle struttura; ripristino del suolo. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -5442,19 +5442,19 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>4000002</v>
+        <v>4000092</v>
       </c>
       <c r="C243" t="n">
-        <v>3000242</v>
+        <v>3000208</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Integrazione di politiche, programmi e procedure ecologicamente corretti. Fonte: http://www.ecoeconomisti.it/ecoglossario.html</t>
+          <t>Disciplina che studia il migliore adattamento reciproco fra uomo, macchina e ambiente. Fonte: http://www.ennerev.it/ennerev/glossario.htm</t>
         </is>
       </c>
     </row>
@@ -5463,19 +5463,19 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>4000008</v>
+        <v>4000100</v>
       </c>
       <c r="C244" t="n">
-        <v>3000243</v>
+        <v>3000100</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Idraulica</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Il global reporting iniziative è un impegno internazionale a lungo termine, la cui missione è sviluppare e diffondere linee guida ad uso volontario per la realizzazione di rapporti sugli aspetti economici, ambientali e sociali dell’attività dell’impresa.</t>
+          <t>Impianti che trasformano l'energia potenziale di una massa di acqua in quiete e/o l'energia cinetica di una corrente di acqua in energia meccanica, che a sua volta viene poi trasformata in energia elettrica. Le centrali idroelettriche si possono classificare in base a vari elementi: 1) altezza del salto sfruttato (centrali a bassa, media e alta caduta a seconda che il salto sia rispettivamente compreso fino a 50 metri, 250 metri o superiore); 2) portata utilizzabile (centrali di piccola, media e grande portata in base ad una portata d'acqua rispettivamente fino a 10 m3/secondo, 100 m3/secondo o superiore); 3) per tipologia impiantistica: impianti ad acqua fluente, a serbatoio, ad accumulazione per pompaggio. Gli impianti ad acqua fluente sfruttano la portata di un corso d'acqua disponibile in quel preciso momento, senza capacità di regolazione degli afflussi (se il corso d'acqua è in magra e si scende sotto un livello minimo di portata, cessa la produzione di energia elettrica). Gli impianti a serbatoio (o anche a bacino con deflusso regolato) sono provvisti di una capacità di invaso alla presa del corso d'acqua atta a modificare il regime delle portate utilizzate dalla centrale (la centrale è posta al piede di una diga). Gli impianti di accumulazione mediante pompaggio sono impianti simili agli "impianti a serbatoio", ma ricavano la disponibilità di acqua nel serbatoio superiore mediante sollevamento con pompe. Quest'ultimo tipo di impianto si usa laddove la disponibilità naturale di acqua è scarsa e consiste in due serbatoi di estremità, collocati a quote differenti: nelle ore diurne di maggior richiesta (ore di punta) l'acqua immagazzinata nel serbatoio superiore è usata per la produzione di energia elettrica; nelle ore di minor richiesta (ore notturne) l'acqua viene risollevata al serbatoio superiore mediante pompe fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -5484,19 +5484,19 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>4000008</v>
+        <v>4000100</v>
       </c>
       <c r="C245" t="n">
-        <v>3000244</v>
+        <v>3000124</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Idraulica</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Il termine globalizzazione si sta utilizzando frequentemente (e in diversi ambiti) per designare in forma generale una "forza" che agisce in diverse dimensioni, superiore alla volontá degli individui o dei gruppi locali. Forse il momento piú significativo di ciò che chiamiamo processo di globalizzazione é coinciso con le grandi navigazioni, con l´espansione dell'´uomo europeo alle regioni più distanti e sconosciute del mondo. Allo stesso modo i cambiamenti maggiormente rilevanti si legano agli ultimi due secoli: l´espansione del trasporto su rotaie, l´invenzione del telegrafo, i viaggi transcontinentali (per menzionarne alcuni) e che hanno avuto, nell'´ultimo quarto del secolo xxi, un'accelerazione straordinaria. Basti pensare all'´incremento vertiginoso dei flussi commerciali e finanziari accompagnati dalle profonde trasformazioni politiche ed economiche. Attualmente si osserva non solo un´integrazione globale, bensì un'interdipendenza che raggiunge quasi tutti gli aspetti della vita sociale: l´economia, la politica, l´ecologia, la comunicazione, finanche i saperi e i valori umani. Globalizzazione è associato ad altri termini quali integrazione, modernità, postmodernità e mercato, fino a raggiungere un netto profilo economicista che, in certa misura, prevale sugli altri: é sinonimo di espansione dei mercati, del consumo globale, della moda, dei veloci flussi di comunicazione e delle nuove tecnologie dell'´informazione. A quest'accezione per molti occorrerebbe sostituirne un´altra, più completa, che chiama in causa anche fenomeni ambientali, sociali, demografici e a cui bisogna dare risposte globali. Ad esempio, per held la globalizzazione è "l´espansione e il rafforzamento delle relazioni sociali e delle istituzioni attraverso lo spazio e il tempo, in maniera tale che le attività quotidiane risultano sempre più condizionate dai fatti che accadono in altri posti del mondo ma anche, per altri versi, le pratiche e le decisioni dei gruppi e delle comunità locali possono avere ripercussioni globali". Fonte: http://www.mmc2000.net/villaggioglobale/biblio/glo.htmglo01</t>
+          <t>Le teorie della complessità affermano che vita, umanità, evoluzione, cambiamento, conoscenza, ecc. Sono originate da, e vanno dl pari passo con, disordine, caos (vedi), perturbazione, dissimmetria, instabilità, squilibrio, flussi, turbolenza, non linearità, marginalità, incertezza, relatività, disarmonia, frattalismo, imponderabilità, ecc. Ad esempio, nell'attuale interdipendenza complessiva (globalizzazione), le azioni locali producono ampie conseguenze in termini di distanza (spazio), tempo e dimensione. La globalizzazione mette assieme simultaneamente iniziative differenti, eccezionali, individuali e frammentate. Non ci potrebbe essere globalizzazione senza localizzazione, poiché globale e locale sono differenti dimensioni di un sistema che evolve insieme alla qualità di relazioni e componenti (co-evoluzione) e si auto-organizza. Perciò soltanto un pensiero strategico può collegare (oliamo) tali eventi e gestire la complessità. È necessario un modo di pensare olistico, in grado cioè di rispettare ciò che è diverso (e divergente), le sfaccettature multidimensionali di una situazione e di un problema (frattale e ologramma), agendo sulle loro interdipendenze. Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
         </is>
       </c>
     </row>
@@ -5505,19 +5505,19 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>4000008</v>
+        <v>4000101</v>
       </c>
       <c r="C246" t="n">
-        <v>3000245</v>
+        <v>3000101</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Elettronica</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>(Mondializzazione) il fenomeno della globalizzazione dell'economia è stato posto in evidenza dal consiglio europeo di torino, definendolo come una delle maggiori sfide cui l'unione europea dovrà far fronte in questo scorcio di secolo. Secondo questo concetto l'economia mondiale è spinta da un processo d'integrazione economica crescente, di cui i principali motori sono: la liberalizzazione degli scambi internazionali e dei movimenti dei capitali; l'accelerazione del progresso tecnologico e l'avvento della società dell'informazione; la deregolamentazione; questi tre elementi si rafforzano reciprocamente, per il fatto che il progresso tecnologico stimola gli scambi internazionali e che il commercio mondiale consente a sua volta una migliore diffusione dei progressi tecnologici. Parallelamente, la deregolamentazione stimola lo sviluppo delle nuove tecnologie e contribuisce alla soppressione degli ostacoli agli scambi. Infine, secondo alcuni il progresso tecnologico consente alle imprese e alle singole persone di eludere più facilmente le regolamentazioni nazionali. Fonte: fonte http://europa.eu.int/scadplus/leg/it/cig/g4000.htm</t>
+          <t>Impianto destinato alla conversione dell'energia nucleare in energia elettrica. Schematicamente una centrale nucleare è costituita da un reattore nucleare, a sua volta costituito da una struttura (detta nocciolo del reattore) in cui si trova il combustibile nucleare e nella quale avvengono le reazioni di fissione), e da un insieme di apparecchiature ausiliarie che provvedono ad asportare il calore prodotto dalla fissione. Quest'ultimo genera il vapore utilizzato per produzione di elettricità in maniera analoga a quanto avviene nelle convenzionali centrali termoelettriche fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -5526,19 +5526,19 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>4000002</v>
+        <v>4000101</v>
       </c>
       <c r="C247" t="n">
-        <v>3000246</v>
+        <v>3000185</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Elettronica</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>È la capacità di gestire, integrandole, le dimensioni globale e locale. Essa esprime la capacità di unire, contemporaneamente, l'azione locale con una prospettiva globale, e, viceversa, l'azione globale con le prospettive locali. In tal modo, la glocacità è fattore determinante per la sussidiarietà (vedi) e per la gestione di sistemi complessi (vedi complessità), quali un ecosistema (vedi). Nata dalla cultura imprenditoriale, la glocacità indica la capacità di bilanciare la desiderata uniformità d'interventi, azioni e prodotti, rivolti alla globalità del suoi mercati, con le esigenze di variazione dovute alle diverse caratteristiche di ciascun mercato locale (diversità). Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
+          <t>Indica il rapporto tra servizio energetico effettivamente erogato e l'energia utilizzata per erogare questo servizio. Ad esempio, le comuni lampadine elettriche ad incandescenza hanno un'efficienza di conversione di circa 5%, ovvero solo il 5% di elettricità che entra nella lampadina viene convertita in luce, il resto è convertita in calore. Dire che l'efficienza energetica di una centrale elettrica è del 40% significa dire che per ottenere 1 kwh si spende l'equivalente di 2,5 kwh di combustibile. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -5547,19 +5547,19 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>4000008</v>
+        <v>4000101</v>
       </c>
       <c r="C248" t="n">
-        <v>3000247</v>
+        <v>3000186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Elettronica</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Non esiste consenso attorno al concetto o termine di "governance". Di seguito menzioniamo alcuni approcci: nel testo "la riforma delle nazioni unite - 1998" con il termine "governance" si fa riferimento ad un contesto nel quale il governo é in grado di svolgere i propri compiti e di esercitare autorità nella misura in cui dispone di mezzi amministrativi, finanziari e sociali sufficienti (a differenza del concetto di governabilità che richiama la necessita, del governo, di avere un appoggio politico - legittimità - per adempiere ai propri impegni. In altri termini governabilità allude alle condizioni politiche che permettono - al governo - di negoziare i propri interessi). Dal documento "governance for sustainable human development: a undp policy document" la "governance" è definita come l'esercizio dell'´autorità economica, politica e amministrativa di un paese, cioè come la gestione della complessità delle relazioni sociali a tutti i livelli. Ciò include i meccanismi, i processi e le istituzioni attraverso i quali i cittadini e i gruppi promuovono i loro interessi, esercitano la difesa dei loro diritti, affrontano i loro doveri e mediano rispetto alle loro differenze. Si afferma anche che la "governance" non é caratterizzata da strutture specifiche ma da una serie di procedure e pratiche che si distinguono dalle tradizionali forme di governo. Il termine governance, assume quindi la complessità dei modelli e la pluralistá degli agenti pubblici e privati che partecipano ai processi decisionali. Quest'ultima accezione sorge agli inizi degli anni '80 in un contesto di "crisi di governabilità" nel quale prende forza la spinta indirizzata a rafforzare l´universo delle interazioni fra stato e società mediante la promozione di meccanismi "orizzontali" di coordinazione fra i molteplici agenti sociali. Nel contesto della riforma delle istituzioni dell'unione europea, jérôme vignon, funzionario della commissione europea - incaricato di redigere il libro bianco - afferma che la "governance" é "la governabilità più la fiducia". La legittimità democratica dei governanti, la partecipazione politica dei governati, la trasparenza nella gestione e l'articolazione orizzontale degli interessi ai diversi livelli amministrativi e tra i differenti agenti economici e sociali sembrano le componenti fondamentali di quest'idea olistica di governo. Per "governance" si intende una tecnica o un metodo di governo (sviluppato) per dare risposta alla menzionata crisi di governabilità. Per la commissione europea "cinque sono i principi alla base della buona governance e dei cambiamenti proposti nel libro bianco: apertura, partecipazione, responsabilità, efficacia, coerenza. Ciascuno di essi è essenziale al fine d'instaurare una governance più democratica. Tali principi costituiscono il fondamento della democrazia e del principio di legalità degli stati membri, ma si applicano a tutti i livelli di governo: globale, europeo, nazionale, regionale e locale. Tratto da "la governance europea libro bianco-2001" "buon governo" é la traduzione (o sinonimo) che alcuni preferiscono applicare al termine "governance". La banca mondiale lo ha adottato, così come il fondo monetario internazionale, agli inizi degli anni '90, in relazione alla "condizionalità politica" posta ai pvs rispetto agli aiuti allo sviluppo. In questi casi si applica l´equazione buono/cattivo governo = qualità della "governance", livello della "governance". Si valutano le istituzioni pubbliche di un paese: grado di democratizzazione, rispetto dei diritti umani, efficacia dell'´amministrazione pubblica, controllo della corruzione, ecc. Fonte: http://www.mmc2000.net/villaggioglobale/biblio/glo.htmglo01</t>
+          <t>È la quantità di energia solare, diretta o indiretta, utilizzata come denominatore comune, necessaria per ottenere un prodotto o un flusso di energia (energia elettrica, termoelettrica ecc.). Ad esempio per ottenere un joule di energia elettrica è necessaria energia sotto forma di impianti e di combustibile: la somma totale dell’energia solare impiegata per ottenerla è l’emergia.</t>
         </is>
       </c>
     </row>
@@ -5568,19 +5568,19 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>4000008</v>
+        <v>4000101</v>
       </c>
       <c r="C249" t="n">
-        <v>3000248</v>
+        <v>3000194</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Elettronica</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Si tratta di un sistema che permette di introdurre criteri ambientali nelle procedure relative all’acquisto di beni e servizi da parte delle pubbliche amministrazioni. Scopo ultimo del progetto è quello di spingere le imprese a produrre beni con migliori prestazioni ambientali, il che non può prescindere dall’ assumere il criterio fondamentale dell’eco-efficienza.</t>
+          <t>Energia cinetica delle masse d'aria (venti) in movimento. A parte gli usi tradizionali (mulini a vento, navi a vela eccetera) l'energia eolica viene sfruttata per la produzione elettrica tramite aerogeneratori fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -5589,19 +5589,19 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>4000001</v>
+        <v>4000233</v>
       </c>
       <c r="C250" t="n">
-        <v>3000249</v>
+        <v>3000233</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Chimica</t>
+          <t>Digitale</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Le moderne tecnologie permettono di minimizzare l'impatto dei processi inquinanti, oltre che il riuso sistematico dei sottoprodotti. Un caso orizzontale che comporta scelta tra tecnologie a differente impatto è quello del "greening"delle diverse attività (produttive, di beni materiali, di servizi ed altre) che rientrano nel quadro generale dello sviluppo sostenibile. Si ottiene con diversi approcci: - uso ridotto delle risorse (materiali, energetiche) - individuazione di nuove risorse meno inquinanti lungo tutto il ciclo del prodotto - utilizzo dei sottoprodotti - produzione ridotta dei rifiut5i - riciclo - nuovi processi prodotti - aumento della produttività, dell'efficienza e dell'efficacia del sistema produttivo e dei prodotti - sostituzione di beni materiali con beni immateriali - funzionalizzazione dell'industria - migliore organizzazione e delocalizzazione - miniaturizzazione - altri processi di dematerializzazione - aumento dell'efficienza dell'uso dei prodotti (conservazione della neghentropia creata; aumento del valore delle risorse); - attività che sfruttano i processi naturali invece di andar loro contro - tecnologie che consentono di operare e vivere bene in ambiente (relativamente) sporco. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>La missione del fondo è quella di contribuire al perseguimento degli obiettivi comunitari sostenendo: lo sviluppo delle reti transeuropee nei settori delle infrastrutture dei trasporti, delle telecomunicazioni e dell'energia; lo sviluppo delle piccole e medi imprese. Il fondo opera attraverso la prestazione di garanzie sia in favore di grandi progetti che di finanziamenti a medio lungo termine per pmi. Fonte: http://www.federlazio.it/attivita/glossario.doc</t>
         </is>
       </c>
     </row>

--- a/static/saved_dataframes/tabelle_entita_e_relazionali/is_Ambito_riferimento_of.xlsx
+++ b/static/saved_dataframes/tabelle_entita_e_relazionali/is_Ambito_riferimento_of.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -724,7 +724,7 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Struttura operativa della protezione civile.</t>
+          <t>La SOREU dei Laghi è il riferimento per i territori di Como, Varese, Lecco e l'area del Legnanese.</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Le SOREU hanno valenza interprovinciale: gestiscono le chiamate di soccorso sanitario con l'invio dei mezzi più appropriati fino al completamento del soccorso e/o all'eventuale affidamento del paziente alle strutture ospedaliere più idonee. Le SOREU operano tramite le dotazioni tecnologiche assegnate da AREU che permettono loro una costante interconnessione con i Call Center NUE 112 di riferimento, con i mezzi di soccorso delle AAT della propria area di competenza e con i Call Center sanitari specialistici, in modo da ottimizzare i tempi di risposta e intervento.</t>
+          <t>Struttura operativa della protezione civile.</t>
         </is>
       </c>
     </row>
@@ -757,6 +757,40 @@
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
+        <is>
+          <t>team transfrontaliero di coordinamento costituito congiuntamente da personale qualificato, formato e attrezzato, della protezione civile lombarda e ticinese. Esso ha il compito, durante le emergenze nei territori di confine, di operare insieme sia per la valutazione dell’evento in corso e per i reciproci possibili riflessi sui rispettivi territori, sia quali “ufficiali di collegamento” per collegare le rispettive sale operative di ambo i lati del confine, consentendo una efficiente ed efficace relazione operativa. Il NUVRE viene introdotto dal progetto Gestisco 2018-2021.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4000001</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3000037</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Le SOREU hanno valenza interprovinciale: gestiscono le chiamate di soccorso sanitario con l'invio dei mezzi più appropriati fino al completamento del soccorso e/o all'eventuale affidamento del paziente alle strutture ospedaliere più idonee. Le SOREU operano tramite le dotazioni tecnologiche assegnate da AREU che permettono loro una costante interconnessione con i Call Center NUE 112 di riferimento, con i mezzi di soccorso delle AAT della propria area di competenza e con i Call Center sanitari specialistici, in modo da ottimizzare i tempi di risposta e intervento.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4000001</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3000038</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>La Sezione è articolata in cinque servizi con distinte aree di competenza: il Servizio amministrativo, il Servizio degli affari militari e del comando di circondario, il Servizio della protezione civile, il Servizio costruzioni di protezione civile e il Servizio della protezione della popolazione. 
 Il servizio amministrativo centralizzato della sezione si occupa di fornire le prime informazioni all’utenza e di smistarle ai vari servizi di competenza. Altri compiti specifici sono la contabilità, la corrispondenza e il supporto logistico per tutta la sezione. 
@@ -767,40 +801,6 @@
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>4000001</v>
-      </c>
-      <c r="C24" t="n">
-        <v>3000037</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>team transfrontaliero di coordinamento costituito congiuntamente da personale qualificato, formato e attrezzato, della protezione civile lombarda e ticinese. Esso ha il compito, durante le emergenze nei territori di confine, di operare insieme sia per la valutazione dell’evento in corso e per i reciproci possibili riflessi sui rispettivi territori, sia quali “ufficiali di collegamento” per collegare le rispettive sale operative di ambo i lati del confine, consentendo una efficiente ed efficace relazione operativa. Il NUVRE viene introdotto dal progetto Gestisco 2018-2021.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>4000001</v>
-      </c>
-      <c r="C25" t="n">
-        <v>3000038</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Componente della protezione civile, costituiscono corpo civico</t>
-        </is>
-      </c>
-    </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
@@ -809,12 +809,12 @@
         <v>4000001</v>
       </c>
       <c r="C26" t="n">
-        <v>3000039</v>
+        <v>3000050</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>La SOREU dei Laghi è il riferimento per i territori di Como, Varese, Lecco e l'area del Legnanese.</t>
+          <t>Sono organizzazioni partner quelle che collaborano alla protezione della popolazione: Polizia, pompieri, servizi della sanità pubblica, servizi tecnici, protezione civile.</t>
         </is>
       </c>
     </row>
@@ -826,12 +826,13 @@
         <v>4000001</v>
       </c>
       <c r="C27" t="n">
-        <v>3000050</v>
+        <v>3000051</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sono organizzazioni partner quelle che collaborano alla protezione della popolazione: Polizia, pompieri, servizi della sanità pubblica, servizi tecnici, protezione civile.</t>
+          <t>Gli organi di condotta vengono istituiti dalle autorità competenti per lo svolgimento dei seguenti compiti: a - informare la popolazione in merito ai pericoli che la minacciano come pure alle possibilità e alle misure di protezione esistenti; b - avvertire, dare l’allarme e impartire alla popolazione istruzioni sul comportamento; c - assicurare le attività di condotta; d - coordinare i preparativi e gli interventi delle 
+ organizzazioni partner; e - garantire, tempestivamente e in funzione della situazione, la disponibilità operativa e il rinforzo con personale e materiale della protezione della popolazione in vista di un conflitto armato.</t>
         </is>
       </c>
     </row>
@@ -843,13 +844,12 @@
         <v>4000001</v>
       </c>
       <c r="C28" t="n">
-        <v>3000052</v>
+        <v>3000053</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Gli organi di condotta vengono istituiti dalle autorità competenti per lo svolgimento dei seguenti compiti: a - informare la popolazione in merito ai pericoli che la minacciano come pure alle possibilità e alle misure di protezione esistenti; b - avvertire, dare l’allarme e impartire alla popolazione istruzioni sul comportamento; c - assicurare le attività di condotta; d - coordinare i preparativi e gli interventi delle 
- organizzazioni partner; e - garantire, tempestivamente e in funzione della situazione, la disponibilità operativa e il rinforzo con personale e materiale della protezione della popolazione in vista di un conflitto armato.</t>
+          <t>Si ha stato di necessità quando, a seguito di catastrofi, conflitti armati o altre situazioni d’emergenza che comportano un pericolo imminente per lo Stato, le persone o le cose, non sia più possibile garantire con i mezzi ordinari l’attività amministrativa o i servizi d’interesse pubblico e la protezione e l’assistenza delle persone e delle cose a livello cantonale, regionale o locale.</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
         <v>4000001</v>
       </c>
       <c r="C29" t="n">
-        <v>3000053</v>
+        <v>3000054</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Si ha stato di necessità quando, a seguito di catastrofi, conflitti armati o altre situazioni d’emergenza che comportano un pericolo imminente per lo Stato, le persone o le cose, non sia più possibile garantire con i mezzi ordinari l’attività amministrativa o i servizi d’interesse pubblico e la protezione e l’assistenza delle persone e delle cose a livello cantonale, regionale o locale.</t>
+          <t>Sono impianti di protezione: a - i posti di comando; b. gli impianti d’apprestamento; c - i centri sanitari protetti; d - gli ospedali protetti.</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sono impianti di protezione: a - i posti di comando; b. gli impianti d’apprestamento; c - i centri sanitari protetti; d - gli ospedali protetti.</t>
+          <t>Le Costruzioni di protezione si distinguono in rifugi e impianti di protezione. Sono edifici che vengono costruiti o utilizzati ai fini di protezione della popolazione.</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Le Costruzioni di protezione si distinguono in rifugi e impianti di protezione. Sono edifici che vengono costruiti o utilizzati ai fini di protezione della popolazione.</t>
+          <t>posto protetto di cui ogni abitante deve disporre e che sia raggiungibile in tempo utile dalla propria abitazione.</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>posto protetto di cui ogni abitante deve disporre e che sia raggiungibile in tempo utile dalla propria abitazione.</t>
+          <t>milite impiegato, in funzione dell'evento o della situazione d'emergenza, per assistere persone in cerca di protezione (senzatetto, evacuati, ecc.) o aiutare i servizi della sanità pubblica (per es. in case per anziani). L'addetto all'assistenza deve disporre di buone competenze sociali e capacità organizzative.</t>
         </is>
       </c>
     </row>
@@ -934,7 +934,7 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>milite impiegato, in funzione dell'evento o della situazione d'emergenza, per assistere persone in cerca di protezione (senzatetto, evacuati, ecc.) o aiutare i servizi della sanità pubblica (per es. in case per anziani). L'addetto all'assistenza deve disporre di buone competenze sociali e capacità organizzative.</t>
+          <t>milite impiegato per prestare aiuto alla condotta in seno all'organo di condotta o a favore dei partner ed istruito in materia di analisi della situazione e telematica. L'assistente di stato maggiore deve essere polivalente.</t>
         </is>
       </c>
     </row>
@@ -946,27 +946,10 @@
         <v>4000001</v>
       </c>
       <c r="C34" t="n">
-        <v>3000059</v>
+        <v>3000060</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
-        <is>
-          <t>milite impiegato per prestare aiuto alla condotta in seno all'organo di condotta o a favore dei partner ed istruito in materia di analisi della situazione e telematica. L'assistente di stato maggiore deve essere polivalente.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>4000001</v>
-      </c>
-      <c r="C35" t="n">
-        <v>3000061</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
         <is>
           <t>milite impiegato soprattutto per assistere le organizzazioni
 partner nell'esecuzione dei lavori necessari per limitare o ripristinare i
@@ -975,6 +958,23 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4000001</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3000062</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Sistema di allertamento per eventi di tipo idrometeorologico.</t>
+        </is>
+      </c>
+    </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
@@ -988,7 +988,7 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Sistema di allertamento per eventi di tipo idrometeorologico.</t>
+          <t>Il segnale d'allarme acqua viene emesso esclusivamente nelle regioni minacciate a valle di impianti d'accumulazione. Le sirene emettono dodici suoni continui e gravi in sequenze di 20 secondi e a intervalli di 10 secondi. L’allarme acqua esorta la popolazione ad abbandonare immediatamente la regione minacciata.</t>
         </is>
       </c>
     </row>
@@ -1000,12 +1000,12 @@
         <v>4000001</v>
       </c>
       <c r="C37" t="n">
-        <v>3000064</v>
+        <v>3000065</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Il segnale d'allarme acqua viene emesso esclusivamente nelle regioni minacciate a valle di impianti d'accumulazione. Le sirene emettono dodici suoni continui e gravi in sequenze di 20 secondi e a intervalli di 10 secondi. L’allarme acqua esorta la popolazione ad abbandonare immediatamente la regione minacciata.</t>
+          <t>Lo SMEPI coordina l’intervento dei primi enti mobilitati, di regola polizia, pompieri e servizi d’autoambulanza. Esso è condotto, di principio, dalla Polizia cantonale.</t>
         </is>
       </c>
     </row>
@@ -1017,12 +1017,12 @@
         <v>4000001</v>
       </c>
       <c r="C38" t="n">
-        <v>3000066</v>
+        <v>3000068</v>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Lo SMEPI coordina l’intervento dei primi enti mobilitati, di regola polizia, pompieri e servizi d’autoambulanza. Esso è condotto, di principio, dalla Polizia cantonale.</t>
+          <t>Il Dipartimento della protezione civile è una struttura della Presidenza del Consiglio dei Ministri. Il Dipartimento, operando in stretto raccordo con le Regioni e le Province autonome, si occupa di tutte le attività volte alla previsione e alla prevenzione dei rischi, al soccorso e all’assistenza delle popolazioni colpite da calamità, al contrasto e al superamento dell’emergenza.</t>
         </is>
       </c>
     </row>
@@ -1034,14 +1034,10 @@
         <v>4000001</v>
       </c>
       <c r="C39" t="n">
-        <v>3000069</v>
+        <v>3000070</v>
       </c>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Il Dipartimento della protezione civile è una struttura della Presidenza del Consiglio dei Ministri. Il Dipartimento, operando in stretto raccordo con le Regioni e le Province autonome, si occupa di tutte le attività volte alla previsione e alla prevenzione dei rischi, al soccorso e all’assistenza delle popolazioni colpite da calamità, al contrasto e al superamento dell’emergenza.</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1051,10 +1047,15 @@
         <v>4000001</v>
       </c>
       <c r="C40" t="n">
-        <v>3000070</v>
+        <v>3000073</v>
       </c>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Il Consiglio di Stato è l’autorità competente per: a) assicurare la condotta, l’intervento e il coordinamento delle organizzazioni partner; b) assicurare l’istruzione e la formazione, anche degli organi di condotta locali; c) promuovere l’aiuto intercomunale, così come la cooperazione intercantonale e
+transfrontaliera; d) esercitare le altre funzioni attribuitegli dalla presente legge.</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1069,8 +1070,8 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Il Consiglio di Stato è l’autorità competente per: a) assicurare la condotta, l’intervento e il coordinamento delle organizzazioni partner; b) assicurare l’istruzione e la formazione, anche degli organi di condotta locali; c) promuovere l’aiuto intercomunale, così come la cooperazione intercantonale e
-transfrontaliera; d) esercitare le altre funzioni attribuitegli dalla presente legge.</t>
+          <t>I militi svizzeri sono reclutati dall’esercito e dalla protezione civile e di norma vengono assegnati al loro cantone di domicilio, oppure ad altri cantoni, se deciso dal cantone di domicilio, cui comunque spetta la scelta. I militi, oltre ad essere arruolati in maniera ordinaria, possono essere incorporati nel personale di riserva. Se un milite entra a far parte del personale di riserva non deve essere necessariamente formato e non ha diritto a prestare servizio di protezione civile.
+Una volta reclutati e addestrasti, i militi possono essere chiamati a prestare servizio dal consiglio federale o dal cantone cui sono assegnati. Il Consiglio federale e il cantone di assegnamento possono chiamare in servizio i militi di protezione civile in caso di catastrofi e situazioni d’emergenza che colpiscono uno o più Cantoni, oppure le zone limitrofe di Paesi confinanti, oppure in caso di conflitto armato. I militi possono inoltre essere mobilitati anche in assenza di emergenza per svolgere dei lavori di ripristino di pubblica utilità. In quest’ultimo caso però, esistono dei limiti al potere di convocazione esercitato dalle autorità sui militi .</t>
         </is>
       </c>
     </row>
@@ -1087,8 +1088,8 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>I militi svizzeri sono reclutati dall’esercito e dalla protezione civile e di norma vengono assegnati al loro cantone di domicilio, oppure ad altri cantoni, se deciso dal cantone di domicilio, cui comunque spetta la scelta. I militi, oltre ad essere arruolati in maniera ordinaria, possono essere incorporati nel personale di riserva. Se un milite entra a far parte del personale di riserva non deve essere necessariamente formato e non ha diritto a prestare servizio di protezione civile.
-Una volta reclutati e addestrasti, i militi possono essere chiamati a prestare servizio dal consiglio federale o dal cantone cui sono assegnati. Il Consiglio federale e il cantone di assegnamento possono chiamare in servizio i militi di protezione civile in caso di catastrofi e situazioni d’emergenza che colpiscono uno o più Cantoni, oppure le zone limitrofe di Paesi confinanti, oppure in caso di conflitto armato. I militi possono inoltre essere mobilitati anche in assenza di emergenza per svolgere dei lavori di ripristino di pubblica utilità. In quest’ultimo caso però, esistono dei limiti al potere di convocazione esercitato dalle autorità sui militi .</t>
+          <t>La legge cantonale del 26 febbraio 2007 è legge di maggior riferimento del Canton Ticino in materia di protezione della popolazione.
+Essa riprende alcuni argomenti già sanciti dalla legge federale LPPC del 2002, approfondisce la struttura e i compiti di alcuni organi di protezione della popolazione cantonali, quali gli organi di condotta, e descrive il concetto di stato di necessità a livello cantonale.</t>
         </is>
       </c>
     </row>
@@ -1105,8 +1106,7 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>La legge cantonale del 26 febbraio 2007 è legge di maggior riferimento del Canton Ticino in materia di protezione della popolazione.
-Essa riprende alcuni argomenti già sanciti dalla legge federale LPPC del 2002, approfondisce la struttura e i compiti di alcuni organi di protezione della popolazione cantonali, quali gli organi di condotta, e descrive il concetto di stato di necessità a livello cantonale.</t>
+          <t>E’ una struttura costituita a livello regionale nell’ambito del sistema integrato di lotta agli incendi boschivi; provvede al coordinamento di tutte le attività in materia.</t>
         </is>
       </c>
     </row>
@@ -1115,15 +1115,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4000001</v>
+        <v>4000002</v>
       </c>
       <c r="C44" t="n">
-        <v>3000077</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
+        <v>3000009</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Competenza della Protezione Civile</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>E’ una struttura costituita a livello regionale nell’ambito del sistema integrato di lotta agli incendi boschivi; provvede al coordinamento di tutte le attività in materia.</t>
+          <t>Centro di protezione civile attivato sul territorio colpito dall’emergenza per garantire la gestione coordinata degli interventi. Il centro deve essere collocato in area sicura rispetto alle diverse tipologie di rischio, in una struttura idonea dal punto di vista strutturale, funzionale e logistico. È strutturato in funzioni di supporto, secondo il metodo augustus, dove sono rappresentate tutte le amministrazioni, gli enti e i soggetti che concorrono alla gestione dell’emergenza. La catena classica di coordinamento, in un modello puramente teorico, prevede, dal livello locale a quallo nazionale l’attivazione dei seguenti centri gerarchicamente sovraordinati: coc - centro operativo comunale, com - centro operativo misto, ccs, - centro coordinamento soccorsi, dicomac - direzione comando e controllo.</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1139,7 @@
         <v>4000002</v>
       </c>
       <c r="C45" t="n">
-        <v>3000009</v>
+        <v>3000049</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1144,7 +1148,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Centro di protezione civile attivato sul territorio colpito dall’emergenza per garantire la gestione coordinata degli interventi. Il centro deve essere collocato in area sicura rispetto alle diverse tipologie di rischio, in una struttura idonea dal punto di vista strutturale, funzionale e logistico. È strutturato in funzioni di supporto, secondo il metodo augustus, dove sono rappresentate tutte le amministrazioni, gli enti e i soggetti che concorrono alla gestione dell’emergenza. La catena classica di coordinamento, in un modello puramente teorico, prevede, dal livello locale a quallo nazionale l’attivazione dei seguenti centri gerarchicamente sovraordinati: coc - centro operativo comunale, com - centro operativo misto, ccs, - centro coordinamento soccorsi, dicomac - direzione comando e controllo.</t>
+          <t>Oltre al Corpo nazionale dei vigili del fuoco, che opera quale componente fondamentale del Servizio nazionale della protezione civile, sono strutture operative nazionali: a) le Forze armate; b) le Forze di polizia; c) gli enti e istituti di ricerca di rilievo nazionale con finalità di protezione civile, anche organizzati come centri di competenza, l'Istituto nazionale di geofisica e vulcanologia e il Consiglio nazionale delle ricerche; d) le strutture del Servizio sanitario nazionale; e) il volontariato organizzato di protezione civile iscritto nell'elenco nazionale del volontariato di protezione civile, l'Associazione della Croce rossa italiana e il Corpo nazionale del soccorso alpino e speleologico; f) il Sistema nazionale per la protezione dell'ambiente; g) le strutture preposte alla gestione dei servizi meteorologici a livello nazionale.</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1160,7 @@
         <v>4000002</v>
       </c>
       <c r="C46" t="n">
-        <v>3000051</v>
+        <v>3000059</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1165,7 +1169,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Oltre al Corpo nazionale dei vigili del fuoco, che opera quale componente fondamentale del Servizio nazionale della protezione civile, sono strutture operative nazionali: a) le Forze armate; b) le Forze di polizia; c) gli enti e istituti di ricerca di rilievo nazionale con finalità di protezione civile, anche organizzati come centri di competenza, l'Istituto nazionale di geofisica e vulcanologia e il Consiglio nazionale delle ricerche; d) le strutture del Servizio sanitario nazionale; e) il volontariato organizzato di protezione civile iscritto nell'elenco nazionale del volontariato di protezione civile, l'Associazione della Croce rossa italiana e il Corpo nazionale del soccorso alpino e speleologico; f) il Sistema nazionale per la protezione dell'ambiente; g) le strutture preposte alla gestione dei servizi meteorologici a livello nazionale.</t>
+          <t>L’Organizzazione degli Stati maggiori di condotta (OSMC) è composta dai rappresentanti della Polizia cantonale, della Federazione cantonale ticinese corpi pompieri, della Federazione cantonale ticinese servizi autoambulanze, del Servizio della protezione civile cantonale, dei servizi tecnici e del Dipartimento delle istituzioni; ogni organizzazione designa il proprio rappresentante. A seconda delle necessità possono essere designati ulteriori responsabili per i servizi tecnici. L’OSMC è diretta dal rappresentante del Dipartimento.</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1181,7 @@
         <v>4000002</v>
       </c>
       <c r="C47" t="n">
-        <v>3000060</v>
+        <v>3000061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1186,7 +1190,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>L’Organizzazione degli Stati maggiori di condotta (OSMC) è composta dai rappresentanti della Polizia cantonale, della Federazione cantonale ticinese corpi pompieri, della Federazione cantonale ticinese servizi autoambulanze, del Servizio della protezione civile cantonale, dei servizi tecnici e del Dipartimento delle istituzioni; ogni organizzazione designa il proprio rappresentante. A seconda delle necessità possono essere designati ulteriori responsabili per i servizi tecnici. L’OSMC è diretta dal rappresentante del Dipartimento.</t>
+          <t>Lo SMCC è l’organo cantonale di condotta del Consiglio di Stato, che ne definisce la composizione, l’organizzazione e il funzionamento. Esso elabora le basi decisionali per il Consiglio di Stato, lo coadiuva nelle funzioni di direzione e coordinamento ed esegue le sue decisioni. Esso è competente quando le circostanze lo esigono, per predisporre e coordinare, in collaborazione con le autorità locali, le necessarie misure d’urgenza e di assistenza e condurne l’attuazione. La sua attivazione è decisa dal Comandante della Polizia cantonale; in caso di impedimento di questo e in successione, dal suo sostituto o dall’ufficiale di picchetto della Polizia cantonale.</t>
         </is>
       </c>
     </row>
@@ -1198,7 +1202,7 @@
         <v>4000002</v>
       </c>
       <c r="C48" t="n">
-        <v>3000062</v>
+        <v>3000064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1207,7 +1211,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Lo SMCC è l’organo cantonale di condotta del Consiglio di Stato, che ne definisce la composizione, l’organizzazione e il funzionamento. Esso elabora le basi decisionali per il Consiglio di Stato, lo coadiuva nelle funzioni di direzione e coordinamento ed esegue le sue decisioni. Esso è competente quando le circostanze lo esigono, per predisporre e coordinare, in collaborazione con le autorità locali, le necessarie misure d’urgenza e di assistenza e condurne l’attuazione. La sua attivazione è decisa dal Comandante della Polizia cantonale; in caso di impedimento di questo e in successione, dal suo sostituto o dall’ufficiale di picchetto della Polizia cantonale.</t>
+          <t>Lo SMRC è un organo di condotta che permette la coordinazione di più SMEPI attivi nella medesima regione. La costituzione di uno SMRC può essere ordinata o autorizzata dal Comandante dello SMCC. Esso è di norma condotto da un ufficiale della Polizia cantonale.</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1223,7 @@
         <v>4000002</v>
       </c>
       <c r="C49" t="n">
-        <v>3000065</v>
+        <v>3000066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1228,7 +1232,9 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Lo SMRC è un organo di condotta che permette la coordinazione di più SMEPI attivi nella medesima regione. La costituzione di uno SMRC può essere ordinata o autorizzata dal Comandante dello SMCC. Esso è di norma condotto da un ufficiale della Polizia cantonale.</t>
+          <t>Il servizio della protezione della popolazione si occupa prevalentemente dei preparativi per i casi di emergenza e di catastrofe.
+Assicura la collaborazione con i servizi delle Amministrazioni: federale, cantonale e comunali direttamente collegate con i temi trattati dal servizio e si occupa della coordinazione fra i partner del concetto “protezione della popolazione” (polizia cantonale, Federazione cantonale ticinese dei Corpi Pompieri, Federazione cantonale ticinese dei Servizi autoambulanze, organizzazioni regionali di protezione civile, servizi tecnici cantonali, servizi dello Stato Maggiore cantonale di catastrofe, ecc…).
+Per il tramite di esercitazioni teoriche e pratiche, approfondisce con le istanze militari, la collaborazione civile-militare.</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1246,7 @@
         <v>4000002</v>
       </c>
       <c r="C50" t="n">
-        <v>3000068</v>
+        <v>3000071</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1249,9 +1255,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Il servizio della protezione della popolazione si occupa prevalentemente dei preparativi per i casi di emergenza e di catastrofe.
-Assicura la collaborazione con i servizi delle Amministrazioni: federale, cantonale e comunali direttamente collegate con i temi trattati dal servizio e si occupa della coordinazione fra i partner del concetto “protezione della popolazione” (polizia cantonale, Federazione cantonale ticinese dei Corpi Pompieri, Federazione cantonale ticinese dei Servizi autoambulanze, organizzazioni regionali di protezione civile, servizi tecnici cantonali, servizi dello Stato Maggiore cantonale di catastrofe, ecc…).
-Per il tramite di esercitazioni teoriche e pratiche, approfondisce con le istanze militari, la collaborazione civile-militare.</t>
+          <t>Il decreto legislativo n. 1 del 2018, Codice della Protezioone Civile, include il volontariato organizzato di protezione civile iscritto nell'elenco nazionale del volontariato di protezione civile tra le strutture operative del Servizio nazionale. Il volontariato si integra con gli altri livelli territoriali di intervento previsti nell'organizzazione del sistema nazionale della protezione civile, in base al principio della sussidiarietà verticale. È inoltre attore del sistema e del proprio territorio: protegge la comunità in collaborazione con le istituzioni, in base al principio della sussidiarietà orizzontale.</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1276,8 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Il decreto legislativo n. 1 del 2018, Codice della Protezioone Civile, include il volontariato organizzato di protezione civile iscritto nell'elenco nazionale del volontariato di protezione civile tra le strutture operative del Servizio nazionale. Il volontariato si integra con gli altri livelli territoriali di intervento previsti nell'organizzazione del sistema nazionale della protezione civile, in base al principio della sussidiarietà verticale. È inoltre attore del sistema e del proprio territorio: protegge la comunità in collaborazione con le istituzioni, in base al principio della sussidiarietà orizzontale.</t>
+          <t>La legge LPPC 2002 stabilisce che possono prestare volontariamente servizio di protezione civile: a. gli uomini prosciolti dall’obbligo di prestare servizio nella protezione civile; b. gli uomini soggetti all’obbligo militare prosciolti dall’obbligo di prestare servizio militare o civile; c. gli uomini prosciolti dall’obbligo di prestare servizio militare o civile; d. le cittadine svizzere, a partire dall’anno in cui compiono i 20 anni; e. gli stranieri domiciliati in Svizzera, a partire dall’anno in cui compiono i 20 anni. Bisogna porre attenzione al fatto che secondo la stessa legge, l’unica differenza tra un milite e un volontario (entrambi di protezione civile) è il fatto che i volontari sono prosciolti dall’obbligo di prestare servizio su domanda. Infatti, per il resto, militi e volontari hanno gli stessi diritti e doveri. 
+I diritti dei militi sono essenzialmente quattro: soldo e vitto, alloggio, trasporto gratuiti, cui si aggiungono alcune agevolazioni fiscali e indennità.</t>
         </is>
       </c>
     </row>
@@ -1281,20 +1286,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4000002</v>
+        <v>4000019</v>
       </c>
       <c r="C52" t="n">
-        <v>3000073</v>
+        <v>3000019</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Competenza della Protezione Civile</t>
+          <t>Competenza di protezione civile</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>La legge LPPC 2002 stabilisce che possono prestare volontariamente servizio di protezione civile: a. gli uomini prosciolti dall’obbligo di prestare servizio nella protezione civile; b. gli uomini soggetti all’obbligo militare prosciolti dall’obbligo di prestare servizio militare o civile; c. gli uomini prosciolti dall’obbligo di prestare servizio militare o civile; d. le cittadine svizzere, a partire dall’anno in cui compiono i 20 anni; e. gli stranieri domiciliati in Svizzera, a partire dall’anno in cui compiono i 20 anni. Bisogna porre attenzione al fatto che secondo la stessa legge, l’unica differenza tra un milite e un volontario (entrambi di protezione civile) è il fatto che i volontari sono prosciolti dall’obbligo di prestare servizio su domanda. Infatti, per il resto, militi e volontari hanno gli stessi diritti e doveri. 
-I diritti dei militi sono essenzialmente quattro: soldo e vitto, alloggio, trasporto gratuiti, cui si aggiungono alcune agevolazioni fiscali e indennità.</t>
+          <t>Sono attivita' di prevenzione non strutturale di protezione civile quelle concernenti: a) l'allertamento del Servizio nazionale, articolato in attivita' di preannuncio in termini probabilistici, ove possibile e sulla base delle conoscenze disponibili, di monitoraggio e di sorveglianza in tempo reale degli eventi e della conseguente evoluzione degli scenari di rischio; b) la pianificazione di protezione civile, come disciplinata dall'articolo 18; c) la formazione e l'acquisizione di ulteriori competenze professionali degli operatori del Servizio nazionale; d) l'applicazione e l'aggiornamento della normativa tecnica di interesse; e) la diffusione della conoscenza e della cultura della protezione civile, anche con il coinvolgimento delle istituzioni scolastiche, allo scopo di promuovere la resilienza delle comunita' e l'adozione di comportamenti consapevoli e misure di autoprotezione da parte dei cittadini; f) l'informazione alla popolazione sugli scenari di rischio e le relative norme di comportamento nonche' sulla pianificazione di protezione civile; g) la promozione e l'organizzazione di esercitazioni ed altre attivita' addestrative e formative, anche con il coinvolgimento delle comunita', sul territorio nazionale al fine di promuovere l'esercizio integrato e partecipato della funzione di protezione civile; h) le attivita' di cui al presente comma svolte all'estero, in via bilaterale, o nel quadro della partecipazione dell'Italia all'Unione europea e ad organizzazioni internazionali, al fine di promuovere l'esercizio integrato e partecipato della funzione di protezione civile; i) le attivita' volte ad assicurare il raccordo tra la pianificazione di protezione civile e la pianificazione territoriale e le procedure amministrative di gestione del territorio per gli aspetti di competenza delle diverse componenti.</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1310,7 @@
         <v>4000019</v>
       </c>
       <c r="C53" t="n">
-        <v>3000019</v>
+        <v>3000020</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1315,7 +1319,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sono attivita' di prevenzione non strutturale di protezione civile quelle concernenti: a) l'allertamento del Servizio nazionale, articolato in attivita' di preannuncio in termini probabilistici, ove possibile e sulla base delle conoscenze disponibili, di monitoraggio e di sorveglianza in tempo reale degli eventi e della conseguente evoluzione degli scenari di rischio; b) la pianificazione di protezione civile, come disciplinata dall'articolo 18; c) la formazione e l'acquisizione di ulteriori competenze professionali degli operatori del Servizio nazionale; d) l'applicazione e l'aggiornamento della normativa tecnica di interesse; e) la diffusione della conoscenza e della cultura della protezione civile, anche con il coinvolgimento delle istituzioni scolastiche, allo scopo di promuovere la resilienza delle comunita' e l'adozione di comportamenti consapevoli e misure di autoprotezione da parte dei cittadini; f) l'informazione alla popolazione sugli scenari di rischio e le relative norme di comportamento nonche' sulla pianificazione di protezione civile; g) la promozione e l'organizzazione di esercitazioni ed altre attivita' addestrative e formative, anche con il coinvolgimento delle comunita', sul territorio nazionale al fine di promuovere l'esercizio integrato e partecipato della funzione di protezione civile; h) le attivita' di cui al presente comma svolte all'estero, in via bilaterale, o nel quadro della partecipazione dell'Italia all'Unione europea e ad organizzazioni internazionali, al fine di promuovere l'esercizio integrato e partecipato della funzione di protezione civile; i) le attivita' volte ad assicurare il raccordo tra la pianificazione di protezione civile e la pianificazione territoriale e le procedure amministrative di gestione del territorio per gli aspetti di competenza delle diverse componenti.</t>
+          <t>Sono attivita' di prevenzione strutturale di protezione civile quelle concernenti: a) la partecipazione all'elaborazione delle linee di indirizzo nazionali e regionali per la definizione delle politiche di prevenzione strutturale dei rischi naturali o derivanti dalle attivita' dell'uomo e per la loro attuazione; b) la partecipazione alla programmazione degli interventi finalizzati alla mitigazione dei rischi naturali o derivanti dall'attivita' dell'uomo e alla relativa attuazione; c) l'esecuzione di interventi strutturali di mitigazione del rischio in occasione di eventi calamitosi, in coerenza con gli strumenti di programmazione e pianificazione esistenti; d) le azioni integrate di prevenzione strutturale e non strutturale per finalita' di protezione civile di cui all'articolo 22.</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1331,7 @@
         <v>4000019</v>
       </c>
       <c r="C54" t="n">
-        <v>3000020</v>
+        <v>3000021</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1336,7 +1340,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sono attivita' di prevenzione strutturale di protezione civile quelle concernenti: a) la partecipazione all'elaborazione delle linee di indirizzo nazionali e regionali per la definizione delle politiche di prevenzione strutturale dei rischi naturali o derivanti dalle attivita' dell'uomo e per la loro attuazione; b) la partecipazione alla programmazione degli interventi finalizzati alla mitigazione dei rischi naturali o derivanti dall'attivita' dell'uomo e alla relativa attuazione; c) l'esecuzione di interventi strutturali di mitigazione del rischio in occasione di eventi calamitosi, in coerenza con gli strumenti di programmazione e pianificazione esistenti; d) le azioni integrate di prevenzione strutturale e non strutturale per finalita' di protezione civile di cui all'articolo 22.</t>
+          <t>Sono attivita' di protezione civile quelle volte alla previsione, prevenzione e mitigazione dei rischi, alla gestione delle emergenze e al loro superamento.</t>
         </is>
       </c>
     </row>
@@ -1348,7 +1352,7 @@
         <v>4000019</v>
       </c>
       <c r="C55" t="n">
-        <v>3000021</v>
+        <v>3000022</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1357,7 +1361,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Sono attivita' di protezione civile quelle volte alla previsione, prevenzione e mitigazione dei rischi, alla gestione delle emergenze e al loro superamento.</t>
+          <t>In coerenza con le tipologie dei rischi di cui all'articolo 16, la Commissione nazionale per la previsione e la prevenzione dei grandi rischi e' organo di consulenza tecnico-scientifica del Dipartimento della protezione civile.</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1373,7 @@
         <v>4000019</v>
       </c>
       <c r="C56" t="n">
-        <v>3000022</v>
+        <v>3000023</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1378,7 +1382,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>In coerenza con le tipologie dei rischi di cui all'articolo 16, la Commissione nazionale per la previsione e la prevenzione dei grandi rischi e' organo di consulenza tecnico-scientifica del Dipartimento della protezione civile.</t>
+          <t>L'Elenco nazionale del volontariato di protezione civile costituisce lo strumento operativo mediante il quale viene assicurata la partecipazione del volontariato organizzato alle attivita' di cui all'articolo 2, garantendone l'indirizzo unitario, nel rispetto delle peculiarita' dei territori, grazie a specifiche modalita' di registrazione. L'Elenco nazionale del volontariato di protezione civile e' costituito dall'insieme: a) degli elenchi territoriali del volontariato di protezione civile, istituiti presso le Regioni e le Province autonome di Trento e di Bolzano; b) dell'elenco centrale del volontariato di protezione civile, istituito presso il Dipartimento della protezione civile.</t>
         </is>
       </c>
     </row>
@@ -1390,7 +1394,7 @@
         <v>4000019</v>
       </c>
       <c r="C57" t="n">
-        <v>3000023</v>
+        <v>3000024</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1399,7 +1403,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>L'Elenco nazionale del volontariato di protezione civile costituisce lo strumento operativo mediante il quale viene assicurata la partecipazione del volontariato organizzato alle attivita' di cui all'articolo 2, garantendone l'indirizzo unitario, nel rispetto delle peculiarita' dei territori, grazie a specifiche modalita' di registrazione. L'Elenco nazionale del volontariato di protezione civile e' costituito dall'insieme: a) degli elenchi territoriali del volontariato di protezione civile, istituiti presso le Regioni e le Province autonome di Trento e di Bolzano; b) dell'elenco centrale del volontariato di protezione civile, istituito presso il Dipartimento della protezione civile.</t>
+          <t>Emergenze connesse con eventi calamitosi di origine naturale o derivanti dall'attivita' dell'uomo che possono essere fronteggiati mediante interventi attuabili, dai singoli enti e amministrazioni competenti in via ordinaria;</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1415,7 @@
         <v>4000019</v>
       </c>
       <c r="C58" t="n">
-        <v>3000024</v>
+        <v>3000026</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1420,7 +1424,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Emergenze connesse con eventi calamitosi di origine naturale o derivanti dall'attivita' dell'uomo che possono essere fronteggiati mediante interventi attuabili, dai singoli enti e amministrazioni competenti in via ordinaria;</t>
+          <t>Emergenze connesse con eventi calamitosi di origine naturale o derivanti dall'attivita' dell'uomo che per loro natura o estensione comportano l'intervento coordinato di piu' enti o amministrazioni, e debbono essere fronteggiati con mezzi e poteri straordinari da impiegare durante limitati e predefiniti periodi di tempo, disciplinati dalle Regioni e dalle Province autonome di Trento e di Bolzano nell'esercizio della rispettiva potesta' legislativa;</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1436,7 @@
         <v>4000019</v>
       </c>
       <c r="C59" t="n">
-        <v>3000025</v>
+        <v>3000027</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1441,7 +1445,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Emergenze connesse con eventi calamitosi di origine naturale o derivanti dall'attivita' dell'uomo che per loro natura o estensione comportano l'intervento coordinato di piu' enti o amministrazioni, e debbono essere fronteggiati con mezzi e poteri straordinari da impiegare durante limitati e predefiniti periodi di tempo, disciplinati dalle Regioni e dalle Province autonome di Trento e di Bolzano nell'esercizio della rispettiva potesta' legislativa;</t>
+          <t>Emergenze di rilievo nazionale connesse con eventi calamitosi di origine naturale o derivanti dall'attivita' dell'uomo che in ragione della loro intensita' o estensione debbono, con immediatezza d'intervento, essere fronteggiate con mezzi e poteri straordinari da impiegare durante limitati e predefiniti periodi di tempo ai sensi dell'articolo 24.</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1457,7 @@
         <v>4000019</v>
       </c>
       <c r="C60" t="n">
-        <v>3000027</v>
+        <v>3000029</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1462,7 +1466,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Emergenze di rilievo nazionale connesse con eventi calamitosi di origine naturale o derivanti dall'attivita' dell'uomo che in ragione della loro intensita' o estensione debbono, con immediatezza d'intervento, essere fronteggiate con mezzi e poteri straordinari da impiegare durante limitati e predefiniti periodi di tempo ai sensi dell'articolo 24.</t>
+          <t>La prevenzione consiste nell'insieme delle attivita' di natura strutturale e non strutturale, svolte anche in forma integrata, dirette a evitare o a ridurre la possibilita' che si verifichino danni conseguenti a eventi calamitosi anche sulla base delle conoscenze acquisite per effetto delle attivita'</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1478,7 @@
         <v>4000019</v>
       </c>
       <c r="C61" t="n">
-        <v>3000029</v>
+        <v>3000030</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1483,7 +1487,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>La prevenzione consiste nell'insieme delle attivita' di natura strutturale e non strutturale, svolte anche in forma integrata, dirette a evitare o a ridurre la possibilita' che si verifichino danni conseguenti a eventi calamitosi anche sulla base delle conoscenze acquisite per effetto delle attivita'</t>
+          <t>La previsione consiste nell'insieme delle attivita', svolte anche con il concorso di soggetti dotati di competenza scientifica, tecnica e amministrativa, dirette all'identificazione e allo studio, anche dinamico, degli scenari di rischio possibili, per le</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1499,7 @@
         <v>4000019</v>
       </c>
       <c r="C62" t="n">
-        <v>3000030</v>
+        <v>3000031</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1504,7 +1508,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>La previsione consiste nell'insieme delle attivita', svolte anche con il concorso di soggetti dotati di competenza scientifica, tecnica e amministrativa, dirette all'identificazione e allo studio, anche dinamico, degli scenari di rischio possibili, per le</t>
+          <t>Sindaci, sindaci metropolitani e presidenti delle regioni.</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1520,7 @@
         <v>4000019</v>
       </c>
       <c r="C63" t="n">
-        <v>3000031</v>
+        <v>3000039</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1525,7 +1529,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sindaci, sindaci metropolitani e presidenti delle regioni.</t>
+          <t>La CENAL, una divisione dell'Ufficio federale della protezione della popolazione (UFPP), è l'organo federale competente per gli eventi straordinari. Il compito principale della CENAL è quello di tracciare il quadro della situazione prioritaria per la protezione della popolazione. A tal fine, sia nella quotidianità che in caso d'evento scambia informazioni con le autorità competenti dei Cantoni, diversi uffici federali, i gestori delle reti di telecomunicazione, dell'energia e dei trasporti, organizzazioni internazionali e con i centri d'analisi della situazione dei Paesi limitrofi. In caso d'evento, funge da primo punto di contatto per i Cantoni in relazione a tutte le questioni inerenti alla protezione della popolazione. In caso di eventi maggiori, la CENAL informa lo stato maggiore federale Protezione della popolazione e l'assiste nel suo lavoro.</t>
         </is>
       </c>
     </row>
@@ -1545,27 +1549,6 @@
         </is>
       </c>
       <c r="E64" t="inlineStr">
-        <is>
-          <t>La CENAL, una divisione dell'Ufficio federale della protezione della popolazione (UFPP), è l'organo federale competente per gli eventi straordinari. Il compito principale della CENAL è quello di tracciare il quadro della situazione prioritaria per la protezione della popolazione. A tal fine, sia nella quotidianità che in caso d'evento scambia informazioni con le autorità competenti dei Cantoni, diversi uffici federali, i gestori delle reti di telecomunicazione, dell'energia e dei trasporti, organizzazioni internazionali e con i centri d'analisi della situazione dei Paesi limitrofi. In caso d'evento, funge da primo punto di contatto per i Cantoni in relazione a tutte le questioni inerenti alla protezione della popolazione. In caso di eventi maggiori, la CENAL informa lo stato maggiore federale Protezione della popolazione e l'assiste nel suo lavoro.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>4000019</v>
-      </c>
-      <c r="C65" t="n">
-        <v>3000041</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Competenza di protezione civile</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
         <is>
           <t>Nel caso in cui si delinea o si è verificato un evento di portata nazionale rilevante per la protezione della popolazione, lo SMFP assume i compiti seguenti (art. 4, cpv. 2 OSMFP):
 - assicura lo scambio di informazioni e il coordinamento con altri stati maggiori e organi della Confederazione e dei Cantoni, con i gestori di infrastrutture critiche e con i competenti organi all'estero;
@@ -1577,6 +1560,27 @@
         </is>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>4000019</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3000041</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Competenza di protezione civile</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>La protezione civile protegge la popolazione, assiste le persone in cerca di protezione, protegge i beni culturali, sostiene gli organi di condotta e le altre organizzazioni partner nonché svolge lavori di ripristino e di pubblica utilità. Essa è un’organizzazione civile che opera singolarmente o in maniera coordinata, come organizzazione partner, all'interno della struttura svizzera di di protezione della popolazione.</t>
+        </is>
+      </c>
+    </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
@@ -1594,7 +1598,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>La protezione civile protegge la popolazione, assiste le persone in cerca di protezione, protegge i beni culturali, sostiene gli organi di condotta e le altre organizzazioni partner nonché svolge lavori di ripristino e di pubblica utilità. Essa è un’organizzazione civile che opera singolarmente o in maniera coordinata, come organizzazione partner, all'interno della struttura svizzera di di protezione della popolazione.</t>
+          <t>Il Servizio nazionale della protezione civile, di seguito Servizio nazionale, definito di pubblica utilita', e' il sistema che esercita la funzione di protezione civile costituita dall'insieme delle competenze e delle attivita' volte a tutelare la vita, l'integrita' fisica, i beni, gli insediamenti, gli animali e l'ambiente dai danni o dal pericolo di danni derivanti da eventi calamitosi di origine naturale o derivanti dall'attivita' dell'uomo.</t>
         </is>
       </c>
     </row>
@@ -1614,27 +1618,6 @@
         </is>
       </c>
       <c r="E67" t="inlineStr">
-        <is>
-          <t>Il Servizio nazionale della protezione civile, di seguito Servizio nazionale, definito di pubblica utilita', e' il sistema che esercita la funzione di protezione civile costituita dall'insieme delle competenze e delle attivita' volte a tutelare la vita, l'integrita' fisica, i beni, gli insediamenti, gli animali e l'ambiente dai danni o dal pericolo di danni derivanti da eventi calamitosi di origine naturale o derivanti dall'attivita' dell'uomo.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>4000019</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3000044</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Competenza di protezione civile</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
         <is>
           <t>Il comando della protezione civile è l’organo che dirige la protezione civile, ed è generalmente costituito dal comandante della protezione civile e dai suoi sostituti. I suoi compiti fondamentali sono i seguenti:
 - condurre gli interventi
@@ -1645,6 +1628,27 @@
         </is>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>4000019</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3000044</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Competenza di protezione civile</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Si definiscono impianti di protezione i posti di comando, gli impianti d'apprestamento, i centri sanitari protetti e gli ospedali protetti. Essi vengono utilizzati soprattutto per garantire la condotta e l’operatività dei mezzi della protezione della popolazione.</t>
+        </is>
+      </c>
+    </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
@@ -1661,27 +1665,6 @@
         </is>
       </c>
       <c r="E69" t="inlineStr">
-        <is>
-          <t>Si definiscono impianti di protezione i posti di comando, gli impianti d'apprestamento, i centri sanitari protetti e gli ospedali protetti. Essi vengono utilizzati soprattutto per garantire la condotta e l’operatività dei mezzi della protezione della popolazione.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>4000019</v>
-      </c>
-      <c r="C70" t="n">
-        <v>3000046</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Competenza di protezione civile</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
         <is>
           <t>Per evento NBC s'intende l'emissione illecita di sostanze nucleari (atomiche e radiologiche, N), biologiche (B) o chimiche (C). L'emissione può essere accidentale (incidente) o intenzionale (atto criminale o terroristico). Si distinguono i seguenti settori:
 - settore N: emissione di radiazioni ionizzanti e radioattività;
@@ -1690,24 +1673,45 @@
         </is>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>4000019</v>
+      </c>
+      <c r="C70" t="n">
+        <v>3000052</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Competenza di protezione civile</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Indica l'insieme delle emergenze di tipo A, B e C così come definiti dall' Art. 7, comma 1 del DL 02/01/2018, n°1.</t>
+        </is>
+      </c>
+    </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4000019</v>
+        <v>4000025</v>
       </c>
       <c r="C71" t="n">
-        <v>3000054</v>
+        <v>3000025</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Competenza di protezione civile</t>
+          <t>Rischio CBRNNe</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Indica l'insieme delle emergenze di tipo A, B e C così come definiti dall' Art. 7, comma 1 del DL 02/01/2018, n°1.</t>
+          <t>Emergenza determinata dall'emissione illecita di sostanze biologiche, organismi patogeni (che causano malattie) o dei loro prodotti metabolici. L'emissione può essere accidentale (incidente) o intenzionale (atto criminale o terroristico).</t>
         </is>
       </c>
     </row>
@@ -1716,19 +1720,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4000026</v>
+        <v>4000033</v>
       </c>
       <c r="C72" t="n">
-        <v>3000026</v>
+        <v>3000033</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Rischio CBRNNe</t>
+          <t>Geologia e sismologia</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Emergenza determinata dall'emissione illecita di sostanze biologiche, organismi patogeni (che causano malattie) o dei loro prodotti metabolici. L'emissione può essere accidentale (incidente) o intenzionale (atto criminale o terroristico).</t>
+          <t>Può intendersi la stima – quantitativa o qualitativa – della tipologia, del volume (o dell’area) nonché della distribuzione delle frane esistenti o che potrebbero verificarsi all’interno di una ben determinata area. La suscettibilità potrebbe anche includere una descrizione della velocità e della intensità delle frane esistenti o potenziali.</t>
         </is>
       </c>
     </row>
@@ -1740,7 +1744,7 @@
         <v>4000033</v>
       </c>
       <c r="C73" t="n">
-        <v>3000033</v>
+        <v>3000046</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1749,7 +1753,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Può intendersi la stima – quantitativa o qualitativa – della tipologia, del volume (o dell’area) nonché della distribuzione delle frane esistenti o che potrebbero verificarsi all’interno di una ben determinata area. La suscettibilità potrebbe anche includere una descrizione della velocità e della intensità delle frane esistenti o potenziali.</t>
+          <t>La suscettibilità da frana è la probabilità che una frana avvenga in un territorio, sulla base delle condizioni locali. E’ una misura del grado in cui un territorio potrà essere interessato da frane, ossia una stima di “dove” le frane potranno accadere. La suscettibilità non considera la ricorrenza temporale, né la dimensione delle frane. In termini matematici, la suscettibilità da frana è comunemente espressa come la probabilità d’occorrenza spaziale di un dissesto, dato un insieme di condizioni territoriali e ambientali.</t>
         </is>
       </c>
     </row>
@@ -1758,19 +1762,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4000033</v>
+        <v>4000046</v>
       </c>
       <c r="C74" t="n">
-        <v>3000047</v>
+        <v>3000069</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Geologia e sismologia</t>
+          <t>Normativa</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>La suscettibilità da frana è la probabilità che una frana avvenga in un territorio, sulla base delle condizioni locali. E’ una misura del grado in cui un territorio potrà essere interessato da frane, ossia una stima di “dove” le frane potranno accadere. La suscettibilità non considera la ricorrenza temporale, né la dimensione delle frane. In termini matematici, la suscettibilità da frana è comunemente espressa come la probabilità d’occorrenza spaziale di un dissesto, dato un insieme di condizioni territoriali e ambientali.</t>
+          <t>La legge federale sulla protezione della popolazione e sulla protezione civile (LPPC) del 4 ottobre 2002 può essere considerata come la più importante legge dello stato svizzero in materia di protezione della protezione della popolazione, che costituisce quadro normativo di riferimento per altre leggi federali e cantonali in materia di protezione della popolazione. Essa disciplina principalmente due ambiti: - la collaborazione tra Confederazione e Cantoni nella protezione della popolazione. - il ruolo e i doveri degli organi e dei corpi della protezione della popolazione.</t>
         </is>
       </c>
     </row>
@@ -1782,16 +1786,16 @@
         <v>4000047</v>
       </c>
       <c r="C75" t="n">
-        <v>3000071</v>
+        <v>3000047</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Competenza di soccorso tecnico urgente; Competenza della Protezione Civile</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>La legge federale sulla protezione della popolazione e sulla protezione civile (LPPC) del 4 ottobre 2002 può essere considerata come la più importante legge dello stato svizzero in materia di protezione della protezione della popolazione, che costituisce quadro normativo di riferimento per altre leggi federali e cantonali in materia di protezione della popolazione. Essa disciplina principalmente due ambiti: - la collaborazione tra Confederazione e Cantoni nella protezione della popolazione. - il ruolo e i doveri degli organi e dei corpi della protezione della popolazione.</t>
+          <t>I pompieri sono responsabili di salvataggio e lotta contro i sinistri in generale, compresa la lotta antincendio e contro i sinistri ordinari. Intervengono anche in caso d’emissioni tossiche, fuoriuscite di carburanti e contaminazioni radioattive. Sono un mezzo di primo intervento.</t>
         </is>
       </c>
     </row>
@@ -1800,7 +1804,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4000048</v>
+        <v>4000047</v>
       </c>
       <c r="C76" t="n">
         <v>3000048</v>
@@ -1811,27 +1815,6 @@
         </is>
       </c>
       <c r="E76" t="inlineStr">
-        <is>
-          <t>I pompieri sono responsabili di salvataggio e lotta contro i sinistri in generale, compresa la lotta antincendio e contro i sinistri ordinari. Intervengono anche in caso d’emissioni tossiche, fuoriuscite di carburanti e contaminazioni radioattive. Sono un mezzo di primo intervento.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>4000048</v>
-      </c>
-      <c r="C77" t="n">
-        <v>3000049</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Competenza di soccorso tecnico urgente; Competenza della Protezione Civile</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
         <is>
           <t>In occasione degli eventi calamitosi, il Corpo nazionale dei vigili del fuoco opera gli interventi di soccorso tecnico indifferibili e urgenti: di ricerca e salvataggio delle persone e – ai fini della salvaguardia della pubblica incolumità – anche di messa in sicurezza dei luoghi, delle strutture e degli impianti.</t>
         </is>

--- a/static/saved_dataframes/tabelle_entita_e_relazionali/is_Ambito_riferimento_of.xlsx
+++ b/static/saved_dataframes/tabelle_entita_e_relazionali/is_Ambito_riferimento_of.xlsx
@@ -719,12 +719,12 @@
         <v>4000001</v>
       </c>
       <c r="C21" t="n">
-        <v>3000034</v>
+        <v>3000045</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>La SOREU dei Laghi è il riferimento per i territori di Como, Varese, Lecco e l'area del Legnanese.</t>
+          <t>Sono organizzazioni partner quelle che collaborano alla protezione della popolazione: Polizia, pompieri, servizi della sanità pubblica, servizi tecnici, protezione civile.</t>
         </is>
       </c>
     </row>
@@ -736,12 +736,13 @@
         <v>4000001</v>
       </c>
       <c r="C22" t="n">
-        <v>3000035</v>
+        <v>3000046</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Struttura operativa della protezione civile.</t>
+          <t>Gli organi di condotta vengono istituiti dalle autorità competenti per lo svolgimento dei seguenti compiti: a - informare la popolazione in merito ai pericoli che la minacciano come pure alle possibilità e alle misure di protezione esistenti; b - avvertire, dare l’allarme e impartire alla popolazione istruzioni sul comportamento; c - assicurare le attività di condotta; d - coordinare i preparativi e gli interventi delle 
+ organizzazioni partner; e - garantire, tempestivamente e in funzione della situazione, la disponibilità operativa e il rinforzo con personale e materiale della protezione della popolazione in vista di un conflitto armato.</t>
         </is>
       </c>
     </row>
@@ -753,12 +754,12 @@
         <v>4000001</v>
       </c>
       <c r="C23" t="n">
-        <v>3000036</v>
+        <v>3000047</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>team transfrontaliero di coordinamento costituito congiuntamente da personale qualificato, formato e attrezzato, della protezione civile lombarda e ticinese. Esso ha il compito, durante le emergenze nei territori di confine, di operare insieme sia per la valutazione dell’evento in corso e per i reciproci possibili riflessi sui rispettivi territori, sia quali “ufficiali di collegamento” per collegare le rispettive sale operative di ambo i lati del confine, consentendo una efficiente ed efficace relazione operativa. Il NUVRE viene introdotto dal progetto Gestisco 2018-2021.</t>
+          <t>Si ha stato di necessità quando, a seguito di catastrofi, conflitti armati o altre situazioni d’emergenza che comportano un pericolo imminente per lo Stato, le persone o le cose, non sia più possibile garantire con i mezzi ordinari l’attività amministrativa o i servizi d’interesse pubblico e la protezione e l’assistenza delle persone e delle cose a livello cantonale, regionale o locale.</t>
         </is>
       </c>
     </row>
@@ -770,12 +771,12 @@
         <v>4000001</v>
       </c>
       <c r="C24" t="n">
-        <v>3000037</v>
+        <v>3000049</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Le SOREU hanno valenza interprovinciale: gestiscono le chiamate di soccorso sanitario con l'invio dei mezzi più appropriati fino al completamento del soccorso e/o all'eventuale affidamento del paziente alle strutture ospedaliere più idonee. Le SOREU operano tramite le dotazioni tecnologiche assegnate da AREU che permettono loro una costante interconnessione con i Call Center NUE 112 di riferimento, con i mezzi di soccorso delle AAT della propria area di competenza e con i Call Center sanitari specialistici, in modo da ottimizzare i tempi di risposta e intervento.</t>
+          <t>Sono impianti di protezione: a - i posti di comando; b. gli impianti d’apprestamento; c - i centri sanitari protetti; d - gli ospedali protetti.</t>
         </is>
       </c>
     </row>
@@ -787,10 +788,301 @@
         <v>4000001</v>
       </c>
       <c r="C25" t="n">
-        <v>3000038</v>
+        <v>3000050</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
+        <is>
+          <t>Le Costruzioni di protezione si distinguono in rifugi e impianti di protezione. Sono edifici che vengono costruiti o utilizzati ai fini di protezione della popolazione.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4000001</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3000051</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>posto protetto di cui ogni abitante deve disporre e che sia raggiungibile in tempo utile dalla propria abitazione.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4000001</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3000052</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>milite impiegato, in funzione dell'evento o della situazione d'emergenza, per assistere persone in cerca di protezione (senzatetto, evacuati, ecc.) o aiutare i servizi della sanità pubblica (per es. in case per anziani). L'addetto all'assistenza deve disporre di buone competenze sociali e capacità organizzative.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4000001</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3000053</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>milite impiegato per prestare aiuto alla condotta in seno all'organo di condotta o a favore dei partner ed istruito in materia di analisi della situazione e telematica. L'assistente di stato maggiore deve essere polivalente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4000001</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3000055</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>milite impiegato soprattutto per assistere le organizzazioni
+partner nell'esecuzione dei lavori necessari per limitare o ripristinare i
+danni. Il pioniere deve presentare una corporatura robusta ed essere
+abile al lavoro manuale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4000001</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3000057</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Sistema di allertamento per eventi di tipo idrometeorologico.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4000001</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3000058</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Il segnale d'allarme acqua viene emesso esclusivamente nelle regioni minacciate a valle di impianti d'accumulazione. Le sirene emettono dodici suoni continui e gravi in sequenze di 20 secondi e a intervalli di 10 secondi. L’allarme acqua esorta la popolazione ad abbandonare immediatamente la regione minacciata.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4000001</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3000060</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Lo SMEPI coordina l’intervento dei primi enti mobilitati, di regola polizia, pompieri e servizi d’autoambulanza. Esso è condotto, di principio, dalla Polizia cantonale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4000001</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3000063</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Il Dipartimento della protezione civile è una struttura della Presidenza del Consiglio dei Ministri. Il Dipartimento, operando in stretto raccordo con le Regioni e le Province autonome, si occupa di tutte le attività volte alla previsione e alla prevenzione dei rischi, al soccorso e all’assistenza delle popolazioni colpite da calamità, al contrasto e al superamento dell’emergenza.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4000001</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3000064</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4000001</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3000068</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Il Consiglio di Stato è l’autorità competente per: a) assicurare la condotta, l’intervento e il coordinamento delle organizzazioni partner; b) assicurare l’istruzione e la formazione, anche degli organi di condotta locali; c) promuovere l’aiuto intercomunale, così come la cooperazione intercantonale e
+transfrontaliera; d) esercitare le altre funzioni attribuitegli dalla presente legge.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4000001</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3000069</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>I militi svizzeri sono reclutati dall’esercito e dalla protezione civile e di norma vengono assegnati al loro cantone di domicilio, oppure ad altri cantoni, se deciso dal cantone di domicilio, cui comunque spetta la scelta. I militi, oltre ad essere arruolati in maniera ordinaria, possono essere incorporati nel personale di riserva. Se un milite entra a far parte del personale di riserva non deve essere necessariamente formato e non ha diritto a prestare servizio di protezione civile.
+Una volta reclutati e addestrasti, i militi possono essere chiamati a prestare servizio dal consiglio federale o dal cantone cui sono assegnati. Il Consiglio federale e il cantone di assegnamento possono chiamare in servizio i militi di protezione civile in caso di catastrofi e situazioni d’emergenza che colpiscono uno o più Cantoni, oppure le zone limitrofe di Paesi confinanti, oppure in caso di conflitto armato. I militi possono inoltre essere mobilitati anche in assenza di emergenza per svolgere dei lavori di ripristino di pubblica utilità. In quest’ultimo caso però, esistono dei limiti al potere di convocazione esercitato dalle autorità sui militi .</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4000001</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3000070</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>La legge cantonale del 26 febbraio 2007 è legge di maggior riferimento del Canton Ticino in materia di protezione della popolazione.
+Essa riprende alcuni argomenti già sanciti dalla legge federale LPPC del 2002, approfondisce la struttura e i compiti di alcuni organi di protezione della popolazione cantonali, quali gli organi di condotta, e descrive il concetto di stato di necessità a livello cantonale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4000001</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3000071</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>team transfrontaliero di coordinamento costituito congiuntamente da personale qualificato, formato e attrezzato, della protezione civile lombarda e ticinese. Esso ha il compito, durante le emergenze nei territori di confine, di operare insieme sia per la valutazione dell’evento in corso e per i reciproci possibili riflessi sui rispettivi territori, sia quali “ufficiali di collegamento” per collegare le rispettive sale operative di ambo i lati del confine, consentendo una efficiente ed efficace relazione operativa. Il NUVRE viene introdotto dal progetto Gestisco 2018-2021.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4000001</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3000072</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Struttura operativa della protezione civile.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4000001</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3000073</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Le SOREU hanno valenza interprovinciale: gestiscono le chiamate di soccorso sanitario con l'invio dei mezzi più appropriati fino al completamento del soccorso e/o all'eventuale affidamento del paziente alle strutture ospedaliere più idonee. Le SOREU operano tramite le dotazioni tecnologiche assegnate da AREU che permettono loro una costante interconnessione con i Call Center NUE 112 di riferimento, con i mezzi di soccorso delle AAT della propria area di competenza e con i Call Center sanitari specialistici, in modo da ottimizzare i tempi di risposta e intervento.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4000001</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3000074</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>La SOREU dei Laghi è il riferimento per i territori di Como, Varese, Lecco e l'area del Legnanese.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4000001</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3000075</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>La Sezione è articolata in cinque servizi con distinte aree di competenza: il Servizio amministrativo, il Servizio degli affari militari e del comando di circondario, il Servizio della protezione civile, il Servizio costruzioni di protezione civile e il Servizio della protezione della popolazione. 
 Il servizio amministrativo centralizzato della sezione si occupa di fornire le prime informazioni all’utenza e di smistarle ai vari servizi di competenza. Altri compiti specifici sono la contabilità, la corrispondenza e il supporto logistico per tutta la sezione. 
@@ -801,298 +1093,6 @@
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>4000001</v>
-      </c>
-      <c r="C26" t="n">
-        <v>3000050</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Sono organizzazioni partner quelle che collaborano alla protezione della popolazione: Polizia, pompieri, servizi della sanità pubblica, servizi tecnici, protezione civile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>4000001</v>
-      </c>
-      <c r="C27" t="n">
-        <v>3000051</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Gli organi di condotta vengono istituiti dalle autorità competenti per lo svolgimento dei seguenti compiti: a - informare la popolazione in merito ai pericoli che la minacciano come pure alle possibilità e alle misure di protezione esistenti; b - avvertire, dare l’allarme e impartire alla popolazione istruzioni sul comportamento; c - assicurare le attività di condotta; d - coordinare i preparativi e gli interventi delle 
- organizzazioni partner; e - garantire, tempestivamente e in funzione della situazione, la disponibilità operativa e il rinforzo con personale e materiale della protezione della popolazione in vista di un conflitto armato.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>4000001</v>
-      </c>
-      <c r="C28" t="n">
-        <v>3000053</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Si ha stato di necessità quando, a seguito di catastrofi, conflitti armati o altre situazioni d’emergenza che comportano un pericolo imminente per lo Stato, le persone o le cose, non sia più possibile garantire con i mezzi ordinari l’attività amministrativa o i servizi d’interesse pubblico e la protezione e l’assistenza delle persone e delle cose a livello cantonale, regionale o locale.</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>4000001</v>
-      </c>
-      <c r="C29" t="n">
-        <v>3000054</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Sono impianti di protezione: a - i posti di comando; b. gli impianti d’apprestamento; c - i centri sanitari protetti; d - gli ospedali protetti.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>4000001</v>
-      </c>
-      <c r="C30" t="n">
-        <v>3000055</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Le Costruzioni di protezione si distinguono in rifugi e impianti di protezione. Sono edifici che vengono costruiti o utilizzati ai fini di protezione della popolazione.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>4000001</v>
-      </c>
-      <c r="C31" t="n">
-        <v>3000056</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>posto protetto di cui ogni abitante deve disporre e che sia raggiungibile in tempo utile dalla propria abitazione.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>4000001</v>
-      </c>
-      <c r="C32" t="n">
-        <v>3000057</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>milite impiegato, in funzione dell'evento o della situazione d'emergenza, per assistere persone in cerca di protezione (senzatetto, evacuati, ecc.) o aiutare i servizi della sanità pubblica (per es. in case per anziani). L'addetto all'assistenza deve disporre di buone competenze sociali e capacità organizzative.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>4000001</v>
-      </c>
-      <c r="C33" t="n">
-        <v>3000058</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>milite impiegato per prestare aiuto alla condotta in seno all'organo di condotta o a favore dei partner ed istruito in materia di analisi della situazione e telematica. L'assistente di stato maggiore deve essere polivalente.</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>4000001</v>
-      </c>
-      <c r="C34" t="n">
-        <v>3000060</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>milite impiegato soprattutto per assistere le organizzazioni
-partner nell'esecuzione dei lavori necessari per limitare o ripristinare i
-danni. Il pioniere deve presentare una corporatura robusta ed essere
-abile al lavoro manuale.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>4000001</v>
-      </c>
-      <c r="C35" t="n">
-        <v>3000062</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Sistema di allertamento per eventi di tipo idrometeorologico.</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>4000001</v>
-      </c>
-      <c r="C36" t="n">
-        <v>3000063</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Il segnale d'allarme acqua viene emesso esclusivamente nelle regioni minacciate a valle di impianti d'accumulazione. Le sirene emettono dodici suoni continui e gravi in sequenze di 20 secondi e a intervalli di 10 secondi. L’allarme acqua esorta la popolazione ad abbandonare immediatamente la regione minacciata.</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>4000001</v>
-      </c>
-      <c r="C37" t="n">
-        <v>3000065</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Lo SMEPI coordina l’intervento dei primi enti mobilitati, di regola polizia, pompieri e servizi d’autoambulanza. Esso è condotto, di principio, dalla Polizia cantonale.</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>4000001</v>
-      </c>
-      <c r="C38" t="n">
-        <v>3000068</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Il Dipartimento della protezione civile è una struttura della Presidenza del Consiglio dei Ministri. Il Dipartimento, operando in stretto raccordo con le Regioni e le Province autonome, si occupa di tutte le attività volte alla previsione e alla prevenzione dei rischi, al soccorso e all’assistenza delle popolazioni colpite da calamità, al contrasto e al superamento dell’emergenza.</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>4000001</v>
-      </c>
-      <c r="C39" t="n">
-        <v>3000070</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>4000001</v>
-      </c>
-      <c r="C40" t="n">
-        <v>3000073</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Il Consiglio di Stato è l’autorità competente per: a) assicurare la condotta, l’intervento e il coordinamento delle organizzazioni partner; b) assicurare l’istruzione e la formazione, anche degli organi di condotta locali; c) promuovere l’aiuto intercomunale, così come la cooperazione intercantonale e
-transfrontaliera; d) esercitare le altre funzioni attribuitegli dalla presente legge.</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>4000001</v>
-      </c>
-      <c r="C41" t="n">
-        <v>3000074</v>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>I militi svizzeri sono reclutati dall’esercito e dalla protezione civile e di norma vengono assegnati al loro cantone di domicilio, oppure ad altri cantoni, se deciso dal cantone di domicilio, cui comunque spetta la scelta. I militi, oltre ad essere arruolati in maniera ordinaria, possono essere incorporati nel personale di riserva. Se un milite entra a far parte del personale di riserva non deve essere necessariamente formato e non ha diritto a prestare servizio di protezione civile.
-Una volta reclutati e addestrasti, i militi possono essere chiamati a prestare servizio dal consiglio federale o dal cantone cui sono assegnati. Il Consiglio federale e il cantone di assegnamento possono chiamare in servizio i militi di protezione civile in caso di catastrofi e situazioni d’emergenza che colpiscono uno o più Cantoni, oppure le zone limitrofe di Paesi confinanti, oppure in caso di conflitto armato. I militi possono inoltre essere mobilitati anche in assenza di emergenza per svolgere dei lavori di ripristino di pubblica utilità. In quest’ultimo caso però, esistono dei limiti al potere di convocazione esercitato dalle autorità sui militi .</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>4000001</v>
-      </c>
-      <c r="C42" t="n">
-        <v>3000075</v>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>La legge cantonale del 26 febbraio 2007 è legge di maggior riferimento del Canton Ticino in materia di protezione della popolazione.
-Essa riprende alcuni argomenti già sanciti dalla legge federale LPPC del 2002, approfondisce la struttura e i compiti di alcuni organi di protezione della popolazione cantonali, quali gli organi di condotta, e descrive il concetto di stato di necessità a livello cantonale.</t>
-        </is>
-      </c>
-    </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
@@ -1139,7 +1139,7 @@
         <v>4000002</v>
       </c>
       <c r="C45" t="n">
-        <v>3000049</v>
+        <v>3000044</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
         <v>4000002</v>
       </c>
       <c r="C46" t="n">
-        <v>3000059</v>
+        <v>3000054</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>4000002</v>
       </c>
       <c r="C47" t="n">
-        <v>3000061</v>
+        <v>3000056</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>4000002</v>
       </c>
       <c r="C48" t="n">
-        <v>3000064</v>
+        <v>3000059</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>4000002</v>
       </c>
       <c r="C49" t="n">
-        <v>3000066</v>
+        <v>3000062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>4000002</v>
       </c>
       <c r="C50" t="n">
-        <v>3000071</v>
+        <v>3000066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>4000002</v>
       </c>
       <c r="C51" t="n">
-        <v>3000072</v>
+        <v>3000067</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>4000019</v>
       </c>
       <c r="C63" t="n">
-        <v>3000039</v>
+        <v>3000034</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>4000019</v>
       </c>
       <c r="C64" t="n">
-        <v>3000040</v>
+        <v>3000035</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>4000019</v>
       </c>
       <c r="C65" t="n">
-        <v>3000041</v>
+        <v>3000036</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>4000019</v>
       </c>
       <c r="C66" t="n">
-        <v>3000042</v>
+        <v>3000037</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>4000019</v>
       </c>
       <c r="C67" t="n">
-        <v>3000043</v>
+        <v>3000038</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>4000019</v>
       </c>
       <c r="C68" t="n">
-        <v>3000044</v>
+        <v>3000039</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>4000019</v>
       </c>
       <c r="C69" t="n">
-        <v>3000045</v>
+        <v>3000040</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>4000019</v>
       </c>
       <c r="C70" t="n">
-        <v>3000052</v>
+        <v>3000048</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>4000033</v>
       </c>
       <c r="C73" t="n">
-        <v>3000046</v>
+        <v>3000041</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1762,10 +1762,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4000046</v>
+        <v>4000041</v>
       </c>
       <c r="C74" t="n">
-        <v>3000069</v>
+        <v>3000061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1783,10 +1783,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4000047</v>
+        <v>4000042</v>
       </c>
       <c r="C75" t="n">
-        <v>3000047</v>
+        <v>3000042</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1804,10 +1804,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4000047</v>
+        <v>4000042</v>
       </c>
       <c r="C76" t="n">
-        <v>3000048</v>
+        <v>3000043</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
